--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61730EC3-7D06-4242-BC36-17BBCB520EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4961F5-6AE1-4E39-8E93-17B1EAC86054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods_Fourier" sheetId="1" r:id="rId1"/>
     <sheet name="Intermediate dimennion_Fourier" sheetId="2" r:id="rId2"/>
+    <sheet name="Compare Methods Gaussian" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="21">
   <si>
     <t>target_dim</t>
   </si>
@@ -79,18 +80,6 @@
     <t>Blue = Best across the three methods</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>memory</t>
   </si>
   <si>
@@ -107,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +142,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,13 +176,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -509,10 +513,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -558,7 +562,7 @@
         <v>6.3860321370784598</v>
       </c>
       <c r="E3">
-        <f>A3*($A$2^$B$2)</f>
+        <f t="shared" ref="E3:E10" si="0">A3*($A$2^$B$2)</f>
         <v>250000</v>
       </c>
       <c r="F3">
@@ -593,7 +597,7 @@
         <v>484</v>
       </c>
       <c r="P3">
-        <f>2*($A$2^($B$2/2))*O3^0.5+O3*K3</f>
+        <f t="shared" ref="P3:P10" si="1">2*($A$2^($B$2/2))*O3^0.5+O3*K3</f>
         <v>194700</v>
       </c>
     </row>
@@ -611,7 +615,7 @@
         <v>3.9082989687905498</v>
       </c>
       <c r="E4">
-        <f>A4*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
       <c r="F4">
@@ -627,7 +631,7 @@
         <v>3.18674689442929</v>
       </c>
       <c r="J4">
-        <f>2*$A$12^($B$12/2)*(F4^0.5)</f>
+        <f t="shared" ref="J4:J10" si="2">2*$A$12^($B$12/2)*(F4^0.5)</f>
         <v>900</v>
       </c>
       <c r="K4">
@@ -646,7 +650,7 @@
         <v>484</v>
       </c>
       <c r="P4">
-        <f>2*($A$2^($B$2/2))*O4^0.5+O4*K4</f>
+        <f t="shared" si="1"/>
         <v>157916</v>
       </c>
     </row>
@@ -664,7 +668,7 @@
         <v>3.8371648014365798</v>
       </c>
       <c r="E5">
-        <f>A5*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>160000</v>
       </c>
       <c r="F5">
@@ -680,7 +684,7 @@
         <v>3.8491576091097301</v>
       </c>
       <c r="J5">
-        <f>2*$A$12^($B$12/2)*(F5^0.5)</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="K5">
@@ -699,7 +703,7 @@
         <v>484</v>
       </c>
       <c r="P5">
-        <f>2*($A$2^($B$2/2))*O5^0.5+O5*K5</f>
+        <f t="shared" si="1"/>
         <v>125004</v>
       </c>
     </row>
@@ -717,7 +721,7 @@
         <v>3.0638758625775</v>
       </c>
       <c r="E6">
-        <f>A6*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>122500</v>
       </c>
       <c r="F6">
@@ -733,7 +737,7 @@
         <v>3.6528063245117601</v>
       </c>
       <c r="J6">
-        <f>2*$A$12^($B$12/2)*(F6^0.5)</f>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="K6">
@@ -752,7 +756,7 @@
         <v>484</v>
       </c>
       <c r="P6">
-        <f>2*($A$2^($B$2/2))*O6^0.5+O6*K6</f>
+        <f t="shared" si="1"/>
         <v>95964</v>
       </c>
     </row>
@@ -770,7 +774,7 @@
         <v>5.6184348095622303</v>
       </c>
       <c r="E7">
-        <f>A7*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="F7">
@@ -786,7 +790,7 @@
         <v>5.7051940653473103</v>
       </c>
       <c r="J7">
-        <f>2*$A$12^($B$12/2)*(F7^0.5)</f>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="K7">
@@ -805,7 +809,7 @@
         <v>484</v>
       </c>
       <c r="P7">
-        <f>2*($A$2^($B$2/2))*O7^0.5+O7*K7</f>
+        <f t="shared" si="1"/>
         <v>70796</v>
       </c>
     </row>
@@ -823,7 +827,7 @@
         <v>7.9518935654001899</v>
       </c>
       <c r="E8">
-        <f>A8*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>62500</v>
       </c>
       <c r="F8">
@@ -839,26 +843,26 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <f>2*$A$12^($B$12/2)*(F8^0.5)</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="K8">
         <v>100</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>89</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>292.202247191011</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>4.3659015049048602</v>
       </c>
       <c r="O8">
         <v>484</v>
       </c>
       <c r="P8">
-        <f>2*($A$2^($B$2/2))*O8^0.5+O8*K8</f>
+        <f t="shared" si="1"/>
         <v>49500</v>
       </c>
     </row>
@@ -876,7 +880,7 @@
         <v>8.8598023688213701</v>
       </c>
       <c r="E9">
-        <f>A9*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
       <c r="F9">
@@ -892,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f>2*$A$12^($B$12/2)*(F9^0.5)</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="K9">
@@ -901,17 +905,17 @@
       <c r="L9">
         <v>63</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>378.41269841269798</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>5.6900194785483702</v>
       </c>
       <c r="O9">
         <v>484</v>
       </c>
       <c r="P9">
-        <f>2*($A$2^($B$2/2))*O9^0.5+O9*K9</f>
+        <f t="shared" si="1"/>
         <v>32076</v>
       </c>
     </row>
@@ -929,7 +933,7 @@
         <v>10.6315332688391</v>
       </c>
       <c r="E10">
-        <f>A10*($A$2^$B$2)</f>
+        <f t="shared" si="0"/>
         <v>22500</v>
       </c>
       <c r="F10">
@@ -945,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f>2*$A$12^($B$12/2)*(F10^0.5)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="K10">
@@ -954,26 +958,26 @@
       <c r="L10">
         <v>11</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>572.72727272727195</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>6.8125549708916298</v>
       </c>
       <c r="O10">
         <v>484</v>
       </c>
       <c r="P10">
-        <f>2*($A$2^($B$2/2))*O10^0.5+O10*K10</f>
+        <f t="shared" si="1"/>
         <v>18524</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1004,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1019,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
@@ -1034,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -1054,7 +1058,7 @@
         <v>7.4143971461709501</v>
       </c>
       <c r="E14">
-        <f>A14*($A$12^$B$12)</f>
+        <f t="shared" ref="E14:E21" si="3">A14*($A$12^$B$12)</f>
         <v>250000</v>
       </c>
       <c r="F14">
@@ -1070,7 +1074,7 @@
         <v>2.9435725045669798</v>
       </c>
       <c r="J14">
-        <f>2*$A$12^($B$12/2)*(F14^0.5)</f>
+        <f t="shared" ref="J14:J21" si="4">2*$A$12^($B$12/2)*(F14^0.5)</f>
         <v>1000</v>
       </c>
       <c r="K14">
@@ -1089,7 +1093,7 @@
         <v>484</v>
       </c>
       <c r="P14">
-        <f>2*($A$12^($B$12/2))*O14^0.5+O14*K14</f>
+        <f t="shared" ref="P14:P21" si="5">2*($A$12^($B$12/2))*O14^0.5+O14*K14</f>
         <v>194700</v>
       </c>
     </row>
@@ -1107,7 +1111,7 @@
         <v>11.9153528581373</v>
       </c>
       <c r="E15">
-        <f>A15*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>202500</v>
       </c>
       <c r="F15">
@@ -1123,7 +1127,7 @@
         <v>5.3234517507101398</v>
       </c>
       <c r="J15">
-        <f>2*$A$12^($B$12/2)*(F15^0.5)</f>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="K15">
@@ -1142,7 +1146,7 @@
         <v>484</v>
       </c>
       <c r="P15">
-        <f>2*($A$12^($B$12/2))*O15^0.5+O15*K15</f>
+        <f t="shared" si="5"/>
         <v>157916</v>
       </c>
     </row>
@@ -1160,7 +1164,7 @@
         <v>11.3909248674754</v>
       </c>
       <c r="E16">
-        <f>A16*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
       <c r="F16">
@@ -1176,7 +1180,7 @@
         <v>7.9918313786726101</v>
       </c>
       <c r="J16">
-        <f>2*$A$12^($B$12/2)*(F16^0.5)</f>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="K16">
@@ -1195,7 +1199,7 @@
         <v>484</v>
       </c>
       <c r="P16">
-        <f>2*($A$12^($B$12/2))*O16^0.5+O16*K16</f>
+        <f t="shared" si="5"/>
         <v>125004</v>
       </c>
     </row>
@@ -1213,7 +1217,7 @@
         <v>16.350115195741299</v>
       </c>
       <c r="E17">
-        <f>A17*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>122500</v>
       </c>
       <c r="F17">
@@ -1229,7 +1233,7 @@
         <v>9.5027635986916703</v>
       </c>
       <c r="J17">
-        <f>2*$A$12^($B$12/2)*(F17^0.5)</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="K17">
@@ -1248,7 +1252,7 @@
         <v>484</v>
       </c>
       <c r="P17">
-        <f>2*($A$12^($B$12/2))*O17^0.5+O17*K17</f>
+        <f t="shared" si="5"/>
         <v>95964</v>
       </c>
     </row>
@@ -1266,7 +1270,7 @@
         <v>19.726655055462899</v>
       </c>
       <c r="E18">
-        <f>A18*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
       <c r="F18">
@@ -1282,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <f>2*$A$12^($B$12/2)*(F18^0.5)</f>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="K18">
@@ -1301,7 +1305,7 @@
         <v>484</v>
       </c>
       <c r="P18">
-        <f>2*($A$12^($B$12/2))*O18^0.5+O18*K18</f>
+        <f t="shared" si="5"/>
         <v>70796</v>
       </c>
     </row>
@@ -1319,7 +1323,7 @@
         <v>30.8094527522722</v>
       </c>
       <c r="E19">
-        <f>A19*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>62500</v>
       </c>
       <c r="F19">
@@ -1335,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="J19">
-        <f>2*$A$12^($B$12/2)*(F19^0.5)</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="K19">
@@ -1354,7 +1358,7 @@
         <v>484</v>
       </c>
       <c r="P19">
-        <f>2*($A$12^($B$12/2))*O19^0.5+O19*K19</f>
+        <f t="shared" si="5"/>
         <v>49500</v>
       </c>
     </row>
@@ -1372,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <f>A20*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
       <c r="F20">
@@ -1388,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <f>2*$A$12^($B$12/2)*(F20^0.5)</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="K20">
@@ -1407,7 +1411,7 @@
         <v>484</v>
       </c>
       <c r="P20">
-        <f>2*($A$12^($B$12/2))*O20^0.5+O20*K20</f>
+        <f t="shared" si="5"/>
         <v>32076</v>
       </c>
     </row>
@@ -1425,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <f>A21*($A$12^$B$12)</f>
+        <f t="shared" si="3"/>
         <v>22500</v>
       </c>
       <c r="F21">
@@ -1441,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <f>2*$A$12^($B$12/2)*(F21^0.5)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="K21">
@@ -1460,16 +1464,16 @@
         <v>484</v>
       </c>
       <c r="P21">
-        <f>2*($A$12^($B$12/2))*O21^0.5+O21*K21</f>
+        <f t="shared" si="5"/>
         <v>18524</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -1681,7 +1685,7 @@
       <c r="K27">
         <v>196</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>54</v>
       </c>
       <c r="M27" s="3">
@@ -1756,6 +1760,7 @@
     <sortCondition descending="1" ref="D1:D30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1763,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1855,7 +1860,7 @@
         <v>25</v>
       </c>
       <c r="H5">
-        <f>F5/E5</f>
+        <f t="shared" ref="H5:H12" si="0">F5/E5</f>
         <v>2.5488737551257617E-2</v>
       </c>
       <c r="I5">
@@ -1880,7 +1885,7 @@
         <v>25</v>
       </c>
       <c r="P5">
-        <f>N5/M5</f>
+        <f t="shared" ref="P5:P12" si="1">N5/M5</f>
         <v>2.4783582815207476E-2</v>
       </c>
     </row>
@@ -1907,7 +1912,7 @@
         <v>24</v>
       </c>
       <c r="H6">
-        <f>F6/E6</f>
+        <f t="shared" si="0"/>
         <v>2.4909372301908286E-2</v>
       </c>
       <c r="I6">
@@ -1932,7 +1937,7 @@
         <v>24</v>
       </c>
       <c r="P6">
-        <f>N6/M6</f>
+        <f t="shared" si="1"/>
         <v>3.9522807429741631E-2</v>
       </c>
     </row>
@@ -1959,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="H7">
-        <f>F7/E7</f>
+        <f t="shared" si="0"/>
         <v>3.7698618415020382E-2</v>
       </c>
       <c r="I7">
@@ -1984,7 +1989,7 @@
         <v>23</v>
       </c>
       <c r="P7">
-        <f>N7/M7</f>
+        <f t="shared" si="1"/>
         <v>3.4549789650785229E-2</v>
       </c>
     </row>
@@ -2011,7 +2016,7 @@
         <v>22</v>
       </c>
       <c r="H8">
-        <f>F8/E8</f>
+        <f t="shared" si="0"/>
         <v>3.5572384452370612E-2</v>
       </c>
       <c r="I8">
@@ -2036,7 +2041,7 @@
         <v>22</v>
       </c>
       <c r="P8">
-        <f>N8/M8</f>
+        <f t="shared" si="1"/>
         <v>3.6677438926270858E-2</v>
       </c>
     </row>
@@ -2063,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="H9">
-        <f>F9/E9</f>
+        <f t="shared" si="0"/>
         <v>4.5785255286716668E-2</v>
       </c>
       <c r="I9">
@@ -2088,7 +2093,7 @@
         <v>21</v>
       </c>
       <c r="P9">
-        <f>N9/M9</f>
+        <f t="shared" si="1"/>
         <v>4.6507916369975998E-2</v>
       </c>
     </row>
@@ -2115,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <f>F10/E10</f>
+        <f t="shared" si="0"/>
         <v>3.5094942338404857E-2</v>
       </c>
       <c r="I10">
@@ -2140,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="P10">
-        <f>N10/M10</f>
+        <f t="shared" si="1"/>
         <v>3.5942852749343043E-2</v>
       </c>
     </row>
@@ -2167,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="H11">
-        <f>F11/E11</f>
+        <f t="shared" si="0"/>
         <v>4.8553563063431095E-2</v>
       </c>
       <c r="I11">
@@ -2192,7 +2197,7 @@
         <v>19</v>
       </c>
       <c r="P11">
-        <f>N11/M11</f>
+        <f t="shared" si="1"/>
         <v>3.7154943083986779E-2</v>
       </c>
     </row>
@@ -2219,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="H12">
-        <f>F12/E12</f>
+        <f t="shared" si="0"/>
         <v>2.6217242561944572E-2</v>
       </c>
       <c r="I12">
@@ -2244,7 +2249,7 @@
         <v>18</v>
       </c>
       <c r="P12">
-        <f>N12/M12</f>
+        <f t="shared" si="1"/>
         <v>2.6843350075799247E-2</v>
       </c>
     </row>
@@ -2271,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <f>F14/E14</f>
+        <f t="shared" ref="H14:H21" si="2">F14/E14</f>
         <v>2.5170012552753571E-2</v>
       </c>
       <c r="I14">
@@ -2296,7 +2301,7 @@
         <v>25</v>
       </c>
       <c r="P14">
-        <f>N14/M14</f>
+        <f t="shared" ref="P14:P21" si="3">N14/M14</f>
         <v>2.5842965995349593E-2</v>
       </c>
     </row>
@@ -2323,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="H15">
-        <f>F15/E15</f>
+        <f t="shared" si="2"/>
         <v>3.6974263089036501E-2</v>
       </c>
       <c r="I15">
@@ -2348,7 +2353,7 @@
         <v>24</v>
       </c>
       <c r="P15">
-        <f>N15/M15</f>
+        <f t="shared" si="3"/>
         <v>3.6261558095310564E-2</v>
       </c>
     </row>
@@ -2375,7 +2380,7 @@
         <v>23</v>
       </c>
       <c r="H16">
-        <f>F16/E16</f>
+        <f t="shared" si="2"/>
         <v>3.4898946751803044E-2</v>
       </c>
       <c r="I16">
@@ -2400,7 +2405,7 @@
         <v>23</v>
       </c>
       <c r="P16">
-        <f>N16/M16</f>
+        <f t="shared" si="3"/>
         <v>3.6275268269884121E-2</v>
       </c>
     </row>
@@ -2427,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="H17">
-        <f>F17/E17</f>
+        <f t="shared" si="2"/>
         <v>3.5809339647820772E-2</v>
       </c>
       <c r="I17">
@@ -2452,7 +2457,7 @@
         <v>22</v>
       </c>
       <c r="P17">
-        <f>N17/M17</f>
+        <f t="shared" si="3"/>
         <v>4.1930240425496014E-2</v>
       </c>
     </row>
@@ -2479,7 +2484,7 @@
         <v>21</v>
       </c>
       <c r="H18">
-        <f>F18/E18</f>
+        <f t="shared" si="2"/>
         <v>3.4521717861256039E-2</v>
       </c>
       <c r="I18">
@@ -2504,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="P18">
-        <f>N18/M18</f>
+        <f t="shared" si="3"/>
         <v>3.4559869885742119E-2</v>
       </c>
     </row>
@@ -2531,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="H19">
-        <f>F19/E19</f>
+        <f t="shared" si="2"/>
         <v>3.6522969755409258E-2</v>
       </c>
       <c r="I19">
@@ -2556,7 +2561,7 @@
         <v>20</v>
       </c>
       <c r="P19">
-        <f>N19/M19</f>
+        <f t="shared" si="3"/>
         <v>4.4599194761197947E-2</v>
       </c>
     </row>
@@ -2583,7 +2588,7 @@
         <v>19</v>
       </c>
       <c r="H20">
-        <f>F20/E20</f>
+        <f t="shared" si="2"/>
         <v>4.7642581805471637E-2</v>
       </c>
       <c r="I20">
@@ -2608,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="P20">
-        <f>N20/M20</f>
+        <f t="shared" si="3"/>
         <v>3.9845885075851406E-2</v>
       </c>
     </row>
@@ -2635,7 +2640,7 @@
         <v>18</v>
       </c>
       <c r="H21">
-        <f>F21/E21</f>
+        <f t="shared" si="2"/>
         <v>2.5836421508725668E-2</v>
       </c>
       <c r="I21">
@@ -2660,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="P21">
-        <f>N21/M21</f>
+        <f t="shared" si="3"/>
         <v>2.8686840807745456E-2</v>
       </c>
     </row>
@@ -2687,7 +2692,7 @@
         <v>25</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H34" si="0">F23/E23</f>
+        <f t="shared" ref="H23:H34" si="4">F23/E23</f>
         <v>1.5044895630889637E-2</v>
       </c>
       <c r="I23">
@@ -2735,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5058258860398918E-2</v>
       </c>
       <c r="I24">
@@ -2783,7 +2788,7 @@
         <v>23</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.539571067140341E-2</v>
       </c>
       <c r="I25">
@@ -2831,7 +2836,7 @@
         <v>22</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.0852323757419307E-2</v>
       </c>
       <c r="I26">
@@ -2879,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.6372148839733605E-2</v>
       </c>
       <c r="I27">
@@ -2927,7 +2932,7 @@
         <v>20</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.0956397047259309E-2</v>
       </c>
       <c r="I28">
@@ -2975,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5429914853242655E-2</v>
       </c>
       <c r="I29">
@@ -3023,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5504947648455537E-2</v>
       </c>
       <c r="I30">
@@ -3071,7 +3076,7 @@
         <v>17</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.0539570101612193E-2</v>
       </c>
       <c r="I31">
@@ -3119,7 +3124,7 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.3021622436789336E-2</v>
       </c>
       <c r="I32">
@@ -3167,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2262660209082335E-2</v>
       </c>
       <c r="I33">
@@ -3215,7 +3220,7 @@
         <v>14</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4836281089372473E-2</v>
       </c>
       <c r="I34">
@@ -3238,6 +3243,1320 @@
       </c>
       <c r="O34">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.3671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3">
+        <v>110.58163265306101</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.8546867011761099</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E10" si="0">A3*($A$2^$B$2)</f>
+        <v>250000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <v>380.83157894736797</v>
+      </c>
+      <c r="I3">
+        <v>2.0544612052409201</v>
+      </c>
+      <c r="J3" s="6">
+        <f>2*$A$2^($B$2/2)*(F3^0.5)</f>
+        <v>1000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>400</v>
+      </c>
+      <c r="L3">
+        <v>89</v>
+      </c>
+      <c r="M3">
+        <v>374.13483146067398</v>
+      </c>
+      <c r="N3">
+        <v>6.1268879065938799</v>
+      </c>
+      <c r="O3" s="6">
+        <v>484</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P10" si="1">2*($A$2^($B$2/2))*O3^0.5+O3*K3</f>
+        <v>194700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
+        <v>324</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3">
+        <v>119.136842105263</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.9632940156483301</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>202500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>324</v>
+      </c>
+      <c r="G4">
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <v>441.78260869565202</v>
+      </c>
+      <c r="I4">
+        <v>2.4445383935437901</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J10" si="2">2*$A$12^($B$12/2)*(F4^0.5)</f>
+        <v>900</v>
+      </c>
+      <c r="K4" s="6">
+        <v>324</v>
+      </c>
+      <c r="L4">
+        <v>93</v>
+      </c>
+      <c r="M4">
+        <v>379.84946236559102</v>
+      </c>
+      <c r="N4">
+        <v>6.2385096347099598</v>
+      </c>
+      <c r="O4" s="6">
+        <v>484</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="1"/>
+        <v>157916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3">
+        <v>138.41935483870901</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.4419980320718899</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>256</v>
+      </c>
+      <c r="G5" s="2">
+        <v>68</v>
+      </c>
+      <c r="H5">
+        <v>626.79411764705799</v>
+      </c>
+      <c r="I5">
+        <v>3.4575302179573999</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="K5" s="6">
+        <v>256</v>
+      </c>
+      <c r="L5">
+        <v>93</v>
+      </c>
+      <c r="M5">
+        <v>433.30107526881699</v>
+      </c>
+      <c r="N5">
+        <v>5.1335751727143197</v>
+      </c>
+      <c r="O5" s="6">
+        <v>484</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="1"/>
+        <v>125004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6">
+        <v>196</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3">
+        <v>169.34444444444401</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.9495066853240099</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>122500</v>
+      </c>
+      <c r="F6" s="6">
+        <v>196</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>747.375</v>
+      </c>
+      <c r="I6">
+        <v>4.3219587609637502</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="K6" s="6">
+        <v>196</v>
+      </c>
+      <c r="L6">
+        <v>90</v>
+      </c>
+      <c r="M6">
+        <v>467.377777777777</v>
+      </c>
+      <c r="N6">
+        <v>5.2843664144269296</v>
+      </c>
+      <c r="O6" s="6">
+        <v>484</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="1"/>
+        <v>95964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <v>174.28048780487799</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.8715430223269398</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>144</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>769.66666666666595</v>
+      </c>
+      <c r="I7">
+        <v>26.9243548474516</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="K7" s="6">
+        <v>144</v>
+      </c>
+      <c r="L7" s="2">
+        <v>83</v>
+      </c>
+      <c r="M7">
+        <v>500.67469879518001</v>
+      </c>
+      <c r="N7">
+        <v>8.6417301534618893</v>
+      </c>
+      <c r="O7" s="6">
+        <v>484</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="1"/>
+        <v>70796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3">
+        <v>229.74193548387001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.68772584701617</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>62500</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>878.75</v>
+      </c>
+      <c r="I8">
+        <v>29.429256882984099</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="K8" s="6">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>78</v>
+      </c>
+      <c r="M8">
+        <v>505.961538461538</v>
+      </c>
+      <c r="N8">
+        <v>8.3372537100878592</v>
+      </c>
+      <c r="O8" s="6">
+        <v>484</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="1"/>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>313.98113207547101</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.1856703061680696</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="K9" s="6">
+        <v>64</v>
+      </c>
+      <c r="L9">
+        <v>52</v>
+      </c>
+      <c r="M9">
+        <v>600.01923076923003</v>
+      </c>
+      <c r="N9">
+        <v>9.7064424043592901</v>
+      </c>
+      <c r="O9" s="6">
+        <v>484</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="1"/>
+        <v>32076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>536.142857142857</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.0381301974079395</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="F10" s="6">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="K10" s="6">
+        <v>36</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>760.71428571428498</v>
+      </c>
+      <c r="N10">
+        <v>10.935299708641001</v>
+      </c>
+      <c r="O10" s="6">
+        <v>484</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="1"/>
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>124.3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.85339164216071</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ref="E14:E21" si="3">A14*($A$12^$B$12)</f>
+        <v>250000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>90</v>
+      </c>
+      <c r="H14">
+        <v>549.06666666666604</v>
+      </c>
+      <c r="I14">
+        <v>5.2053911682632199</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" ref="J14:J21" si="4">2*$A$12^($B$12/2)*(F14^0.5)</f>
+        <v>1000</v>
+      </c>
+      <c r="K14" s="6">
+        <v>400</v>
+      </c>
+      <c r="L14" s="2">
+        <v>82</v>
+      </c>
+      <c r="M14">
+        <v>628.93902439024396</v>
+      </c>
+      <c r="N14">
+        <v>14.868479649945099</v>
+      </c>
+      <c r="O14" s="6">
+        <v>484</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" ref="P14:P21" si="5">2*($A$12^($B$12/2))*O14^0.5+O14*K14</f>
+        <v>194700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6">
+        <v>324</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>146.86000000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.47634340781718</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="3"/>
+        <v>202500</v>
+      </c>
+      <c r="F15" s="6">
+        <v>324</v>
+      </c>
+      <c r="G15" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>685.09333333333302</v>
+      </c>
+      <c r="I15">
+        <v>6.2537294005105801</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="K15" s="6">
+        <v>324</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+      <c r="M15">
+        <v>660.27631578947296</v>
+      </c>
+      <c r="N15">
+        <v>16.467154584432901</v>
+      </c>
+      <c r="O15" s="6">
+        <v>484</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="5"/>
+        <v>157916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6">
+        <v>256</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3">
+        <v>175.97979797979701</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.5383902761633603</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>256</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>710.55172413793105</v>
+      </c>
+      <c r="I16">
+        <v>6.5286779032442004</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="K16" s="6">
+        <v>256</v>
+      </c>
+      <c r="L16">
+        <v>69</v>
+      </c>
+      <c r="M16">
+        <v>678.695652173913</v>
+      </c>
+      <c r="N16">
+        <v>16.783820765740799</v>
+      </c>
+      <c r="O16" s="6">
+        <v>484</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="5"/>
+        <v>125004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6">
+        <v>196</v>
+      </c>
+      <c r="B17">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3">
+        <v>251.65934065933999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.2561877728695698</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="3"/>
+        <v>122500</v>
+      </c>
+      <c r="F17" s="6">
+        <v>196</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>815.86666666666599</v>
+      </c>
+      <c r="I17">
+        <v>7.5022215827057703</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="K17" s="6">
+        <v>196</v>
+      </c>
+      <c r="L17">
+        <v>62</v>
+      </c>
+      <c r="M17">
+        <v>751.70967741935397</v>
+      </c>
+      <c r="N17">
+        <v>18.519741432110301</v>
+      </c>
+      <c r="O17" s="6">
+        <v>484</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="5"/>
+        <v>95964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6">
+        <v>144</v>
+      </c>
+      <c r="B18" s="2">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3">
+        <v>322.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10.5072399564737</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>144</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="K18" s="6">
+        <v>144</v>
+      </c>
+      <c r="L18">
+        <v>27</v>
+      </c>
+      <c r="M18">
+        <v>769.66666666666595</v>
+      </c>
+      <c r="N18">
+        <v>26.9243548474516</v>
+      </c>
+      <c r="O18" s="6">
+        <v>484</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="5"/>
+        <v>70796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>468.32432432432398</v>
+      </c>
+      <c r="D19" s="3">
+        <v>16.084964805509099</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="3"/>
+        <v>62500</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="K19" s="6">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>878.75</v>
+      </c>
+      <c r="N19">
+        <v>29.429256882984099</v>
+      </c>
+      <c r="O19" s="6">
+        <v>484</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="5"/>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>747</v>
+      </c>
+      <c r="D20" s="3">
+        <v>18.100088553503099</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>64</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K20" s="6">
+        <v>64</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6">
+        <v>484</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="5"/>
+        <v>32076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="6">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="3"/>
+        <v>22500</v>
+      </c>
+      <c r="F21" s="6">
+        <v>36</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="K21" s="6">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="6">
+        <v>484</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="5"/>
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6">
+        <v>400</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
+        <v>236.22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6.2763030083477496</v>
+      </c>
+      <c r="E24" s="6">
+        <f>A24*($A$23^$B$23)</f>
+        <v>250000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>400</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>958.66666666666595</v>
+      </c>
+      <c r="I24">
+        <v>9.52042091327408</v>
+      </c>
+      <c r="J24" s="6">
+        <f>2*$A$12^($B$12/2)*(F24^0.5)</f>
+        <v>1000</v>
+      </c>
+      <c r="K24" s="6">
+        <v>400</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1000</v>
+      </c>
+      <c r="O24" s="6">
+        <v>484</v>
+      </c>
+      <c r="P24" s="6">
+        <f>2*($A$23^($B$23/2))*O24^0.5+O24*K24</f>
+        <v>194700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6">
+        <v>324</v>
+      </c>
+      <c r="B25">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3">
+        <v>310.53535353535301</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8.2429289359486404</v>
+      </c>
+      <c r="E25" s="6">
+        <f>A25*($A$23^$B$23)</f>
+        <v>202500</v>
+      </c>
+      <c r="F25" s="6">
+        <v>324</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>947</v>
+      </c>
+      <c r="I25">
+        <v>9.3054642044007707</v>
+      </c>
+      <c r="J25" s="6">
+        <f>2*$A$12^($B$12/2)*(F25^0.5)</f>
+        <v>900</v>
+      </c>
+      <c r="K25" s="6">
+        <v>324</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>1000</v>
+      </c>
+      <c r="O25" s="6">
+        <v>484</v>
+      </c>
+      <c r="P25" s="6">
+        <f>2*($A$23^($B$23/2))*O25^0.5+O25*K25</f>
+        <v>157916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6">
+        <v>256</v>
+      </c>
+      <c r="B26">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3">
+        <v>482.71428571428498</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12.6151955557966</v>
+      </c>
+      <c r="E26" s="6">
+        <f>A26*($A$23^$B$23)</f>
+        <v>160000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>256</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="6">
+        <f>2*$A$12^($B$12/2)*(F26^0.5)</f>
+        <v>800</v>
+      </c>
+      <c r="K26" s="6">
+        <v>256</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="6">
+        <v>484</v>
+      </c>
+      <c r="P26" s="6">
+        <f>2*($A$23^($B$23/2))*O26^0.5+O26*K26</f>
+        <v>125004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6">
+        <v>196</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3">
+        <v>776.88571428571402</v>
+      </c>
+      <c r="D27" s="3">
+        <v>21.214092374486501</v>
+      </c>
+      <c r="E27" s="6">
+        <f>A27*($A$23^$B$23)</f>
+        <v>122500</v>
+      </c>
+      <c r="F27" s="6">
+        <v>196</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="6">
+        <f>2*$A$12^($B$12/2)*(F27^0.5)</f>
+        <v>700</v>
+      </c>
+      <c r="K27" s="6">
+        <v>196</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="6">
+        <v>484</v>
+      </c>
+      <c r="P27" s="6">
+        <f>2*($A$23^($B$23/2))*O27^0.5+O27*K27</f>
+        <v>95964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6">
+        <v>144</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <f>A28*($A$23^$B$23)</f>
+        <v>90000</v>
+      </c>
+      <c r="F28" s="6">
+        <v>144</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6">
+        <f>2*$A$12^($B$12/2)*(F28^0.5)</f>
+        <v>600</v>
+      </c>
+      <c r="K28" s="6">
+        <v>144</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="6">
+        <v>484</v>
+      </c>
+      <c r="P28" s="6">
+        <f>2*($A$23^($B$23/2))*O28^0.5+O28*K28</f>
+        <v>70796</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4961F5-6AE1-4E39-8E93-17B1EAC86054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F13EA7-CE64-4586-8000-B761A5242F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods_Fourier" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="23">
   <si>
     <t>target_dim</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Blue = Best across the three methods (with at least 90% success)</t>
+  </si>
+  <si>
+    <t>MODEWISE (2000 iterations)</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -511,7 +517,7 @@
     <col min="15" max="15" width="7.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -530,11 +536,14 @@
       <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -544,507 +553,650 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>400</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>93</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>443.44086021505302</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6.3860321370784598</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">A3*($A$2^$B$2)</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">A4*($A$2^$B$2)</f>
         <v>250000</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>400</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>96</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>379.34375</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>2.2226805265915202</v>
       </c>
-      <c r="J3">
-        <f>2*$A$2^($B$2/2)*(F3^0.5)</f>
-        <v>1000</v>
-      </c>
-      <c r="K3">
+      <c r="J4">
+        <f>2*$A$2^($B$2/2)*(F4^0.5)</f>
+        <v>1000</v>
+      </c>
+      <c r="K4">
         <v>400</v>
       </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3">
         <v>150.03</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N4" s="3">
         <v>2.5905192195810298</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>484</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P10" si="1">2*($A$2^($B$2/2))*O3^0.5+O3*K3</f>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="1">2*($A$2^($B$2/2))*O4^0.5+O4*K4</f>
         <v>194700</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="Q4">
+        <v>400</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>415.07</v>
+      </c>
+      <c r="T4">
+        <v>2.1721668616868501</v>
+      </c>
+      <c r="U4">
+        <f>2*$A$2^($B$2/2)*(Q4^0.5)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>324</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>74</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>213.39189189189099</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3.9082989687905498</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>202500</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>324</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>59</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>534.27118644067798</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>3.18674689442929</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J10" si="2">2*$A$12^($B$12/2)*(F4^0.5)</f>
+      <c r="J5">
+        <f t="shared" ref="J5:J11" si="2">2*$A$13^($B$13/2)*(F5^0.5)</f>
         <v>900</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>324</v>
       </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3">
         <v>160.88</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N5" s="3">
         <v>2.3127485809661401</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>484</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <f t="shared" si="1"/>
         <v>157916</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="Q5">
+        <v>324</v>
+      </c>
+      <c r="R5">
+        <v>83</v>
+      </c>
+      <c r="S5">
+        <v>778.31325301204799</v>
+      </c>
+      <c r="T5">
+        <v>4.4703398948333302</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U11" si="3">2*$A$13^($B$13/2)*(Q5^0.5)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>256</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>77</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>293.42857142857099</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>3.8371648014365798</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>256</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>665.58620689655095</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>3.8491576091097301</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>256</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>99</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="3">
         <v>173.56565656565601</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N6" s="3">
         <v>2.32309312934074</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>484</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <f t="shared" si="1"/>
         <v>125004</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="Q6">
+        <v>256</v>
+      </c>
+      <c r="R6">
+        <v>55</v>
+      </c>
+      <c r="S6">
+        <v>1065.5999999999999</v>
+      </c>
+      <c r="T6">
+        <v>6.0105570084669298</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
         <v>196</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>62</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>305.85483870967698</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>3.0638758625775</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>122500</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>196</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>647.5</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>3.6528063245117601</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>196</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>99</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="3">
         <v>194.61616161616101</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N7" s="3">
         <v>2.68646883326723</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>484</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>95964</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+      <c r="Q7">
+        <v>196</v>
+      </c>
+      <c r="R7">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>1225.38235294117</v>
+      </c>
+      <c r="T7">
+        <v>6.4788106249864397</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <v>144</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>548.55555555555497</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>5.6184348095622303</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>144</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>954</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>5.7051940653473103</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>144</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>98</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="3">
         <v>220.30612244897901</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="3">
         <v>3.5443058389296</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>484</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>70796</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
+      <c r="Q8">
+        <v>144</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>1441</v>
+      </c>
+      <c r="T8">
+        <v>7.66538161900825</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>564.91666666666595</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>7.9518935654001899</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2">
         <v>89</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="3">
         <v>292.202247191011</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N9" s="3">
         <v>4.3659015049048602</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>484</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <f t="shared" si="1"/>
         <v>49500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2000</v>
+      </c>
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>64</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>668.05555555555497</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>8.8598023688213701</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>64</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>64</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>63</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>378.41269841269798</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="3">
         <v>5.6900194785483702</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>484</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>32076</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+      <c r="Q10">
+        <v>64</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2000</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>772</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>10.6315332688391</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>36</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>36</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>11</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <v>572.72727272727195</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="3">
         <v>6.8125549708916298</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>484</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>18524</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="Q11">
+        <v>36</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>2000</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>400</v>
       </c>
@@ -1058,7 +1210,7 @@
         <v>7.4143971461709501</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E21" si="3">A14*($A$12^$B$12)</f>
+        <f t="shared" ref="E14:E21" si="4">A14*($A$13^$B$13)</f>
         <v>250000</v>
       </c>
       <c r="F14">
@@ -1074,7 +1226,7 @@
         <v>2.9435725045669798</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J21" si="4">2*$A$12^($B$12/2)*(F14^0.5)</f>
+        <f t="shared" ref="J14:J21" si="5">2*$A$13^($B$13/2)*(F14^0.5)</f>
         <v>1000</v>
       </c>
       <c r="K14">
@@ -1093,11 +1245,27 @@
         <v>484</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P21" si="5">2*($A$12^($B$12/2))*O14^0.5+O14*K14</f>
+        <f t="shared" ref="P14:P21" si="6">2*($A$13^($B$13/2))*O14^0.5+O14*K14</f>
         <v>194700</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q14">
+        <v>400</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>240.57</v>
+      </c>
+      <c r="T14">
+        <v>2.1413845207355902</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:U21" si="7">2*$A$13^($B$13/2)*(Q14^0.5)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>324</v>
       </c>
@@ -1111,7 +1279,7 @@
         <v>11.9153528581373</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>202500</v>
       </c>
       <c r="F15">
@@ -1127,7 +1295,7 @@
         <v>5.3234517507101398</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="K15">
@@ -1146,11 +1314,27 @@
         <v>484</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>157916</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q15">
+        <v>324</v>
+      </c>
+      <c r="R15">
+        <v>98</v>
+      </c>
+      <c r="S15">
+        <v>447.65306122448902</v>
+      </c>
+      <c r="T15">
+        <v>4.9761685716292297</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>256</v>
       </c>
@@ -1164,7 +1348,7 @@
         <v>11.3909248674754</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160000</v>
       </c>
       <c r="F16">
@@ -1176,11 +1360,11 @@
       <c r="H16">
         <v>656.78787878787796</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>7.9918313786726101</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="K16">
@@ -1192,18 +1376,34 @@
       <c r="M16" s="3">
         <v>230.04</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>10.931197593016501</v>
       </c>
       <c r="O16">
         <v>484</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125004</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q16">
+        <v>256</v>
+      </c>
+      <c r="R16">
+        <v>90</v>
+      </c>
+      <c r="S16">
+        <v>821.3</v>
+      </c>
+      <c r="T16">
+        <v>9.4095683453190606</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>196</v>
       </c>
@@ -1217,7 +1417,7 @@
         <v>16.350115195741299</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122500</v>
       </c>
       <c r="F17">
@@ -1229,11 +1429,11 @@
       <c r="H17">
         <v>787.8</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <v>9.5027635986916703</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="K17">
@@ -1245,18 +1445,34 @@
       <c r="M17" s="3">
         <v>281.43</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>12.4040584694873</v>
       </c>
       <c r="O17">
         <v>484</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95964</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q17">
+        <v>196</v>
+      </c>
+      <c r="R17" s="2">
+        <v>59</v>
+      </c>
+      <c r="S17">
+        <v>1351.54237288135</v>
+      </c>
+      <c r="T17">
+        <v>13.5340024641383</v>
+      </c>
+      <c r="U17">
+        <f>2*$A$13^($B$13/2)*(Q17^0.5)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>144</v>
       </c>
@@ -1270,7 +1486,7 @@
         <v>19.726655055462899</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90000</v>
       </c>
       <c r="F18">
@@ -1286,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="K18">
@@ -1305,11 +1521,27 @@
         <v>484</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70796</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q18">
+        <v>144</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>1837</v>
+      </c>
+      <c r="T18">
+        <v>16.089746191476699</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1323,7 +1555,7 @@
         <v>30.8094527522722</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62500</v>
       </c>
       <c r="F19">
@@ -1339,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="K19">
@@ -1358,11 +1590,27 @@
         <v>484</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49500</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2000</v>
+      </c>
+      <c r="T19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>64</v>
       </c>
@@ -1376,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
       <c r="F20">
@@ -1392,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="K20">
@@ -1411,11 +1659,27 @@
         <v>484</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32076</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q20">
+        <v>64</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2000</v>
+      </c>
+      <c r="T20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>36</v>
       </c>
@@ -1429,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22500</v>
       </c>
       <c r="F21">
@@ -1445,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="K21">
@@ -1464,11 +1728,27 @@
         <v>484</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18524</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q21">
+        <v>36</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>2000</v>
+      </c>
+      <c r="T21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1490,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>400</v>
       </c>
@@ -1520,7 +1800,7 @@
         <v>4.8472535904271101</v>
       </c>
       <c r="J24">
-        <f>2*$A$12^($B$12/2)*(F24^0.5)</f>
+        <f>2*$A$13^($B$13/2)*(F24^0.5)</f>
         <v>1000</v>
       </c>
       <c r="K24">
@@ -1542,8 +1822,24 @@
         <f>2*($A$23^($B$23/2))*O24^0.5+O24*K24</f>
         <v>194700</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24">
+        <v>400</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>425.37</v>
+      </c>
+      <c r="T24">
+        <v>4.6851612517982701</v>
+      </c>
+      <c r="U24">
+        <f>2*$A$13^($B$13/2)*(Q24^0.5)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>324</v>
       </c>
@@ -1573,7 +1869,7 @@
         <v>7.8682739890040096</v>
       </c>
       <c r="J25">
-        <f>2*$A$12^($B$12/2)*(F25^0.5)</f>
+        <f>2*$A$13^($B$13/2)*(F25^0.5)</f>
         <v>900</v>
       </c>
       <c r="K25">
@@ -1595,8 +1891,24 @@
         <f>2*($A$23^($B$23/2))*O25^0.5+O25*K25</f>
         <v>157916</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q25">
+        <v>324</v>
+      </c>
+      <c r="R25">
+        <v>99</v>
+      </c>
+      <c r="S25">
+        <v>840.07070707070704</v>
+      </c>
+      <c r="T25">
+        <v>8.7920408244950305</v>
+      </c>
+      <c r="U25">
+        <f>2*$A$13^($B$13/2)*(Q25^0.5)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>256</v>
       </c>
@@ -1626,7 +1938,7 @@
         <v>9.0818619863130099</v>
       </c>
       <c r="J26">
-        <f>2*$A$12^($B$12/2)*(F26^0.5)</f>
+        <f>2*$A$13^($B$13/2)*(F26^0.5)</f>
         <v>800</v>
       </c>
       <c r="K26">
@@ -1648,8 +1960,24 @@
         <f>2*($A$23^($B$23/2))*O26^0.5+O26*K26</f>
         <v>125004</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q26">
+        <v>256</v>
+      </c>
+      <c r="R26">
+        <v>52</v>
+      </c>
+      <c r="S26">
+        <v>1486.6730769230701</v>
+      </c>
+      <c r="T26">
+        <v>15.403918616437799</v>
+      </c>
+      <c r="U26">
+        <f>2*$A$13^($B$13/2)*(Q26^0.5)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>196</v>
       </c>
@@ -1679,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <f>2*$A$12^($B$12/2)*(F27^0.5)</f>
+        <f>2*$A$13^($B$13/2)*(F27^0.5)</f>
         <v>700</v>
       </c>
       <c r="K27">
@@ -1701,8 +2029,24 @@
         <f>2*($A$23^($B$23/2))*O27^0.5+O27*K27</f>
         <v>95964</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q27">
+        <v>196</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2000</v>
+      </c>
+      <c r="T27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <f>2*$A$13^($B$13/2)*(Q27^0.5)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>144</v>
       </c>
@@ -1732,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <f>2*$A$12^($B$12/2)*(F28^0.5)</f>
+        <f>2*$A$13^($B$13/2)*(F28^0.5)</f>
         <v>600</v>
       </c>
       <c r="K28">
@@ -1753,6 +2097,22 @@
       <c r="P28">
         <f>2*($A$23^($B$23/2))*O28^0.5+O28*K28</f>
         <v>70796</v>
+      </c>
+      <c r="Q28">
+        <v>144</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>2000</v>
+      </c>
+      <c r="T28" t="s">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <f>2*$A$13^($B$13/2)*(Q28^0.5)</f>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -3254,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4516,9 +4876,15 @@
       <c r="A28" s="6">
         <v>144</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="6">
         <f>A28*($A$23^$B$23)</f>
         <v>90000</v>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F13EA7-CE64-4586-8000-B761A5242F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A91AF1-B989-4B2C-8FDF-5E896B126DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compare Methods_Fourier" sheetId="1" r:id="rId1"/>
-    <sheet name="Intermediate dimennion_Fourier" sheetId="2" r:id="rId2"/>
-    <sheet name="Compare Methods Gaussian" sheetId="3" r:id="rId3"/>
+    <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
+    <sheet name="Intermediate Dimension Fourier" sheetId="2" r:id="rId2"/>
+    <sheet name="Intermediate  Dimension Gaussia" sheetId="4" r:id="rId3"/>
+    <sheet name="Compare Methods Gaussian" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="23">
   <si>
     <t>target_dim</t>
   </si>
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1963,7 +1964,7 @@
       <c r="Q26">
         <v>256</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="2">
         <v>52</v>
       </c>
       <c r="S26">
@@ -2128,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3611,11 +3612,1441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>324</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+      <c r="E5">
+        <v>504.04081632652998</v>
+      </c>
+      <c r="F5">
+        <v>14.1741002465465</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H12" si="0">F5/E5</f>
+        <v>2.8120937407109053E-2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>324</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>911.66666666666595</v>
+      </c>
+      <c r="N5">
+        <v>10.734656878747</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P12" si="1">N5/M5</f>
+        <v>1.1774760744512258E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>324</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>638.24175824175802</v>
+      </c>
+      <c r="F6">
+        <v>16.558242127503899</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.5943526749360457E-2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>324</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>949</v>
+      </c>
+      <c r="N6">
+        <v>11.0265430745979</v>
+      </c>
+      <c r="O6">
+        <v>24</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1.1619118097574183E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>324</v>
+      </c>
+      <c r="D7">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>579.41304347825997</v>
+      </c>
+      <c r="F7">
+        <v>13.7669356177034</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.3760141012807465E-2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>324</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>324</v>
+      </c>
+      <c r="D8">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>660.27631578947296</v>
+      </c>
+      <c r="F8">
+        <v>15.3927146670604</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.3312534917530374E-2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>324</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>324</v>
+      </c>
+      <c r="D9">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>657.77215189873402</v>
+      </c>
+      <c r="F9">
+        <v>16.7316406731128</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2.5436833445768445E-2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>324</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>324</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>754.5625</v>
+      </c>
+      <c r="F10">
+        <v>19.0523163560622</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.5249487426239971E-2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>324</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>324</v>
+      </c>
+      <c r="D11">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>699.536231884058</v>
+      </c>
+      <c r="F11">
+        <v>17.4278128011611</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.4913381190024775E-2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>324</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>324</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>782.450980392156</v>
+      </c>
+      <c r="F12">
+        <v>19.921412343816701</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.5460268876949077E-2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>324</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>196</v>
+      </c>
+      <c r="D14">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>576.12903225806394</v>
+      </c>
+      <c r="F14">
+        <v>9.7272720715852099</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="2">F14/E14</f>
+        <v>1.6883842901407715E-2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>196</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>196</v>
+      </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>611.50574712643595</v>
+      </c>
+      <c r="F15">
+        <v>10.284925529133799</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.6819016955219673E-2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>196</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>685.61249999999995</v>
+      </c>
+      <c r="F16">
+        <v>11.257134448061599</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.6419091612334371E-2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>196</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>196</v>
+      </c>
+      <c r="D17">
+        <v>62</v>
+      </c>
+      <c r="E17">
+        <v>751.70967741935397</v>
+      </c>
+      <c r="F17">
+        <v>12.833440818883901</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.7072336840123648E-2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>196</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>196</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>799.86</v>
+      </c>
+      <c r="F18">
+        <v>13.599890413842999</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.7002838514043706E-2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>196</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>66</v>
+      </c>
+      <c r="E19">
+        <v>716.74242424242402</v>
+      </c>
+      <c r="F19">
+        <v>11.9560979960034</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.6681164099698227E-2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>196</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>196</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>797.48148148148096</v>
+      </c>
+      <c r="F20">
+        <v>13.3469282149302</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.6736348774062586E-2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>196</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>196</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>765.42857142857099</v>
+      </c>
+      <c r="F21">
+        <v>13.2055366691201</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.725247418511399E-2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>196</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>675.24050632911303</v>
+      </c>
+      <c r="F23">
+        <v>7.5406454328589003</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H34" si="3">F23/E23</f>
+        <v>1.116734757790668E-2</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>144</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>144</v>
+      </c>
+      <c r="D24">
+        <v>53</v>
+      </c>
+      <c r="E24">
+        <v>722.54716981132003</v>
+      </c>
+      <c r="F24">
+        <v>8.0809531548183404</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1.1183980081090807E-2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>144</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>738</v>
+      </c>
+      <c r="F25">
+        <v>8.0623984594236706</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1.0924659159110665E-2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>144</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>144</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>769.66666666666595</v>
+      </c>
+      <c r="F26">
+        <v>8.6163116506542305</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1.1194861391062242E-2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>144</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>144</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>824</v>
+      </c>
+      <c r="F27">
+        <v>9.1603355044903907</v>
+      </c>
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1.1116912020012609E-2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>144</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>144</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>764.66666666666595</v>
+      </c>
+      <c r="F28">
+        <v>8.4268327609059295</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1.1020269521672978E-2</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>144</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>144</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>848.88235294117601</v>
+      </c>
+      <c r="F29">
+        <v>9.5110321539070597</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>1.1204181734905418E-2</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>144</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>144</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>803.38461538461502</v>
+      </c>
+      <c r="F30">
+        <v>9.1762488351131797</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1.1421987251672865E-2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>144</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>865.5</v>
+      </c>
+      <c r="F31">
+        <v>9.5867077382281405</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1.107649652019427E-2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>144</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>144</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>879.2</v>
+      </c>
+      <c r="F32">
+        <v>9.4752048533409798</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.0777075583872815E-2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>144</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>882</v>
+      </c>
+      <c r="F33">
+        <v>10.2596316275497</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>1.1632235405385147E-2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>144</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>144</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A91AF1-B989-4B2C-8FDF-5E896B126DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A1864-6C5F-4498-B748-28F35E7326F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="25">
   <si>
     <t>target_dim</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>MODEWISE (2000 iterations)</t>
+  </si>
+  <si>
+    <t>n=6,d=4</t>
+  </si>
+  <si>
+    <t>2000 iterations</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1007,10 +1013,10 @@
       <c r="L9" s="2">
         <v>89</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>292.202247191011</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="6">
         <v>4.3659015049048602</v>
       </c>
       <c r="O9">
@@ -1076,10 +1082,10 @@
       <c r="L10">
         <v>63</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>378.41269841269798</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="6">
         <v>5.6900194785483702</v>
       </c>
       <c r="O10">
@@ -1145,10 +1151,10 @@
       <c r="L11">
         <v>11</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>572.72727272727195</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="6">
         <v>6.8125549708916298</v>
       </c>
       <c r="O11">
@@ -1581,10 +1587,10 @@
       <c r="L19" s="2">
         <v>62</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="6">
         <v>577.91935483870895</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="6">
         <v>21.735716568065701</v>
       </c>
       <c r="O19">
@@ -1801,7 +1807,7 @@
         <v>4.8472535904271101</v>
       </c>
       <c r="J24">
-        <f>2*$A$13^($B$13/2)*(F24^0.5)</f>
+        <f>2*$A$23^($B$23/2)*(F24^0.5)</f>
         <v>1000</v>
       </c>
       <c r="K24">
@@ -1988,7 +1994,7 @@
       <c r="C27">
         <v>899.42857142857099</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>19.5886715331247</v>
       </c>
       <c r="E27">
@@ -2017,7 +2023,7 @@
       <c r="L27" s="2">
         <v>54</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="6">
         <v>810.11111111111097</v>
       </c>
       <c r="N27">
@@ -2114,6 +2120,932 @@
       <c r="U28">
         <f>2*$A$13^($B$13/2)*(Q28^0.5)</f>
         <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3">
+        <v>120.411111111111</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.50466864504334</v>
+      </c>
+      <c r="E31">
+        <f>A31*($A$30^$B$30)</f>
+        <v>518400</v>
+      </c>
+      <c r="F31">
+        <v>400</v>
+      </c>
+      <c r="G31" s="2">
+        <v>65</v>
+      </c>
+      <c r="H31">
+        <v>957.6</v>
+      </c>
+      <c r="I31">
+        <v>5.7432384449415403</v>
+      </c>
+      <c r="J31">
+        <f>2*$A$30^($B$30/2)*(F31^0.5)</f>
+        <v>1440</v>
+      </c>
+      <c r="K31">
+        <v>400</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>176.68</v>
+      </c>
+      <c r="N31">
+        <v>2.6840859666839201</v>
+      </c>
+      <c r="O31">
+        <v>900</v>
+      </c>
+      <c r="P31">
+        <f>2*($A$30^($B$30/2))*O31^0.5+O31*K31</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>324</v>
+      </c>
+      <c r="B32" s="2">
+        <v>86</v>
+      </c>
+      <c r="C32" s="6">
+        <v>137.790697674418</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.93500945680276</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E36" si="8">A32*($A$30^$B$30)</f>
+        <v>419904</v>
+      </c>
+      <c r="F32">
+        <v>324</v>
+      </c>
+      <c r="G32">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>1125.8918918918901</v>
+      </c>
+      <c r="I32">
+        <v>6.6984470096995699</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J36" si="9">2*$A$30^($B$30/2)*(F32^0.5)</f>
+        <v>1296</v>
+      </c>
+      <c r="K32" s="3">
+        <v>324</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>199.88</v>
+      </c>
+      <c r="N32">
+        <v>3.2790852206945398</v>
+      </c>
+      <c r="O32">
+        <v>900</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:P36" si="10">2*($A$30^($B$30/2))*O32^0.5+O32*K32</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>78</v>
+      </c>
+      <c r="C33" s="6">
+        <v>144.15384615384599</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.31173530829927</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>331776</v>
+      </c>
+      <c r="F33">
+        <v>256</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>1294.875</v>
+      </c>
+      <c r="I33">
+        <v>7.8045993552077499</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>1152</v>
+      </c>
+      <c r="K33" s="3">
+        <v>256</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>221.31</v>
+      </c>
+      <c r="N33">
+        <v>3.4087918824329901</v>
+      </c>
+      <c r="O33">
+        <v>900</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>196</v>
+      </c>
+      <c r="B34">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6">
+        <v>173.97468354430299</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2.3360346226328099</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>254016</v>
+      </c>
+      <c r="F34">
+        <v>196</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>1008</v>
+      </c>
+      <c r="K34" s="3">
+        <v>196</v>
+      </c>
+      <c r="L34" s="3">
+        <v>95</v>
+      </c>
+      <c r="M34">
+        <v>227.547368421052</v>
+      </c>
+      <c r="N34">
+        <v>4.0676950831554404</v>
+      </c>
+      <c r="O34">
+        <v>900</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="10"/>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>144</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6">
+        <v>236.945205479452</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.8761645994621099</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>186624</v>
+      </c>
+      <c r="F35">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>864</v>
+      </c>
+      <c r="K35">
+        <v>144</v>
+      </c>
+      <c r="L35" s="2">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>387.42666666666599</v>
+      </c>
+      <c r="N35">
+        <v>5.23439830444753</v>
+      </c>
+      <c r="O35">
+        <v>900</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="10"/>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+      <c r="C36" s="6">
+        <v>259.28813559321998</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3.1423712280594698</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>129600</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>67</v>
+      </c>
+      <c r="M36">
+        <v>377.26865671641701</v>
+      </c>
+      <c r="N36">
+        <v>6.2128244730185198</v>
+      </c>
+      <c r="O36">
+        <v>900</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="10"/>
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+      <c r="C39" s="6">
+        <v>158.45454545454501</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3.8026218774417999</v>
+      </c>
+      <c r="E39">
+        <f>A39*($A$38^$B$38)</f>
+        <v>518400</v>
+      </c>
+      <c r="F39">
+        <v>400</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+      <c r="H39">
+        <v>893.05555555555497</v>
+      </c>
+      <c r="I39">
+        <v>10.153325038051401</v>
+      </c>
+      <c r="J39">
+        <f>2*$A$38^($B$38/2)*(F39^0.5)</f>
+        <v>1440</v>
+      </c>
+      <c r="K39" s="3">
+        <v>400</v>
+      </c>
+      <c r="L39" s="3">
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <v>232.54</v>
+      </c>
+      <c r="N39">
+        <v>7.7691087292693499</v>
+      </c>
+      <c r="O39">
+        <v>900</v>
+      </c>
+      <c r="P39">
+        <f>2*($A$38^($B$38/2))*O39^0.5+O39*K39</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>324</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40" s="6">
+        <v>180.8</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4.2315462816692797</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E44" si="11">A40*($A$38^$B$38)</f>
+        <v>419904</v>
+      </c>
+      <c r="F40">
+        <v>324</v>
+      </c>
+      <c r="G40" s="2">
+        <v>76</v>
+      </c>
+      <c r="H40">
+        <v>1122.40789473684</v>
+      </c>
+      <c r="I40">
+        <v>12.877184936850201</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40:J44" si="12">2*$A$38^($B$38/2)*(F40^0.5)</f>
+        <v>1296</v>
+      </c>
+      <c r="K40" s="3">
+        <v>324</v>
+      </c>
+      <c r="L40" s="3">
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <v>253.83</v>
+      </c>
+      <c r="N40">
+        <v>6.8940734061039901</v>
+      </c>
+      <c r="O40">
+        <v>900</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P40:P44" si="13">2*($A$38^($B$38/2))*O40^0.5+O40*K40</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>256</v>
+      </c>
+      <c r="B41">
+        <v>92</v>
+      </c>
+      <c r="C41" s="6">
+        <v>242.923913043478</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5.56206136636193</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>331776</v>
+      </c>
+      <c r="F41">
+        <v>256</v>
+      </c>
+      <c r="G41">
+        <v>33</v>
+      </c>
+      <c r="H41">
+        <v>1354.84848484848</v>
+      </c>
+      <c r="I41">
+        <v>15.4059688007515</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="12"/>
+        <v>1152</v>
+      </c>
+      <c r="K41" s="3">
+        <v>256</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41">
+        <v>255.68</v>
+      </c>
+      <c r="N41">
+        <v>9.6857042475417199</v>
+      </c>
+      <c r="O41">
+        <v>900</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="13"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>196</v>
+      </c>
+      <c r="B42" s="2">
+        <v>81</v>
+      </c>
+      <c r="C42" s="6">
+        <v>313.37037037036998</v>
+      </c>
+      <c r="D42" s="6">
+        <v>8.37788393808367</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="11"/>
+        <v>254016</v>
+      </c>
+      <c r="F42">
+        <v>196</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>1594.5</v>
+      </c>
+      <c r="I42">
+        <v>16.963550502744798</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="12"/>
+        <v>1008</v>
+      </c>
+      <c r="K42" s="3">
+        <v>196</v>
+      </c>
+      <c r="L42" s="3">
+        <v>96</v>
+      </c>
+      <c r="M42">
+        <v>382.42708333333297</v>
+      </c>
+      <c r="N42">
+        <v>10.091345228894999</v>
+      </c>
+      <c r="O42">
+        <v>900</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="13"/>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>144</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6">
+        <v>462.82978723404199</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8.1487058860031798</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="11"/>
+        <v>186624</v>
+      </c>
+      <c r="F43">
+        <v>144</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>2000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="12"/>
+        <v>864</v>
+      </c>
+      <c r="K43">
+        <v>144</v>
+      </c>
+      <c r="L43" s="2">
+        <v>76</v>
+      </c>
+      <c r="M43">
+        <v>575.96052631578902</v>
+      </c>
+      <c r="N43">
+        <v>13.476492149951399</v>
+      </c>
+      <c r="O43">
+        <v>900</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="13"/>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6">
+        <v>554.75</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8.1269010384566993</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="11"/>
+        <v>129600</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="12"/>
+        <v>720</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>854.83333333333303</v>
+      </c>
+      <c r="N44">
+        <v>26.298811209698499</v>
+      </c>
+      <c r="O44">
+        <v>900</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="13"/>
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>400</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+      <c r="C47" s="3">
+        <v>319.08080808080803</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6.7333292544565397</v>
+      </c>
+      <c r="E47">
+        <f>A47*($A$46^$B$46)</f>
+        <v>518400</v>
+      </c>
+      <c r="F47">
+        <v>400</v>
+      </c>
+      <c r="G47">
+        <v>94</v>
+      </c>
+      <c r="H47">
+        <v>1029.6489361702099</v>
+      </c>
+      <c r="I47">
+        <v>12.9209752251453</v>
+      </c>
+      <c r="J47">
+        <f>2*$A$46^($B$46/2)*(F47^0.5)</f>
+        <v>1440</v>
+      </c>
+      <c r="K47">
+        <v>400</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>330.29</v>
+      </c>
+      <c r="N47">
+        <v>10.617008324135</v>
+      </c>
+      <c r="O47">
+        <v>900</v>
+      </c>
+      <c r="P47">
+        <f>2*($A$46^($B$46/2))*O47^0.5+O47*K47</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>324</v>
+      </c>
+      <c r="B48" s="2">
+        <v>86</v>
+      </c>
+      <c r="C48">
+        <v>491.90697674418601</v>
+      </c>
+      <c r="D48">
+        <v>10.3044943667861</v>
+      </c>
+      <c r="E48">
+        <f>A48*($A$46^$B$46)</f>
+        <v>419904</v>
+      </c>
+      <c r="F48">
+        <v>324</v>
+      </c>
+      <c r="G48" s="2">
+        <v>55</v>
+      </c>
+      <c r="H48">
+        <v>1501.8909090909001</v>
+      </c>
+      <c r="I48">
+        <v>18.188502082635001</v>
+      </c>
+      <c r="K48">
+        <v>324</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>449.03</v>
+      </c>
+      <c r="N48">
+        <v>14.047550980448699</v>
+      </c>
+      <c r="O48">
+        <v>900</v>
+      </c>
+      <c r="P48">
+        <f>2*($A$46^($B$46/2))*O48^0.5+O48*K48</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>737.79069767441797</v>
+      </c>
+      <c r="D49">
+        <v>17.494332540347099</v>
+      </c>
+      <c r="E49">
+        <f>A49*($A$46^$B$46)</f>
+        <v>331776</v>
+      </c>
+      <c r="F49">
+        <v>256</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>2000</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>256</v>
+      </c>
+      <c r="L49" s="2">
+        <v>70</v>
+      </c>
+      <c r="M49">
+        <v>716.44285714285695</v>
+      </c>
+      <c r="N49">
+        <v>20.833733064415199</v>
+      </c>
+      <c r="O49">
+        <v>900</v>
+      </c>
+      <c r="P49">
+        <f>2*($A$46^($B$46/2))*O49^0.5+O49*K49</f>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>196</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>826</v>
+      </c>
+      <c r="D50">
+        <v>15.8745832033455</v>
+      </c>
+      <c r="F50">
+        <v>196</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>2000</v>
+      </c>
+      <c r="K50">
+        <v>196</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>144</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>144</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>2000</v>
+      </c>
+      <c r="K51">
+        <v>144</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2127,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3604,6 +4536,254 @@
       </c>
       <c r="O34">
         <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>324</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="F37">
+        <v>2.5728285122849002</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H45" si="5">F37/E37</f>
+        <v>1.6773117623605845E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>324</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>200.89</v>
+      </c>
+      <c r="F38">
+        <v>3.3609220291860402</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>1.6730160929792626E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>324</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>253.83</v>
+      </c>
+      <c r="F39">
+        <v>4.1694528668001203</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>1.6426162655320962E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>283.74</v>
+      </c>
+      <c r="F40">
+        <v>4.5170697405561802</v>
+      </c>
+      <c r="G40">
+        <v>28</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>1.5919749561416015E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>324</v>
+      </c>
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <v>387.06060606060601</v>
+      </c>
+      <c r="F41">
+        <v>6.0508395056569499</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>1.5632796029646862E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>324</v>
+      </c>
+      <c r="D42">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>445.572916666666</v>
+      </c>
+      <c r="F42">
+        <v>7.7568242781562704</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>1.7408652967925261E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>324</v>
+      </c>
+      <c r="D43">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>659.36842105263099</v>
+      </c>
+      <c r="F43">
+        <v>15.236811378529501</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>2.3108190947642143E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>324</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>743.84375</v>
+      </c>
+      <c r="F44">
+        <v>16.998560443025699</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>2.2852326772962332E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>324</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>819.57142857142799</v>
+      </c>
+      <c r="F45">
+        <v>18.058909467448</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>2.2034576655418529E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +4796,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3732,7 +4912,7 @@
         <v>25</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P12" si="1">N5/M5</f>
+        <f t="shared" ref="P5:P6" si="1">N5/M5</f>
         <v>1.1774760744512258E-2</v>
       </c>
     </row>
@@ -5045,8 +6225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A1864-6C5F-4498-B748-28F35E7326F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB17FC4F-BE58-4C1C-8EA5-3AED200C78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="1" activeTab="3" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="25">
   <si>
     <t>target_dim</t>
   </si>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3061,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4793,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6216,6 +6216,348 @@
         <v>14</v>
       </c>
     </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>324</v>
+      </c>
+      <c r="D36">
+        <v>99</v>
+      </c>
+      <c r="E36">
+        <v>453.37373737373701</v>
+      </c>
+      <c r="F36">
+        <v>5.5435173231543899</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>324</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>802.4</v>
+      </c>
+      <c r="N36">
+        <v>10.469505332969099</v>
+      </c>
+      <c r="O36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>324</v>
+      </c>
+      <c r="D37">
+        <v>96</v>
+      </c>
+      <c r="E37">
+        <v>492.78125</v>
+      </c>
+      <c r="F37">
+        <v>6.1254859712013596</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>324</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>856.8</v>
+      </c>
+      <c r="N37">
+        <v>11.1516463756561</v>
+      </c>
+      <c r="O37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>324</v>
+      </c>
+      <c r="D38">
+        <v>94</v>
+      </c>
+      <c r="E38">
+        <v>440.43617021276498</v>
+      </c>
+      <c r="F38">
+        <v>5.6972276640144397</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>324</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>849.5</v>
+      </c>
+      <c r="N38">
+        <v>10.7306088277449</v>
+      </c>
+      <c r="O38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>324</v>
+      </c>
+      <c r="D39">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>581.23913043478206</v>
+      </c>
+      <c r="F39">
+        <v>7.2774065120914999</v>
+      </c>
+      <c r="G39">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>324</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>890.33333333333303</v>
+      </c>
+      <c r="N39">
+        <v>11.041315552468101</v>
+      </c>
+      <c r="O39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>78</v>
+      </c>
+      <c r="E40">
+        <v>643.41025641025601</v>
+      </c>
+      <c r="F40">
+        <v>7.9906903673918501</v>
+      </c>
+      <c r="G40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>324</v>
+      </c>
+      <c r="D41">
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <v>676.38596491227997</v>
+      </c>
+      <c r="F41">
+        <v>8.3869847985343906</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>324</v>
+      </c>
+      <c r="D42">
+        <v>43</v>
+      </c>
+      <c r="E42">
+        <v>734.20930232558101</v>
+      </c>
+      <c r="F42">
+        <v>8.9889257847829604</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>196</v>
+      </c>
+      <c r="D44">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>599.30232558139505</v>
+      </c>
+      <c r="F44">
+        <v>7.8197206880377399</v>
+      </c>
+      <c r="G44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>196</v>
+      </c>
+      <c r="D45">
+        <v>68</v>
+      </c>
+      <c r="E45">
+        <v>651.54411764705799</v>
+      </c>
+      <c r="F45">
+        <v>8.0567390948040902</v>
+      </c>
+      <c r="G45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>196</v>
+      </c>
+      <c r="D46">
+        <v>75</v>
+      </c>
+      <c r="E46">
+        <v>642.21333333333303</v>
+      </c>
+      <c r="F46">
+        <v>7.8792131146540196</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>196</v>
+      </c>
+      <c r="D47">
+        <v>61</v>
+      </c>
+      <c r="E47">
+        <v>749.27868852459005</v>
+      </c>
+      <c r="F47">
+        <v>9.5294976577956607</v>
+      </c>
+      <c r="G47">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6223,10 +6565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7536,6 +7878,769 @@
         <v>70796</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>120.411111111111</v>
+      </c>
+      <c r="D31">
+        <v>1.41502199626217</v>
+      </c>
+      <c r="F31">
+        <v>400</v>
+      </c>
+      <c r="G31">
+        <v>44</v>
+      </c>
+      <c r="H31">
+        <v>636.09090909090901</v>
+      </c>
+      <c r="I31">
+        <v>3.3033363930034301</v>
+      </c>
+      <c r="K31">
+        <v>400</v>
+      </c>
+      <c r="L31">
+        <v>95</v>
+      </c>
+      <c r="M31">
+        <v>370.87368421052599</v>
+      </c>
+      <c r="N31">
+        <v>4.1173275197807104</v>
+      </c>
+      <c r="O31" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>324</v>
+      </c>
+      <c r="B32">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>137.790697674418</v>
+      </c>
+      <c r="D32">
+        <v>1.6666493063446</v>
+      </c>
+      <c r="F32">
+        <v>324</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>798</v>
+      </c>
+      <c r="I32">
+        <v>4.3358778623863996</v>
+      </c>
+      <c r="K32">
+        <v>324</v>
+      </c>
+      <c r="L32">
+        <v>92</v>
+      </c>
+      <c r="M32">
+        <v>378.86956521739103</v>
+      </c>
+      <c r="N32">
+        <v>4.73503271990415</v>
+      </c>
+      <c r="O32" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>144.15384615384599</v>
+      </c>
+      <c r="D33">
+        <v>1.62269376440403</v>
+      </c>
+      <c r="F33">
+        <v>256</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>783.66666666666595</v>
+      </c>
+      <c r="I33">
+        <v>3.8407253157347401</v>
+      </c>
+      <c r="K33">
+        <v>256</v>
+      </c>
+      <c r="L33">
+        <v>91</v>
+      </c>
+      <c r="M33">
+        <v>375.74725274725199</v>
+      </c>
+      <c r="N33">
+        <v>4.1299512183682596</v>
+      </c>
+      <c r="O33" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>196</v>
+      </c>
+      <c r="B34">
+        <v>79</v>
+      </c>
+      <c r="C34">
+        <v>173.97468354430299</v>
+      </c>
+      <c r="D34">
+        <v>2.1283023782263002</v>
+      </c>
+      <c r="F34">
+        <v>196</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>670</v>
+      </c>
+      <c r="I34">
+        <v>3.81618786603212</v>
+      </c>
+      <c r="K34">
+        <v>196</v>
+      </c>
+      <c r="L34">
+        <v>89</v>
+      </c>
+      <c r="M34">
+        <v>409.157303370786</v>
+      </c>
+      <c r="N34">
+        <v>5.2855389469376401</v>
+      </c>
+      <c r="O34" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>144</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>236.945205479452</v>
+      </c>
+      <c r="D35">
+        <v>2.7704463652398799</v>
+      </c>
+      <c r="F35">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>144</v>
+      </c>
+      <c r="L35">
+        <v>80</v>
+      </c>
+      <c r="M35">
+        <v>487.41250000000002</v>
+      </c>
+      <c r="N35">
+        <v>4.2927428824826999</v>
+      </c>
+      <c r="O35" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>259.28813559321998</v>
+      </c>
+      <c r="D36">
+        <v>2.6011177912291301</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>65</v>
+      </c>
+      <c r="M36">
+        <v>482.692307692307</v>
+      </c>
+      <c r="N36">
+        <v>4.1621580509898699</v>
+      </c>
+      <c r="O36" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>158.45454545454501</v>
+      </c>
+      <c r="D39">
+        <v>3.3067367011587101</v>
+      </c>
+      <c r="F39">
+        <v>400</v>
+      </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <v>690.88095238095195</v>
+      </c>
+      <c r="I39">
+        <v>6.2360805477946997</v>
+      </c>
+      <c r="K39">
+        <v>400</v>
+      </c>
+      <c r="L39">
+        <v>97</v>
+      </c>
+      <c r="M39">
+        <v>458.67010309278299</v>
+      </c>
+      <c r="N39">
+        <v>9.8583558339856001</v>
+      </c>
+      <c r="O39">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>324</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>180.8</v>
+      </c>
+      <c r="D40">
+        <v>4.1316173460520798</v>
+      </c>
+      <c r="F40">
+        <v>324</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>807.625</v>
+      </c>
+      <c r="I40">
+        <v>7.5557219675974903</v>
+      </c>
+      <c r="K40">
+        <v>324</v>
+      </c>
+      <c r="L40">
+        <v>94</v>
+      </c>
+      <c r="M40">
+        <v>440.43617021276498</v>
+      </c>
+      <c r="N40">
+        <v>6.44793143456286</v>
+      </c>
+      <c r="O40">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>256</v>
+      </c>
+      <c r="B41">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>242.923913043478</v>
+      </c>
+      <c r="D41">
+        <v>4.5288103458714497</v>
+      </c>
+      <c r="F41">
+        <v>256</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>871</v>
+      </c>
+      <c r="I41">
+        <v>7.5709128820647704</v>
+      </c>
+      <c r="K41">
+        <v>256</v>
+      </c>
+      <c r="L41">
+        <v>95</v>
+      </c>
+      <c r="M41">
+        <v>554.91578947368396</v>
+      </c>
+      <c r="N41">
+        <v>7.2451699700598597</v>
+      </c>
+      <c r="O41">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>196</v>
+      </c>
+      <c r="B42">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>313.37037037036998</v>
+      </c>
+      <c r="D42">
+        <v>6.0408447853025002</v>
+      </c>
+      <c r="F42">
+        <v>196</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>905</v>
+      </c>
+      <c r="I42">
+        <v>7.64698338322341</v>
+      </c>
+      <c r="K42">
+        <v>196</v>
+      </c>
+      <c r="L42">
+        <v>75</v>
+      </c>
+      <c r="M42">
+        <v>642.21333333333303</v>
+      </c>
+      <c r="N42">
+        <v>13.0862792434543</v>
+      </c>
+      <c r="O42">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>144</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>462.82978723404199</v>
+      </c>
+      <c r="D43">
+        <v>8.9681135838890906</v>
+      </c>
+      <c r="F43">
+        <v>144</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>144</v>
+      </c>
+      <c r="L43">
+        <v>36</v>
+      </c>
+      <c r="M43">
+        <v>783.16666666666595</v>
+      </c>
+      <c r="N43">
+        <v>15.280131204985</v>
+      </c>
+      <c r="O43">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>554.75</v>
+      </c>
+      <c r="D44">
+        <v>10.861994806211399</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>704</v>
+      </c>
+      <c r="N44">
+        <v>16.732771497219801</v>
+      </c>
+      <c r="O44">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>400</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>319.08080808080803</v>
+      </c>
+      <c r="D47">
+        <v>7.2463591764069504</v>
+      </c>
+      <c r="F47">
+        <v>400</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>926</v>
+      </c>
+      <c r="I47">
+        <v>8.2509345281869102</v>
+      </c>
+      <c r="K47">
+        <v>400</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>857.68</v>
+      </c>
+      <c r="N47">
+        <v>18.567013813406199</v>
+      </c>
+      <c r="O47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>324</v>
+      </c>
+      <c r="B48">
+        <v>86</v>
+      </c>
+      <c r="C48">
+        <v>491.90697674418601</v>
+      </c>
+      <c r="D48">
+        <v>10.637192628476299</v>
+      </c>
+      <c r="F48">
+        <v>324</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1000</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>324</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>849.5</v>
+      </c>
+      <c r="N48">
+        <v>23.817820394722101</v>
+      </c>
+      <c r="O48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>737.79069767441797</v>
+      </c>
+      <c r="D49">
+        <v>15.571217465149401</v>
+      </c>
+      <c r="F49">
+        <v>256</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1000</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>256</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>196</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>826</v>
+      </c>
+      <c r="D50">
+        <v>38.438756352290497</v>
+      </c>
+      <c r="F50">
+        <v>196</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>196</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>144</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>144</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>144</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51" t="s">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB17FC4F-BE58-4C1C-8EA5-3AED200C78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5A874E-D8F3-4E4D-8DC2-C61500799F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="1" activeTab="3" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
@@ -6568,7 +6568,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7643,7 +7643,7 @@
         <v>9.52042091327408</v>
       </c>
       <c r="J24" s="6">
-        <f>2*$A$12^($B$12/2)*(F24^0.5)</f>
+        <f>2*$A$23^($B$23/2)*(F24^0.5)</f>
         <v>1000</v>
       </c>
       <c r="K24" s="6">
@@ -7696,7 +7696,7 @@
         <v>9.3054642044007707</v>
       </c>
       <c r="J25" s="6">
-        <f>2*$A$12^($B$12/2)*(F25^0.5)</f>
+        <f t="shared" ref="J25:J28" si="6">2*$A$23^($B$23/2)*(F25^0.5)</f>
         <v>900</v>
       </c>
       <c r="K25" s="6">
@@ -7749,7 +7749,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="6">
-        <f>2*$A$12^($B$12/2)*(F26^0.5)</f>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="K26" s="6">
@@ -7802,7 +7802,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="6">
-        <f>2*$A$12^($B$12/2)*(F27^0.5)</f>
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
       <c r="K27" s="6">
@@ -7855,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="6">
-        <f>2*$A$12^($B$12/2)*(F28^0.5)</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="K28" s="6">
@@ -7907,16 +7907,20 @@
       <c r="B31">
         <v>90</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>120.411111111111</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1.41502199626217</v>
+      </c>
+      <c r="E31" s="6">
+        <f>A31*($A$30^$B$30)</f>
+        <v>518400</v>
       </c>
       <c r="F31">
         <v>400</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>44</v>
       </c>
       <c r="H31">
@@ -7925,6 +7929,10 @@
       <c r="I31">
         <v>3.3033363930034301</v>
       </c>
+      <c r="J31" s="6">
+        <f>2*$A$30^($B$30/2)*(F31^0.5)</f>
+        <v>1440</v>
+      </c>
       <c r="K31">
         <v>400</v>
       </c>
@@ -7940,12 +7948,16 @@
       <c r="O31" s="6">
         <v>900</v>
       </c>
+      <c r="P31" s="6">
+        <f>2*($A$30^($B$30/2))*O31^0.5+O31*K31</f>
+        <v>362160</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>324</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>86</v>
       </c>
       <c r="C32">
@@ -7954,6 +7966,10 @@
       <c r="D32">
         <v>1.6666493063446</v>
       </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E36" si="7">A32*($A$30^$B$30)</f>
+        <v>419904</v>
+      </c>
       <c r="F32">
         <v>324</v>
       </c>
@@ -7966,13 +7982,17 @@
       <c r="I32">
         <v>4.3358778623863996</v>
       </c>
+      <c r="J32" s="6">
+        <f t="shared" ref="J32:J36" si="8">2*$A$30^($B$30/2)*(F32^0.5)</f>
+        <v>1296</v>
+      </c>
       <c r="K32">
         <v>324</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>92</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>378.86956521739103</v>
       </c>
       <c r="N32">
@@ -7981,8 +8001,12 @@
       <c r="O32" s="6">
         <v>900</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P32" s="6">
+        <f t="shared" ref="P32:P36" si="9">2*($A$30^($B$30/2))*O32^0.5+O32*K32</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>256</v>
       </c>
@@ -7995,6 +8019,10 @@
       <c r="D33">
         <v>1.62269376440403</v>
       </c>
+      <c r="E33" s="6">
+        <f t="shared" si="7"/>
+        <v>331776</v>
+      </c>
       <c r="F33">
         <v>256</v>
       </c>
@@ -8007,13 +8035,17 @@
       <c r="I33">
         <v>3.8407253157347401</v>
       </c>
+      <c r="J33" s="6">
+        <f t="shared" si="8"/>
+        <v>1152</v>
+      </c>
       <c r="K33">
         <v>256</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>91</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>375.74725274725199</v>
       </c>
       <c r="N33">
@@ -8022,8 +8054,12 @@
       <c r="O33" s="6">
         <v>900</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P33" s="6">
+        <f t="shared" si="9"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>196</v>
       </c>
@@ -8036,6 +8072,10 @@
       <c r="D34">
         <v>2.1283023782263002</v>
       </c>
+      <c r="E34" s="6">
+        <f t="shared" si="7"/>
+        <v>254016</v>
+      </c>
       <c r="F34">
         <v>196</v>
       </c>
@@ -8048,10 +8088,14 @@
       <c r="I34">
         <v>3.81618786603212</v>
       </c>
+      <c r="J34" s="6">
+        <f t="shared" si="8"/>
+        <v>1008</v>
+      </c>
       <c r="K34">
         <v>196</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <v>89</v>
       </c>
       <c r="M34">
@@ -8063,8 +8107,12 @@
       <c r="O34" s="6">
         <v>900</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P34" s="6">
+        <f t="shared" si="9"/>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>144</v>
       </c>
@@ -8077,6 +8125,10 @@
       <c r="D35">
         <v>2.7704463652398799</v>
       </c>
+      <c r="E35" s="6">
+        <f t="shared" si="7"/>
+        <v>186624</v>
+      </c>
       <c r="F35">
         <v>144</v>
       </c>
@@ -8089,6 +8141,10 @@
       <c r="I35" t="s">
         <v>5</v>
       </c>
+      <c r="J35" s="6">
+        <f t="shared" si="8"/>
+        <v>864</v>
+      </c>
       <c r="K35">
         <v>144</v>
       </c>
@@ -8104,8 +8160,12 @@
       <c r="O35" s="6">
         <v>900</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P35" s="6">
+        <f t="shared" si="9"/>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>100</v>
       </c>
@@ -8118,6 +8178,10 @@
       <c r="D36">
         <v>2.6011177912291301</v>
       </c>
+      <c r="E36" s="6">
+        <f t="shared" si="7"/>
+        <v>129600</v>
+      </c>
       <c r="F36">
         <v>100</v>
       </c>
@@ -8130,6 +8194,10 @@
       <c r="I36" t="s">
         <v>5</v>
       </c>
+      <c r="J36" s="6">
+        <f t="shared" si="8"/>
+        <v>720</v>
+      </c>
       <c r="K36">
         <v>100</v>
       </c>
@@ -8145,8 +8213,12 @@
       <c r="O36" s="6">
         <v>900</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P36" s="6">
+        <f t="shared" si="9"/>
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -8157,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>6</v>
       </c>
@@ -8168,23 +8240,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>400</v>
       </c>
       <c r="B39">
         <v>99</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>158.45454545454501</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>3.3067367011587101</v>
+      </c>
+      <c r="E39" s="6">
+        <f>A39*($A$38^$B$38)</f>
+        <v>518400</v>
       </c>
       <c r="F39">
         <v>400</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>42</v>
       </c>
       <c r="H39">
@@ -8193,6 +8269,10 @@
       <c r="I39">
         <v>6.2360805477946997</v>
       </c>
+      <c r="J39" s="6">
+        <f>2*$A$38^($B$38/2)*(F39^0.5)</f>
+        <v>1440</v>
+      </c>
       <c r="K39">
         <v>400</v>
       </c>
@@ -8208,19 +8288,27 @@
       <c r="O39">
         <v>900</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P39" s="6">
+        <f>2*($A$38^($B$38/2))*O39^0.5+O39*K39</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>324</v>
       </c>
       <c r="B40">
         <v>100</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>180.8</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>4.1316173460520798</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" ref="E40:E44" si="10">A40*($A$38^$B$38)</f>
+        <v>419904</v>
       </c>
       <c r="F40">
         <v>324</v>
@@ -8234,6 +8322,10 @@
       <c r="I40">
         <v>7.5557219675974903</v>
       </c>
+      <c r="J40" s="6">
+        <f t="shared" ref="J40:J44" si="11">2*$A$38^($B$38/2)*(F40^0.5)</f>
+        <v>1296</v>
+      </c>
       <c r="K40">
         <v>324</v>
       </c>
@@ -8249,19 +8341,27 @@
       <c r="O40">
         <v>900</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P40" s="6">
+        <f t="shared" ref="P40:P44" si="12">2*($A$38^($B$38/2))*O40^0.5+O40*K40</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>256</v>
       </c>
       <c r="B41">
         <v>92</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>242.923913043478</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>4.5288103458714497</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="10"/>
+        <v>331776</v>
       </c>
       <c r="F41">
         <v>256</v>
@@ -8275,6 +8375,10 @@
       <c r="I41">
         <v>7.5709128820647704</v>
       </c>
+      <c r="J41" s="6">
+        <f t="shared" si="11"/>
+        <v>1152</v>
+      </c>
       <c r="K41">
         <v>256</v>
       </c>
@@ -8290,12 +8394,16 @@
       <c r="O41">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P41" s="6">
+        <f t="shared" si="12"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>196</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>81</v>
       </c>
       <c r="C42">
@@ -8304,6 +8412,10 @@
       <c r="D42">
         <v>6.0408447853025002</v>
       </c>
+      <c r="E42" s="6">
+        <f t="shared" si="10"/>
+        <v>254016</v>
+      </c>
       <c r="F42">
         <v>196</v>
       </c>
@@ -8316,10 +8428,14 @@
       <c r="I42">
         <v>7.64698338322341</v>
       </c>
+      <c r="J42" s="6">
+        <f t="shared" si="11"/>
+        <v>1008</v>
+      </c>
       <c r="K42">
         <v>196</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <v>75</v>
       </c>
       <c r="M42">
@@ -8331,8 +8447,12 @@
       <c r="O42">
         <v>900</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P42" s="6">
+        <f t="shared" si="12"/>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>144</v>
       </c>
@@ -8345,6 +8465,10 @@
       <c r="D43">
         <v>8.9681135838890906</v>
       </c>
+      <c r="E43" s="6">
+        <f t="shared" si="10"/>
+        <v>186624</v>
+      </c>
       <c r="F43">
         <v>144</v>
       </c>
@@ -8357,6 +8481,10 @@
       <c r="I43" t="s">
         <v>5</v>
       </c>
+      <c r="J43" s="6">
+        <f t="shared" si="11"/>
+        <v>864</v>
+      </c>
       <c r="K43">
         <v>144</v>
       </c>
@@ -8372,8 +8500,12 @@
       <c r="O43">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P43" s="6">
+        <f t="shared" si="12"/>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>100</v>
       </c>
@@ -8386,6 +8518,10 @@
       <c r="D44">
         <v>10.861994806211399</v>
       </c>
+      <c r="E44" s="6">
+        <f t="shared" si="10"/>
+        <v>129600</v>
+      </c>
       <c r="F44">
         <v>100</v>
       </c>
@@ -8398,6 +8534,10 @@
       <c r="I44" t="s">
         <v>5</v>
       </c>
+      <c r="J44" s="6">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
       <c r="K44">
         <v>100</v>
       </c>
@@ -8413,8 +8553,12 @@
       <c r="O44">
         <v>900</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P44" s="6">
+        <f t="shared" si="12"/>
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -8425,7 +8569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>6</v>
       </c>
@@ -8436,23 +8580,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>400</v>
       </c>
       <c r="B47">
         <v>99</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>319.08080808080803</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>7.2463591764069504</v>
+      </c>
+      <c r="E47" s="6">
+        <f>A47*($A$46^$B$46)</f>
+        <v>518400</v>
       </c>
       <c r="F47">
         <v>400</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47">
@@ -8461,10 +8609,14 @@
       <c r="I47">
         <v>8.2509345281869102</v>
       </c>
+      <c r="J47" s="6">
+        <f>2*$A$46^($B$38/2)*(F47^0.5)</f>
+        <v>1440</v>
+      </c>
       <c r="K47">
         <v>400</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <v>25</v>
       </c>
       <c r="M47">
@@ -8476,12 +8628,16 @@
       <c r="O47">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P47" s="6">
+        <f>2*($A$46^($B$46/2))*O47^0.5+O47*K47</f>
+        <v>12394.36024140372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>324</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>86</v>
       </c>
       <c r="C48">
@@ -8490,6 +8646,10 @@
       <c r="D48">
         <v>10.637192628476299</v>
       </c>
+      <c r="E48" s="6">
+        <f t="shared" ref="E48:E51" si="13">A48*($A$46^$B$46)</f>
+        <v>419904</v>
+      </c>
       <c r="F48">
         <v>324</v>
       </c>
@@ -8501,6 +8661,10 @@
       </c>
       <c r="I48" t="s">
         <v>5</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" ref="J48:J51" si="14">2*$A$46^($B$38/2)*(F48^0.5)</f>
+        <v>1296</v>
       </c>
       <c r="K48">
         <v>324</v>
@@ -8517,8 +8681,12 @@
       <c r="O48">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P48" s="6">
+        <f t="shared" ref="P48:P51" si="15">2*($A$46^($B$46/2))*O48^0.5+O48*K48</f>
+        <v>10114.36024140372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>256</v>
       </c>
@@ -8531,6 +8699,10 @@
       <c r="D49">
         <v>15.571217465149401</v>
       </c>
+      <c r="E49" s="6">
+        <f t="shared" si="13"/>
+        <v>331776</v>
+      </c>
       <c r="F49">
         <v>256</v>
       </c>
@@ -8543,6 +8715,10 @@
       <c r="I49" t="s">
         <v>5</v>
       </c>
+      <c r="J49" s="6">
+        <f t="shared" si="14"/>
+        <v>1152</v>
+      </c>
       <c r="K49">
         <v>256</v>
       </c>
@@ -8558,8 +8734,12 @@
       <c r="O49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P49" s="6">
+        <f t="shared" si="15"/>
+        <v>8074.3602414037196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>196</v>
       </c>
@@ -8572,6 +8752,10 @@
       <c r="D50">
         <v>38.438756352290497</v>
       </c>
+      <c r="E50" s="6">
+        <f t="shared" si="13"/>
+        <v>254016</v>
+      </c>
       <c r="F50">
         <v>196</v>
       </c>
@@ -8584,6 +8768,10 @@
       <c r="I50" t="s">
         <v>5</v>
       </c>
+      <c r="J50" s="6">
+        <f t="shared" si="14"/>
+        <v>1008</v>
+      </c>
       <c r="K50">
         <v>196</v>
       </c>
@@ -8599,8 +8787,12 @@
       <c r="O50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P50" s="6">
+        <f t="shared" si="15"/>
+        <v>6274.3602414037196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>144</v>
       </c>
@@ -8613,6 +8805,10 @@
       <c r="D51" t="s">
         <v>5</v>
       </c>
+      <c r="E51" s="6">
+        <f t="shared" si="13"/>
+        <v>186624</v>
+      </c>
       <c r="F51">
         <v>144</v>
       </c>
@@ -8625,6 +8821,10 @@
       <c r="I51" t="s">
         <v>5</v>
       </c>
+      <c r="J51" s="6">
+        <f t="shared" si="14"/>
+        <v>864</v>
+      </c>
       <c r="K51">
         <v>144</v>
       </c>
@@ -8640,8 +8840,13 @@
       <c r="O51">
         <v>30</v>
       </c>
+      <c r="P51" s="6">
+        <f t="shared" si="15"/>
+        <v>4714.3602414037196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5A874E-D8F3-4E4D-8DC2-C61500799F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76909B7-AB3B-405E-A065-5CBE712A1AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="1" activeTab="3" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="27">
   <si>
     <t>target_dim</t>
   </si>
@@ -102,7 +102,13 @@
     <t>n=6,d=4</t>
   </si>
   <si>
-    <t>2000 iterations</t>
+    <t>(Modewise had 2000 iterations for &lt;400)</t>
+  </si>
+  <si>
+    <t>n=7,d=4</t>
+  </si>
+  <si>
+    <t>n=7, d=4</t>
   </si>
 </sst>
 </file>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2143,909 +2149,1962 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3">
-        <v>120.411111111111</v>
+        <v>86.08</v>
       </c>
       <c r="D31" s="3">
-        <v>1.50466864504334</v>
+        <v>1.44447165004909</v>
       </c>
       <c r="E31">
-        <f>A31*($A$30^$B$30)</f>
-        <v>518400</v>
+        <f t="shared" ref="E31:E35" si="8">A31*($A$30^$B$30)</f>
+        <v>1166400</v>
       </c>
       <c r="F31">
-        <v>400</v>
-      </c>
-      <c r="G31" s="2">
-        <v>65</v>
+        <v>900</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>957.6</v>
+        <v>164.91</v>
       </c>
       <c r="I31">
-        <v>5.7432384449415403</v>
+        <v>2.0718527117371499</v>
       </c>
       <c r="J31">
-        <f>2*$A$30^($B$30/2)*(F31^0.5)</f>
-        <v>1440</v>
+        <f t="shared" ref="J31:J35" si="9">2*$A$30^($B$30/2)*(F31^0.5)</f>
+        <v>2160</v>
       </c>
       <c r="K31">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L31">
         <v>100</v>
       </c>
       <c r="M31">
-        <v>176.68</v>
+        <v>164.91</v>
       </c>
       <c r="N31">
-        <v>2.6840859666839201</v>
+        <v>4.1412664429470896</v>
       </c>
       <c r="O31">
         <v>900</v>
       </c>
       <c r="P31">
-        <f>2*($A$30^($B$30/2))*O31^0.5+O31*K31</f>
-        <v>362160</v>
+        <f t="shared" ref="P31:P35" si="10">2*($A$30^($B$30/2))*O31^0.5+O31*K31</f>
+        <v>812160</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>324</v>
-      </c>
-      <c r="B32" s="2">
-        <v>86</v>
-      </c>
-      <c r="C32" s="6">
-        <v>137.790697674418</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1.93500945680276</v>
+        <v>784</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3">
+        <v>103.02</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.6130602550879101</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E36" si="8">A32*($A$30^$B$30)</f>
-        <v>419904</v>
+        <f t="shared" si="8"/>
+        <v>1016064</v>
       </c>
       <c r="F32">
-        <v>324</v>
+        <v>784</v>
       </c>
       <c r="G32">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="H32">
-        <v>1125.8918918918901</v>
+        <v>232.1</v>
       </c>
       <c r="I32">
-        <v>6.6984470096995699</v>
+        <v>2.48944572307169</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J36" si="9">2*$A$30^($B$30/2)*(F32^0.5)</f>
-        <v>1296</v>
-      </c>
-      <c r="K32" s="3">
-        <v>324</v>
-      </c>
-      <c r="L32" s="3">
+        <f t="shared" si="9"/>
+        <v>2016</v>
+      </c>
+      <c r="K32">
+        <v>784</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
       <c r="M32">
-        <v>199.88</v>
+        <v>171.26</v>
       </c>
       <c r="N32">
-        <v>3.2790852206945398</v>
+        <v>3.8725411909446099</v>
       </c>
       <c r="O32">
         <v>900</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P36" si="10">2*($A$30^($B$30/2))*O32^0.5+O32*K32</f>
-        <v>293760</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="10"/>
+        <v>707760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="B33">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6">
-        <v>144.15384615384599</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1.31173530829927</v>
+        <v>97</v>
+      </c>
+      <c r="C33" s="3">
+        <v>167.96907216494799</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.8687259738439099</v>
       </c>
       <c r="E33">
         <f t="shared" si="8"/>
-        <v>331776</v>
+        <v>876096</v>
       </c>
       <c r="F33">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>1294.875</v>
+        <v>396.291666666666</v>
       </c>
       <c r="I33">
-        <v>7.8045993552077499</v>
+        <v>4.8634760888655499</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>1152</v>
-      </c>
-      <c r="K33" s="3">
-        <v>256</v>
-      </c>
-      <c r="L33" s="3">
+        <v>1872</v>
+      </c>
+      <c r="K33">
+        <v>676</v>
+      </c>
+      <c r="L33">
         <v>100</v>
       </c>
       <c r="M33">
-        <v>221.31</v>
+        <v>171.67</v>
       </c>
       <c r="N33">
-        <v>3.4087918824329901</v>
+        <v>2.6604123737663001</v>
       </c>
       <c r="O33">
         <v>900</v>
       </c>
       <c r="P33">
         <f t="shared" si="10"/>
-        <v>232560</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>610560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>196</v>
+        <v>576</v>
       </c>
       <c r="B34">
-        <v>79</v>
-      </c>
-      <c r="C34" s="6">
-        <v>173.97468354430299</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2.3360346226328099</v>
+        <v>93</v>
+      </c>
+      <c r="C34" s="3">
+        <v>189.31182795698899</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.5035229057113599</v>
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>254016</v>
+        <v>746496</v>
       </c>
       <c r="F34">
-        <v>196</v>
+        <v>576</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H34">
-        <v>2000</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
+        <v>369.12</v>
+      </c>
+      <c r="I34">
+        <v>2.3836453912407101</v>
       </c>
       <c r="J34">
         <f t="shared" si="9"/>
-        <v>1008</v>
-      </c>
-      <c r="K34" s="3">
-        <v>196</v>
-      </c>
-      <c r="L34" s="3">
-        <v>95</v>
+        <v>1728</v>
+      </c>
+      <c r="K34">
+        <v>576</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
       </c>
       <c r="M34">
-        <v>227.547368421052</v>
+        <v>164.67</v>
       </c>
       <c r="N34">
-        <v>4.0676950831554404</v>
+        <v>2.8976737121678799</v>
       </c>
       <c r="O34">
         <v>900</v>
       </c>
       <c r="P34">
         <f t="shared" si="10"/>
-        <v>178560</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>520560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="B35">
-        <v>73</v>
-      </c>
-      <c r="C35" s="6">
-        <v>236.945205479452</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2.8761645994621099</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="3">
+        <v>370.730158730158</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4.5594073214996902</v>
       </c>
       <c r="E35">
         <f t="shared" si="8"/>
-        <v>186624</v>
+        <v>627264</v>
       </c>
       <c r="F35">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H35">
-        <v>2000</v>
-      </c>
-      <c r="I35" t="s">
-        <v>5</v>
+        <v>551.828125</v>
+      </c>
+      <c r="I35">
+        <v>2.5654193217633199</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>864</v>
+        <v>1584</v>
       </c>
       <c r="K35">
-        <v>144</v>
-      </c>
-      <c r="L35" s="2">
-        <v>75</v>
+        <v>484</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
       </c>
       <c r="M35">
-        <v>387.42666666666599</v>
+        <v>170.94</v>
       </c>
       <c r="N35">
-        <v>5.23439830444753</v>
+        <v>2.5669216889888</v>
       </c>
       <c r="O35">
         <v>900</v>
       </c>
       <c r="P35">
         <f t="shared" si="10"/>
-        <v>131760</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>437760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="B36">
-        <v>59</v>
-      </c>
-      <c r="C36" s="6">
-        <v>259.28813559321998</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3.1423712280594698</v>
+        <v>90</v>
+      </c>
+      <c r="C36" s="3">
+        <v>120.411111111111</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.50466864504334</v>
       </c>
       <c r="E36">
-        <f t="shared" si="8"/>
-        <v>129600</v>
+        <f>A36*($A$30^$B$30)</f>
+        <v>518400</v>
       </c>
       <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G36" s="2">
+        <v>65</v>
       </c>
       <c r="H36">
-        <v>2000</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
+        <v>957.6</v>
+      </c>
+      <c r="I36">
+        <v>5.7432384449415403</v>
       </c>
       <c r="J36">
-        <f t="shared" si="9"/>
-        <v>720</v>
+        <f>2*$A$30^($B$30/2)*(F36^0.5)</f>
+        <v>1440</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L36">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M36">
-        <v>377.26865671641701</v>
+        <v>176.68</v>
       </c>
       <c r="N36">
-        <v>6.2128244730185198</v>
+        <v>2.6840859666839201</v>
       </c>
       <c r="O36">
         <v>900</v>
       </c>
       <c r="P36">
-        <f t="shared" si="10"/>
-        <v>92160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f>2*($A$30^($B$30/2))*O36^0.5+O36*K36</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>324</v>
+      </c>
+      <c r="B37" s="2">
+        <v>86</v>
+      </c>
+      <c r="C37" s="6">
+        <v>137.790697674418</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.93500945680276</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E41" si="11">A37*($A$30^$B$30)</f>
+        <v>419904</v>
+      </c>
+      <c r="F37">
+        <v>324</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37">
+        <v>1125.8918918918901</v>
+      </c>
+      <c r="I37">
+        <v>6.6984470096995699</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:J41" si="12">2*$A$30^($B$30/2)*(F37^0.5)</f>
+        <v>1296</v>
+      </c>
+      <c r="K37" s="3">
+        <v>324</v>
+      </c>
+      <c r="L37" s="3">
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <v>199.88</v>
+      </c>
+      <c r="N37">
+        <v>3.2790852206945398</v>
+      </c>
+      <c r="O37">
+        <v>900</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:P41" si="13">2*($A$30^($B$30/2))*O37^0.5+O37*K37</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>256</v>
+      </c>
+      <c r="B38">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6">
+        <v>144.15384615384599</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1.31173530829927</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="11"/>
+        <v>331776</v>
+      </c>
+      <c r="F38">
+        <v>256</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>1294.875</v>
+      </c>
+      <c r="I38">
+        <v>7.8045993552077499</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="12"/>
+        <v>1152</v>
+      </c>
+      <c r="K38" s="3">
+        <v>256</v>
+      </c>
+      <c r="L38" s="3">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>221.31</v>
+      </c>
+      <c r="N38">
+        <v>3.4087918824329901</v>
+      </c>
+      <c r="O38">
+        <v>900</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="13"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C39" s="6">
-        <v>158.45454545454501</v>
+        <v>173.97468354430299</v>
       </c>
       <c r="D39" s="6">
-        <v>3.8026218774417999</v>
+        <v>2.3360346226328099</v>
       </c>
       <c r="E39">
-        <f>A39*($A$38^$B$38)</f>
-        <v>518400</v>
+        <f t="shared" si="11"/>
+        <v>254016</v>
       </c>
       <c r="F39">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="G39">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>893.05555555555497</v>
-      </c>
-      <c r="I39">
-        <v>10.153325038051401</v>
+        <v>2000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
       </c>
       <c r="J39">
-        <f>2*$A$38^($B$38/2)*(F39^0.5)</f>
-        <v>1440</v>
+        <f t="shared" si="12"/>
+        <v>1008</v>
       </c>
       <c r="K39" s="3">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="L39" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M39">
-        <v>232.54</v>
+        <v>227.547368421052</v>
       </c>
       <c r="N39">
-        <v>7.7691087292693499</v>
+        <v>4.0676950831554404</v>
       </c>
       <c r="O39">
         <v>900</v>
       </c>
       <c r="P39">
-        <f>2*($A$38^($B$38/2))*O39^0.5+O39*K39</f>
-        <v>362160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="13"/>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6">
-        <v>180.8</v>
+        <v>236.945205479452</v>
       </c>
       <c r="D40" s="6">
-        <v>4.2315462816692797</v>
+        <v>2.8761645994621099</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E44" si="11">A40*($A$38^$B$38)</f>
-        <v>419904</v>
+        <f t="shared" si="11"/>
+        <v>186624</v>
       </c>
       <c r="F40">
-        <v>324</v>
-      </c>
-      <c r="G40" s="2">
-        <v>76</v>
+        <v>144</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1122.40789473684</v>
-      </c>
-      <c r="I40">
-        <v>12.877184936850201</v>
+        <v>2000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J44" si="12">2*$A$38^($B$38/2)*(F40^0.5)</f>
-        <v>1296</v>
-      </c>
-      <c r="K40" s="3">
-        <v>324</v>
-      </c>
-      <c r="L40" s="3">
-        <v>100</v>
+        <f t="shared" si="12"/>
+        <v>864</v>
+      </c>
+      <c r="K40">
+        <v>144</v>
+      </c>
+      <c r="L40" s="2">
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>253.83</v>
+        <v>387.42666666666599</v>
       </c>
       <c r="N40">
-        <v>6.8940734061039901</v>
+        <v>5.23439830444753</v>
       </c>
       <c r="O40">
         <v>900</v>
       </c>
       <c r="P40">
-        <f t="shared" ref="P40:P44" si="13">2*($A$38^($B$38/2))*O40^0.5+O40*K40</f>
-        <v>293760</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="13"/>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C41" s="6">
-        <v>242.923913043478</v>
+        <v>259.28813559321998</v>
       </c>
       <c r="D41" s="6">
-        <v>5.56206136636193</v>
+        <v>3.1423712280594698</v>
       </c>
       <c r="E41">
         <f t="shared" si="11"/>
-        <v>331776</v>
+        <v>129600</v>
       </c>
       <c r="F41">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1354.84848484848</v>
-      </c>
-      <c r="I41">
-        <v>15.4059688007515</v>
+        <v>2000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
       </c>
       <c r="J41">
         <f t="shared" si="12"/>
-        <v>1152</v>
-      </c>
-      <c r="K41" s="3">
-        <v>256</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
+        <v>720</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>255.68</v>
+        <v>377.26865671641701</v>
       </c>
       <c r="N41">
-        <v>9.6857042475417199</v>
+        <v>6.2128244730185198</v>
       </c>
       <c r="O41">
         <v>900</v>
       </c>
       <c r="P41">
         <f t="shared" si="13"/>
-        <v>232560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>196</v>
-      </c>
-      <c r="B42" s="2">
-        <v>81</v>
-      </c>
-      <c r="C42" s="6">
-        <v>313.37037037036998</v>
-      </c>
-      <c r="D42" s="6">
-        <v>8.37788393808367</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="11"/>
-        <v>254016</v>
-      </c>
-      <c r="F42">
-        <v>196</v>
-      </c>
-      <c r="G42">
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
         <v>6</v>
       </c>
-      <c r="H42">
-        <v>1594.5</v>
-      </c>
-      <c r="I42">
-        <v>16.963550502744798</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="12"/>
-        <v>1008</v>
-      </c>
-      <c r="K42" s="3">
-        <v>196</v>
-      </c>
-      <c r="L42" s="3">
-        <v>96</v>
-      </c>
-      <c r="M42">
-        <v>382.42708333333297</v>
-      </c>
-      <c r="N42">
-        <v>10.091345228894999</v>
-      </c>
-      <c r="O42">
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
         <v>900</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="13"/>
-        <v>178560</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>144</v>
-      </c>
-      <c r="B43">
-        <v>47</v>
-      </c>
-      <c r="C43" s="6">
-        <v>462.82978723404199</v>
-      </c>
-      <c r="D43" s="6">
-        <v>8.1487058860031798</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="11"/>
-        <v>186624</v>
-      </c>
-      <c r="F43">
-        <v>144</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>2000</v>
-      </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="12"/>
-        <v>864</v>
-      </c>
-      <c r="K43">
-        <v>144</v>
-      </c>
-      <c r="L43" s="2">
-        <v>76</v>
-      </c>
-      <c r="M43">
-        <v>575.96052631578902</v>
-      </c>
-      <c r="N43">
-        <v>13.476492149951399</v>
-      </c>
-      <c r="O43">
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" s="3">
+        <v>89.7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.4817331345192999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E48" si="14">A44*($A$43^$B$43)</f>
+        <v>1166400</v>
+      </c>
+      <c r="F44">
         <v>900</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="13"/>
-        <v>131760</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>100</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="6">
-        <v>554.75</v>
-      </c>
-      <c r="D44" s="6">
-        <v>8.1269010384566993</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="11"/>
-        <v>129600</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
       <c r="G44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44">
-        <v>2000</v>
-      </c>
-      <c r="I44" t="s">
-        <v>5</v>
+        <v>194.25</v>
+      </c>
+      <c r="I44">
+        <v>5.8779661018587603</v>
       </c>
       <c r="J44">
-        <f t="shared" si="12"/>
-        <v>720</v>
+        <f t="shared" ref="J44:J48" si="15">2*$A$43^($B$43/2)*(F44^0.5)</f>
+        <v>2160</v>
       </c>
       <c r="K44">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="L44">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="M44">
-        <v>854.83333333333303</v>
+        <v>194.25</v>
       </c>
       <c r="N44">
-        <v>26.298811209698499</v>
+        <v>6.7367490524426099</v>
       </c>
       <c r="O44">
         <v>900</v>
       </c>
       <c r="P44">
-        <f t="shared" si="13"/>
-        <v>92160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="P44:P54" si="16">2*($A$43^($B$43/2))*N44^0.5+N44*K44</f>
+        <v>6249.951933700283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>784</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3">
+        <v>97.73</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2.8519782544486199</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>1016064</v>
+      </c>
+      <c r="F45">
+        <v>784</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>245.81</v>
+      </c>
+      <c r="I45">
+        <v>5.5680682484991797</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="15"/>
+        <v>2016</v>
+      </c>
+      <c r="K45">
+        <v>784</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
+        <v>197.35</v>
+      </c>
+      <c r="N45">
+        <v>5.9412261680699796</v>
+      </c>
+      <c r="O45">
+        <v>900</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="16"/>
+        <v>4833.4186560751277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>676</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
+        <v>108.31</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3.3789002366177701</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>876096</v>
+      </c>
+      <c r="F46">
+        <v>676</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>327.54000000000002</v>
+      </c>
+      <c r="I46">
+        <v>7.3910744566284103</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="15"/>
+        <v>1872</v>
+      </c>
+      <c r="K46">
+        <v>676</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>201.09</v>
+      </c>
+      <c r="N46">
+        <v>5.1834819839708501</v>
+      </c>
+      <c r="O46">
+        <v>900</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="16"/>
+        <v>3667.958104310218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="B47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3">
-        <v>319.08080808080803</v>
+        <v>135.13999999999999</v>
       </c>
       <c r="D47" s="3">
-        <v>6.7333292544565397</v>
+        <v>4.8467814384587102</v>
       </c>
       <c r="E47">
-        <f>A47*($A$46^$B$46)</f>
-        <v>518400</v>
+        <f t="shared" si="14"/>
+        <v>746496</v>
       </c>
       <c r="F47">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="G47">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H47">
-        <v>1029.6489361702099</v>
+        <v>415.71875</v>
       </c>
       <c r="I47">
-        <v>12.9209752251453</v>
+        <v>3.9459550366542899</v>
       </c>
       <c r="J47">
-        <f>2*$A$46^($B$46/2)*(F47^0.5)</f>
-        <v>1440</v>
+        <f t="shared" si="15"/>
+        <v>1728</v>
       </c>
       <c r="K47">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="L47">
         <v>100</v>
       </c>
       <c r="M47">
-        <v>330.29</v>
+        <v>210.68</v>
       </c>
       <c r="N47">
-        <v>10.617008324135</v>
+        <v>3.9805249548889599</v>
       </c>
       <c r="O47">
         <v>900</v>
       </c>
       <c r="P47">
-        <f>2*($A$46^($B$46/2))*O47^0.5+O47*K47</f>
-        <v>362160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>2436.4313954750974</v>
+      </c>
+      <c r="R47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>324</v>
-      </c>
-      <c r="B48" s="2">
-        <v>86</v>
-      </c>
-      <c r="C48">
-        <v>491.90697674418601</v>
-      </c>
-      <c r="D48">
-        <v>10.3044943667861</v>
+        <v>484</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3">
+        <v>169.6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5.02097580380737</v>
       </c>
       <c r="E48">
-        <f>A48*($A$46^$B$46)</f>
-        <v>419904</v>
+        <f t="shared" si="14"/>
+        <v>627264</v>
       </c>
       <c r="F48">
-        <v>324</v>
+        <v>484</v>
       </c>
       <c r="G48" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H48">
-        <v>1501.8909090909001</v>
+        <v>580.39325842696599</v>
       </c>
       <c r="I48">
-        <v>18.188502082635001</v>
+        <v>6.4795373049721601</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="15"/>
+        <v>1584</v>
       </c>
       <c r="K48">
-        <v>324</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>449.03</v>
+        <v>484</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48">
+        <v>215.55</v>
       </c>
       <c r="N48">
-        <v>14.047550980448699</v>
+        <v>6.2727826594933802</v>
       </c>
       <c r="O48">
         <v>900</v>
       </c>
       <c r="P48">
-        <f>2*($A$46^($B$46/2))*O48^0.5+O48*K48</f>
-        <v>293760</v>
+        <f t="shared" si="16"/>
+        <v>3216.3545790626195</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="B49">
-        <v>43</v>
-      </c>
-      <c r="C49">
-        <v>737.79069767441797</v>
-      </c>
-      <c r="D49">
-        <v>17.494332540347099</v>
+        <v>99</v>
+      </c>
+      <c r="C49" s="3">
+        <v>205.54545454545399</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4.9899394505403203</v>
       </c>
       <c r="E49">
-        <f>A49*($A$46^$B$46)</f>
-        <v>331776</v>
+        <f t="shared" ref="E49:E54" si="17">A49*($A$43^$B$43)</f>
+        <v>518400</v>
       </c>
       <c r="F49">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H49">
-        <v>2000</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
+        <v>718.36923076922994</v>
+      </c>
+      <c r="I49">
+        <v>8.7624477678766599</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J54" si="18">2*$A$43^($B$43/2)*(F49^0.5)</f>
+        <v>1440</v>
       </c>
       <c r="K49">
-        <v>256</v>
-      </c>
-      <c r="L49" s="2">
-        <v>70</v>
+        <v>400</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
       </c>
       <c r="M49">
-        <v>716.44285714285695</v>
+        <v>232.54</v>
       </c>
       <c r="N49">
-        <v>20.833733064415199</v>
+        <v>6.0328993462957401</v>
       </c>
       <c r="O49">
         <v>900</v>
       </c>
       <c r="P49">
-        <f>2*($A$46^($B$46/2))*O49^0.5+O49*K49</f>
-        <v>232560</v>
+        <f t="shared" si="16"/>
+        <v>2590.0058586657196</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>826</v>
-      </c>
-      <c r="D50">
-        <v>15.8745832033455</v>
+        <v>300.70103092783501</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7.5359662836129502</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="17"/>
+        <v>419904</v>
       </c>
       <c r="F50">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>2000</v>
+        <v>819.57142857142799</v>
+      </c>
+      <c r="I50">
+        <v>9.5866644167474302</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="18"/>
+        <v>1296</v>
       </c>
       <c r="K50">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="M50" s="3">
+        <v>253.83</v>
+      </c>
+      <c r="N50">
+        <v>7.6408740343712198</v>
+      </c>
+      <c r="O50">
+        <v>900</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="16"/>
+        <v>2674.6665299736933</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
+        <v>256</v>
+      </c>
+      <c r="B51">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>369.86170212765899</v>
+      </c>
+      <c r="D51">
+        <v>8.85281757338646</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="17"/>
+        <v>331776</v>
+      </c>
+      <c r="F51">
+        <v>256</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>903.33333333333303</v>
+      </c>
+      <c r="I51">
+        <v>11.257416573353099</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="18"/>
+        <v>1152</v>
+      </c>
+      <c r="K51">
+        <v>256</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51" s="3">
+        <v>255.68</v>
+      </c>
+      <c r="N51" s="3">
+        <v>7.04075262049213</v>
+      </c>
+      <c r="O51">
+        <v>900</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="16"/>
+        <v>1993.4804700602949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>196</v>
+      </c>
+      <c r="B52" s="2">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>571.017857142857</v>
+      </c>
+      <c r="D52">
+        <v>12.047980088075301</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="17"/>
+        <v>254016</v>
+      </c>
+      <c r="F52">
+        <v>196</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="18"/>
+        <v>1008</v>
+      </c>
+      <c r="K52">
+        <v>196</v>
+      </c>
+      <c r="L52">
+        <v>96</v>
+      </c>
+      <c r="M52" s="3">
+        <v>382.42708333333297</v>
+      </c>
+      <c r="N52" s="3">
+        <v>9.2316955099037497</v>
+      </c>
+      <c r="O52">
+        <v>900</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="16"/>
+        <v>2028.1749984842106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
         <v>144</v>
       </c>
-      <c r="B51">
+      <c r="B53">
+        <v>47</v>
+      </c>
+      <c r="C53" s="6">
+        <v>462.82978723404199</v>
+      </c>
+      <c r="D53" s="6">
+        <v>8.1487058860031798</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="17"/>
+        <v>186624</v>
+      </c>
+      <c r="F53">
+        <v>144</v>
+      </c>
+      <c r="G53">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="H53">
+        <v>2000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="18"/>
+        <v>864</v>
+      </c>
+      <c r="K53">
+        <v>144</v>
+      </c>
+      <c r="L53" s="2">
+        <v>76</v>
+      </c>
+      <c r="M53">
+        <v>575.96052631578902</v>
+      </c>
+      <c r="N53">
+        <v>13.476492149951399</v>
+      </c>
+      <c r="O53">
+        <v>900</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="16"/>
+        <v>2204.9293325066833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6">
+        <v>554.75</v>
+      </c>
+      <c r="D54" s="6">
+        <v>8.1269010384566993</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="17"/>
+        <v>129600</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>2000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="18"/>
+        <v>720</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>854.83333333333303</v>
+      </c>
+      <c r="N54">
+        <v>26.298811209698499</v>
+      </c>
+      <c r="O54">
+        <v>900</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="16"/>
+        <v>2999.1141602703392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>900</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3">
+        <v>115.4</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3.4711369968764401</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E61" si="19">A57*($A$56^$B$56)</f>
+        <v>1166400</v>
+      </c>
+      <c r="F57">
+        <v>900</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>194.96</v>
+      </c>
+      <c r="I57">
+        <v>5.58033144457265</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J61" si="20">2*$A$56^($B$56/2)*(F57^0.5)</f>
+        <v>2160</v>
+      </c>
+      <c r="K57">
+        <v>900</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
+      </c>
+      <c r="M57">
+        <v>194.96</v>
+      </c>
+      <c r="N57">
+        <v>6.9822558891586901</v>
+      </c>
+      <c r="O57">
+        <v>900</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ref="P57:P61" si="21">2*($A$56^($B$56/2))*O57^0.5+O57*K57</f>
+        <v>812160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>784</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>136.71</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4.1669643573276698</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="19"/>
+        <v>1016064</v>
+      </c>
+      <c r="F58">
+        <v>784</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>263.87</v>
+      </c>
+      <c r="I58">
+        <v>7.4228538736328398</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="20"/>
+        <v>2016</v>
+      </c>
+      <c r="K58">
+        <v>784</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <v>203.04</v>
+      </c>
+      <c r="N58">
+        <v>7.06002770720049</v>
+      </c>
+      <c r="O58">
+        <v>900</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="21"/>
+        <v>707760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>676</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3">
+        <v>163.46</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4.3691678791679402</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="19"/>
+        <v>876096</v>
+      </c>
+      <c r="F59">
+        <v>676</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>361.81</v>
+      </c>
+      <c r="I59">
+        <v>9.3338678167015292</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="20"/>
+        <v>1872</v>
+      </c>
+      <c r="K59">
+        <v>676</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59">
+        <v>219.06</v>
+      </c>
+      <c r="N59">
+        <v>7.3602107565291197</v>
+      </c>
+      <c r="O59">
+        <v>900</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="21"/>
+        <v>610560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>576</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3">
+        <v>208.94</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4.3433748974464796</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="19"/>
+        <v>746496</v>
+      </c>
+      <c r="F60">
+        <v>576</v>
+      </c>
+      <c r="G60">
+        <v>99</v>
+      </c>
+      <c r="H60">
+        <v>482.56565656565601</v>
+      </c>
+      <c r="I60">
+        <v>5.6886746965235799</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="20"/>
+        <v>1728</v>
+      </c>
+      <c r="K60">
+        <v>576</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="M60">
+        <v>240.34</v>
+      </c>
+      <c r="N60">
+        <v>5.6890807909704701</v>
+      </c>
+      <c r="O60">
+        <v>900</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="21"/>
+        <v>520560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>484</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3">
+        <v>289.02</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7.6705535736866297</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="19"/>
+        <v>627264</v>
+      </c>
+      <c r="F61">
+        <v>484</v>
+      </c>
+      <c r="G61">
+        <v>89</v>
+      </c>
+      <c r="H61">
+        <v>618.05617977528095</v>
+      </c>
+      <c r="I61">
+        <v>5.4156292263585799</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="20"/>
+        <v>1584</v>
+      </c>
+      <c r="K61">
+        <v>484</v>
+      </c>
+      <c r="L61">
+        <v>100</v>
+      </c>
+      <c r="M61">
+        <v>268.24</v>
+      </c>
+      <c r="N61">
+        <v>4.4909631299786197</v>
+      </c>
+      <c r="O61">
+        <v>900</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="21"/>
+        <v>437760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>99</v>
+      </c>
+      <c r="C62" s="3">
+        <v>319.08080808080803</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6.7333292544565397</v>
+      </c>
+      <c r="E62">
+        <f>A62*($A$56^$B$56)</f>
+        <v>518400</v>
+      </c>
+      <c r="F62">
+        <v>400</v>
+      </c>
+      <c r="G62">
+        <v>94</v>
+      </c>
+      <c r="H62">
+        <v>1029.6489361702099</v>
+      </c>
+      <c r="I62">
+        <v>12.9209752251453</v>
+      </c>
+      <c r="J62">
+        <f>2*$A$56^($B$56/2)*(F62^0.5)</f>
+        <v>1440</v>
+      </c>
+      <c r="K62">
+        <v>400</v>
+      </c>
+      <c r="L62">
+        <v>100</v>
+      </c>
+      <c r="M62">
+        <v>330.29</v>
+      </c>
+      <c r="N62">
+        <v>10.617008324135</v>
+      </c>
+      <c r="O62">
+        <v>900</v>
+      </c>
+      <c r="P62">
+        <f>2*($A$56^($B$56/2))*O62^0.5+O62*K62</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>324</v>
+      </c>
+      <c r="B63" s="2">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>491.90697674418601</v>
+      </c>
+      <c r="D63">
+        <v>10.3044943667861</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E66" si="22">A63*($A$56^$B$56)</f>
+        <v>419904</v>
+      </c>
+      <c r="F63">
+        <v>324</v>
+      </c>
+      <c r="G63" s="2">
+        <v>55</v>
+      </c>
+      <c r="H63">
+        <v>1501.8909090909001</v>
+      </c>
+      <c r="I63">
+        <v>18.188502082635001</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:J66" si="23">2*$A$56^($B$56/2)*(F63^0.5)</f>
+        <v>1296</v>
+      </c>
+      <c r="K63">
+        <v>324</v>
+      </c>
+      <c r="L63" s="3">
+        <v>100</v>
+      </c>
+      <c r="M63" s="3">
+        <v>449.03</v>
+      </c>
+      <c r="N63">
+        <v>14.047550980448699</v>
+      </c>
+      <c r="O63">
+        <v>900</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63:P66" si="24">2*($A$56^($B$56/2))*O63^0.5+O63*K63</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>256</v>
+      </c>
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>737.79069767441797</v>
+      </c>
+      <c r="D64">
+        <v>17.494332540347099</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="22"/>
+        <v>331776</v>
+      </c>
+      <c r="F64">
+        <v>256</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="23"/>
+        <v>1152</v>
+      </c>
+      <c r="K64">
+        <v>256</v>
+      </c>
+      <c r="L64" s="2">
+        <v>70</v>
+      </c>
+      <c r="M64">
+        <v>716.44285714285695</v>
+      </c>
+      <c r="N64">
+        <v>20.833733064415199</v>
+      </c>
+      <c r="O64">
+        <v>900</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="24"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>196</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>826</v>
+      </c>
+      <c r="D65">
+        <v>15.8745832033455</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="22"/>
+        <v>254016</v>
+      </c>
+      <c r="F65">
+        <v>196</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>2000</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="23"/>
+        <v>1008</v>
+      </c>
+      <c r="K65">
+        <v>196</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>1000</v>
       </c>
-      <c r="D51" t="s">
+      <c r="P65">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>144</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="E66">
+        <f t="shared" si="22"/>
+        <v>186624</v>
+      </c>
+      <c r="F66">
         <v>144</v>
       </c>
-      <c r="G51">
+      <c r="G66">
         <v>0</v>
       </c>
-      <c r="H51">
+      <c r="H66">
         <v>2000</v>
       </c>
-      <c r="K51">
+      <c r="J66">
+        <f t="shared" si="23"/>
+        <v>864</v>
+      </c>
+      <c r="K66">
         <v>144</v>
       </c>
-      <c r="L51">
+      <c r="L66">
         <v>0</v>
       </c>
-      <c r="M51">
+      <c r="M66">
         <v>1000</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>1600</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>84.62</v>
+      </c>
+      <c r="D69">
+        <v>3.5329285783134399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>1444</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>89.14</v>
+      </c>
+      <c r="D70">
+        <v>6.9558782376907704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>1296</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>90.78</v>
+      </c>
+      <c r="D71">
+        <v>7.3809153717942504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>1156</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>106.63</v>
+      </c>
+      <c r="D72">
+        <v>8.4907218623533804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>1024</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>133.82</v>
+      </c>
+      <c r="D73">
+        <v>11.0851384272798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>900</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>163.28</v>
+      </c>
+      <c r="D74">
+        <v>5.1880734052508997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>784</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>197.63</v>
+      </c>
+      <c r="D75">
+        <v>6.3450326512940203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>676</v>
+      </c>
+      <c r="B76">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>244.54081632653001</v>
+      </c>
+      <c r="D76">
+        <v>7.6787617953152001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>576</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>243.94</v>
+      </c>
+      <c r="D77">
+        <v>7.7437812722660597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>484</v>
+      </c>
+      <c r="B78">
+        <v>97</v>
+      </c>
+      <c r="C78">
+        <v>328.979381443298</v>
+      </c>
+      <c r="D78">
+        <v>10.3358839652741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>400</v>
+      </c>
+      <c r="B79">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>375.6</v>
+      </c>
+      <c r="D79">
+        <v>11.8718596936307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>324</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>587.72916666666595</v>
+      </c>
+      <c r="D80">
+        <v>17.656238264210199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>256</v>
+      </c>
+      <c r="B81">
+        <v>45</v>
+      </c>
+      <c r="C81">
+        <v>596.42222222222199</v>
+      </c>
+      <c r="D81">
+        <v>18.155645288609701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>196</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>783.2</v>
+      </c>
+      <c r="D82">
+        <v>22.975287831202099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>144</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3059,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4569,6 +5628,27 @@
         <f t="shared" ref="H37:H45" si="5">F37/E37</f>
         <v>1.6773117623605845E-2</v>
       </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>196</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>833</v>
+      </c>
+      <c r="N37">
+        <v>13.487044907174999</v>
+      </c>
+      <c r="O37">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
@@ -4596,6 +5676,27 @@
         <f t="shared" si="5"/>
         <v>1.6730160929792626E-2</v>
       </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>196</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>981</v>
+      </c>
+      <c r="N38">
+        <v>14.686708640307099</v>
+      </c>
+      <c r="O38">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
@@ -4623,6 +5724,27 @@
         <f t="shared" si="5"/>
         <v>1.6426162655320962E-2</v>
       </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>196</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -4650,6 +5772,27 @@
         <f t="shared" si="5"/>
         <v>1.5919749561416015E-2</v>
       </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>196</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
@@ -4784,6 +5927,586 @@
       <c r="H45">
         <f t="shared" si="5"/>
         <v>2.2034576655418529E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>196</v>
+      </c>
+      <c r="D47">
+        <v>97</v>
+      </c>
+      <c r="E47">
+        <v>291.17525773195803</v>
+      </c>
+      <c r="F47">
+        <v>4.5917727174525398</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>196</v>
+      </c>
+      <c r="D48">
+        <v>98</v>
+      </c>
+      <c r="E48">
+        <v>313.58163265306098</v>
+      </c>
+      <c r="F48">
+        <v>4.9296417323568296</v>
+      </c>
+      <c r="G48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>96</v>
+      </c>
+      <c r="E49">
+        <v>382.42708333333297</v>
+      </c>
+      <c r="F49">
+        <v>6.0373230789167103</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>196</v>
+      </c>
+      <c r="D50">
+        <v>96</v>
+      </c>
+      <c r="E50">
+        <v>426.09375</v>
+      </c>
+      <c r="F50">
+        <v>6.7265057818925298</v>
+      </c>
+      <c r="G50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>196</v>
+      </c>
+      <c r="D51">
+        <v>92</v>
+      </c>
+      <c r="E51">
+        <v>512.53260869565202</v>
+      </c>
+      <c r="F51">
+        <v>7.8480802849744897</v>
+      </c>
+      <c r="G51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>196</v>
+      </c>
+      <c r="D52">
+        <v>75</v>
+      </c>
+      <c r="E52">
+        <v>654.88</v>
+      </c>
+      <c r="F52">
+        <v>10.3791209420065</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>780.8974359</v>
+      </c>
+      <c r="F53">
+        <v>12.02446222</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>196</v>
+      </c>
+      <c r="D54">
+        <v>49</v>
+      </c>
+      <c r="E54">
+        <v>765.32653059999996</v>
+      </c>
+      <c r="F54">
+        <v>11.47965889</v>
+      </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>196</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>874.26315790000001</v>
+      </c>
+      <c r="F55">
+        <v>13.1121643</v>
+      </c>
+      <c r="G55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>324</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>213.01</v>
+      </c>
+      <c r="F57">
+        <v>3.9606459427811198</v>
+      </c>
+      <c r="G57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>324</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>206.5</v>
+      </c>
+      <c r="F58">
+        <v>3.79360882585868</v>
+      </c>
+      <c r="G58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>324</v>
+      </c>
+      <c r="D59">
+        <v>97</v>
+      </c>
+      <c r="E59">
+        <v>222.47422680412299</v>
+      </c>
+      <c r="F59">
+        <v>4.09846999407889</v>
+      </c>
+      <c r="G59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>324</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>240.46</v>
+      </c>
+      <c r="F60">
+        <v>4.3852920429036004</v>
+      </c>
+      <c r="G60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>324</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>241.87</v>
+      </c>
+      <c r="F61">
+        <v>4.4532160458154904</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>324</v>
+      </c>
+      <c r="D62">
+        <v>99</v>
+      </c>
+      <c r="E62">
+        <v>369.414141414141</v>
+      </c>
+      <c r="F62">
+        <v>6.5116398895742602</v>
+      </c>
+      <c r="G62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>324</v>
+      </c>
+      <c r="D63">
+        <v>97</v>
+      </c>
+      <c r="E63">
+        <v>392.15463917525699</v>
+      </c>
+      <c r="F63">
+        <v>6.6215016087805099</v>
+      </c>
+      <c r="G63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>324</v>
+      </c>
+      <c r="D64">
+        <v>94</v>
+      </c>
+      <c r="E64">
+        <v>508.74468085106298</v>
+      </c>
+      <c r="F64">
+        <v>8.7300673501486799</v>
+      </c>
+      <c r="G64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>324</v>
+      </c>
+      <c r="D65">
+        <v>81</v>
+      </c>
+      <c r="E65">
+        <v>651.76543209876502</v>
+      </c>
+      <c r="F65">
+        <v>10.9965305646398</v>
+      </c>
+      <c r="G65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>324</v>
+      </c>
+      <c r="D66">
+        <v>82</v>
+      </c>
+      <c r="E66">
+        <v>664.09756097560899</v>
+      </c>
+      <c r="F66">
+        <v>11.000617992405401</v>
+      </c>
+      <c r="G66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>324</v>
+      </c>
+      <c r="D67">
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>743.33333333333303</v>
+      </c>
+      <c r="F67">
+        <v>12.002571109864901</v>
+      </c>
+      <c r="G67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>324</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>835.56756756756704</v>
+      </c>
+      <c r="F68">
+        <v>13.447373267665901</v>
+      </c>
+      <c r="G68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>324</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>846.75</v>
+      </c>
+      <c r="F69">
+        <v>13.509325765073299</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>324</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>864.5</v>
+      </c>
+      <c r="F70">
+        <v>13.231745232827899</v>
+      </c>
+      <c r="G70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>324</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>849.61538461538396</v>
+      </c>
+      <c r="F71">
+        <v>13.3138632132456</v>
+      </c>
+      <c r="G71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>324</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>869</v>
+      </c>
+      <c r="F72">
+        <v>17.419095179999999</v>
+      </c>
+      <c r="G72">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4793,10 +6516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6558,6 +8281,494 @@
         <v>28</v>
       </c>
     </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>196</v>
+      </c>
+      <c r="D48">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>767.07692307692298</v>
+      </c>
+      <c r="F48">
+        <v>9.2827009869596093</v>
+      </c>
+      <c r="G48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>51</v>
+      </c>
+      <c r="E49">
+        <v>764.70588235294099</v>
+      </c>
+      <c r="F49">
+        <v>9.1200203201642207</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>196</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>830.25925925925901</v>
+      </c>
+      <c r="F50">
+        <v>10.2198274947564</v>
+      </c>
+      <c r="G50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>196</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>811.33333333333303</v>
+      </c>
+      <c r="F51">
+        <v>10.246675114871699</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>196</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>324</v>
+      </c>
+      <c r="D54">
+        <v>99</v>
+      </c>
+      <c r="E54">
+        <v>432.92929292929199</v>
+      </c>
+      <c r="F54">
+        <v>11.8955021686851</v>
+      </c>
+      <c r="G54">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>324</v>
+      </c>
+      <c r="D55">
+        <v>94</v>
+      </c>
+      <c r="E55">
+        <v>441.94680851063799</v>
+      </c>
+      <c r="F55">
+        <v>7.4747950133689196</v>
+      </c>
+      <c r="G55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>324</v>
+      </c>
+      <c r="D56">
+        <v>91</v>
+      </c>
+      <c r="E56">
+        <v>485.07692307692298</v>
+      </c>
+      <c r="F56">
+        <v>6.0490384651245597</v>
+      </c>
+      <c r="G56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>324</v>
+      </c>
+      <c r="D57">
+        <v>96</v>
+      </c>
+      <c r="E57">
+        <v>480.104166666666</v>
+      </c>
+      <c r="F57">
+        <v>5.8712319453479704</v>
+      </c>
+      <c r="G57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>324</v>
+      </c>
+      <c r="D58">
+        <v>88</v>
+      </c>
+      <c r="E58">
+        <v>557.32954545454504</v>
+      </c>
+      <c r="F58">
+        <v>6.8513462153602003</v>
+      </c>
+      <c r="G58">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>324</v>
+      </c>
+      <c r="D59">
+        <v>87</v>
+      </c>
+      <c r="E59">
+        <v>519.95402298850502</v>
+      </c>
+      <c r="F59">
+        <v>6.4482160571363103</v>
+      </c>
+      <c r="G59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>324</v>
+      </c>
+      <c r="D60">
+        <v>85</v>
+      </c>
+      <c r="E60">
+        <v>639.95294117646995</v>
+      </c>
+      <c r="F60">
+        <v>9.8799133086905702</v>
+      </c>
+      <c r="G60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>324</v>
+      </c>
+      <c r="D61">
+        <v>89</v>
+      </c>
+      <c r="E61">
+        <v>630.31460674157302</v>
+      </c>
+      <c r="F61">
+        <v>7.6923482904859402</v>
+      </c>
+      <c r="G61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>324</v>
+      </c>
+      <c r="D62">
+        <v>77</v>
+      </c>
+      <c r="E62">
+        <v>607.72727272727195</v>
+      </c>
+      <c r="F62">
+        <v>7.4228039969291002</v>
+      </c>
+      <c r="G62">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>324</v>
+      </c>
+      <c r="D63">
+        <v>69</v>
+      </c>
+      <c r="E63">
+        <v>624.91304347825997</v>
+      </c>
+      <c r="F63">
+        <v>7.5456831569958798</v>
+      </c>
+      <c r="G63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>324</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <v>742.078125</v>
+      </c>
+      <c r="F64">
+        <v>9.1053323539090307</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>324</v>
+      </c>
+      <c r="D65">
+        <v>51</v>
+      </c>
+      <c r="E65">
+        <v>717.25490196078397</v>
+      </c>
+      <c r="F65">
+        <v>8.7295724451907102</v>
+      </c>
+      <c r="G65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>324</v>
+      </c>
+      <c r="D66">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>813.38095238095195</v>
+      </c>
+      <c r="F66">
+        <v>9.8672060062665299</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>324</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>898.625</v>
+      </c>
+      <c r="F67">
+        <v>10.877478039124901</v>
+      </c>
+      <c r="G67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>324</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>835</v>
+      </c>
+      <c r="F68">
+        <v>10.0958127821795</v>
+      </c>
+      <c r="G68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>324</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>709</v>
+      </c>
+      <c r="F69">
+        <v>7.2973919641226503</v>
+      </c>
+      <c r="G69">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6565,10 +8776,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7902,947 +10113,1937 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3">
-        <v>120.411111111111</v>
+        <v>94.1979166666666</v>
       </c>
       <c r="D31" s="3">
-        <v>1.41502199626217</v>
+        <v>0.99678105354541902</v>
       </c>
       <c r="E31" s="6">
-        <f>A31*($A$30^$B$30)</f>
-        <v>518400</v>
+        <f t="shared" ref="E31:E36" si="7">A31*($A$30^$B$30)</f>
+        <v>1166400</v>
       </c>
       <c r="F31">
-        <v>400</v>
-      </c>
-      <c r="G31" s="2">
-        <v>44</v>
+        <v>900</v>
+      </c>
+      <c r="G31">
+        <v>96</v>
       </c>
       <c r="H31">
-        <v>636.09090909090901</v>
+        <v>363.71875</v>
       </c>
       <c r="I31">
-        <v>3.3033363930034301</v>
+        <v>2.1248578322896101</v>
       </c>
       <c r="J31" s="6">
-        <f>2*$A$30^($B$30/2)*(F31^0.5)</f>
-        <v>1440</v>
+        <f t="shared" ref="J31:J35" si="8">2*$A$30^($B$30/2)*(F31^0.5)</f>
+        <v>2160</v>
       </c>
       <c r="K31">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L31">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M31">
-        <v>370.87368421052599</v>
+        <v>378.666666666666</v>
       </c>
       <c r="N31">
-        <v>4.1173275197807104</v>
+        <v>4.2720305692324398</v>
       </c>
       <c r="O31" s="6">
         <v>900</v>
       </c>
       <c r="P31" s="6">
-        <f>2*($A$30^($B$30/2))*O31^0.5+O31*K31</f>
-        <v>362160</v>
+        <f t="shared" ref="P31:P35" si="9">2*($A$30^($B$30/2))*O31^0.5+O31*K31</f>
+        <v>812160</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>324</v>
-      </c>
-      <c r="B32" s="2">
-        <v>86</v>
-      </c>
-      <c r="C32">
-        <v>137.790697674418</v>
-      </c>
-      <c r="D32">
-        <v>1.6666493063446</v>
+        <v>784</v>
+      </c>
+      <c r="B32">
+        <v>96</v>
+      </c>
+      <c r="C32" s="3">
+        <v>103.510416666666</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.29602483822964</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:E36" si="7">A32*($A$30^$B$30)</f>
-        <v>419904</v>
+        <f t="shared" si="7"/>
+        <v>1016064</v>
       </c>
       <c r="F32">
-        <v>324</v>
+        <v>784</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H32">
-        <v>798</v>
+        <v>468.40860215053698</v>
       </c>
       <c r="I32">
-        <v>4.3358778623863996</v>
+        <v>2.5230873563196701</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:J36" si="8">2*$A$30^($B$30/2)*(F32^0.5)</f>
-        <v>1296</v>
+        <f t="shared" si="8"/>
+        <v>2016</v>
       </c>
       <c r="K32">
-        <v>324</v>
-      </c>
-      <c r="L32" s="3">
-        <v>92</v>
-      </c>
-      <c r="M32" s="3">
-        <v>378.86956521739103</v>
+        <v>784</v>
+      </c>
+      <c r="L32">
+        <v>94</v>
+      </c>
+      <c r="M32">
+        <v>390.23404255319099</v>
       </c>
       <c r="N32">
-        <v>4.73503271990415</v>
+        <v>4.3179584204397603</v>
       </c>
       <c r="O32" s="6">
         <v>900</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:P36" si="9">2*($A$30^($B$30/2))*O32^0.5+O32*K32</f>
-        <v>293760</v>
+        <f t="shared" si="9"/>
+        <v>707760</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="B33">
-        <v>78</v>
-      </c>
-      <c r="C33">
-        <v>144.15384615384599</v>
-      </c>
-      <c r="D33">
-        <v>1.62269376440403</v>
+        <v>95</v>
+      </c>
+      <c r="C33" s="3">
+        <v>98.052631578947299</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.03329999950763</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="7"/>
-        <v>331776</v>
+        <v>876096</v>
       </c>
       <c r="F33">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H33">
-        <v>783.66666666666595</v>
+        <v>486.62790697674399</v>
       </c>
       <c r="I33">
-        <v>3.8407253157347401</v>
+        <v>2.4244305061306299</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="8"/>
-        <v>1152</v>
+        <v>1872</v>
       </c>
       <c r="K33">
-        <v>256</v>
-      </c>
-      <c r="L33" s="3">
-        <v>91</v>
-      </c>
-      <c r="M33" s="3">
-        <v>375.74725274725199</v>
+        <v>676</v>
+      </c>
+      <c r="L33">
+        <v>93</v>
+      </c>
+      <c r="M33">
+        <v>389.30107526881699</v>
       </c>
       <c r="N33">
-        <v>4.1299512183682596</v>
+        <v>2.7875773535981199</v>
       </c>
       <c r="O33" s="6">
         <v>900</v>
       </c>
       <c r="P33" s="6">
         <f t="shared" si="9"/>
-        <v>232560</v>
+        <v>610560</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>196</v>
+        <v>576</v>
       </c>
       <c r="B34">
-        <v>79</v>
-      </c>
-      <c r="C34">
-        <v>173.97468354430299</v>
-      </c>
-      <c r="D34">
-        <v>2.1283023782263002</v>
+        <v>95</v>
+      </c>
+      <c r="C34" s="3">
+        <v>118.694736842105</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.6070314652237401</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="7"/>
-        <v>254016</v>
+        <v>746496</v>
       </c>
       <c r="F34">
-        <v>196</v>
+        <v>576</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="H34">
-        <v>670</v>
+        <v>482.69411764705802</v>
       </c>
       <c r="I34">
-        <v>3.81618786603212</v>
+        <v>2.5840958654661299</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="8"/>
-        <v>1008</v>
+        <v>1728</v>
       </c>
       <c r="K34">
-        <v>196</v>
-      </c>
-      <c r="L34" s="2">
-        <v>89</v>
+        <v>576</v>
+      </c>
+      <c r="L34">
+        <v>93</v>
       </c>
       <c r="M34">
-        <v>409.157303370786</v>
+        <v>389.73118279569798</v>
       </c>
       <c r="N34">
-        <v>5.2855389469376401</v>
+        <v>2.7559607969296498</v>
       </c>
       <c r="O34" s="6">
         <v>900</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" si="9"/>
-        <v>178560</v>
+        <v>520560</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="B35">
-        <v>73</v>
-      </c>
-      <c r="C35">
-        <v>236.945205479452</v>
-      </c>
-      <c r="D35">
-        <v>2.7704463652398799</v>
+        <v>95</v>
+      </c>
+      <c r="C35" s="3">
+        <v>118.915789473684</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.3639356811972001</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="7"/>
-        <v>186624</v>
+        <v>627264</v>
       </c>
       <c r="F35">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H35">
-        <v>1000</v>
-      </c>
-      <c r="I35" t="s">
-        <v>5</v>
+        <v>593.25925925925901</v>
+      </c>
+      <c r="I35">
+        <v>2.9020094435868899</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="8"/>
-        <v>864</v>
+        <v>1584</v>
       </c>
       <c r="K35">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="L35">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M35">
-        <v>487.41250000000002</v>
+        <v>378.268817204301</v>
       </c>
       <c r="N35">
-        <v>4.2927428824826999</v>
+        <v>2.6468830183348602</v>
       </c>
       <c r="O35" s="6">
         <v>900</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" si="9"/>
-        <v>131760</v>
+        <v>437760</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="B36">
-        <v>59</v>
-      </c>
-      <c r="C36">
-        <v>259.28813559321998</v>
-      </c>
-      <c r="D36">
-        <v>2.6011177912291301</v>
+        <v>90</v>
+      </c>
+      <c r="C36" s="3">
+        <v>120.411111111111</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.41502199626217</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="7"/>
-        <v>129600</v>
+        <v>518400</v>
       </c>
       <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44</v>
       </c>
       <c r="H36">
-        <v>1000</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
+        <v>636.09090909090901</v>
+      </c>
+      <c r="I36">
+        <v>3.3033363930034301</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="8"/>
-        <v>720</v>
+        <f>2*$A$30^($B$30/2)*(F36^0.5)</f>
+        <v>1440</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L36">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="M36">
-        <v>482.692307692307</v>
+        <v>370.87368421052599</v>
       </c>
       <c r="N36">
-        <v>4.1621580509898699</v>
+        <v>4.1173275197807104</v>
       </c>
       <c r="O36" s="6">
         <v>900</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="9"/>
-        <v>92160</v>
+        <f>2*($A$30^($B$30/2))*O36^0.5+O36*K36</f>
+        <v>362160</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
+      <c r="A37">
+        <v>324</v>
+      </c>
+      <c r="B37" s="2">
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <v>137.790697674418</v>
+      </c>
+      <c r="D37">
+        <v>1.6666493063446</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" ref="E37:E41" si="10">A37*($A$30^$B$30)</f>
+        <v>419904</v>
+      </c>
+      <c r="F37">
+        <v>324</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>798</v>
+      </c>
+      <c r="I37">
+        <v>4.3358778623863996</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" ref="J37:J41" si="11">2*$A$30^($B$30/2)*(F37^0.5)</f>
+        <v>1296</v>
+      </c>
+      <c r="K37">
+        <v>324</v>
+      </c>
+      <c r="L37" s="3">
+        <v>92</v>
+      </c>
+      <c r="M37" s="3">
+        <v>378.86956521739103</v>
+      </c>
+      <c r="N37">
+        <v>4.73503271990415</v>
+      </c>
+      <c r="O37" s="6">
+        <v>900</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" ref="P37:P41" si="12">2*($A$30^($B$30/2))*O37^0.5+O37*K37</f>
+        <v>293760</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
+      <c r="A38">
+        <v>256</v>
+      </c>
+      <c r="B38">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>144.15384615384599</v>
+      </c>
+      <c r="D38">
+        <v>1.62269376440403</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="10"/>
+        <v>331776</v>
+      </c>
+      <c r="F38">
+        <v>256</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>783.66666666666595</v>
+      </c>
+      <c r="I38">
+        <v>3.8407253157347401</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="11"/>
+        <v>1152</v>
+      </c>
+      <c r="K38">
+        <v>256</v>
+      </c>
+      <c r="L38" s="3">
+        <v>91</v>
+      </c>
+      <c r="M38" s="3">
+        <v>375.74725274725199</v>
+      </c>
+      <c r="N38">
+        <v>4.1299512183682596</v>
+      </c>
+      <c r="O38" s="6">
+        <v>900</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="12"/>
+        <v>232560</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="B39">
-        <v>99</v>
-      </c>
-      <c r="C39" s="3">
-        <v>158.45454545454501</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3.3067367011587101</v>
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>173.97468354430299</v>
+      </c>
+      <c r="D39">
+        <v>2.1283023782263002</v>
       </c>
       <c r="E39" s="6">
-        <f>A39*($A$38^$B$38)</f>
-        <v>518400</v>
+        <f t="shared" si="10"/>
+        <v>254016</v>
       </c>
       <c r="F39">
-        <v>400</v>
-      </c>
-      <c r="G39" s="2">
-        <v>42</v>
+        <v>196</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>690.88095238095195</v>
+        <v>670</v>
       </c>
       <c r="I39">
-        <v>6.2360805477946997</v>
+        <v>3.81618786603212</v>
       </c>
       <c r="J39" s="6">
-        <f>2*$A$38^($B$38/2)*(F39^0.5)</f>
-        <v>1440</v>
+        <f t="shared" si="11"/>
+        <v>1008</v>
       </c>
       <c r="K39">
-        <v>400</v>
-      </c>
-      <c r="L39">
-        <v>97</v>
+        <v>196</v>
+      </c>
+      <c r="L39" s="2">
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>458.67010309278299</v>
+        <v>409.157303370786</v>
       </c>
       <c r="N39">
-        <v>9.8583558339856001</v>
-      </c>
-      <c r="O39">
+        <v>5.2855389469376401</v>
+      </c>
+      <c r="O39" s="6">
         <v>900</v>
       </c>
       <c r="P39" s="6">
-        <f>2*($A$38^($B$38/2))*O39^0.5+O39*K39</f>
-        <v>362160</v>
+        <f t="shared" si="12"/>
+        <v>178560</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>100</v>
-      </c>
-      <c r="C40" s="3">
-        <v>180.8</v>
-      </c>
-      <c r="D40" s="3">
-        <v>4.1316173460520798</v>
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <v>236.945205479452</v>
+      </c>
+      <c r="D40">
+        <v>2.7704463652398799</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" ref="E40:E44" si="10">A40*($A$38^$B$38)</f>
-        <v>419904</v>
+        <f t="shared" si="10"/>
+        <v>186624</v>
       </c>
       <c r="F40">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>807.625</v>
-      </c>
-      <c r="I40">
-        <v>7.5557219675974903</v>
+        <v>1000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:J44" si="11">2*$A$38^($B$38/2)*(F40^0.5)</f>
-        <v>1296</v>
+        <f t="shared" si="11"/>
+        <v>864</v>
       </c>
       <c r="K40">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="L40">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="M40">
-        <v>440.43617021276498</v>
+        <v>487.41250000000002</v>
       </c>
       <c r="N40">
-        <v>6.44793143456286</v>
-      </c>
-      <c r="O40">
+        <v>4.2927428824826999</v>
+      </c>
+      <c r="O40" s="6">
         <v>900</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" ref="P40:P44" si="12">2*($A$38^($B$38/2))*O40^0.5+O40*K40</f>
-        <v>293760</v>
+        <f t="shared" si="12"/>
+        <v>131760</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>92</v>
-      </c>
-      <c r="C41" s="3">
-        <v>242.923913043478</v>
-      </c>
-      <c r="D41" s="3">
-        <v>4.5288103458714497</v>
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>259.28813559321998</v>
+      </c>
+      <c r="D41">
+        <v>2.6011177912291301</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="10"/>
-        <v>331776</v>
+        <v>129600</v>
       </c>
       <c r="F41">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>871</v>
-      </c>
-      <c r="I41">
-        <v>7.5709128820647704</v>
+        <v>1000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="11"/>
-        <v>1152</v>
+        <v>720</v>
       </c>
       <c r="K41">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="L41">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>554.91578947368396</v>
+        <v>482.692307692307</v>
       </c>
       <c r="N41">
-        <v>7.2451699700598597</v>
-      </c>
-      <c r="O41">
+        <v>4.1621580509898699</v>
+      </c>
+      <c r="O41" s="6">
         <v>900</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" si="12"/>
-        <v>232560</v>
+        <v>92160</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>196</v>
-      </c>
-      <c r="B42" s="2">
-        <v>81</v>
-      </c>
-      <c r="C42">
-        <v>313.37037037036998</v>
-      </c>
-      <c r="D42">
-        <v>6.0408447853025002</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="10"/>
-        <v>254016</v>
-      </c>
-      <c r="F42">
-        <v>196</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>905</v>
-      </c>
-      <c r="I42">
-        <v>7.64698338322341</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="11"/>
-        <v>1008</v>
-      </c>
-      <c r="K42">
-        <v>196</v>
-      </c>
-      <c r="L42" s="2">
-        <v>75</v>
-      </c>
-      <c r="M42">
-        <v>642.21333333333303</v>
-      </c>
-      <c r="N42">
-        <v>13.0862792434543</v>
-      </c>
-      <c r="O42">
-        <v>900</v>
-      </c>
-      <c r="P42" s="6">
-        <f t="shared" si="12"/>
-        <v>178560</v>
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>144</v>
-      </c>
-      <c r="B43">
-        <v>47</v>
-      </c>
-      <c r="C43">
-        <v>462.82978723404199</v>
-      </c>
-      <c r="D43">
-        <v>8.9681135838890906</v>
-      </c>
-      <c r="E43" s="6">
-        <f t="shared" si="10"/>
-        <v>186624</v>
-      </c>
-      <c r="F43">
-        <v>144</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1000</v>
-      </c>
-      <c r="I43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="11"/>
-        <v>864</v>
-      </c>
-      <c r="K43">
-        <v>144</v>
-      </c>
-      <c r="L43">
-        <v>36</v>
-      </c>
-      <c r="M43">
-        <v>783.16666666666595</v>
-      </c>
-      <c r="N43">
-        <v>15.280131204985</v>
-      </c>
-      <c r="O43">
-        <v>900</v>
-      </c>
-      <c r="P43" s="6">
-        <f t="shared" si="12"/>
-        <v>131760</v>
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>554.75</v>
-      </c>
-      <c r="D44">
-        <v>10.861994806211399</v>
+        <v>100</v>
+      </c>
+      <c r="C44" s="3">
+        <v>101.57</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.1373536918684799</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="10"/>
-        <v>129600</v>
+        <f t="shared" ref="E44:E48" si="13">A44*($A$43^$B$43)</f>
+        <v>1166400</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H44">
-        <v>1000</v>
-      </c>
-      <c r="I44" t="s">
-        <v>5</v>
+        <v>341.43877551020398</v>
+      </c>
+      <c r="I44">
+        <v>2.9808757984820602</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="11"/>
-        <v>720</v>
+        <f t="shared" ref="J44:J48" si="14">2*$A$43^($B$43/2)*(F44^0.5)</f>
+        <v>2160</v>
       </c>
       <c r="K44">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M44">
-        <v>704</v>
+        <v>399.69696969696901</v>
       </c>
       <c r="N44">
-        <v>16.732771497219801</v>
+        <v>7.86653002859516</v>
       </c>
       <c r="O44">
         <v>900</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="12"/>
-        <v>92160</v>
+        <f t="shared" ref="P44:P48" si="15">2*($A$43^($B$43/2))*O44^0.5+O44*K44</f>
+        <v>812160</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
+      <c r="A45">
+        <v>784</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3">
+        <v>109.54</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.5841684033907899</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="13"/>
+        <v>1016064</v>
+      </c>
+      <c r="F45">
+        <v>784</v>
+      </c>
+      <c r="G45">
+        <v>93</v>
+      </c>
+      <c r="H45">
+        <v>430.43010752688099</v>
+      </c>
+      <c r="I45">
+        <v>3.7834737973628099</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="K45">
+        <v>784</v>
+      </c>
+      <c r="L45">
+        <v>96</v>
+      </c>
+      <c r="M45">
+        <v>398.979166666666</v>
+      </c>
+      <c r="N45">
+        <v>6.0216368428858296</v>
+      </c>
+      <c r="O45">
+        <v>900</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="15"/>
+        <v>707760</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
+      <c r="A46">
+        <v>676</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
+        <v>112.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.10161915941163</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="13"/>
+        <v>876096</v>
+      </c>
+      <c r="F46">
+        <v>676</v>
+      </c>
+      <c r="G46">
+        <v>85</v>
+      </c>
+      <c r="H46">
+        <v>508.14117647058799</v>
+      </c>
+      <c r="I46">
+        <v>4.6316039562444402</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" si="14"/>
+        <v>1872</v>
+      </c>
+      <c r="K46">
+        <v>676</v>
+      </c>
+      <c r="L46">
+        <v>98</v>
+      </c>
+      <c r="M46">
+        <v>402.55102040816303</v>
+      </c>
+      <c r="N46">
+        <v>4.9912328507219001</v>
+      </c>
+      <c r="O46">
+        <v>900</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="15"/>
+        <v>610560</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3">
+        <v>125.19</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2.5776003907620901</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="13"/>
+        <v>746496</v>
+      </c>
+      <c r="F47">
+        <v>576</v>
+      </c>
+      <c r="G47">
+        <v>78</v>
+      </c>
+      <c r="H47">
+        <v>584.74358974358904</v>
+      </c>
+      <c r="I47">
+        <v>5.1279688280027997</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" si="14"/>
+        <v>1728</v>
+      </c>
+      <c r="K47">
+        <v>576</v>
+      </c>
+      <c r="L47">
         <v>99</v>
       </c>
-      <c r="C47" s="3">
-        <v>319.08080808080803</v>
-      </c>
-      <c r="D47" s="3">
-        <v>7.2463591764069504</v>
-      </c>
-      <c r="E47" s="6">
-        <f>A47*($A$46^$B$46)</f>
-        <v>518400</v>
-      </c>
-      <c r="F47">
-        <v>400</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>926</v>
-      </c>
-      <c r="I47">
-        <v>8.2509345281869102</v>
-      </c>
-      <c r="J47" s="6">
-        <f>2*$A$46^($B$38/2)*(F47^0.5)</f>
-        <v>1440</v>
-      </c>
-      <c r="K47">
-        <v>400</v>
-      </c>
-      <c r="L47" s="2">
-        <v>25</v>
-      </c>
       <c r="M47">
-        <v>857.68</v>
+        <v>423.20202020201998</v>
       </c>
       <c r="N47">
-        <v>18.567013813406199</v>
+        <v>5.2487625704344403</v>
       </c>
       <c r="O47">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="P47" s="6">
-        <f>2*($A$46^($B$46/2))*O47^0.5+O47*K47</f>
-        <v>12394.36024140372</v>
+        <f t="shared" si="15"/>
+        <v>520560</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>324</v>
-      </c>
-      <c r="B48" s="2">
-        <v>86</v>
-      </c>
-      <c r="C48">
-        <v>491.90697674418601</v>
-      </c>
-      <c r="D48">
-        <v>10.637192628476299</v>
+        <v>484</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3">
+        <v>144.69</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2.63469210309907</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" ref="E48:E51" si="13">A48*($A$46^$B$46)</f>
-        <v>419904</v>
+        <f t="shared" si="13"/>
+        <v>627264</v>
       </c>
       <c r="F48">
-        <v>324</v>
+        <v>484</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H48">
-        <v>1000</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
+        <v>664.53703703703695</v>
+      </c>
+      <c r="I48">
+        <v>5.9054629032120598</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" ref="J48:J51" si="14">2*$A$46^($B$38/2)*(F48^0.5)</f>
-        <v>1296</v>
+        <f t="shared" si="14"/>
+        <v>1584</v>
       </c>
       <c r="K48">
-        <v>324</v>
+        <v>484</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="M48">
-        <v>849.5</v>
+        <v>452.76530612244898</v>
       </c>
       <c r="N48">
-        <v>23.817820394722101</v>
+        <v>5.3646151024506104</v>
       </c>
       <c r="O48">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" ref="P48:P51" si="15">2*($A$46^($B$46/2))*O48^0.5+O48*K48</f>
-        <v>10114.36024140372</v>
+        <f t="shared" si="15"/>
+        <v>437760</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="B49">
-        <v>43</v>
-      </c>
-      <c r="C49">
-        <v>737.79069767441797</v>
-      </c>
-      <c r="D49">
-        <v>15.571217465149401</v>
+        <v>99</v>
+      </c>
+      <c r="C49" s="3">
+        <v>158.45454545454501</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3.3067367011587101</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="13"/>
-        <v>331776</v>
+        <f t="shared" ref="E49:E54" si="16">A49*($A$43^$B$43)</f>
+        <v>518400</v>
       </c>
       <c r="F49">
-        <v>256</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G49" s="2">
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>1000</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
+        <v>690.88095238095195</v>
+      </c>
+      <c r="I49">
+        <v>6.2360805477946997</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="14"/>
-        <v>1152</v>
+        <f t="shared" ref="J49:J54" si="17">2*$A$43^($B$43/2)*(F49^0.5)</f>
+        <v>1440</v>
       </c>
       <c r="K49">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="M49">
-        <v>1000</v>
-      </c>
-      <c r="N49" t="s">
-        <v>5</v>
+        <v>458.67010309278299</v>
+      </c>
+      <c r="N49">
+        <v>9.8583558339856001</v>
       </c>
       <c r="O49">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="15"/>
-        <v>8074.3602414037196</v>
+        <f t="shared" ref="P49:P54" si="18">2*($A$43^($B$43/2))*O49^0.5+O49*K49</f>
+        <v>362160</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>826</v>
-      </c>
-      <c r="D50">
-        <v>38.438756352290497</v>
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
+        <v>180.8</v>
+      </c>
+      <c r="D50" s="3">
+        <v>4.1316173460520798</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="13"/>
-        <v>254016</v>
+        <f t="shared" si="16"/>
+        <v>419904</v>
       </c>
       <c r="F50">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>1000</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
+        <v>807.625</v>
+      </c>
+      <c r="I50">
+        <v>7.5557219675974903</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="14"/>
-        <v>1008</v>
+        <f t="shared" si="17"/>
+        <v>1296</v>
       </c>
       <c r="K50">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="M50">
-        <v>1000</v>
-      </c>
-      <c r="N50" t="s">
-        <v>5</v>
+        <v>440.43617021276498</v>
+      </c>
+      <c r="N50">
+        <v>6.44793143456286</v>
       </c>
       <c r="O50">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="15"/>
-        <v>6274.3602414037196</v>
+        <f t="shared" si="18"/>
+        <v>293760</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
+        <v>256</v>
+      </c>
+      <c r="B51">
+        <v>92</v>
+      </c>
+      <c r="C51" s="3">
+        <v>242.923913043478</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4.5288103458714497</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="16"/>
+        <v>331776</v>
+      </c>
+      <c r="F51">
+        <v>256</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>871</v>
+      </c>
+      <c r="I51">
+        <v>7.5709128820647704</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="17"/>
+        <v>1152</v>
+      </c>
+      <c r="K51">
+        <v>256</v>
+      </c>
+      <c r="L51">
+        <v>95</v>
+      </c>
+      <c r="M51">
+        <v>554.91578947368396</v>
+      </c>
+      <c r="N51">
+        <v>7.2451699700598597</v>
+      </c>
+      <c r="O51">
+        <v>900</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="18"/>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>196</v>
+      </c>
+      <c r="B52" s="2">
+        <v>81</v>
+      </c>
+      <c r="C52">
+        <v>313.37037037036998</v>
+      </c>
+      <c r="D52">
+        <v>6.0408447853025002</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="16"/>
+        <v>254016</v>
+      </c>
+      <c r="F52">
+        <v>196</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>905</v>
+      </c>
+      <c r="I52">
+        <v>7.64698338322341</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="17"/>
+        <v>1008</v>
+      </c>
+      <c r="K52">
+        <v>196</v>
+      </c>
+      <c r="L52" s="2">
+        <v>75</v>
+      </c>
+      <c r="M52">
+        <v>642.21333333333303</v>
+      </c>
+      <c r="N52">
+        <v>13.0862792434543</v>
+      </c>
+      <c r="O52">
+        <v>900</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="18"/>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
         <v>144</v>
       </c>
-      <c r="B51">
+      <c r="B53">
+        <v>47</v>
+      </c>
+      <c r="C53">
+        <v>462.82978723404199</v>
+      </c>
+      <c r="D53">
+        <v>8.9681135838890906</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="16"/>
+        <v>186624</v>
+      </c>
+      <c r="F53">
+        <v>144</v>
+      </c>
+      <c r="G53">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="H53">
         <v>1000</v>
       </c>
-      <c r="D51" t="s">
+      <c r="I53" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="6">
-        <f t="shared" si="13"/>
+      <c r="J53" s="6">
+        <f t="shared" si="17"/>
+        <v>864</v>
+      </c>
+      <c r="K53">
+        <v>144</v>
+      </c>
+      <c r="L53">
+        <v>36</v>
+      </c>
+      <c r="M53">
+        <v>783.16666666666595</v>
+      </c>
+      <c r="N53">
+        <v>15.280131204985</v>
+      </c>
+      <c r="O53">
+        <v>900</v>
+      </c>
+      <c r="P53" s="6">
+        <f t="shared" si="18"/>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>554.75</v>
+      </c>
+      <c r="D54">
+        <v>10.861994806211399</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="16"/>
+        <v>129600</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="17"/>
+        <v>720</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>704</v>
+      </c>
+      <c r="N54">
+        <v>16.732771497219801</v>
+      </c>
+      <c r="O54">
+        <v>900</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="18"/>
+        <v>92160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>900</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3">
+        <v>139.55000000000001</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2.66653408028185</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" ref="E57:E61" si="19">A57*($A$56^$B$56)</f>
+        <v>1166400</v>
+      </c>
+      <c r="F57">
+        <v>900</v>
+      </c>
+      <c r="G57">
+        <v>96</v>
+      </c>
+      <c r="H57">
+        <v>587.20833333333303</v>
+      </c>
+      <c r="I57">
+        <v>5.4326521453525203</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57">
+        <v>900</v>
+      </c>
+      <c r="L57" s="2">
+        <v>86</v>
+      </c>
+      <c r="M57">
+        <v>703.09302325581302</v>
+      </c>
+      <c r="N57">
+        <v>13.961563747592701</v>
+      </c>
+      <c r="O57" s="6">
+        <v>900</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" ref="P57:P61" si="20">2*($A$56^($B$56/2))*O57^0.5+O57*K57</f>
+        <v>812160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>784</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>152.85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.88591957824304</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="19"/>
+        <v>1016064</v>
+      </c>
+      <c r="F58">
+        <v>784</v>
+      </c>
+      <c r="G58" s="2">
+        <v>85</v>
+      </c>
+      <c r="H58">
+        <v>697.17647058823502</v>
+      </c>
+      <c r="I58">
+        <v>6.4828577431247503</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58">
+        <v>784</v>
+      </c>
+      <c r="L58">
+        <v>86</v>
+      </c>
+      <c r="M58">
+        <v>728.54651162790697</v>
+      </c>
+      <c r="N58">
+        <v>10.185924479088101</v>
+      </c>
+      <c r="O58">
+        <v>900</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="20"/>
+        <v>707760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>676</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3">
+        <v>167.78</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3.4890174417942701</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="19"/>
+        <v>876096</v>
+      </c>
+      <c r="F59">
+        <v>676</v>
+      </c>
+      <c r="G59">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>718.546875</v>
+      </c>
+      <c r="I59">
+        <v>6.7399281833495399</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59">
+        <v>676</v>
+      </c>
+      <c r="L59">
+        <v>84</v>
+      </c>
+      <c r="M59">
+        <v>761.04761904761904</v>
+      </c>
+      <c r="N59">
+        <v>9.6668314518007801</v>
+      </c>
+      <c r="O59">
+        <v>900</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" si="20"/>
+        <v>610560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>576</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3">
+        <v>192.07</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3.8311694571375798</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="19"/>
+        <v>746496</v>
+      </c>
+      <c r="F60">
+        <v>576</v>
+      </c>
+      <c r="G60">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>785.42499999999995</v>
+      </c>
+      <c r="I60">
+        <v>7.3239790855906897</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60">
+        <v>576</v>
+      </c>
+      <c r="L60">
+        <v>65</v>
+      </c>
+      <c r="M60">
+        <v>801.66153846153804</v>
+      </c>
+      <c r="N60">
+        <v>9.8643155280787198</v>
+      </c>
+      <c r="O60">
+        <v>900</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="20"/>
+        <v>520560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>484</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3">
+        <v>238.43</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4.6447517504729303</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="19"/>
+        <v>627264</v>
+      </c>
+      <c r="F61">
+        <v>484</v>
+      </c>
+      <c r="G61">
+        <v>21</v>
+      </c>
+      <c r="H61">
+        <v>815.23809523809496</v>
+      </c>
+      <c r="I61">
+        <v>7.6042540965690497</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61">
+        <v>484</v>
+      </c>
+      <c r="L61">
+        <v>55</v>
+      </c>
+      <c r="M61">
+        <v>830.672727272727</v>
+      </c>
+      <c r="N61">
+        <v>10.2102701012045</v>
+      </c>
+      <c r="O61">
+        <v>900</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" si="20"/>
+        <v>437760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <v>99</v>
+      </c>
+      <c r="C62" s="3">
+        <v>319.08080808080803</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7.2463591764069504</v>
+      </c>
+      <c r="E62" s="6">
+        <f>A62*($A$56^$B$56)</f>
+        <v>518400</v>
+      </c>
+      <c r="F62">
+        <v>400</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>926</v>
+      </c>
+      <c r="I62">
+        <v>8.2509345281869102</v>
+      </c>
+      <c r="J62" s="6">
+        <f>2*$A$56^($B$43/2)*(F62^0.5)</f>
+        <v>1440</v>
+      </c>
+      <c r="K62">
+        <v>400</v>
+      </c>
+      <c r="L62" s="6">
+        <v>25</v>
+      </c>
+      <c r="M62">
+        <v>857.68</v>
+      </c>
+      <c r="N62">
+        <v>18.567013813406199</v>
+      </c>
+      <c r="O62">
+        <v>900</v>
+      </c>
+      <c r="P62" s="6">
+        <f>2*($A$56^($B$56/2))*O62^0.5+O62*K62</f>
+        <v>362160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>324</v>
+      </c>
+      <c r="B63" s="2">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>491.90697674418601</v>
+      </c>
+      <c r="D63">
+        <v>10.637192628476299</v>
+      </c>
+      <c r="E63" s="6">
+        <f>A63*($A$56^$B$56)</f>
+        <v>419904</v>
+      </c>
+      <c r="F63">
+        <v>324</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1000</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="6">
+        <f>2*$A$56^($B$43/2)*(F63^0.5)</f>
+        <v>1296</v>
+      </c>
+      <c r="K63">
+        <v>324</v>
+      </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>849.5</v>
+      </c>
+      <c r="N63">
+        <v>23.817820394722101</v>
+      </c>
+      <c r="O63">
+        <v>900</v>
+      </c>
+      <c r="P63" s="6">
+        <f>2*($A$56^($B$56/2))*O63^0.5+O63*K63</f>
+        <v>293760</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>256</v>
+      </c>
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>737.79069767441797</v>
+      </c>
+      <c r="D64">
+        <v>15.571217465149401</v>
+      </c>
+      <c r="E64" s="6">
+        <f>A64*($A$56^$B$56)</f>
+        <v>331776</v>
+      </c>
+      <c r="F64">
+        <v>256</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="6">
+        <f>2*$A$56^($B$43/2)*(F64^0.5)</f>
+        <v>1152</v>
+      </c>
+      <c r="K64">
+        <v>256</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+      <c r="N64" t="s">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>900</v>
+      </c>
+      <c r="P64" s="6">
+        <f>2*($A$56^($B$56/2))*O64^0.5+O64*K64</f>
+        <v>232560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>196</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>826</v>
+      </c>
+      <c r="D65">
+        <v>38.438756352290497</v>
+      </c>
+      <c r="E65" s="6">
+        <f>A65*($A$56^$B$56)</f>
+        <v>254016</v>
+      </c>
+      <c r="F65">
+        <v>196</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1000</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="6">
+        <f>2*$A$56^($B$43/2)*(F65^0.5)</f>
+        <v>1008</v>
+      </c>
+      <c r="K65">
+        <v>196</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1000</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>900</v>
+      </c>
+      <c r="P65" s="6">
+        <f>2*($A$56^($B$56/2))*O65^0.5+O65*K65</f>
+        <v>178560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>144</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="6">
+        <f>A66*($A$56^$B$56)</f>
         <v>186624</v>
       </c>
-      <c r="F51">
+      <c r="F66">
         <v>144</v>
       </c>
-      <c r="G51">
+      <c r="G66">
         <v>0</v>
       </c>
-      <c r="H51">
+      <c r="H66">
         <v>1000</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I66" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="6">
-        <f t="shared" si="14"/>
+      <c r="J66" s="6">
+        <f>2*$A$56^($B$43/2)*(F66^0.5)</f>
         <v>864</v>
       </c>
-      <c r="K51">
+      <c r="K66">
         <v>144</v>
       </c>
-      <c r="L51">
+      <c r="L66">
         <v>0</v>
       </c>
-      <c r="M51">
+      <c r="M66">
         <v>1000</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N66" t="s">
         <v>5</v>
       </c>
-      <c r="O51">
-        <v>30</v>
-      </c>
-      <c r="P51" s="6">
-        <f t="shared" si="15"/>
-        <v>4714.3602414037196</v>
+      <c r="O66">
+        <v>900</v>
+      </c>
+      <c r="P66" s="6">
+        <f>2*($A$56^($B$56/2))*O66^0.5+O66*K66</f>
+        <v>131760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>1600</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>89.01</v>
+      </c>
+      <c r="D69">
+        <v>1.7898879181966101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>1444</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>90.78</v>
+      </c>
+      <c r="D70">
+        <v>1.8211826121062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>1296</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>93.52</v>
+      </c>
+      <c r="D71">
+        <v>1.8879336502961801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>1156</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>99.42</v>
+      </c>
+      <c r="D72">
+        <v>1.9500645272806201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>1024</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>101.46</v>
+      </c>
+      <c r="D73">
+        <v>1.89307249015197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>900</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>107.96</v>
+      </c>
+      <c r="D74">
+        <v>2.0238147545233298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>784</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>123.87</v>
+      </c>
+      <c r="D75">
+        <v>2.3038926227576999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>676</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>127.77</v>
+      </c>
+      <c r="D76">
+        <v>1.8906509531103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>576</v>
+      </c>
+      <c r="B77">
+        <v>99</v>
+      </c>
+      <c r="C77">
+        <v>145.111111111111</v>
+      </c>
+      <c r="D77">
+        <v>1.78652340980867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>484</v>
+      </c>
+      <c r="B78">
+        <v>97</v>
+      </c>
+      <c r="C78">
+        <v>153.71134020618501</v>
+      </c>
+      <c r="D78">
+        <v>1.90805513127562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>400</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>206.68</v>
+      </c>
+      <c r="D79">
+        <v>2.5420121066085901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>324</v>
+      </c>
+      <c r="B80">
+        <v>93</v>
+      </c>
+      <c r="C80">
+        <v>241.81720430107501</v>
+      </c>
+      <c r="D80">
+        <v>2.9269566798522502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>256</v>
+      </c>
+      <c r="B81">
+        <v>76</v>
+      </c>
+      <c r="C81">
+        <v>337.88157894736798</v>
+      </c>
+      <c r="D81">
+        <v>4.10276302283531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>196</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>453.9</v>
+      </c>
+      <c r="D82">
+        <v>5.52637208584696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>144</v>
+      </c>
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>579.54545454545405</v>
+      </c>
+      <c r="D83">
+        <v>7.7438381009481096</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79547F3D-F578-4808-9966-F996D4E488D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01C32D-A19C-4525-BB59-C8831F2F455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="1" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="27">
   <si>
     <t>target_dim</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107:N107"/>
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5840,6 +5840,293 @@
         <v>1453830</v>
       </c>
     </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>676</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108">
+        <v>282.81</v>
+      </c>
+      <c r="D108">
+        <v>14.0449295789562</v>
+      </c>
+      <c r="F108">
+        <v>676</v>
+      </c>
+      <c r="G108" s="2">
+        <v>69</v>
+      </c>
+      <c r="H108">
+        <v>798.37681159420197</v>
+      </c>
+      <c r="I108">
+        <v>37.518349973241897</v>
+      </c>
+      <c r="K108">
+        <v>676</v>
+      </c>
+      <c r="L108">
+        <v>100</v>
+      </c>
+      <c r="M108" s="3">
+        <v>212.25</v>
+      </c>
+      <c r="N108" s="3">
+        <v>14.816258777845601</v>
+      </c>
+      <c r="O108">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>576</v>
+      </c>
+      <c r="B109">
+        <v>99</v>
+      </c>
+      <c r="C109">
+        <v>371.78787878787801</v>
+      </c>
+      <c r="D109">
+        <v>18.550699503734801</v>
+      </c>
+      <c r="F109">
+        <v>576</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
+      </c>
+      <c r="H109">
+        <v>875.91666666666595</v>
+      </c>
+      <c r="I109">
+        <v>35.971802324366998</v>
+      </c>
+      <c r="K109">
+        <v>576</v>
+      </c>
+      <c r="L109">
+        <v>100</v>
+      </c>
+      <c r="M109" s="3">
+        <v>241.49</v>
+      </c>
+      <c r="N109" s="3">
+        <v>15.370051186717999</v>
+      </c>
+      <c r="O109">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>484</v>
+      </c>
+      <c r="B110">
+        <v>93</v>
+      </c>
+      <c r="C110">
+        <v>502.860215053763</v>
+      </c>
+      <c r="D110">
+        <v>22.503617072357699</v>
+      </c>
+      <c r="F110">
+        <v>484</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>950</v>
+      </c>
+      <c r="I110">
+        <v>28.0347088618824</v>
+      </c>
+      <c r="K110">
+        <v>484</v>
+      </c>
+      <c r="L110">
+        <v>100</v>
+      </c>
+      <c r="M110" s="3">
+        <v>290.99</v>
+      </c>
+      <c r="N110" s="3">
+        <v>17.265485211312701</v>
+      </c>
+      <c r="O110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>400</v>
+      </c>
+      <c r="B111" s="2">
+        <v>50</v>
+      </c>
+      <c r="C111">
+        <v>675.76</v>
+      </c>
+      <c r="D111">
+        <v>28.1934471745789</v>
+      </c>
+      <c r="F111">
+        <v>400</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1000</v>
+      </c>
+      <c r="I111" t="s">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>400</v>
+      </c>
+      <c r="L111">
+        <v>100</v>
+      </c>
+      <c r="M111" s="3">
+        <v>397.87</v>
+      </c>
+      <c r="N111" s="3">
+        <v>25.211957448031701</v>
+      </c>
+      <c r="O111">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>324</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>846.22222222222194</v>
+      </c>
+      <c r="D112">
+        <v>49.900878673833198</v>
+      </c>
+      <c r="F112">
+        <v>324</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1000</v>
+      </c>
+      <c r="I112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>324</v>
+      </c>
+      <c r="L112" s="2">
+        <v>67</v>
+      </c>
+      <c r="M112">
+        <v>649.89552238805902</v>
+      </c>
+      <c r="N112">
+        <v>47.306469825972101</v>
+      </c>
+      <c r="O112">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>256</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1000</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>256</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1000</v>
+      </c>
+      <c r="I113" t="s">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>256</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>867</v>
+      </c>
+      <c r="N113">
+        <v>47.753213558345998</v>
+      </c>
+      <c r="O113">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>196</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>196</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1000</v>
+      </c>
+      <c r="I114" t="s">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>196</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>1000</v>
+      </c>
+      <c r="N114" t="s">
+        <v>5</v>
+      </c>
+      <c r="O114">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:I30">
     <sortCondition descending="1" ref="D1:D30"/>
@@ -5851,10 +6138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10466,6 +10753,479 @@
       <c r="P98" s="6">
         <f t="shared" si="28"/>
         <v>366618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1">
+        <v>7</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>1600</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3">
+        <v>110.36</v>
+      </c>
+      <c r="D101" s="3">
+        <v>3.1213844972476301</v>
+      </c>
+      <c r="F101">
+        <v>1600</v>
+      </c>
+      <c r="G101">
+        <v>98</v>
+      </c>
+      <c r="H101">
+        <v>459.091836734693</v>
+      </c>
+      <c r="I101">
+        <v>5.0849114643903999</v>
+      </c>
+      <c r="K101">
+        <v>1600</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="M101">
+        <v>459.03</v>
+      </c>
+      <c r="N101">
+        <v>14.1572608940862</v>
+      </c>
+      <c r="O101">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>1444</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" s="3">
+        <v>114</v>
+      </c>
+      <c r="D102" s="3">
+        <v>3.6593798947706802</v>
+      </c>
+      <c r="F102">
+        <v>1444</v>
+      </c>
+      <c r="G102">
+        <v>98</v>
+      </c>
+      <c r="H102">
+        <v>492.602040816326</v>
+      </c>
+      <c r="I102">
+        <v>5.1939294462339296</v>
+      </c>
+      <c r="K102">
+        <v>1444</v>
+      </c>
+      <c r="L102">
+        <v>100</v>
+      </c>
+      <c r="M102">
+        <v>477.44</v>
+      </c>
+      <c r="N102">
+        <v>12.743668709993299</v>
+      </c>
+      <c r="O102">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>1296</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103" s="3">
+        <v>120.56</v>
+      </c>
+      <c r="D103" s="3">
+        <v>3.8557508051395399</v>
+      </c>
+      <c r="F103">
+        <v>1296</v>
+      </c>
+      <c r="G103">
+        <v>99</v>
+      </c>
+      <c r="H103">
+        <v>548.65656565656502</v>
+      </c>
+      <c r="I103">
+        <v>6.1589135051413297</v>
+      </c>
+      <c r="K103">
+        <v>1296</v>
+      </c>
+      <c r="L103">
+        <v>99</v>
+      </c>
+      <c r="M103">
+        <v>476.76767676767599</v>
+      </c>
+      <c r="N103">
+        <v>9.6455758563007592</v>
+      </c>
+      <c r="O103">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>1156</v>
+      </c>
+      <c r="B104">
+        <v>100</v>
+      </c>
+      <c r="C104" s="3">
+        <v>127.33</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3.6751179729215799</v>
+      </c>
+      <c r="F104">
+        <v>1156</v>
+      </c>
+      <c r="G104">
+        <v>98</v>
+      </c>
+      <c r="H104">
+        <v>612.74489795918305</v>
+      </c>
+      <c r="I104">
+        <v>6.7877254085425198</v>
+      </c>
+      <c r="K104">
+        <v>1156</v>
+      </c>
+      <c r="L104">
+        <v>99</v>
+      </c>
+      <c r="M104">
+        <v>494.74747474747397</v>
+      </c>
+      <c r="N104">
+        <v>9.4006771016301496</v>
+      </c>
+      <c r="O104">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>1024</v>
+      </c>
+      <c r="B105">
+        <v>100</v>
+      </c>
+      <c r="C105" s="3">
+        <v>135.55000000000001</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4.0239121950604</v>
+      </c>
+      <c r="F105">
+        <v>1024</v>
+      </c>
+      <c r="G105" s="2">
+        <v>89</v>
+      </c>
+      <c r="H105">
+        <v>623.73033707865102</v>
+      </c>
+      <c r="I105">
+        <v>6.23202844087578</v>
+      </c>
+      <c r="K105">
+        <v>1024</v>
+      </c>
+      <c r="L105">
+        <v>99</v>
+      </c>
+      <c r="M105">
+        <v>506.48484848484799</v>
+      </c>
+      <c r="N105">
+        <v>9.4438519757240993</v>
+      </c>
+      <c r="O105">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>900</v>
+      </c>
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106" s="3">
+        <v>150.52000000000001</v>
+      </c>
+      <c r="D106" s="3">
+        <v>4.8174395607039298</v>
+      </c>
+      <c r="F106">
+        <v>900</v>
+      </c>
+      <c r="G106">
+        <v>74</v>
+      </c>
+      <c r="H106">
+        <v>701.21621621621603</v>
+      </c>
+      <c r="I106">
+        <v>7.1525184548636096</v>
+      </c>
+      <c r="K106">
+        <v>900</v>
+      </c>
+      <c r="L106">
+        <v>100</v>
+      </c>
+      <c r="M106">
+        <v>522.41999999999996</v>
+      </c>
+      <c r="N106">
+        <v>9.7591120770573596</v>
+      </c>
+      <c r="O106">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>784</v>
+      </c>
+      <c r="B107">
+        <v>100</v>
+      </c>
+      <c r="C107" s="3">
+        <v>169.93</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5.5027217580005496</v>
+      </c>
+      <c r="F107">
+        <v>784</v>
+      </c>
+      <c r="G107">
+        <v>56</v>
+      </c>
+      <c r="H107">
+        <v>767.142857142857</v>
+      </c>
+      <c r="I107">
+        <v>8.4102324607915104</v>
+      </c>
+      <c r="K107">
+        <v>784</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107">
+        <v>566.48</v>
+      </c>
+      <c r="N107">
+        <v>16.5111998798698</v>
+      </c>
+      <c r="O107">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>676</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108" s="3">
+        <v>201.65</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4.9072445104829896</v>
+      </c>
+      <c r="F108">
+        <v>676</v>
+      </c>
+      <c r="G108">
+        <v>23</v>
+      </c>
+      <c r="H108">
+        <v>839.52173913043396</v>
+      </c>
+      <c r="I108">
+        <v>8.7381591668919292</v>
+      </c>
+      <c r="K108">
+        <v>676</v>
+      </c>
+      <c r="L108">
+        <v>98</v>
+      </c>
+      <c r="M108">
+        <v>619.03061224489795</v>
+      </c>
+      <c r="N108">
+        <v>17.608215926309999</v>
+      </c>
+      <c r="O108">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>576</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109" s="3">
+        <v>251.26</v>
+      </c>
+      <c r="D109" s="3">
+        <v>8.2035206756368204</v>
+      </c>
+      <c r="F109">
+        <v>576</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+      <c r="H109">
+        <v>900.8</v>
+      </c>
+      <c r="I109">
+        <v>10.1919590599834</v>
+      </c>
+      <c r="K109">
+        <v>576</v>
+      </c>
+      <c r="L109">
+        <v>93</v>
+      </c>
+      <c r="M109">
+        <v>684.397849462365</v>
+      </c>
+      <c r="N109">
+        <v>15.8776596054955</v>
+      </c>
+      <c r="O109">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>484</v>
+      </c>
+      <c r="B110">
+        <v>97</v>
+      </c>
+      <c r="C110" s="3">
+        <v>317.71134020618501</v>
+      </c>
+      <c r="D110" s="3">
+        <v>8.3945284971064797</v>
+      </c>
+      <c r="F110">
+        <v>484</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>1000</v>
+      </c>
+      <c r="I110" t="s">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>484</v>
+      </c>
+      <c r="L110" s="2">
+        <v>82</v>
+      </c>
+      <c r="M110">
+        <v>747.792682926829</v>
+      </c>
+      <c r="N110">
+        <v>14.2525263060474</v>
+      </c>
+      <c r="O110">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>400</v>
+      </c>
+      <c r="B111" s="2">
+        <v>84</v>
+      </c>
+      <c r="C111">
+        <v>466.69047619047598</v>
+      </c>
+      <c r="D111">
+        <v>13.4906112645708</v>
+      </c>
+      <c r="F111">
+        <v>400</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1000</v>
+      </c>
+      <c r="I111" t="s">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>400</v>
+      </c>
+      <c r="L111">
+        <v>40</v>
+      </c>
+      <c r="M111">
+        <v>850.625</v>
+      </c>
+      <c r="N111">
+        <v>15.8559326314833</v>
+      </c>
+      <c r="O111">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01C32D-A19C-4525-BB59-C8831F2F455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2B0E1-1664-47FB-9AEA-42B8296CB3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
-    <sheet name="Compare Methods Gaussian" sheetId="3" r:id="rId2"/>
-    <sheet name="Intermediate Dimension Fourier" sheetId="2" r:id="rId3"/>
+    <sheet name="Intermediate Dimension Fourier" sheetId="2" r:id="rId2"/>
+    <sheet name="Compare Methods Gaussian" sheetId="3" r:id="rId3"/>
     <sheet name="Intermediate  Dimension Gaussia" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="28">
   <si>
     <t>target_dim</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>n=7, d=4</t>
+  </si>
+  <si>
+    <t>n=8,d=4</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U114"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6127,6 +6130,140 @@
         <v>43</v>
       </c>
     </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>784</v>
+      </c>
+      <c r="B117">
+        <v>100</v>
+      </c>
+      <c r="C117">
+        <v>282.86</v>
+      </c>
+      <c r="D117">
+        <v>10.603298116065501</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>676</v>
+      </c>
+      <c r="B118">
+        <v>97</v>
+      </c>
+      <c r="C118">
+        <v>266.90721649484499</v>
+      </c>
+      <c r="D118">
+        <v>9.9795316605223796</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>576</v>
+      </c>
+      <c r="B119">
+        <v>90</v>
+      </c>
+      <c r="C119">
+        <v>368.21111111111099</v>
+      </c>
+      <c r="D119">
+        <v>13.8348948473938</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>484</v>
+      </c>
+      <c r="B120">
+        <v>78</v>
+      </c>
+      <c r="C120">
+        <v>460.84615384615302</v>
+      </c>
+      <c r="D120">
+        <v>16.428084730839299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>400</v>
+      </c>
+      <c r="B121">
+        <v>60</v>
+      </c>
+      <c r="C121">
+        <v>560.88333333333298</v>
+      </c>
+      <c r="D121">
+        <v>19.446327334952802</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>324</v>
+      </c>
+      <c r="B122">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>670.94117647058795</v>
+      </c>
+      <c r="D122">
+        <v>17.441942449111199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>256</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>632.76923076923003</v>
+      </c>
+      <c r="D123">
+        <v>17.633137279691599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>196</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>1000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:I30">
     <sortCondition descending="1" ref="D1:D30"/>
@@ -6137,11 +6274,3061 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
+  <dimension ref="A1:P92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>324</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>105.74</v>
+      </c>
+      <c r="F5">
+        <v>2.6951791086699801</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H12" si="0">F5/E5</f>
+        <v>2.5488737551257617E-2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>324</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>203.64</v>
+      </c>
+      <c r="N5">
+        <v>5.0469288044888501</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P12" si="1">N5/M5</f>
+        <v>2.4783582815207476E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>324</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>126.59</v>
+      </c>
+      <c r="F6">
+        <v>3.1532774396985701</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.4909372301908286E-2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>324</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>235.9</v>
+      </c>
+      <c r="N6">
+        <v>9.3234302726760507</v>
+      </c>
+      <c r="O6">
+        <v>24</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>3.9522807429741631E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>324</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>158.51</v>
+      </c>
+      <c r="F7">
+        <v>5.9756080049648803</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.7698618415020382E-2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>324</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>280.33999999999997</v>
+      </c>
+      <c r="N7">
+        <v>9.6856880307011295</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>3.4549789650785229E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>324</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>172.23</v>
+      </c>
+      <c r="F8">
+        <v>6.1266317742317904</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.5572384452370612E-2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>324</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>363.81</v>
+      </c>
+      <c r="N8">
+        <v>13.343619055766601</v>
+      </c>
+      <c r="O8">
+        <v>22</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>3.6677438926270858E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>324</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>206.58</v>
+      </c>
+      <c r="F9">
+        <v>9.4583180371299296</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.5785255286716668E-2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>324</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>420.77</v>
+      </c>
+      <c r="N9">
+        <v>19.5691359709948</v>
+      </c>
+      <c r="O9">
+        <v>21</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>4.6507916369975998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>324</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>253.67</v>
+      </c>
+      <c r="F10">
+        <v>8.9025340229831595</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.5094942338404857E-2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>324</v>
+      </c>
+      <c r="L10">
+        <v>98</v>
+      </c>
+      <c r="M10">
+        <v>481.48979591836701</v>
+      </c>
+      <c r="N10">
+        <v>17.306116835005099</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>3.5942852749343043E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>324</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>307.59595959595902</v>
+      </c>
+      <c r="F11">
+        <v>14.934879822298999</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4.8553563063431095E-2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>324</v>
+      </c>
+      <c r="L11">
+        <v>91</v>
+      </c>
+      <c r="M11">
+        <v>603.69230769230705</v>
+      </c>
+      <c r="N11">
+        <v>22.430153332548301</v>
+      </c>
+      <c r="O11">
+        <v>19</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>3.7154943083986779E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>324</v>
+      </c>
+      <c r="D12">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>441.29896907216403</v>
+      </c>
+      <c r="F12">
+        <v>11.569642114501001</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.6217242561944572E-2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>324</v>
+      </c>
+      <c r="L12">
+        <v>73</v>
+      </c>
+      <c r="M12">
+        <v>702.54794520547898</v>
+      </c>
+      <c r="N12">
+        <v>18.8587404381841</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>2.6843350075799247E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>196</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>169.34</v>
+      </c>
+      <c r="F14">
+        <v>4.26228992568329</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="2">F14/E14</f>
+        <v>2.5170012552753571E-2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>196</v>
+      </c>
+      <c r="L14">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <v>719.26666666666597</v>
+      </c>
+      <c r="N14">
+        <v>18.587984008255098</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P21" si="3">N14/M14</f>
+        <v>2.5842965995349593E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>196</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>184.94</v>
+      </c>
+      <c r="F15">
+        <v>6.8380202156864103</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.6974263089036501E-2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>196</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>726.53750000000002</v>
+      </c>
+      <c r="N15">
+        <v>26.3453817646717</v>
+      </c>
+      <c r="O15">
+        <v>24</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>3.6261558095310564E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>212.94</v>
+      </c>
+      <c r="F16">
+        <v>7.4313817213289397</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3.4898946751803044E-2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>196</v>
+      </c>
+      <c r="L16">
+        <v>62</v>
+      </c>
+      <c r="M16">
+        <v>773.35483870967698</v>
+      </c>
+      <c r="N16">
+        <v>28.053654242006498</v>
+      </c>
+      <c r="O16">
+        <v>23</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>3.6275268269884121E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>196</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>281.43</v>
+      </c>
+      <c r="F17">
+        <v>10.077822457086199</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>3.5809339647820772E-2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>196</v>
+      </c>
+      <c r="L17">
+        <v>54</v>
+      </c>
+      <c r="M17">
+        <v>810.11111111111097</v>
+      </c>
+      <c r="N17">
+        <v>33.9681536602546</v>
+      </c>
+      <c r="O17">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>4.1930240425496014E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>196</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>257.93</v>
+      </c>
+      <c r="F18">
+        <v>8.9041866879537697</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3.4521717861256039E-2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>196</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>846.8125</v>
+      </c>
+      <c r="N18">
+        <v>29.265729817619999</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>3.4559869885742119E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>315.57</v>
+      </c>
+      <c r="F19">
+        <v>11.5255535657145</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3.6522969755409258E-2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>196</v>
+      </c>
+      <c r="L19">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>865.86206896551698</v>
+      </c>
+      <c r="N19">
+        <v>38.616751050126901</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>4.4599194761197947E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>196</v>
+      </c>
+      <c r="D20">
+        <v>98</v>
+      </c>
+      <c r="E20">
+        <v>384.56122448979499</v>
+      </c>
+      <c r="F20">
+        <v>18.3214895969674</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>4.7642581805471637E-2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>196</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>878.25</v>
+      </c>
+      <c r="N20">
+        <v>34.994648567866498</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>3.9845885075851406E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>196</v>
+      </c>
+      <c r="D21">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>519.50526315789398</v>
+      </c>
+      <c r="F21">
+        <v>13.4221569549488</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2.5836421508725668E-2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>196</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>893.75</v>
+      </c>
+      <c r="N21">
+        <v>25.6388639719225</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>2.8686840807745456E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>99</v>
+      </c>
+      <c r="E23">
+        <v>275.54545454545399</v>
+      </c>
+      <c r="F23">
+        <v>4.1455526052023997</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H34" si="4">F23/E23</f>
+        <v>1.5044895630889637E-2</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>144</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>144</v>
+      </c>
+      <c r="D24">
+        <v>98</v>
+      </c>
+      <c r="E24">
+        <v>296.89795918367298</v>
+      </c>
+      <c r="F24">
+        <v>4.4707663245119003</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>1.5058258860398918E-2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>144</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>98</v>
+      </c>
+      <c r="E25">
+        <v>323.57142857142799</v>
+      </c>
+      <c r="F25">
+        <v>4.98161209581838</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>1.539571067140341E-2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>144</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>144</v>
+      </c>
+      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="E26">
+        <v>387.89898989898899</v>
+      </c>
+      <c r="F26">
+        <v>8.0885953225496401</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>2.0852323757419307E-2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>144</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>144</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>393.1</v>
+      </c>
+      <c r="F27">
+        <v>6.4358917088992804</v>
+      </c>
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>1.6372148839733605E-2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>144</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>144</v>
+      </c>
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>440.07070707070699</v>
+      </c>
+      <c r="F28">
+        <v>9.2222964662418807</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>2.0956397047259309E-2</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>144</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>144</v>
+      </c>
+      <c r="D29">
+        <v>97</v>
+      </c>
+      <c r="E29">
+        <v>494.07216494845301</v>
+      </c>
+      <c r="F29">
+        <v>7.6234914365118902</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>1.5429914853242655E-2</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>144</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>144</v>
+      </c>
+      <c r="D30">
+        <v>81</v>
+      </c>
+      <c r="E30">
+        <v>642.938271604938</v>
+      </c>
+      <c r="F30">
+        <v>9.9687242424230504</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>1.5504947648455537E-2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>144</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1000</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>708.82089552238801</v>
+      </c>
+      <c r="F31">
+        <v>21.647085428293501</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>3.0539570101612193E-2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>144</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>144</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>769.70588235294099</v>
+      </c>
+      <c r="F32">
+        <v>17.7198782109052</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>2.3021622436789336E-2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>144</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1000</v>
+      </c>
+      <c r="N32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>144</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>751.142857142857</v>
+      </c>
+      <c r="F33">
+        <v>16.7224381970507</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>2.2262660209082335E-2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>144</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>930</v>
+      </c>
+      <c r="F34">
+        <v>13.7977414131164</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>1.4836281089372473E-2</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>144</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1000</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>324</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="F37">
+        <v>2.5728285122849002</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H45" si="5">F37/E37</f>
+        <v>1.6773117623605845E-2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>196</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>833</v>
+      </c>
+      <c r="N37">
+        <v>13.487044907174999</v>
+      </c>
+      <c r="O37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>324</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>200.89</v>
+      </c>
+      <c r="F38">
+        <v>3.3609220291860402</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>1.6730160929792626E-2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>196</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>981</v>
+      </c>
+      <c r="N38">
+        <v>14.686708640307099</v>
+      </c>
+      <c r="O38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>324</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>253.83</v>
+      </c>
+      <c r="F39">
+        <v>4.1694528668001203</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>1.6426162655320962E-2</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>196</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>324</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>283.74</v>
+      </c>
+      <c r="F40">
+        <v>4.5170697405561802</v>
+      </c>
+      <c r="G40">
+        <v>28</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>1.5919749561416015E-2</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>196</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>324</v>
+      </c>
+      <c r="D41">
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <v>387.06060606060601</v>
+      </c>
+      <c r="F41">
+        <v>6.0508395056569499</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>1.5632796029646862E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>324</v>
+      </c>
+      <c r="D42">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>445.572916666666</v>
+      </c>
+      <c r="F42">
+        <v>7.7568242781562704</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>1.7408652967925261E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>324</v>
+      </c>
+      <c r="D43">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>659.36842105263099</v>
+      </c>
+      <c r="F43">
+        <v>15.236811378529501</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>2.3108190947642143E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>324</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>743.84375</v>
+      </c>
+      <c r="F44">
+        <v>16.998560443025699</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>2.2852326772962332E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>324</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>819.57142857142799</v>
+      </c>
+      <c r="F45">
+        <v>18.058909467448</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>2.2034576655418529E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>196</v>
+      </c>
+      <c r="D47">
+        <v>97</v>
+      </c>
+      <c r="E47">
+        <v>291.17525773195803</v>
+      </c>
+      <c r="F47">
+        <v>4.5917727174525398</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>196</v>
+      </c>
+      <c r="D48">
+        <v>98</v>
+      </c>
+      <c r="E48">
+        <v>313.58163265306098</v>
+      </c>
+      <c r="F48">
+        <v>4.9296417323568296</v>
+      </c>
+      <c r="G48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>96</v>
+      </c>
+      <c r="E49">
+        <v>382.42708333333297</v>
+      </c>
+      <c r="F49">
+        <v>6.0373230789167103</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>196</v>
+      </c>
+      <c r="D50">
+        <v>96</v>
+      </c>
+      <c r="E50">
+        <v>426.09375</v>
+      </c>
+      <c r="F50">
+        <v>6.7265057818925298</v>
+      </c>
+      <c r="G50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>196</v>
+      </c>
+      <c r="D51">
+        <v>92</v>
+      </c>
+      <c r="E51">
+        <v>512.53260869565202</v>
+      </c>
+      <c r="F51">
+        <v>7.8480802849744897</v>
+      </c>
+      <c r="G51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>196</v>
+      </c>
+      <c r="D52">
+        <v>75</v>
+      </c>
+      <c r="E52">
+        <v>654.88</v>
+      </c>
+      <c r="F52">
+        <v>10.3791209420065</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>780.8974359</v>
+      </c>
+      <c r="F53">
+        <v>12.02446222</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>196</v>
+      </c>
+      <c r="D54">
+        <v>49</v>
+      </c>
+      <c r="E54">
+        <v>765.32653059999996</v>
+      </c>
+      <c r="F54">
+        <v>11.47965889</v>
+      </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>196</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>874.26315790000001</v>
+      </c>
+      <c r="F55">
+        <v>13.1121643</v>
+      </c>
+      <c r="G55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>324</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>213.01</v>
+      </c>
+      <c r="F57">
+        <v>3.9606459427811198</v>
+      </c>
+      <c r="G57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>324</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>206.5</v>
+      </c>
+      <c r="F58">
+        <v>3.79360882585868</v>
+      </c>
+      <c r="G58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>324</v>
+      </c>
+      <c r="D59">
+        <v>97</v>
+      </c>
+      <c r="E59">
+        <v>222.47422680412299</v>
+      </c>
+      <c r="F59">
+        <v>4.09846999407889</v>
+      </c>
+      <c r="G59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>324</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>240.46</v>
+      </c>
+      <c r="F60">
+        <v>4.3852920429036004</v>
+      </c>
+      <c r="G60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>324</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>241.87</v>
+      </c>
+      <c r="F61">
+        <v>4.4532160458154904</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>324</v>
+      </c>
+      <c r="D62">
+        <v>99</v>
+      </c>
+      <c r="E62">
+        <v>369.414141414141</v>
+      </c>
+      <c r="F62">
+        <v>6.5116398895742602</v>
+      </c>
+      <c r="G62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>324</v>
+      </c>
+      <c r="D63">
+        <v>97</v>
+      </c>
+      <c r="E63">
+        <v>392.15463917525699</v>
+      </c>
+      <c r="F63">
+        <v>6.6215016087805099</v>
+      </c>
+      <c r="G63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>324</v>
+      </c>
+      <c r="D64">
+        <v>94</v>
+      </c>
+      <c r="E64">
+        <v>508.74468085106298</v>
+      </c>
+      <c r="F64">
+        <v>8.7300673501486799</v>
+      </c>
+      <c r="G64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>324</v>
+      </c>
+      <c r="D65">
+        <v>81</v>
+      </c>
+      <c r="E65">
+        <v>651.76543209876502</v>
+      </c>
+      <c r="F65">
+        <v>10.9965305646398</v>
+      </c>
+      <c r="G65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>324</v>
+      </c>
+      <c r="D66">
+        <v>82</v>
+      </c>
+      <c r="E66">
+        <v>664.09756097560899</v>
+      </c>
+      <c r="F66">
+        <v>11.000617992405401</v>
+      </c>
+      <c r="G66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>324</v>
+      </c>
+      <c r="D67">
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>743.33333333333303</v>
+      </c>
+      <c r="F67">
+        <v>12.002571109864901</v>
+      </c>
+      <c r="G67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>324</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>835.56756756756704</v>
+      </c>
+      <c r="F68">
+        <v>13.447373267665901</v>
+      </c>
+      <c r="G68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>324</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>846.75</v>
+      </c>
+      <c r="F69">
+        <v>13.509325765073299</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>324</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>864.5</v>
+      </c>
+      <c r="F70">
+        <v>13.231745232827899</v>
+      </c>
+      <c r="G70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>324</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>849.61538461538396</v>
+      </c>
+      <c r="F71">
+        <v>13.3138632132456</v>
+      </c>
+      <c r="G71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>324</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>869</v>
+      </c>
+      <c r="F72">
+        <v>17.419095179999999</v>
+      </c>
+      <c r="G72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>400</v>
+      </c>
+      <c r="D74">
+        <v>97</v>
+      </c>
+      <c r="E74">
+        <v>204.64948453608201</v>
+      </c>
+      <c r="F74">
+        <v>7.8432559726817397</v>
+      </c>
+      <c r="G74">
+        <v>64</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>400</v>
+      </c>
+      <c r="L74">
+        <v>69</v>
+      </c>
+      <c r="M74">
+        <v>561.536231884058</v>
+      </c>
+      <c r="N74">
+        <v>21.7049773553845</v>
+      </c>
+      <c r="O74">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>400</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>216.08</v>
+      </c>
+      <c r="F75">
+        <v>8.1021004479005896</v>
+      </c>
+      <c r="G75">
+        <v>62</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>400</v>
+      </c>
+      <c r="L75">
+        <v>61</v>
+      </c>
+      <c r="M75">
+        <v>576.14754098360595</v>
+      </c>
+      <c r="N75">
+        <v>21.631651778995501</v>
+      </c>
+      <c r="O75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>400</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>201.89</v>
+      </c>
+      <c r="F76">
+        <v>7.5344808759167696</v>
+      </c>
+      <c r="G76">
+        <v>60</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>400</v>
+      </c>
+      <c r="L76">
+        <v>70</v>
+      </c>
+      <c r="M76">
+        <v>593.42857142857099</v>
+      </c>
+      <c r="N76">
+        <v>22.753087257274501</v>
+      </c>
+      <c r="O76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>400</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <v>224.06</v>
+      </c>
+      <c r="F77">
+        <v>8.2846956872567503</v>
+      </c>
+      <c r="G77">
+        <v>58</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>400</v>
+      </c>
+      <c r="L77">
+        <v>69</v>
+      </c>
+      <c r="M77">
+        <v>580.55072463768101</v>
+      </c>
+      <c r="N77">
+        <v>21.7288574378505</v>
+      </c>
+      <c r="O77">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>400</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>237.74</v>
+      </c>
+      <c r="F78">
+        <v>8.6258990277908705</v>
+      </c>
+      <c r="G78">
+        <v>56</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>400</v>
+      </c>
+      <c r="L78">
+        <v>66</v>
+      </c>
+      <c r="M78">
+        <v>637</v>
+      </c>
+      <c r="N78">
+        <v>23.347084570901799</v>
+      </c>
+      <c r="O78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>400</v>
+      </c>
+      <c r="D79">
+        <v>99</v>
+      </c>
+      <c r="E79">
+        <v>277.72727272727201</v>
+      </c>
+      <c r="F79">
+        <v>9.7903553641993799</v>
+      </c>
+      <c r="G79">
+        <v>54</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>400</v>
+      </c>
+      <c r="L79">
+        <v>60</v>
+      </c>
+      <c r="M79">
+        <v>644</v>
+      </c>
+      <c r="N79">
+        <v>21.606776616908601</v>
+      </c>
+      <c r="O79">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>400</v>
+      </c>
+      <c r="D80">
+        <v>99</v>
+      </c>
+      <c r="E80">
+        <v>321.29292929292899</v>
+      </c>
+      <c r="F80">
+        <v>11.110245061774799</v>
+      </c>
+      <c r="G80">
+        <v>52</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>400</v>
+      </c>
+      <c r="L80">
+        <v>64</v>
+      </c>
+      <c r="M80">
+        <v>636.9375</v>
+      </c>
+      <c r="N80">
+        <v>13.369099537841899</v>
+      </c>
+      <c r="O80">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>400</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>270.89</v>
+      </c>
+      <c r="F81">
+        <v>9.3334308724477797</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>400</v>
+      </c>
+      <c r="L81">
+        <v>80</v>
+      </c>
+      <c r="M81">
+        <v>659.875</v>
+      </c>
+      <c r="N81">
+        <v>17.5978972446871</v>
+      </c>
+      <c r="O81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>400</v>
+      </c>
+      <c r="D82">
+        <v>94</v>
+      </c>
+      <c r="E82">
+        <v>481.723404255319</v>
+      </c>
+      <c r="F82">
+        <v>16.280227333961101</v>
+      </c>
+      <c r="G82">
+        <v>48</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>400</v>
+      </c>
+      <c r="L82">
+        <v>67</v>
+      </c>
+      <c r="M82">
+        <v>635.05970149253699</v>
+      </c>
+      <c r="N82">
+        <v>19.9964833546207</v>
+      </c>
+      <c r="O82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>400</v>
+      </c>
+      <c r="D83">
+        <v>93</v>
+      </c>
+      <c r="E83">
+        <v>564.45161290322505</v>
+      </c>
+      <c r="F83">
+        <v>18.501032275818599</v>
+      </c>
+      <c r="G83">
+        <v>46</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>400</v>
+      </c>
+      <c r="L83">
+        <v>65</v>
+      </c>
+      <c r="M83">
+        <v>686.676923076923</v>
+      </c>
+      <c r="N83">
+        <v>21.3639016504757</v>
+      </c>
+      <c r="O83">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>400</v>
+      </c>
+      <c r="D84">
+        <v>90</v>
+      </c>
+      <c r="E84">
+        <v>625.36666666666599</v>
+      </c>
+      <c r="F84">
+        <v>20.5106137063147</v>
+      </c>
+      <c r="G84">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>400</v>
+      </c>
+      <c r="D85">
+        <v>88</v>
+      </c>
+      <c r="E85">
+        <v>576.43181818181802</v>
+      </c>
+      <c r="F85">
+        <v>18.397371893663902</v>
+      </c>
+      <c r="G85">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>400</v>
+      </c>
+      <c r="D86">
+        <v>68</v>
+      </c>
+      <c r="E86">
+        <v>710.64705882352905</v>
+      </c>
+      <c r="F86">
+        <v>22.460696473690199</v>
+      </c>
+      <c r="G86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>400</v>
+      </c>
+      <c r="D87">
+        <v>62</v>
+      </c>
+      <c r="E87">
+        <v>698.37096774193503</v>
+      </c>
+      <c r="F87">
+        <v>21.661948951622101</v>
+      </c>
+      <c r="G87">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>400</v>
+      </c>
+      <c r="D88">
+        <v>69</v>
+      </c>
+      <c r="E88">
+        <v>735.05797101449195</v>
+      </c>
+      <c r="F88">
+        <v>22.242492406507498</v>
+      </c>
+      <c r="G88">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>400</v>
+      </c>
+      <c r="D89">
+        <v>54</v>
+      </c>
+      <c r="E89">
+        <v>761.81481481481399</v>
+      </c>
+      <c r="F89">
+        <v>22.6144086458823</v>
+      </c>
+      <c r="G89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>400</v>
+      </c>
+      <c r="D90">
+        <v>43</v>
+      </c>
+      <c r="E90">
+        <v>787.30232558139505</v>
+      </c>
+      <c r="F90">
+        <v>23.2769454652226</v>
+      </c>
+      <c r="G90">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>400</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>844</v>
+      </c>
+      <c r="F91">
+        <v>24.673572421073899</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>400</v>
+      </c>
+      <c r="D92">
+        <v>13</v>
+      </c>
+      <c r="E92">
+        <v>864.38461538461502</v>
+      </c>
+      <c r="F92">
+        <v>25.5913732719536</v>
+      </c>
+      <c r="G92">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10815,7 +14002,8 @@
         <v>14.1572608940862</v>
       </c>
       <c r="O101">
-        <v>43</v>
+        <f>43^2</f>
+        <v>1849</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -10856,7 +14044,8 @@
         <v>12.743668709993299</v>
       </c>
       <c r="O102">
-        <v>43</v>
+        <f t="shared" ref="O102:O114" si="29">43^2</f>
+        <v>1849</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -10897,7 +14086,8 @@
         <v>9.6455758563007592</v>
       </c>
       <c r="O103">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -10938,7 +14128,8 @@
         <v>9.4006771016301496</v>
       </c>
       <c r="O104">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -10979,7 +14170,8 @@
         <v>9.4438519757240993</v>
       </c>
       <c r="O105">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -11020,7 +14212,8 @@
         <v>9.7591120770573596</v>
       </c>
       <c r="O106">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -11061,7 +14254,8 @@
         <v>16.5111998798698</v>
       </c>
       <c r="O107">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -11102,7 +14296,8 @@
         <v>17.608215926309999</v>
       </c>
       <c r="O108">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -11143,7 +14338,8 @@
         <v>15.8776596054955</v>
       </c>
       <c r="O109">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -11184,7 +14380,8 @@
         <v>14.2525263060474</v>
       </c>
       <c r="O110">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -11225,7 +14422,388 @@
         <v>15.8559326314833</v>
       </c>
       <c r="O111">
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>324</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112">
+        <v>702.65517241379303</v>
+      </c>
+      <c r="D112">
+        <v>25.0178519035207</v>
+      </c>
+      <c r="F112">
+        <v>324</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1000</v>
+      </c>
+      <c r="I112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112">
+        <v>324</v>
+      </c>
+      <c r="L112">
+        <v>7</v>
+      </c>
+      <c r="M112">
+        <v>927.42857142857099</v>
+      </c>
+      <c r="N112">
+        <v>33.821491213515401</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="29"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>256</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>765.5</v>
+      </c>
+      <c r="D113">
+        <v>35.031742644496198</v>
+      </c>
+      <c r="F113">
+        <v>256</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1000</v>
+      </c>
+      <c r="I113" t="s">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>256</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1000</v>
+      </c>
+      <c r="N113" t="s">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="29"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>196</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>196</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1000</v>
+      </c>
+      <c r="I114" t="s">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>196</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>1000</v>
+      </c>
+      <c r="N114" t="s">
+        <v>5</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="29"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>784</v>
+      </c>
+      <c r="B117">
+        <v>99</v>
+      </c>
+      <c r="C117">
+        <v>143.636363636363</v>
+      </c>
+      <c r="D117">
+        <v>6.1658882071085301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>676</v>
+      </c>
+      <c r="B118">
+        <v>99</v>
+      </c>
+      <c r="C118">
+        <v>169.12121212121201</v>
+      </c>
+      <c r="D118">
+        <v>6.4828885461231902</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>576</v>
+      </c>
+      <c r="B119">
+        <v>98</v>
+      </c>
+      <c r="C119">
+        <v>185.66326530612201</v>
+      </c>
+      <c r="D119">
+        <v>8.1960804540929999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>484</v>
+      </c>
+      <c r="B120">
+        <v>96</v>
+      </c>
+      <c r="C120">
+        <v>219.416666666666</v>
+      </c>
+      <c r="D120">
+        <v>8.0369083573265598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>400</v>
+      </c>
+      <c r="B121">
+        <v>90</v>
+      </c>
+      <c r="C121">
+        <v>285.83333333333297</v>
+      </c>
+      <c r="D121">
+        <v>11.6596064049543</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>324</v>
+      </c>
+      <c r="B122">
+        <v>77</v>
+      </c>
+      <c r="C122">
+        <v>342.68831168831099</v>
+      </c>
+      <c r="D122">
+        <v>12.8489277772363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>256</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>473.26</v>
+      </c>
+      <c r="D123">
+        <v>19.482518542744199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>196</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>514.53333333333296</v>
+      </c>
+      <c r="D124">
+        <v>20.1812223280469</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>784</v>
+      </c>
+      <c r="B127">
+        <v>100</v>
+      </c>
+      <c r="C127">
+        <v>194.18</v>
+      </c>
+      <c r="D127">
+        <v>5.8563496907055299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>676</v>
+      </c>
+      <c r="B128">
+        <v>100</v>
+      </c>
+      <c r="C128">
+        <v>242.45</v>
+      </c>
+      <c r="D128">
+        <v>7.47470904404297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>576</v>
+      </c>
+      <c r="B129">
+        <v>97</v>
+      </c>
+      <c r="C129">
+        <v>342.98969072164903</v>
+      </c>
+      <c r="D129">
+        <v>11.452429957111701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>484</v>
+      </c>
+      <c r="B130">
+        <v>80</v>
+      </c>
+      <c r="C130">
+        <v>459.875</v>
+      </c>
+      <c r="D130">
+        <v>13.735723735718</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>400</v>
+      </c>
+      <c r="B131">
+        <v>37</v>
+      </c>
+      <c r="C131">
+        <v>653.75675675675598</v>
+      </c>
+      <c r="D131">
+        <v>18.857268682756501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>324</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>795.85714285714198</v>
+      </c>
+      <c r="D132">
+        <v>22.5429528807955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>256</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1000</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -11234,12 +14812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
-  <dimension ref="A1:P72"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11318,2404 +14896,6 @@
         <v>324</v>
       </c>
       <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>105.74</v>
-      </c>
-      <c r="F5">
-        <v>2.6951791086699801</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H12" si="0">F5/E5</f>
-        <v>2.5488737551257617E-2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>324</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>203.64</v>
-      </c>
-      <c r="N5">
-        <v>5.0469288044888501</v>
-      </c>
-      <c r="O5">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P12" si="1">N5/M5</f>
-        <v>2.4783582815207476E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>324</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>126.59</v>
-      </c>
-      <c r="F6">
-        <v>3.1532774396985701</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>2.4909372301908286E-2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>324</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>235.9</v>
-      </c>
-      <c r="N6">
-        <v>9.3234302726760507</v>
-      </c>
-      <c r="O6">
-        <v>24</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>3.9522807429741631E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>324</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>158.51</v>
-      </c>
-      <c r="F7">
-        <v>5.9756080049648803</v>
-      </c>
-      <c r="G7">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>3.7698618415020382E-2</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>324</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>280.33999999999997</v>
-      </c>
-      <c r="N7">
-        <v>9.6856880307011295</v>
-      </c>
-      <c r="O7">
-        <v>23</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>3.4549789650785229E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>324</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>172.23</v>
-      </c>
-      <c r="F8">
-        <v>6.1266317742317904</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>3.5572384452370612E-2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>324</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>363.81</v>
-      </c>
-      <c r="N8">
-        <v>13.343619055766601</v>
-      </c>
-      <c r="O8">
-        <v>22</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>3.6677438926270858E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>324</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>206.58</v>
-      </c>
-      <c r="F9">
-        <v>9.4583180371299296</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>4.5785255286716668E-2</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>324</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>420.77</v>
-      </c>
-      <c r="N9">
-        <v>19.5691359709948</v>
-      </c>
-      <c r="O9">
-        <v>21</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>4.6507916369975998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>324</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>253.67</v>
-      </c>
-      <c r="F10">
-        <v>8.9025340229831595</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>3.5094942338404857E-2</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>324</v>
-      </c>
-      <c r="L10">
-        <v>98</v>
-      </c>
-      <c r="M10">
-        <v>481.48979591836701</v>
-      </c>
-      <c r="N10">
-        <v>17.306116835005099</v>
-      </c>
-      <c r="O10">
-        <v>20</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>3.5942852749343043E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>324</v>
-      </c>
-      <c r="D11">
-        <v>99</v>
-      </c>
-      <c r="E11">
-        <v>307.59595959595902</v>
-      </c>
-      <c r="F11">
-        <v>14.934879822298999</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>4.8553563063431095E-2</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>324</v>
-      </c>
-      <c r="L11">
-        <v>91</v>
-      </c>
-      <c r="M11">
-        <v>603.69230769230705</v>
-      </c>
-      <c r="N11">
-        <v>22.430153332548301</v>
-      </c>
-      <c r="O11">
-        <v>19</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="1"/>
-        <v>3.7154943083986779E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>324</v>
-      </c>
-      <c r="D12">
-        <v>97</v>
-      </c>
-      <c r="E12">
-        <v>441.29896907216403</v>
-      </c>
-      <c r="F12">
-        <v>11.569642114501001</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>2.6217242561944572E-2</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>324</v>
-      </c>
-      <c r="L12">
-        <v>73</v>
-      </c>
-      <c r="M12">
-        <v>702.54794520547898</v>
-      </c>
-      <c r="N12">
-        <v>18.8587404381841</v>
-      </c>
-      <c r="O12">
-        <v>18</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>2.6843350075799247E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>196</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>169.34</v>
-      </c>
-      <c r="F14">
-        <v>4.26228992568329</v>
-      </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H21" si="2">F14/E14</f>
-        <v>2.5170012552753571E-2</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>196</v>
-      </c>
-      <c r="L14">
-        <v>75</v>
-      </c>
-      <c r="M14">
-        <v>719.26666666666597</v>
-      </c>
-      <c r="N14">
-        <v>18.587984008255098</v>
-      </c>
-      <c r="O14">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ref="P14:P21" si="3">N14/M14</f>
-        <v>2.5842965995349593E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>196</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>184.94</v>
-      </c>
-      <c r="F15">
-        <v>6.8380202156864103</v>
-      </c>
-      <c r="G15">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>3.6974263089036501E-2</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>196</v>
-      </c>
-      <c r="L15">
-        <v>80</v>
-      </c>
-      <c r="M15">
-        <v>726.53750000000002</v>
-      </c>
-      <c r="N15">
-        <v>26.3453817646717</v>
-      </c>
-      <c r="O15">
-        <v>24</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
-        <v>3.6261558095310564E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>196</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>212.94</v>
-      </c>
-      <c r="F16">
-        <v>7.4313817213289397</v>
-      </c>
-      <c r="G16">
-        <v>23</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>3.4898946751803044E-2</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>196</v>
-      </c>
-      <c r="L16">
-        <v>62</v>
-      </c>
-      <c r="M16">
-        <v>773.35483870967698</v>
-      </c>
-      <c r="N16">
-        <v>28.053654242006498</v>
-      </c>
-      <c r="O16">
-        <v>23</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
-        <v>3.6275268269884121E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>196</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>281.43</v>
-      </c>
-      <c r="F17">
-        <v>10.077822457086199</v>
-      </c>
-      <c r="G17">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>3.5809339647820772E-2</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>196</v>
-      </c>
-      <c r="L17">
-        <v>54</v>
-      </c>
-      <c r="M17">
-        <v>810.11111111111097</v>
-      </c>
-      <c r="N17">
-        <v>33.9681536602546</v>
-      </c>
-      <c r="O17">
-        <v>22</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>4.1930240425496014E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>196</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>257.93</v>
-      </c>
-      <c r="F18">
-        <v>8.9041866879537697</v>
-      </c>
-      <c r="G18">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>3.4521717861256039E-2</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>196</v>
-      </c>
-      <c r="L18">
-        <v>32</v>
-      </c>
-      <c r="M18">
-        <v>846.8125</v>
-      </c>
-      <c r="N18">
-        <v>29.265729817619999</v>
-      </c>
-      <c r="O18">
-        <v>21</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>3.4559869885742119E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>196</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>315.57</v>
-      </c>
-      <c r="F19">
-        <v>11.5255535657145</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>3.6522969755409258E-2</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>196</v>
-      </c>
-      <c r="L19">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>865.86206896551698</v>
-      </c>
-      <c r="N19">
-        <v>38.616751050126901</v>
-      </c>
-      <c r="O19">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
-        <v>4.4599194761197947E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>196</v>
-      </c>
-      <c r="D20">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>384.56122448979499</v>
-      </c>
-      <c r="F20">
-        <v>18.3214895969674</v>
-      </c>
-      <c r="G20">
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>4.7642581805471637E-2</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>196</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <v>878.25</v>
-      </c>
-      <c r="N20">
-        <v>34.994648567866498</v>
-      </c>
-      <c r="O20">
-        <v>19</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
-        <v>3.9845885075851406E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>196</v>
-      </c>
-      <c r="D21">
-        <v>95</v>
-      </c>
-      <c r="E21">
-        <v>519.50526315789398</v>
-      </c>
-      <c r="F21">
-        <v>13.4221569549488</v>
-      </c>
-      <c r="G21">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>2.5836421508725668E-2</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>196</v>
-      </c>
-      <c r="L21">
-        <v>8</v>
-      </c>
-      <c r="M21">
-        <v>893.75</v>
-      </c>
-      <c r="N21">
-        <v>25.6388639719225</v>
-      </c>
-      <c r="O21">
-        <v>18</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
-        <v>2.8686840807745456E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>144</v>
-      </c>
-      <c r="D23">
-        <v>99</v>
-      </c>
-      <c r="E23">
-        <v>275.54545454545399</v>
-      </c>
-      <c r="F23">
-        <v>4.1455526052023997</v>
-      </c>
-      <c r="G23">
-        <v>25</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H34" si="4">F23/E23</f>
-        <v>1.5044895630889637E-2</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>144</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1000</v>
-      </c>
-      <c r="N23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>144</v>
-      </c>
-      <c r="D24">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>296.89795918367298</v>
-      </c>
-      <c r="F24">
-        <v>4.4707663245119003</v>
-      </c>
-      <c r="G24">
-        <v>24</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>1.5058258860398918E-2</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>144</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1000</v>
-      </c>
-      <c r="N24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>144</v>
-      </c>
-      <c r="D25">
-        <v>98</v>
-      </c>
-      <c r="E25">
-        <v>323.57142857142799</v>
-      </c>
-      <c r="F25">
-        <v>4.98161209581838</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>1.539571067140341E-2</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25">
-        <v>144</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1000</v>
-      </c>
-      <c r="N25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>144</v>
-      </c>
-      <c r="D26">
-        <v>99</v>
-      </c>
-      <c r="E26">
-        <v>387.89898989898899</v>
-      </c>
-      <c r="F26">
-        <v>8.0885953225496401</v>
-      </c>
-      <c r="G26">
-        <v>22</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>2.0852323757419307E-2</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>144</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1000</v>
-      </c>
-      <c r="N26" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>144</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27">
-        <v>393.1</v>
-      </c>
-      <c r="F27">
-        <v>6.4358917088992804</v>
-      </c>
-      <c r="G27">
-        <v>21</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>1.6372148839733605E-2</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>144</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>144</v>
-      </c>
-      <c r="D28">
-        <v>99</v>
-      </c>
-      <c r="E28">
-        <v>440.07070707070699</v>
-      </c>
-      <c r="F28">
-        <v>9.2222964662418807</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
-        <v>2.0956397047259309E-2</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28">
-        <v>144</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1000</v>
-      </c>
-      <c r="N28" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>144</v>
-      </c>
-      <c r="D29">
-        <v>97</v>
-      </c>
-      <c r="E29">
-        <v>494.07216494845301</v>
-      </c>
-      <c r="F29">
-        <v>7.6234914365118902</v>
-      </c>
-      <c r="G29">
-        <v>19</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="4"/>
-        <v>1.5429914853242655E-2</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29">
-        <v>144</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>1000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>144</v>
-      </c>
-      <c r="D30">
-        <v>81</v>
-      </c>
-      <c r="E30">
-        <v>642.938271604938</v>
-      </c>
-      <c r="F30">
-        <v>9.9687242424230504</v>
-      </c>
-      <c r="G30">
-        <v>18</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="4"/>
-        <v>1.5504947648455537E-2</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>144</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1000</v>
-      </c>
-      <c r="N30" t="s">
-        <v>5</v>
-      </c>
-      <c r="O30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>144</v>
-      </c>
-      <c r="D31">
-        <v>67</v>
-      </c>
-      <c r="E31">
-        <v>708.82089552238801</v>
-      </c>
-      <c r="F31">
-        <v>21.647085428293501</v>
-      </c>
-      <c r="G31">
-        <v>17</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
-        <v>3.0539570101612193E-2</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31">
-        <v>144</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1000</v>
-      </c>
-      <c r="N31" t="s">
-        <v>5</v>
-      </c>
-      <c r="O31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>144</v>
-      </c>
-      <c r="D32">
-        <v>34</v>
-      </c>
-      <c r="E32">
-        <v>769.70588235294099</v>
-      </c>
-      <c r="F32">
-        <v>17.7198782109052</v>
-      </c>
-      <c r="G32">
-        <v>16</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="4"/>
-        <v>2.3021622436789336E-2</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>144</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1000</v>
-      </c>
-      <c r="N32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>144</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>751.142857142857</v>
-      </c>
-      <c r="F33">
-        <v>16.7224381970507</v>
-      </c>
-      <c r="G33">
-        <v>15</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="4"/>
-        <v>2.2262660209082335E-2</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>144</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>1000</v>
-      </c>
-      <c r="N33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>144</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>930</v>
-      </c>
-      <c r="F34">
-        <v>13.7977414131164</v>
-      </c>
-      <c r="G34">
-        <v>14</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="4"/>
-        <v>1.4836281089372473E-2</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>144</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>1000</v>
-      </c>
-      <c r="N34" t="s">
-        <v>5</v>
-      </c>
-      <c r="O34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>324</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>153.38999999999999</v>
-      </c>
-      <c r="F37">
-        <v>2.5728285122849002</v>
-      </c>
-      <c r="G37">
-        <v>34</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H45" si="5">F37/E37</f>
-        <v>1.6773117623605845E-2</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37">
-        <v>196</v>
-      </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>833</v>
-      </c>
-      <c r="N37">
-        <v>13.487044907174999</v>
-      </c>
-      <c r="O37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>324</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>200.89</v>
-      </c>
-      <c r="F38">
-        <v>3.3609220291860402</v>
-      </c>
-      <c r="G38">
-        <v>32</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
-        <v>1.6730160929792626E-2</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38">
-        <v>196</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>981</v>
-      </c>
-      <c r="N38">
-        <v>14.686708640307099</v>
-      </c>
-      <c r="O38">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>324</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>253.83</v>
-      </c>
-      <c r="F39">
-        <v>4.1694528668001203</v>
-      </c>
-      <c r="G39">
-        <v>30</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>1.6426162655320962E-2</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39">
-        <v>196</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>1000</v>
-      </c>
-      <c r="N39" t="s">
-        <v>5</v>
-      </c>
-      <c r="O39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>324</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <v>283.74</v>
-      </c>
-      <c r="F40">
-        <v>4.5170697405561802</v>
-      </c>
-      <c r="G40">
-        <v>28</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="5"/>
-        <v>1.5919749561416015E-2</v>
-      </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40">
-        <v>196</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>1000</v>
-      </c>
-      <c r="N40" t="s">
-        <v>5</v>
-      </c>
-      <c r="O40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>324</v>
-      </c>
-      <c r="D41">
-        <v>99</v>
-      </c>
-      <c r="E41">
-        <v>387.06060606060601</v>
-      </c>
-      <c r="F41">
-        <v>6.0508395056569499</v>
-      </c>
-      <c r="G41">
-        <v>26</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="5"/>
-        <v>1.5632796029646862E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>324</v>
-      </c>
-      <c r="D42">
-        <v>96</v>
-      </c>
-      <c r="E42">
-        <v>445.572916666666</v>
-      </c>
-      <c r="F42">
-        <v>7.7568242781562704</v>
-      </c>
-      <c r="G42">
-        <v>24</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="5"/>
-        <v>1.7408652967925261E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>324</v>
-      </c>
-      <c r="D43">
-        <v>76</v>
-      </c>
-      <c r="E43">
-        <v>659.36842105263099</v>
-      </c>
-      <c r="F43">
-        <v>15.236811378529501</v>
-      </c>
-      <c r="G43">
-        <v>22</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="5"/>
-        <v>2.3108190947642143E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>324</v>
-      </c>
-      <c r="D44">
-        <v>64</v>
-      </c>
-      <c r="E44">
-        <v>743.84375</v>
-      </c>
-      <c r="F44">
-        <v>16.998560443025699</v>
-      </c>
-      <c r="G44">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="5"/>
-        <v>2.2852326772962332E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>324</v>
-      </c>
-      <c r="D45">
-        <v>35</v>
-      </c>
-      <c r="E45">
-        <v>819.57142857142799</v>
-      </c>
-      <c r="F45">
-        <v>18.058909467448</v>
-      </c>
-      <c r="G45">
-        <v>18</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="5"/>
-        <v>2.2034576655418529E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>196</v>
-      </c>
-      <c r="D47">
-        <v>97</v>
-      </c>
-      <c r="E47">
-        <v>291.17525773195803</v>
-      </c>
-      <c r="F47">
-        <v>4.5917727174525398</v>
-      </c>
-      <c r="G47">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>196</v>
-      </c>
-      <c r="D48">
-        <v>98</v>
-      </c>
-      <c r="E48">
-        <v>313.58163265306098</v>
-      </c>
-      <c r="F48">
-        <v>4.9296417323568296</v>
-      </c>
-      <c r="G48">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>196</v>
-      </c>
-      <c r="D49">
-        <v>96</v>
-      </c>
-      <c r="E49">
-        <v>382.42708333333297</v>
-      </c>
-      <c r="F49">
-        <v>6.0373230789167103</v>
-      </c>
-      <c r="G49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>196</v>
-      </c>
-      <c r="D50">
-        <v>96</v>
-      </c>
-      <c r="E50">
-        <v>426.09375</v>
-      </c>
-      <c r="F50">
-        <v>6.7265057818925298</v>
-      </c>
-      <c r="G50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>196</v>
-      </c>
-      <c r="D51">
-        <v>92</v>
-      </c>
-      <c r="E51">
-        <v>512.53260869565202</v>
-      </c>
-      <c r="F51">
-        <v>7.8480802849744897</v>
-      </c>
-      <c r="G51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>196</v>
-      </c>
-      <c r="D52">
-        <v>75</v>
-      </c>
-      <c r="E52">
-        <v>654.88</v>
-      </c>
-      <c r="F52">
-        <v>10.3791209420065</v>
-      </c>
-      <c r="G52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>196</v>
-      </c>
-      <c r="D53">
-        <v>39</v>
-      </c>
-      <c r="E53">
-        <v>780.8974359</v>
-      </c>
-      <c r="F53">
-        <v>12.02446222</v>
-      </c>
-      <c r="G53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>196</v>
-      </c>
-      <c r="D54">
-        <v>49</v>
-      </c>
-      <c r="E54">
-        <v>765.32653059999996</v>
-      </c>
-      <c r="F54">
-        <v>11.47965889</v>
-      </c>
-      <c r="G54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>196</v>
-      </c>
-      <c r="D55">
-        <v>19</v>
-      </c>
-      <c r="E55">
-        <v>874.26315790000001</v>
-      </c>
-      <c r="F55">
-        <v>13.1121643</v>
-      </c>
-      <c r="G55">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>324</v>
-      </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
-      <c r="E57">
-        <v>213.01</v>
-      </c>
-      <c r="F57">
-        <v>3.9606459427811198</v>
-      </c>
-      <c r="G57">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>324</v>
-      </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
-      <c r="E58">
-        <v>206.5</v>
-      </c>
-      <c r="F58">
-        <v>3.79360882585868</v>
-      </c>
-      <c r="G58">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>324</v>
-      </c>
-      <c r="D59">
-        <v>97</v>
-      </c>
-      <c r="E59">
-        <v>222.47422680412299</v>
-      </c>
-      <c r="F59">
-        <v>4.09846999407889</v>
-      </c>
-      <c r="G59">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>324</v>
-      </c>
-      <c r="D60">
-        <v>100</v>
-      </c>
-      <c r="E60">
-        <v>240.46</v>
-      </c>
-      <c r="F60">
-        <v>4.3852920429036004</v>
-      </c>
-      <c r="G60">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>324</v>
-      </c>
-      <c r="D61">
-        <v>100</v>
-      </c>
-      <c r="E61">
-        <v>241.87</v>
-      </c>
-      <c r="F61">
-        <v>4.4532160458154904</v>
-      </c>
-      <c r="G61">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>324</v>
-      </c>
-      <c r="D62">
-        <v>99</v>
-      </c>
-      <c r="E62">
-        <v>369.414141414141</v>
-      </c>
-      <c r="F62">
-        <v>6.5116398895742602</v>
-      </c>
-      <c r="G62">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>324</v>
-      </c>
-      <c r="D63">
-        <v>97</v>
-      </c>
-      <c r="E63">
-        <v>392.15463917525699</v>
-      </c>
-      <c r="F63">
-        <v>6.6215016087805099</v>
-      </c>
-      <c r="G63">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>324</v>
-      </c>
-      <c r="D64">
-        <v>94</v>
-      </c>
-      <c r="E64">
-        <v>508.74468085106298</v>
-      </c>
-      <c r="F64">
-        <v>8.7300673501486799</v>
-      </c>
-      <c r="G64">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>324</v>
-      </c>
-      <c r="D65">
-        <v>81</v>
-      </c>
-      <c r="E65">
-        <v>651.76543209876502</v>
-      </c>
-      <c r="F65">
-        <v>10.9965305646398</v>
-      </c>
-      <c r="G65">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>324</v>
-      </c>
-      <c r="D66">
-        <v>82</v>
-      </c>
-      <c r="E66">
-        <v>664.09756097560899</v>
-      </c>
-      <c r="F66">
-        <v>11.000617992405401</v>
-      </c>
-      <c r="G66">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>324</v>
-      </c>
-      <c r="D67">
-        <v>51</v>
-      </c>
-      <c r="E67">
-        <v>743.33333333333303</v>
-      </c>
-      <c r="F67">
-        <v>12.002571109864901</v>
-      </c>
-      <c r="G67">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>324</v>
-      </c>
-      <c r="D68">
-        <v>37</v>
-      </c>
-      <c r="E68">
-        <v>835.56756756756704</v>
-      </c>
-      <c r="F68">
-        <v>13.447373267665901</v>
-      </c>
-      <c r="G68">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>324</v>
-      </c>
-      <c r="D69">
-        <v>16</v>
-      </c>
-      <c r="E69">
-        <v>846.75</v>
-      </c>
-      <c r="F69">
-        <v>13.509325765073299</v>
-      </c>
-      <c r="G69">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70">
-        <v>324</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <v>864.5</v>
-      </c>
-      <c r="F70">
-        <v>13.231745232827899</v>
-      </c>
-      <c r="G70">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71">
-        <v>324</v>
-      </c>
-      <c r="D71">
-        <v>13</v>
-      </c>
-      <c r="E71">
-        <v>849.61538461538396</v>
-      </c>
-      <c r="F71">
-        <v>13.3138632132456</v>
-      </c>
-      <c r="G71">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>324</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>869</v>
-      </c>
-      <c r="F72">
-        <v>17.419095179999999</v>
-      </c>
-      <c r="G72">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>324</v>
-      </c>
-      <c r="D5">
         <v>98</v>
       </c>
       <c r="E5">
@@ -15772,7 +16952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>2</v>
       </c>
@@ -15795,7 +16975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2</v>
       </c>
@@ -15818,7 +16998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>2</v>
       </c>
@@ -15841,7 +17021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2</v>
       </c>
@@ -15864,7 +17044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>2</v>
       </c>
@@ -15885,6 +17065,658 @@
       </c>
       <c r="G69">
         <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>400</v>
+      </c>
+      <c r="D71">
+        <v>98</v>
+      </c>
+      <c r="E71">
+        <v>423.5</v>
+      </c>
+      <c r="F71">
+        <v>9.0964291085850206</v>
+      </c>
+      <c r="G71">
+        <v>64</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>400</v>
+      </c>
+      <c r="L71">
+        <v>35</v>
+      </c>
+      <c r="M71">
+        <v>780.94285714285695</v>
+      </c>
+      <c r="N71">
+        <v>20.859349279105601</v>
+      </c>
+      <c r="O71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>400</v>
+      </c>
+      <c r="D72">
+        <v>97</v>
+      </c>
+      <c r="E72">
+        <v>420.56701030927798</v>
+      </c>
+      <c r="F72">
+        <v>8.8907207179737693</v>
+      </c>
+      <c r="G72">
+        <v>62</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>400</v>
+      </c>
+      <c r="L72">
+        <v>30</v>
+      </c>
+      <c r="M72">
+        <v>829.6</v>
+      </c>
+      <c r="N72">
+        <v>25.463095420971499</v>
+      </c>
+      <c r="O72">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>400</v>
+      </c>
+      <c r="D73">
+        <v>94</v>
+      </c>
+      <c r="E73">
+        <v>440.18085106382898</v>
+      </c>
+      <c r="F73">
+        <v>9.3584520068376307</v>
+      </c>
+      <c r="G73">
+        <v>60</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>400</v>
+      </c>
+      <c r="L73">
+        <v>26</v>
+      </c>
+      <c r="M73">
+        <v>822.53846153846098</v>
+      </c>
+      <c r="N73">
+        <v>25.130482175029201</v>
+      </c>
+      <c r="O73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>400</v>
+      </c>
+      <c r="D74">
+        <v>96</v>
+      </c>
+      <c r="E74">
+        <v>424.61458333333297</v>
+      </c>
+      <c r="F74">
+        <v>8.96815269702347</v>
+      </c>
+      <c r="G74">
+        <v>58</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>400</v>
+      </c>
+      <c r="L74">
+        <v>15</v>
+      </c>
+      <c r="M74">
+        <v>846.2</v>
+      </c>
+      <c r="N74">
+        <v>24.267018843566301</v>
+      </c>
+      <c r="O74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>400</v>
+      </c>
+      <c r="D75">
+        <v>95</v>
+      </c>
+      <c r="E75">
+        <v>531.67368421052595</v>
+      </c>
+      <c r="F75">
+        <v>11.0837625433151</v>
+      </c>
+      <c r="G75">
+        <v>56</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>400</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>845</v>
+      </c>
+      <c r="N75">
+        <v>23.3047984425762</v>
+      </c>
+      <c r="O75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>400</v>
+      </c>
+      <c r="D76">
+        <v>94</v>
+      </c>
+      <c r="E76">
+        <v>504.63829787233999</v>
+      </c>
+      <c r="F76">
+        <v>10.5229280091069</v>
+      </c>
+      <c r="G76">
+        <v>54</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>400</v>
+      </c>
+      <c r="L76">
+        <v>20</v>
+      </c>
+      <c r="M76">
+        <v>848.5</v>
+      </c>
+      <c r="N76">
+        <v>17.069780003745102</v>
+      </c>
+      <c r="O76">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>400</v>
+      </c>
+      <c r="D77">
+        <v>96</v>
+      </c>
+      <c r="E77">
+        <v>479.48958333333297</v>
+      </c>
+      <c r="F77">
+        <v>9.5011443834518996</v>
+      </c>
+      <c r="G77">
+        <v>52</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>400</v>
+      </c>
+      <c r="L77">
+        <v>17</v>
+      </c>
+      <c r="M77">
+        <v>857.88235294117601</v>
+      </c>
+      <c r="N77">
+        <v>25.310378702138198</v>
+      </c>
+      <c r="O77">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>400</v>
+      </c>
+      <c r="D78">
+        <v>94</v>
+      </c>
+      <c r="E78">
+        <v>525.17021276595699</v>
+      </c>
+      <c r="F78">
+        <v>10.2647507045655</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>400</v>
+      </c>
+      <c r="L78">
+        <v>16</v>
+      </c>
+      <c r="M78">
+        <v>885.5</v>
+      </c>
+      <c r="N78">
+        <v>26.529630140517799</v>
+      </c>
+      <c r="O78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>400</v>
+      </c>
+      <c r="D79">
+        <v>96</v>
+      </c>
+      <c r="E79">
+        <v>555.08333333333303</v>
+      </c>
+      <c r="F79">
+        <v>11.0177504266418</v>
+      </c>
+      <c r="G79">
+        <v>48</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>400</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>891.4</v>
+      </c>
+      <c r="N79">
+        <v>25.547703587263801</v>
+      </c>
+      <c r="O79">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>400</v>
+      </c>
+      <c r="D80">
+        <v>97</v>
+      </c>
+      <c r="E80">
+        <v>554.80412371134003</v>
+      </c>
+      <c r="F80">
+        <v>10.9593935572763</v>
+      </c>
+      <c r="G80">
+        <v>46</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>400</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>889.5</v>
+      </c>
+      <c r="N80">
+        <v>32.637891969643498</v>
+      </c>
+      <c r="O80">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>400</v>
+      </c>
+      <c r="D81">
+        <v>93</v>
+      </c>
+      <c r="E81">
+        <v>519.62365591397804</v>
+      </c>
+      <c r="F81">
+        <v>10.3195841289375</v>
+      </c>
+      <c r="G81">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>400</v>
+      </c>
+      <c r="D82">
+        <v>84</v>
+      </c>
+      <c r="E82">
+        <v>582.96428571428498</v>
+      </c>
+      <c r="F82">
+        <v>11.3437948853354</v>
+      </c>
+      <c r="G82">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>400</v>
+      </c>
+      <c r="D83">
+        <v>80</v>
+      </c>
+      <c r="E83">
+        <v>597.65</v>
+      </c>
+      <c r="F83">
+        <v>11.6150051051285</v>
+      </c>
+      <c r="G83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>400</v>
+      </c>
+      <c r="D84">
+        <v>90</v>
+      </c>
+      <c r="E84">
+        <v>543.155555555555</v>
+      </c>
+      <c r="F84">
+        <v>10.5625107677446</v>
+      </c>
+      <c r="G84">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>400</v>
+      </c>
+      <c r="D85">
+        <v>75</v>
+      </c>
+      <c r="E85">
+        <v>588.25333333333299</v>
+      </c>
+      <c r="F85">
+        <v>11.377903195818201</v>
+      </c>
+      <c r="G85">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>400</v>
+      </c>
+      <c r="D86">
+        <v>48</v>
+      </c>
+      <c r="E86">
+        <v>714.47916666666595</v>
+      </c>
+      <c r="F86">
+        <v>13.8393050375161</v>
+      </c>
+      <c r="G86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>400</v>
+      </c>
+      <c r="D87">
+        <v>47</v>
+      </c>
+      <c r="E87">
+        <v>733.468085106383</v>
+      </c>
+      <c r="F87">
+        <v>14.1053441997538</v>
+      </c>
+      <c r="G87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>400</v>
+      </c>
+      <c r="D88">
+        <v>42</v>
+      </c>
+      <c r="E88">
+        <v>718.2857143</v>
+      </c>
+      <c r="F88">
+        <v>13.851180340000001</v>
+      </c>
+      <c r="G88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>400</v>
+      </c>
+      <c r="D89">
+        <v>28</v>
+      </c>
+      <c r="E89">
+        <v>780.32142859999999</v>
+      </c>
+      <c r="F89">
+        <v>14.96390658</v>
+      </c>
+      <c r="G89">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2B0E1-1664-47FB-9AEA-42B8296CB3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D188A35-233B-4C39-BD9C-9FEA6B906B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="28">
   <si>
     <t>target_dim</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U124"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5511,7 +5511,7 @@
         <v>15.1870896384492</v>
       </c>
       <c r="O101">
-        <f t="shared" ref="O101:O107" si="33">43^2</f>
+        <f t="shared" ref="O101:O114" si="33">43^2</f>
         <v>1849</v>
       </c>
       <c r="P101">
@@ -5533,7 +5533,7 @@
         <v>5.49632125105708</v>
       </c>
       <c r="E102">
-        <f t="shared" ref="E102:E107" si="34">A102*($A$100^$B$100)</f>
+        <f t="shared" ref="E102:E114" si="34">A102*($A$100^$B$100)</f>
         <v>3467044</v>
       </c>
       <c r="F102">
@@ -5549,7 +5549,7 @@
         <v>11.0199326294474</v>
       </c>
       <c r="J102">
-        <f t="shared" ref="J102:J107" si="35">2*$A$100^($B$100/2)*(F102^0.5)</f>
+        <f t="shared" ref="J102:J114" si="35">2*$A$100^($B$100/2)*(F102^0.5)</f>
         <v>3724</v>
       </c>
       <c r="K102">
@@ -5569,7 +5569,7 @@
         <v>1849</v>
       </c>
       <c r="P102">
-        <f t="shared" ref="P102:P107" si="36">2*($A$100^($B$100/2))*O102^0.5+O102*K102</f>
+        <f t="shared" ref="P102:P114" si="36">2*($A$100^($B$100/2))*O102^0.5+O102*K102</f>
         <v>2674170</v>
       </c>
     </row>
@@ -5856,6 +5856,10 @@
       <c r="D108">
         <v>14.0449295789562</v>
       </c>
+      <c r="E108">
+        <f t="shared" si="34"/>
+        <v>1623076</v>
+      </c>
       <c r="F108">
         <v>676</v>
       </c>
@@ -5868,6 +5872,10 @@
       <c r="I108">
         <v>37.518349973241897</v>
       </c>
+      <c r="J108">
+        <f t="shared" si="35"/>
+        <v>2548</v>
+      </c>
       <c r="K108">
         <v>676</v>
       </c>
@@ -5881,7 +5889,12 @@
         <v>14.816258777845601</v>
       </c>
       <c r="O108">
-        <v>43</v>
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="36"/>
+        <v>1254138</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5897,6 +5910,10 @@
       <c r="D109">
         <v>18.550699503734801</v>
       </c>
+      <c r="E109">
+        <f t="shared" si="34"/>
+        <v>1382976</v>
+      </c>
       <c r="F109">
         <v>576</v>
       </c>
@@ -5909,6 +5926,10 @@
       <c r="I109">
         <v>35.971802324366998</v>
       </c>
+      <c r="J109">
+        <f t="shared" si="35"/>
+        <v>2352</v>
+      </c>
       <c r="K109">
         <v>576</v>
       </c>
@@ -5922,7 +5943,12 @@
         <v>15.370051186717999</v>
       </c>
       <c r="O109">
-        <v>43</v>
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="36"/>
+        <v>1069238</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5938,6 +5964,10 @@
       <c r="D110">
         <v>22.503617072357699</v>
       </c>
+      <c r="E110">
+        <f t="shared" si="34"/>
+        <v>1162084</v>
+      </c>
       <c r="F110">
         <v>484</v>
       </c>
@@ -5950,6 +5980,10 @@
       <c r="I110">
         <v>28.0347088618824</v>
       </c>
+      <c r="J110">
+        <f t="shared" si="35"/>
+        <v>2156</v>
+      </c>
       <c r="K110">
         <v>484</v>
       </c>
@@ -5963,7 +5997,12 @@
         <v>17.265485211312701</v>
       </c>
       <c r="O110">
-        <v>43</v>
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="36"/>
+        <v>899130</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5979,6 +6018,10 @@
       <c r="D111">
         <v>28.1934471745789</v>
       </c>
+      <c r="E111">
+        <f t="shared" si="34"/>
+        <v>960400</v>
+      </c>
       <c r="F111">
         <v>400</v>
       </c>
@@ -5991,6 +6034,10 @@
       <c r="I111" t="s">
         <v>5</v>
       </c>
+      <c r="J111">
+        <f t="shared" si="35"/>
+        <v>1960</v>
+      </c>
       <c r="K111">
         <v>400</v>
       </c>
@@ -6004,7 +6051,12 @@
         <v>25.211957448031701</v>
       </c>
       <c r="O111">
-        <v>43</v>
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="36"/>
+        <v>743814</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -6020,6 +6072,10 @@
       <c r="D112">
         <v>49.900878673833198</v>
       </c>
+      <c r="E112">
+        <f t="shared" si="34"/>
+        <v>777924</v>
+      </c>
       <c r="F112">
         <v>324</v>
       </c>
@@ -6032,6 +6088,10 @@
       <c r="I112" t="s">
         <v>5</v>
       </c>
+      <c r="J112">
+        <f t="shared" si="35"/>
+        <v>1764</v>
+      </c>
       <c r="K112">
         <v>324</v>
       </c>
@@ -6045,10 +6105,15 @@
         <v>47.306469825972101</v>
       </c>
       <c r="O112">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="36"/>
+        <v>603290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>256</v>
       </c>
@@ -6061,6 +6126,10 @@
       <c r="D113" t="s">
         <v>5</v>
       </c>
+      <c r="E113">
+        <f t="shared" si="34"/>
+        <v>614656</v>
+      </c>
       <c r="F113">
         <v>256</v>
       </c>
@@ -6073,6 +6142,10 @@
       <c r="I113" t="s">
         <v>5</v>
       </c>
+      <c r="J113">
+        <f t="shared" si="35"/>
+        <v>1568</v>
+      </c>
       <c r="K113">
         <v>256</v>
       </c>
@@ -6086,10 +6159,15 @@
         <v>47.753213558345998</v>
       </c>
       <c r="O113">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="36"/>
+        <v>477558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>196</v>
       </c>
@@ -6102,6 +6180,10 @@
       <c r="D114" t="s">
         <v>5</v>
       </c>
+      <c r="E114">
+        <f t="shared" si="34"/>
+        <v>470596</v>
+      </c>
       <c r="F114">
         <v>196</v>
       </c>
@@ -6114,6 +6196,10 @@
       <c r="I114" t="s">
         <v>5</v>
       </c>
+      <c r="J114">
+        <f t="shared" si="35"/>
+        <v>1372</v>
+      </c>
       <c r="K114">
         <v>196</v>
       </c>
@@ -6127,10 +6213,15 @@
         <v>5</v>
       </c>
       <c r="O114">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="33"/>
+        <v>1849</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="36"/>
+        <v>366618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -6141,7 +6232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -6149,118 +6240,931 @@
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>784</v>
       </c>
-      <c r="B117">
-        <v>100</v>
+      <c r="B117" s="2">
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>282.86</v>
+        <v>571</v>
       </c>
       <c r="D117">
-        <v>10.603298116065501</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>15.501902873938199</v>
+      </c>
+      <c r="E117">
+        <f>A117*($A$116^$B$116)</f>
+        <v>3211264</v>
+      </c>
+      <c r="F117">
+        <v>784</v>
+      </c>
+      <c r="G117" s="2">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>951</v>
+      </c>
+      <c r="I117">
+        <v>19.477711733430599</v>
+      </c>
+      <c r="J117">
+        <f>2*$A$116^($B$116/2)*(F117^0.5)</f>
+        <v>3584</v>
+      </c>
+      <c r="K117">
+        <v>784</v>
+      </c>
+      <c r="L117">
+        <v>99</v>
+      </c>
+      <c r="M117" s="3">
+        <v>229.72727272727201</v>
+      </c>
+      <c r="N117" s="3">
+        <v>13.459522122987501</v>
+      </c>
+      <c r="O117">
+        <f>56^2</f>
+        <v>3136</v>
+      </c>
+      <c r="P117">
+        <f>2*($A$116^($B$116/2))*O117^0.5+O117*K117</f>
+        <v>2465792</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>676</v>
       </c>
       <c r="B118">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>266.90721649484499</v>
+        <v>541.6</v>
       </c>
       <c r="D118">
-        <v>9.9795316605223796</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>13.910457990691</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ref="E118:E124" si="37">A118*($A$116^$B$116)</f>
+        <v>2768896</v>
+      </c>
+      <c r="F118">
+        <v>676</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>993</v>
+      </c>
+      <c r="I118">
+        <v>27.563023971393701</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ref="J118:J124" si="38">2*$A$116^($B$116/2)*(F118^0.5)</f>
+        <v>3328</v>
+      </c>
+      <c r="K118">
+        <v>676</v>
+      </c>
+      <c r="L118">
+        <v>98</v>
+      </c>
+      <c r="M118" s="3">
+        <v>210.591836734693</v>
+      </c>
+      <c r="N118" s="3">
+        <v>10.509715941582501</v>
+      </c>
+      <c r="O118">
+        <f t="shared" ref="O118:O124" si="39">56^2</f>
+        <v>3136</v>
+      </c>
+      <c r="P118">
+        <f t="shared" ref="P118:P124" si="40">2*($A$116^($B$116/2))*O118^0.5+O118*K118</f>
+        <v>2127104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>576</v>
       </c>
       <c r="B119">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>368.21111111111099</v>
+        <v>600.79999999999995</v>
       </c>
       <c r="D119">
-        <v>13.8348948473938</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>15.3273316554725</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="37"/>
+        <v>2359296</v>
+      </c>
+      <c r="F119">
+        <v>576</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1000</v>
+      </c>
+      <c r="I119" t="s">
+        <v>5</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="38"/>
+        <v>3072</v>
+      </c>
+      <c r="K119">
+        <v>576</v>
+      </c>
+      <c r="L119">
+        <v>99</v>
+      </c>
+      <c r="M119" s="3">
+        <v>230.60606060606</v>
+      </c>
+      <c r="N119" s="3">
+        <v>7.4754931069157902</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="39"/>
+        <v>3136</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="40"/>
+        <v>1813504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>484</v>
       </c>
       <c r="B120">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>460.84615384615302</v>
+        <v>618.71428571428498</v>
       </c>
       <c r="D120">
-        <v>16.428084730839299</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>12.445843569668201</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="37"/>
+        <v>1982464</v>
+      </c>
+      <c r="F120">
+        <v>484</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120" t="s">
+        <v>5</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="38"/>
+        <v>2816</v>
+      </c>
+      <c r="K120">
+        <v>484</v>
+      </c>
+      <c r="L120">
+        <v>98</v>
+      </c>
+      <c r="M120" s="3">
+        <v>233.39795918367301</v>
+      </c>
+      <c r="N120" s="3">
+        <v>6.2796761384423903</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="39"/>
+        <v>3136</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="40"/>
+        <v>1524992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>400</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>560.88333333333298</v>
+        <v>526.66666666666595</v>
       </c>
       <c r="D121">
-        <v>19.446327334952802</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>10.5308906758824</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="37"/>
+        <v>1638400</v>
+      </c>
+      <c r="F121">
+        <v>400</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1000</v>
+      </c>
+      <c r="I121" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="38"/>
+        <v>2560</v>
+      </c>
+      <c r="K121">
+        <v>400</v>
+      </c>
+      <c r="L121">
+        <v>94</v>
+      </c>
+      <c r="M121" s="3">
+        <v>279.13829787233999</v>
+      </c>
+      <c r="N121" s="3">
+        <v>10.250405417735401</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="39"/>
+        <v>3136</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="40"/>
+        <v>1261568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>324</v>
       </c>
       <c r="B122">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>670.94117647058795</v>
+        <v>593</v>
       </c>
       <c r="D122">
-        <v>17.441942449111199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>9.6064763318069897</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="37"/>
+        <v>1327104</v>
+      </c>
+      <c r="F122">
+        <v>324</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1000</v>
+      </c>
+      <c r="I122" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="38"/>
+        <v>2304</v>
+      </c>
+      <c r="K122">
+        <v>324</v>
+      </c>
+      <c r="L122">
+        <v>93</v>
+      </c>
+      <c r="M122" s="3">
+        <v>247.04301075268799</v>
+      </c>
+      <c r="N122" s="3">
+        <v>8.1670614133078203</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="39"/>
+        <v>3136</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="40"/>
+        <v>1023232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>256</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>632.76923076923003</v>
+        <v>580</v>
       </c>
       <c r="D123">
-        <v>17.633137279691599</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>8.0878194160759396</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="37"/>
+        <v>1048576</v>
+      </c>
+      <c r="F123">
+        <v>256</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1000</v>
+      </c>
+      <c r="I123" t="s">
+        <v>5</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="38"/>
+        <v>2048</v>
+      </c>
+      <c r="K123">
+        <v>256</v>
+      </c>
+      <c r="L123" s="2">
+        <v>80</v>
+      </c>
+      <c r="M123">
+        <v>316.13749999999999</v>
+      </c>
+      <c r="N123">
+        <v>10.430714866891501</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="39"/>
+        <v>3136</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="40"/>
+        <v>809984</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>196</v>
       </c>
       <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>628.888888888888</v>
+      </c>
+      <c r="D124">
+        <v>7.8103867545723897</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="37"/>
+        <v>802816</v>
+      </c>
+      <c r="F124">
+        <v>196</v>
+      </c>
+      <c r="G124">
         <v>0</v>
       </c>
-      <c r="C124">
+      <c r="H124">
         <v>1000</v>
       </c>
-      <c r="D124" t="s">
+      <c r="I124" t="s">
+        <v>5</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="38"/>
+        <v>1792</v>
+      </c>
+      <c r="K124">
+        <v>196</v>
+      </c>
+      <c r="L124">
+        <v>77</v>
+      </c>
+      <c r="M124">
+        <v>353.45454545454498</v>
+      </c>
+      <c r="N124">
+        <v>9.8570073468054193</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="39"/>
+        <v>3136</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="40"/>
+        <v>621824</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>784</v>
+      </c>
+      <c r="B127">
+        <v>100</v>
+      </c>
+      <c r="C127">
+        <v>282.86</v>
+      </c>
+      <c r="D127">
+        <v>9.4558363526128204</v>
+      </c>
+      <c r="E127">
+        <f>A127*($A$126^$B$126)</f>
+        <v>3211264</v>
+      </c>
+      <c r="G127">
+        <v>784</v>
+      </c>
+      <c r="H127">
+        <v>17</v>
+      </c>
+      <c r="I127">
+        <v>858.76470588235202</v>
+      </c>
+      <c r="J127">
+        <v>24.846204628400901</v>
+      </c>
+      <c r="K127">
+        <v>784</v>
+      </c>
+      <c r="L127">
+        <v>100</v>
+      </c>
+      <c r="M127">
+        <v>141.19</v>
+      </c>
+      <c r="N127">
+        <v>8.9297226432338306</v>
+      </c>
+      <c r="O127">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>676</v>
+      </c>
+      <c r="B128">
+        <v>97</v>
+      </c>
+      <c r="C128">
+        <v>266.90721649484499</v>
+      </c>
+      <c r="D128">
+        <v>8.6317060497426095</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ref="E128:E134" si="41">A128*($A$126^$B$126)</f>
+        <v>2768896</v>
+      </c>
+      <c r="G128">
+        <v>676</v>
+      </c>
+      <c r="H128">
+        <v>6</v>
+      </c>
+      <c r="I128">
+        <v>862.33333333333303</v>
+      </c>
+      <c r="J128">
+        <v>16.837605185185801</v>
+      </c>
+      <c r="K128">
+        <v>676</v>
+      </c>
+      <c r="L128">
+        <v>100</v>
+      </c>
+      <c r="M128">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="N128">
+        <v>7.4469924694113399</v>
+      </c>
+      <c r="O128">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>576</v>
+      </c>
+      <c r="B129">
+        <v>90</v>
+      </c>
+      <c r="C129">
+        <v>368.21111111111099</v>
+      </c>
+      <c r="D129">
+        <v>10.542239064847401</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="41"/>
+        <v>2359296</v>
+      </c>
+      <c r="G129">
+        <v>576</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>872</v>
+      </c>
+      <c r="J129">
+        <v>14.4190884456038</v>
+      </c>
+      <c r="K129">
+        <v>576</v>
+      </c>
+      <c r="L129">
+        <v>100</v>
+      </c>
+      <c r="M129">
+        <v>165.19</v>
+      </c>
+      <c r="N129">
+        <v>8.0115614809095792</v>
+      </c>
+      <c r="O129">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>484</v>
+      </c>
+      <c r="B130">
+        <v>78</v>
+      </c>
+      <c r="C130">
+        <v>460.84615384615302</v>
+      </c>
+      <c r="D130">
+        <v>12.039973878182201</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="41"/>
+        <v>1982464</v>
+      </c>
+      <c r="G130">
+        <v>484</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1000</v>
+      </c>
+      <c r="J130" t="s">
+        <v>5</v>
+      </c>
+      <c r="K130">
+        <v>484</v>
+      </c>
+      <c r="L130">
+        <v>100</v>
+      </c>
+      <c r="M130">
+        <v>198.03</v>
+      </c>
+      <c r="N130">
+        <v>7.5106039186753302</v>
+      </c>
+      <c r="O130">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>400</v>
+      </c>
+      <c r="B131">
+        <v>60</v>
+      </c>
+      <c r="C131">
+        <v>560.88333333333298</v>
+      </c>
+      <c r="D131">
+        <v>15.1620084636534</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="41"/>
+        <v>1638400</v>
+      </c>
+      <c r="G131">
+        <v>400</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1000</v>
+      </c>
+      <c r="J131" t="s">
+        <v>5</v>
+      </c>
+      <c r="K131">
+        <v>400</v>
+      </c>
+      <c r="L131">
+        <v>100</v>
+      </c>
+      <c r="M131">
+        <v>237.74</v>
+      </c>
+      <c r="N131">
+        <v>8.4814802818559105</v>
+      </c>
+      <c r="O131">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>324</v>
+      </c>
+      <c r="B132">
+        <v>34</v>
+      </c>
+      <c r="C132">
+        <v>670.94117647058795</v>
+      </c>
+      <c r="D132">
+        <v>21.781970747636901</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="41"/>
+        <v>1327104</v>
+      </c>
+      <c r="G132">
+        <v>324</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1000</v>
+      </c>
+      <c r="J132" t="s">
+        <v>5</v>
+      </c>
+      <c r="K132">
+        <v>324</v>
+      </c>
+      <c r="L132">
+        <v>97</v>
+      </c>
+      <c r="M132">
+        <v>319.09278350515399</v>
+      </c>
+      <c r="N132">
+        <v>13.647528167333901</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>256</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>632.76923076923003</v>
+      </c>
+      <c r="D133">
+        <v>22.07692806523</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="41"/>
+        <v>1048576</v>
+      </c>
+      <c r="G133">
+        <v>256</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1000</v>
+      </c>
+      <c r="J133" t="s">
+        <v>5</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>83</v>
+      </c>
+      <c r="M133">
+        <v>431.50602409638498</v>
+      </c>
+      <c r="N133">
+        <v>15.1065342669341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>196</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="41"/>
+        <v>802816</v>
+      </c>
+      <c r="G134">
+        <v>196</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1000</v>
+      </c>
+      <c r="J134" t="s">
+        <v>5</v>
+      </c>
+      <c r="K134">
+        <v>196</v>
+      </c>
+      <c r="L134">
+        <v>33</v>
+      </c>
+      <c r="M134">
+        <v>621.969696969697</v>
+      </c>
+      <c r="N134">
+        <v>22.250754128238398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>784</v>
+      </c>
+      <c r="B137">
+        <v>98</v>
+      </c>
+      <c r="C137">
+        <v>299.35714285714198</v>
+      </c>
+      <c r="D137">
+        <v>8.6247618378196993</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>676</v>
+      </c>
+      <c r="B138">
+        <v>95</v>
+      </c>
+      <c r="C138">
+        <v>404.70526315789402</v>
+      </c>
+      <c r="D138">
+        <v>12.086504524730501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>576</v>
+      </c>
+      <c r="B139">
+        <v>75</v>
+      </c>
+      <c r="C139">
+        <v>508.08</v>
+      </c>
+      <c r="D139">
+        <v>16.0847626816233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>484</v>
+      </c>
+      <c r="B140">
+        <v>36</v>
+      </c>
+      <c r="C140">
+        <v>644.75</v>
+      </c>
+      <c r="D140">
+        <v>19.231336637865699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>400</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>791.4</v>
+      </c>
+      <c r="D141">
+        <v>22.0494166016578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>324</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>256</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6277,8 +7181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9325,10 +10229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13977,6 +14881,10 @@
       <c r="D101" s="3">
         <v>3.1213844972476301</v>
       </c>
+      <c r="E101" s="6">
+        <f>A101*($A$100^$B$100)</f>
+        <v>3841600</v>
+      </c>
       <c r="F101">
         <v>1600</v>
       </c>
@@ -13988,6 +14896,10 @@
       </c>
       <c r="I101">
         <v>5.0849114643903999</v>
+      </c>
+      <c r="J101" s="6">
+        <f>2*$A$100^($B$100/2)*(F101^0.5)</f>
+        <v>3920</v>
       </c>
       <c r="K101">
         <v>1600</v>
@@ -14005,6 +14917,10 @@
         <f>43^2</f>
         <v>1849</v>
       </c>
+      <c r="P101" s="6">
+        <f>2*($A$100^($B$100/2))*O101^0.5+O101*K101</f>
+        <v>2962614</v>
+      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
@@ -14019,6 +14935,10 @@
       <c r="D102" s="3">
         <v>3.6593798947706802</v>
       </c>
+      <c r="E102" s="6">
+        <f t="shared" ref="E102:E114" si="29">A102*($A$100^$B$100)</f>
+        <v>3467044</v>
+      </c>
       <c r="F102">
         <v>1444</v>
       </c>
@@ -14031,6 +14951,10 @@
       <c r="I102">
         <v>5.1939294462339296</v>
       </c>
+      <c r="J102" s="6">
+        <f t="shared" ref="J102:J114" si="30">2*$A$100^($B$100/2)*(F102^0.5)</f>
+        <v>3724</v>
+      </c>
       <c r="K102">
         <v>1444</v>
       </c>
@@ -14044,8 +14968,12 @@
         <v>12.743668709993299</v>
       </c>
       <c r="O102">
-        <f t="shared" ref="O102:O114" si="29">43^2</f>
+        <f t="shared" ref="O102:O114" si="31">43^2</f>
         <v>1849</v>
+      </c>
+      <c r="P102" s="6">
+        <f t="shared" ref="P102:P114" si="32">2*($A$100^($B$100/2))*O102^0.5+O102*K102</f>
+        <v>2674170</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14061,6 +14989,10 @@
       <c r="D103" s="3">
         <v>3.8557508051395399</v>
       </c>
+      <c r="E103" s="6">
+        <f t="shared" si="29"/>
+        <v>3111696</v>
+      </c>
       <c r="F103">
         <v>1296</v>
       </c>
@@ -14073,6 +15005,10 @@
       <c r="I103">
         <v>6.1589135051413297</v>
       </c>
+      <c r="J103" s="6">
+        <f t="shared" si="30"/>
+        <v>3528</v>
+      </c>
       <c r="K103">
         <v>1296</v>
       </c>
@@ -14086,8 +15022,12 @@
         <v>9.6455758563007592</v>
       </c>
       <c r="O103">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P103" s="6">
+        <f t="shared" si="32"/>
+        <v>2400518</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14103,6 +15043,10 @@
       <c r="D104" s="3">
         <v>3.6751179729215799</v>
       </c>
+      <c r="E104" s="6">
+        <f t="shared" si="29"/>
+        <v>2775556</v>
+      </c>
       <c r="F104">
         <v>1156</v>
       </c>
@@ -14115,6 +15059,10 @@
       <c r="I104">
         <v>6.7877254085425198</v>
       </c>
+      <c r="J104" s="6">
+        <f t="shared" si="30"/>
+        <v>3332</v>
+      </c>
       <c r="K104">
         <v>1156</v>
       </c>
@@ -14128,8 +15076,12 @@
         <v>9.4006771016301496</v>
       </c>
       <c r="O104">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P104" s="6">
+        <f t="shared" si="32"/>
+        <v>2141658</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14145,6 +15097,10 @@
       <c r="D105" s="3">
         <v>4.0239121950604</v>
       </c>
+      <c r="E105" s="6">
+        <f t="shared" si="29"/>
+        <v>2458624</v>
+      </c>
       <c r="F105">
         <v>1024</v>
       </c>
@@ -14157,6 +15113,10 @@
       <c r="I105">
         <v>6.23202844087578</v>
       </c>
+      <c r="J105" s="6">
+        <f t="shared" si="30"/>
+        <v>3136</v>
+      </c>
       <c r="K105">
         <v>1024</v>
       </c>
@@ -14170,8 +15130,12 @@
         <v>9.4438519757240993</v>
       </c>
       <c r="O105">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P105" s="6">
+        <f t="shared" si="32"/>
+        <v>1897590</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14187,6 +15151,10 @@
       <c r="D106" s="3">
         <v>4.8174395607039298</v>
       </c>
+      <c r="E106" s="6">
+        <f t="shared" si="29"/>
+        <v>2160900</v>
+      </c>
       <c r="F106">
         <v>900</v>
       </c>
@@ -14199,6 +15167,10 @@
       <c r="I106">
         <v>7.1525184548636096</v>
       </c>
+      <c r="J106" s="6">
+        <f t="shared" si="30"/>
+        <v>2940</v>
+      </c>
       <c r="K106">
         <v>900</v>
       </c>
@@ -14212,8 +15184,12 @@
         <v>9.7591120770573596</v>
       </c>
       <c r="O106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P106" s="6">
+        <f t="shared" si="32"/>
+        <v>1668314</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14229,6 +15205,10 @@
       <c r="D107" s="3">
         <v>5.5027217580005496</v>
       </c>
+      <c r="E107" s="6">
+        <f t="shared" si="29"/>
+        <v>1882384</v>
+      </c>
       <c r="F107">
         <v>784</v>
       </c>
@@ -14241,6 +15221,10 @@
       <c r="I107">
         <v>8.4102324607915104</v>
       </c>
+      <c r="J107" s="6">
+        <f t="shared" si="30"/>
+        <v>2744</v>
+      </c>
       <c r="K107">
         <v>784</v>
       </c>
@@ -14254,8 +15238,12 @@
         <v>16.5111998798698</v>
       </c>
       <c r="O107">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P107" s="6">
+        <f t="shared" si="32"/>
+        <v>1453830</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14271,6 +15259,10 @@
       <c r="D108" s="3">
         <v>4.9072445104829896</v>
       </c>
+      <c r="E108" s="6">
+        <f t="shared" si="29"/>
+        <v>1623076</v>
+      </c>
       <c r="F108">
         <v>676</v>
       </c>
@@ -14283,6 +15275,10 @@
       <c r="I108">
         <v>8.7381591668919292</v>
       </c>
+      <c r="J108" s="6">
+        <f t="shared" si="30"/>
+        <v>2548</v>
+      </c>
       <c r="K108">
         <v>676</v>
       </c>
@@ -14296,8 +15292,12 @@
         <v>17.608215926309999</v>
       </c>
       <c r="O108">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P108" s="6">
+        <f t="shared" si="32"/>
+        <v>1254138</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14313,6 +15313,10 @@
       <c r="D109" s="3">
         <v>8.2035206756368204</v>
       </c>
+      <c r="E109" s="6">
+        <f t="shared" si="29"/>
+        <v>1382976</v>
+      </c>
       <c r="F109">
         <v>576</v>
       </c>
@@ -14325,6 +15329,10 @@
       <c r="I109">
         <v>10.1919590599834</v>
       </c>
+      <c r="J109" s="6">
+        <f t="shared" si="30"/>
+        <v>2352</v>
+      </c>
       <c r="K109">
         <v>576</v>
       </c>
@@ -14338,8 +15346,12 @@
         <v>15.8776596054955</v>
       </c>
       <c r="O109">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P109" s="6">
+        <f t="shared" si="32"/>
+        <v>1069238</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14355,6 +15367,10 @@
       <c r="D110" s="3">
         <v>8.3945284971064797</v>
       </c>
+      <c r="E110" s="6">
+        <f t="shared" si="29"/>
+        <v>1162084</v>
+      </c>
       <c r="F110">
         <v>484</v>
       </c>
@@ -14367,6 +15383,10 @@
       <c r="I110" t="s">
         <v>5</v>
       </c>
+      <c r="J110" s="6">
+        <f t="shared" si="30"/>
+        <v>2156</v>
+      </c>
       <c r="K110">
         <v>484</v>
       </c>
@@ -14380,8 +15400,12 @@
         <v>14.2525263060474</v>
       </c>
       <c r="O110">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P110" s="6">
+        <f t="shared" si="32"/>
+        <v>899130</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14397,6 +15421,10 @@
       <c r="D111">
         <v>13.4906112645708</v>
       </c>
+      <c r="E111" s="6">
+        <f t="shared" si="29"/>
+        <v>960400</v>
+      </c>
       <c r="F111">
         <v>400</v>
       </c>
@@ -14409,6 +15437,10 @@
       <c r="I111" t="s">
         <v>5</v>
       </c>
+      <c r="J111" s="6">
+        <f t="shared" si="30"/>
+        <v>1960</v>
+      </c>
       <c r="K111">
         <v>400</v>
       </c>
@@ -14422,8 +15454,12 @@
         <v>15.8559326314833</v>
       </c>
       <c r="O111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
+      </c>
+      <c r="P111" s="6">
+        <f t="shared" si="32"/>
+        <v>743814</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -14439,6 +15475,10 @@
       <c r="D112">
         <v>25.0178519035207</v>
       </c>
+      <c r="E112" s="6">
+        <f t="shared" si="29"/>
+        <v>777924</v>
+      </c>
       <c r="F112">
         <v>324</v>
       </c>
@@ -14451,6 +15491,10 @@
       <c r="I112" t="s">
         <v>5</v>
       </c>
+      <c r="J112" s="6">
+        <f t="shared" si="30"/>
+        <v>1764</v>
+      </c>
       <c r="K112">
         <v>324</v>
       </c>
@@ -14464,11 +15508,15 @@
         <v>33.821491213515401</v>
       </c>
       <c r="O112">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P112" s="6">
+        <f t="shared" si="32"/>
+        <v>603290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>256</v>
       </c>
@@ -14481,6 +15529,10 @@
       <c r="D113">
         <v>35.031742644496198</v>
       </c>
+      <c r="E113" s="6">
+        <f t="shared" si="29"/>
+        <v>614656</v>
+      </c>
       <c r="F113">
         <v>256</v>
       </c>
@@ -14493,6 +15545,10 @@
       <c r="I113" t="s">
         <v>5</v>
       </c>
+      <c r="J113" s="6">
+        <f t="shared" si="30"/>
+        <v>1568</v>
+      </c>
       <c r="K113">
         <v>256</v>
       </c>
@@ -14506,11 +15562,15 @@
         <v>5</v>
       </c>
       <c r="O113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P113" s="6">
+        <f t="shared" si="32"/>
+        <v>477558</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>196</v>
       </c>
@@ -14523,6 +15583,10 @@
       <c r="D114" t="s">
         <v>5</v>
       </c>
+      <c r="E114" s="6">
+        <f t="shared" si="29"/>
+        <v>470596</v>
+      </c>
       <c r="F114">
         <v>196</v>
       </c>
@@ -14535,6 +15599,10 @@
       <c r="I114" t="s">
         <v>5</v>
       </c>
+      <c r="J114" s="6">
+        <f t="shared" si="30"/>
+        <v>1372</v>
+      </c>
       <c r="K114">
         <v>196</v>
       </c>
@@ -14548,11 +15616,15 @@
         <v>5</v>
       </c>
       <c r="O114">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1849</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P114" s="6">
+        <f t="shared" si="32"/>
+        <v>366618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -14563,7 +15635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -14571,122 +15643,442 @@
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>784</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
+        <v>87</v>
+      </c>
+      <c r="C117">
+        <v>113.747126436781</v>
+      </c>
+      <c r="D117">
+        <v>1.48290935985144</v>
+      </c>
+      <c r="E117" s="6">
+        <f>A117*($A$116^$B$116)</f>
+        <v>3211264</v>
+      </c>
+      <c r="F117">
+        <v>784</v>
+      </c>
+      <c r="G117" s="2">
+        <v>27</v>
+      </c>
+      <c r="H117">
+        <v>729.25925925925901</v>
+      </c>
+      <c r="I117">
+        <v>4.59235974697879</v>
+      </c>
+      <c r="J117" s="6">
+        <f>2*$A$116^($B$116/2)*(F117^0.5)</f>
+        <v>3584</v>
+      </c>
+      <c r="K117">
+        <v>784</v>
+      </c>
+      <c r="L117">
         <v>99</v>
       </c>
-      <c r="C117">
-        <v>143.636363636363</v>
-      </c>
-      <c r="D117">
-        <v>6.1658882071085301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M117" s="3">
+        <v>416.69696969696901</v>
+      </c>
+      <c r="N117" s="3">
+        <v>5.2375183923527402</v>
+      </c>
+      <c r="O117">
+        <f>56^2</f>
+        <v>3136</v>
+      </c>
+      <c r="P117" s="6">
+        <f>2*($A$116^($B$116/2))*O117^0.5+O117*K117</f>
+        <v>2465792</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>676</v>
       </c>
       <c r="B118">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C118">
-        <v>169.12121212121201</v>
+        <v>141.63218390804599</v>
       </c>
       <c r="D118">
-        <v>6.4828885461231902</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1.81273552961647</v>
+      </c>
+      <c r="E118" s="6">
+        <f t="shared" ref="E118:E124" si="33">A118*($A$116^$B$116)</f>
+        <v>2768896</v>
+      </c>
+      <c r="F118">
+        <v>676</v>
+      </c>
+      <c r="G118">
+        <v>20</v>
+      </c>
+      <c r="H118">
+        <v>787.25</v>
+      </c>
+      <c r="I118">
+        <v>4.8776140167377804</v>
+      </c>
+      <c r="J118" s="6">
+        <f t="shared" ref="J118:J124" si="34">2*$A$116^($B$116/2)*(F118^0.5)</f>
+        <v>3328</v>
+      </c>
+      <c r="K118">
+        <v>676</v>
+      </c>
+      <c r="L118">
+        <v>97</v>
+      </c>
+      <c r="M118" s="3">
+        <v>429.94845360824701</v>
+      </c>
+      <c r="N118" s="3">
+        <v>5.1093961041919904</v>
+      </c>
+      <c r="O118">
+        <f t="shared" ref="O118:O124" si="35">56^2</f>
+        <v>3136</v>
+      </c>
+      <c r="P118" s="6">
+        <f t="shared" ref="P118:P124" si="36">2*($A$116^($B$116/2))*O118^0.5+O118*K118</f>
+        <v>2127104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>576</v>
       </c>
       <c r="B119">
+        <v>87</v>
+      </c>
+      <c r="C119">
+        <v>164.758620689655</v>
+      </c>
+      <c r="D119">
+        <v>1.9507374543182801</v>
+      </c>
+      <c r="E119" s="6">
+        <f t="shared" si="33"/>
+        <v>2359296</v>
+      </c>
+      <c r="F119">
+        <v>576</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>794</v>
+      </c>
+      <c r="I119">
+        <v>4.63483882012466</v>
+      </c>
+      <c r="J119" s="6">
+        <f t="shared" si="34"/>
+        <v>3072</v>
+      </c>
+      <c r="K119">
+        <v>576</v>
+      </c>
+      <c r="L119">
         <v>98</v>
       </c>
-      <c r="C119">
-        <v>185.66326530612201</v>
-      </c>
-      <c r="D119">
-        <v>8.1960804540929999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M119" s="3">
+        <v>449.56122448979499</v>
+      </c>
+      <c r="N119" s="3">
+        <v>5.8011492938563496</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="35"/>
+        <v>3136</v>
+      </c>
+      <c r="P119" s="6">
+        <f t="shared" si="36"/>
+        <v>1813504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>484</v>
       </c>
       <c r="B120">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C120">
-        <v>219.416666666666</v>
+        <v>137.64705882352899</v>
       </c>
       <c r="D120">
-        <v>8.0369083573265598</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1.72168233197401</v>
+      </c>
+      <c r="E120" s="6">
+        <f t="shared" si="33"/>
+        <v>1982464</v>
+      </c>
+      <c r="F120">
+        <v>484</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>886</v>
+      </c>
+      <c r="I120">
+        <v>5.7131531648337797</v>
+      </c>
+      <c r="J120" s="6">
+        <f t="shared" si="34"/>
+        <v>2816</v>
+      </c>
+      <c r="K120">
+        <v>484</v>
+      </c>
+      <c r="L120">
+        <v>98</v>
+      </c>
+      <c r="M120" s="3">
+        <v>471.97959183673402</v>
+      </c>
+      <c r="N120" s="3">
+        <v>5.2836135528715502</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="35"/>
+        <v>3136</v>
+      </c>
+      <c r="P120" s="6">
+        <f t="shared" si="36"/>
+        <v>1524992</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>400</v>
       </c>
       <c r="B121">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C121">
-        <v>285.83333333333297</v>
+        <v>197.333333333333</v>
       </c>
       <c r="D121">
-        <v>11.6596064049543</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>2.3590746969428</v>
+      </c>
+      <c r="E121" s="6">
+        <f t="shared" si="33"/>
+        <v>1638400</v>
+      </c>
+      <c r="F121">
+        <v>400</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1000</v>
+      </c>
+      <c r="I121" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121" s="6">
+        <f t="shared" si="34"/>
+        <v>2560</v>
+      </c>
+      <c r="K121">
+        <v>400</v>
+      </c>
+      <c r="L121">
+        <v>98</v>
+      </c>
+      <c r="M121" s="3">
+        <v>482.40816326530597</v>
+      </c>
+      <c r="N121" s="3">
+        <v>6.2182664512561496</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="35"/>
+        <v>3136</v>
+      </c>
+      <c r="P121" s="6">
+        <f t="shared" si="36"/>
+        <v>1261568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>324</v>
       </c>
       <c r="B122">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122">
-        <v>342.68831168831099</v>
+        <v>180.88732394366099</v>
       </c>
       <c r="D122">
-        <v>12.8489277772363</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>2.0718695006372601</v>
+      </c>
+      <c r="E122" s="6">
+        <f t="shared" si="33"/>
+        <v>1327104</v>
+      </c>
+      <c r="F122">
+        <v>324</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1000</v>
+      </c>
+      <c r="I122" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="6">
+        <f t="shared" si="34"/>
+        <v>2304</v>
+      </c>
+      <c r="K122">
+        <v>324</v>
+      </c>
+      <c r="L122">
+        <v>92</v>
+      </c>
+      <c r="M122" s="3">
+        <v>497.53260869565202</v>
+      </c>
+      <c r="N122" s="3">
+        <v>5.5031144317320502</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="35"/>
+        <v>3136</v>
+      </c>
+      <c r="P122" s="6">
+        <f t="shared" si="36"/>
+        <v>1023232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>256</v>
       </c>
       <c r="B123">
+        <v>65</v>
+      </c>
+      <c r="C123">
+        <v>200.692307692307</v>
+      </c>
+      <c r="D123">
+        <v>2.2322285624364202</v>
+      </c>
+      <c r="E123" s="6">
+        <f t="shared" si="33"/>
+        <v>1048576</v>
+      </c>
+      <c r="F123">
+        <v>256</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1000</v>
+      </c>
+      <c r="I123" t="s">
+        <v>5</v>
+      </c>
+      <c r="J123" s="6">
+        <f t="shared" si="34"/>
+        <v>2048</v>
+      </c>
+      <c r="K123">
+        <v>256</v>
+      </c>
+      <c r="L123" s="2">
         <v>50</v>
       </c>
-      <c r="C123">
-        <v>473.26</v>
-      </c>
-      <c r="D123">
-        <v>19.482518542744199</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="M123">
+        <v>643.34</v>
+      </c>
+      <c r="N123">
+        <v>4.7865378168970301</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="35"/>
+        <v>3136</v>
+      </c>
+      <c r="P123" s="6">
+        <f t="shared" si="36"/>
+        <v>809984</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>196</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C124">
-        <v>514.53333333333296</v>
+        <v>216.74545454545401</v>
       </c>
       <c r="D124">
-        <v>20.1812223280469</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>2.5398903496563401</v>
+      </c>
+      <c r="E124" s="6">
+        <f t="shared" si="33"/>
+        <v>802816</v>
+      </c>
+      <c r="F124">
+        <v>196</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1000</v>
+      </c>
+      <c r="I124" t="s">
+        <v>5</v>
+      </c>
+      <c r="J124" s="6">
+        <f t="shared" si="34"/>
+        <v>1792</v>
+      </c>
+      <c r="K124">
+        <v>196</v>
+      </c>
+      <c r="L124">
+        <v>71</v>
+      </c>
+      <c r="M124">
+        <v>578.211267605633</v>
+      </c>
+      <c r="N124">
+        <v>4.2055797446781398</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="35"/>
+        <v>3136</v>
+      </c>
+      <c r="P124" s="6">
+        <f t="shared" si="36"/>
+        <v>621824</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -14697,7 +16089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -14705,105 +16097,731 @@
         <v>4</v>
       </c>
       <c r="C126" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>784</v>
       </c>
       <c r="B127">
-        <v>100</v>
-      </c>
-      <c r="C127">
-        <v>194.18</v>
-      </c>
-      <c r="D127">
-        <v>5.8563496907055299</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+      <c r="C127" s="3">
+        <v>143.636363636363</v>
+      </c>
+      <c r="D127" s="3">
+        <v>3.1266658419573798</v>
+      </c>
+      <c r="E127" s="6">
+        <f>A127*($A$126^$B$126)</f>
+        <v>3211264</v>
+      </c>
+      <c r="F127">
+        <v>784</v>
+      </c>
+      <c r="G127" s="2">
+        <v>53</v>
+      </c>
+      <c r="H127">
+        <v>645.98113209999997</v>
+      </c>
+      <c r="I127">
+        <v>7.7391571020000001</v>
+      </c>
+      <c r="J127" s="6">
+        <f>2*$A$126^($B$126/2)*(F127^0.5)</f>
+        <v>3584</v>
+      </c>
+      <c r="K127">
+        <v>784</v>
+      </c>
+      <c r="L127">
+        <v>99</v>
+      </c>
+      <c r="M127">
+        <v>349.95959595959499</v>
+      </c>
+      <c r="N127">
+        <v>7.8587206582153</v>
+      </c>
+      <c r="O127">
+        <f t="shared" ref="O127:O134" si="37">56^2</f>
+        <v>3136</v>
+      </c>
+      <c r="P127" s="6">
+        <f>2*($A$126^($B$126/2))*O127^0.5+O127*K127</f>
+        <v>2465792</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>676</v>
       </c>
       <c r="B128">
-        <v>100</v>
-      </c>
-      <c r="C128">
-        <v>242.45</v>
-      </c>
-      <c r="D128">
-        <v>7.47470904404297</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+      <c r="C128" s="3">
+        <v>169.12121212121201</v>
+      </c>
+      <c r="D128" s="3">
+        <v>3.6444658933941101</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" ref="E128:E134" si="38">A128*($A$126^$B$126)</f>
+        <v>2768896</v>
+      </c>
+      <c r="F128">
+        <v>676</v>
+      </c>
+      <c r="G128">
+        <v>25</v>
+      </c>
+      <c r="H128">
+        <v>782.68</v>
+      </c>
+      <c r="I128">
+        <v>9.3205897269999998</v>
+      </c>
+      <c r="J128" s="6">
+        <f t="shared" ref="J128:J134" si="39">2*$A$126^($B$126/2)*(F128^0.5)</f>
+        <v>3328</v>
+      </c>
+      <c r="K128">
+        <v>676</v>
+      </c>
+      <c r="L128">
+        <v>99</v>
+      </c>
+      <c r="M128">
+        <v>358.78787878787801</v>
+      </c>
+      <c r="N128">
+        <v>8.0858663011417509</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P128" s="6">
+        <f t="shared" ref="P128:P134" si="40">2*($A$126^($B$126/2))*O128^0.5+O128*K128</f>
+        <v>2127104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
       <c r="B129">
-        <v>97</v>
-      </c>
-      <c r="C129">
-        <v>342.98969072164903</v>
-      </c>
-      <c r="D129">
-        <v>11.452429957111701</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+      <c r="C129" s="3">
+        <v>185.66326530612201</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4.8283776569807397</v>
+      </c>
+      <c r="E129" s="6">
+        <f t="shared" si="38"/>
+        <v>2359296</v>
+      </c>
+      <c r="F129">
+        <v>576</v>
+      </c>
+      <c r="G129">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <v>729.66666669999995</v>
+      </c>
+      <c r="I129">
+        <v>7.975685071</v>
+      </c>
+      <c r="J129" s="6">
+        <f t="shared" si="39"/>
+        <v>3072</v>
+      </c>
+      <c r="K129">
+        <v>576</v>
+      </c>
+      <c r="L129">
+        <v>99</v>
+      </c>
+      <c r="M129">
+        <v>375.17171717171698</v>
+      </c>
+      <c r="N129">
+        <v>7.6759278387245198</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P129" s="6">
+        <f t="shared" si="40"/>
+        <v>1813504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
       <c r="B130">
-        <v>80</v>
-      </c>
-      <c r="C130">
-        <v>459.875</v>
-      </c>
-      <c r="D130">
-        <v>13.735723735718</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+      <c r="C130" s="3">
+        <v>219.416666666666</v>
+      </c>
+      <c r="D130" s="3">
+        <v>5.6260073648494</v>
+      </c>
+      <c r="E130" s="6">
+        <f t="shared" si="38"/>
+        <v>1982464</v>
+      </c>
+      <c r="F130">
+        <v>484</v>
+      </c>
+      <c r="G130">
+        <v>8</v>
+      </c>
+      <c r="H130">
+        <v>858.125</v>
+      </c>
+      <c r="I130">
+        <v>7.3835940369999999</v>
+      </c>
+      <c r="J130" s="6">
+        <f t="shared" si="39"/>
+        <v>2816</v>
+      </c>
+      <c r="K130">
+        <v>484</v>
+      </c>
+      <c r="L130">
+        <v>97</v>
+      </c>
+      <c r="M130">
+        <v>378.917525773195</v>
+      </c>
+      <c r="N130">
+        <v>6.3750143099537802</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P130" s="6">
+        <f t="shared" si="40"/>
+        <v>1524992</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
       <c r="B131">
-        <v>37</v>
-      </c>
-      <c r="C131">
-        <v>653.75675675675598</v>
-      </c>
-      <c r="D131">
-        <v>18.857268682756501</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+      <c r="C131" s="3">
+        <v>285.83333333333297</v>
+      </c>
+      <c r="D131" s="3">
+        <v>5.8285318690041699</v>
+      </c>
+      <c r="E131" s="6">
+        <f t="shared" si="38"/>
+        <v>1638400</v>
+      </c>
+      <c r="F131">
+        <v>400</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1000</v>
+      </c>
+      <c r="I131" t="s">
+        <v>5</v>
+      </c>
+      <c r="J131" s="6">
+        <f t="shared" si="39"/>
+        <v>2560</v>
+      </c>
+      <c r="K131">
+        <v>400</v>
+      </c>
+      <c r="L131">
+        <v>95</v>
+      </c>
+      <c r="M131">
+        <v>531.67368421052595</v>
+      </c>
+      <c r="N131">
+        <v>7.5674947648848301</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P131" s="6">
+        <f t="shared" si="40"/>
+        <v>1261568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
-      <c r="B132">
-        <v>7</v>
+      <c r="B132" s="2">
+        <v>77</v>
       </c>
       <c r="C132">
-        <v>795.85714285714198</v>
+        <v>342.68831168831099</v>
       </c>
       <c r="D132">
-        <v>22.5429528807955</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>7.8195740715540003</v>
+      </c>
+      <c r="E132" s="6">
+        <f t="shared" si="38"/>
+        <v>1327104</v>
+      </c>
+      <c r="F132">
+        <v>324</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1000</v>
+      </c>
+      <c r="I132" t="s">
+        <v>5</v>
+      </c>
+      <c r="J132" s="6">
+        <f t="shared" si="39"/>
+        <v>2304</v>
+      </c>
+      <c r="K132">
+        <v>324</v>
+      </c>
+      <c r="L132" s="2">
+        <v>84</v>
+      </c>
+      <c r="M132">
+        <v>596.20238095238096</v>
+      </c>
+      <c r="N132">
+        <v>13.9282968609948</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P132" s="6">
+        <f t="shared" si="40"/>
+        <v>1023232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
       <c r="B133">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>473.26</v>
+      </c>
+      <c r="D133">
+        <v>10.273302482441</v>
+      </c>
+      <c r="E133" s="6">
+        <f t="shared" si="38"/>
+        <v>1048576</v>
+      </c>
+      <c r="F133">
+        <v>256</v>
+      </c>
+      <c r="G133">
         <v>0</v>
       </c>
-      <c r="C133">
+      <c r="H133">
         <v>1000</v>
       </c>
-      <c r="D133" t="s">
+      <c r="I133" t="s">
         <v>5</v>
+      </c>
+      <c r="J133" s="6">
+        <f t="shared" si="39"/>
+        <v>2048</v>
+      </c>
+      <c r="K133">
+        <v>256</v>
+      </c>
+      <c r="L133">
+        <v>52</v>
+      </c>
+      <c r="M133">
+        <v>685.15384615384596</v>
+      </c>
+      <c r="N133">
+        <v>15.00215289294</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P133" s="6">
+        <f t="shared" si="40"/>
+        <v>809984</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>196</v>
+      </c>
+      <c r="B134">
+        <v>15</v>
+      </c>
+      <c r="C134">
+        <v>514.53333333333296</v>
+      </c>
+      <c r="D134">
+        <v>9.7805527644852805</v>
+      </c>
+      <c r="E134" s="6">
+        <f t="shared" si="38"/>
+        <v>802816</v>
+      </c>
+      <c r="F134">
+        <v>196</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1000</v>
+      </c>
+      <c r="I134" t="s">
+        <v>5</v>
+      </c>
+      <c r="J134" s="6">
+        <f t="shared" si="39"/>
+        <v>1792</v>
+      </c>
+      <c r="K134">
+        <v>196</v>
+      </c>
+      <c r="L134">
+        <v>14</v>
+      </c>
+      <c r="M134">
+        <v>718.28571428571399</v>
+      </c>
+      <c r="N134">
+        <v>13.563316045195901</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="37"/>
+        <v>3136</v>
+      </c>
+      <c r="P134" s="6">
+        <f t="shared" si="40"/>
+        <v>621824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>784</v>
+      </c>
+      <c r="B137">
+        <v>100</v>
+      </c>
+      <c r="C137" s="3">
+        <v>194.18</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4.24173314519226</v>
+      </c>
+      <c r="E137" s="6">
+        <f>A137*($A$136^$B$136)</f>
+        <v>3211264</v>
+      </c>
+      <c r="F137">
+        <v>784</v>
+      </c>
+      <c r="G137" s="2">
+        <v>19</v>
+      </c>
+      <c r="H137">
+        <v>804.31578947368405</v>
+      </c>
+      <c r="I137">
+        <v>10.457018521075099</v>
+      </c>
+      <c r="J137" s="6">
+        <f>2*$A$136^($B$136/2)*(F137^0.5)</f>
+        <v>3584</v>
+      </c>
+      <c r="K137">
+        <v>784</v>
+      </c>
+      <c r="L137">
+        <v>100</v>
+      </c>
+      <c r="M137">
+        <v>510.96</v>
+      </c>
+      <c r="N137">
+        <v>12.133522729999999</v>
+      </c>
+      <c r="O137">
+        <f t="shared" ref="O137:O141" si="41">56^2</f>
+        <v>3136</v>
+      </c>
+      <c r="P137" s="6">
+        <f>2*($A$136^($B$136/2))*O137^0.5+O137*K137</f>
+        <v>2465792</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>676</v>
+      </c>
+      <c r="B138">
+        <v>100</v>
+      </c>
+      <c r="C138" s="3">
+        <v>242.45</v>
+      </c>
+      <c r="D138" s="3">
+        <v>6.2157976637594397</v>
+      </c>
+      <c r="E138" s="6">
+        <f t="shared" ref="E138:E141" si="42">A138*($A$136^$B$136)</f>
+        <v>2768896</v>
+      </c>
+      <c r="F138">
+        <v>676</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
+      <c r="H138">
+        <v>907.75</v>
+      </c>
+      <c r="I138">
+        <v>11.219506469555199</v>
+      </c>
+      <c r="J138" s="6">
+        <f t="shared" ref="J138:J141" si="43">2*$A$136^($B$136/2)*(F138^0.5)</f>
+        <v>3328</v>
+      </c>
+      <c r="K138">
+        <v>676</v>
+      </c>
+      <c r="L138">
+        <v>100</v>
+      </c>
+      <c r="M138">
+        <v>582.01</v>
+      </c>
+      <c r="N138">
+        <v>12.83694214</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="41"/>
+        <v>3136</v>
+      </c>
+      <c r="P138" s="6">
+        <f t="shared" ref="P138:P141" si="44">2*($A$136^($B$136/2))*O138^0.5+O138*K138</f>
+        <v>2127104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>576</v>
+      </c>
+      <c r="B139">
+        <v>97</v>
+      </c>
+      <c r="C139" s="3">
+        <v>342.98969072164903</v>
+      </c>
+      <c r="D139" s="3">
+        <v>8.3887663231874505</v>
+      </c>
+      <c r="E139" s="6">
+        <f t="shared" si="42"/>
+        <v>2359296</v>
+      </c>
+      <c r="F139">
+        <v>576</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1000</v>
+      </c>
+      <c r="I139" t="s">
+        <v>5</v>
+      </c>
+      <c r="J139" s="6">
+        <f t="shared" si="43"/>
+        <v>3072</v>
+      </c>
+      <c r="K139">
+        <v>576</v>
+      </c>
+      <c r="L139">
+        <v>94</v>
+      </c>
+      <c r="M139">
+        <v>666.64893619999998</v>
+      </c>
+      <c r="N139">
+        <v>14.87244132</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="41"/>
+        <v>3136</v>
+      </c>
+      <c r="P139" s="6">
+        <f t="shared" si="44"/>
+        <v>1813504</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>484</v>
+      </c>
+      <c r="B140" s="2">
+        <v>80</v>
+      </c>
+      <c r="C140">
+        <v>459.875</v>
+      </c>
+      <c r="D140">
+        <v>10.012236025487001</v>
+      </c>
+      <c r="E140" s="6">
+        <f t="shared" si="42"/>
+        <v>1982464</v>
+      </c>
+      <c r="F140">
+        <v>484</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1000</v>
+      </c>
+      <c r="I140" t="s">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6">
+        <f t="shared" si="43"/>
+        <v>2816</v>
+      </c>
+      <c r="K140">
+        <v>484</v>
+      </c>
+      <c r="L140" s="2">
+        <v>70</v>
+      </c>
+      <c r="M140">
+        <v>752.67142860000001</v>
+      </c>
+      <c r="N140">
+        <v>14.20292416</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="41"/>
+        <v>3136</v>
+      </c>
+      <c r="P140" s="6">
+        <f t="shared" si="44"/>
+        <v>1524992</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>400</v>
+      </c>
+      <c r="B141">
+        <v>37</v>
+      </c>
+      <c r="C141">
+        <v>653.75675675675598</v>
+      </c>
+      <c r="D141">
+        <v>14.609311045827001</v>
+      </c>
+      <c r="E141" s="6">
+        <f t="shared" si="42"/>
+        <v>1638400</v>
+      </c>
+      <c r="F141">
+        <v>400</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1000</v>
+      </c>
+      <c r="I141" t="s">
+        <v>5</v>
+      </c>
+      <c r="J141" s="6">
+        <f t="shared" si="43"/>
+        <v>2560</v>
+      </c>
+      <c r="K141">
+        <v>400</v>
+      </c>
+      <c r="L141">
+        <v>19</v>
+      </c>
+      <c r="M141">
+        <v>845</v>
+      </c>
+      <c r="N141">
+        <v>12.185841549999999</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="41"/>
+        <v>3136</v>
+      </c>
+      <c r="P141" s="6">
+        <f t="shared" si="44"/>
+        <v>1261568</v>
       </c>
     </row>
   </sheetData>
@@ -14814,10 +16832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17512,7 +19530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>2</v>
       </c>
@@ -17535,7 +19553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>2</v>
       </c>
@@ -17558,7 +19576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>2</v>
       </c>
@@ -17581,7 +19599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>2</v>
       </c>
@@ -17604,7 +19622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>2</v>
       </c>
@@ -17627,7 +19645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>2</v>
       </c>
@@ -17650,7 +19668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>2</v>
       </c>
@@ -17673,7 +19691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>2</v>
       </c>
@@ -17696,7 +19714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>2</v>
       </c>
@@ -17717,6 +19735,676 @@
       </c>
       <c r="G89">
         <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>484</v>
+      </c>
+      <c r="D91">
+        <v>99</v>
+      </c>
+      <c r="E91">
+        <v>372.32323229999997</v>
+      </c>
+      <c r="F91">
+        <v>5.2747960860000003</v>
+      </c>
+      <c r="G91">
+        <v>64</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>484</v>
+      </c>
+      <c r="L91">
+        <v>75</v>
+      </c>
+      <c r="M91">
+        <v>704.26666666666597</v>
+      </c>
+      <c r="N91">
+        <v>15.8326558619985</v>
+      </c>
+      <c r="O91">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>484</v>
+      </c>
+      <c r="D92">
+        <v>99</v>
+      </c>
+      <c r="E92">
+        <v>370.27272729999999</v>
+      </c>
+      <c r="F92">
+        <v>5.2413353349999996</v>
+      </c>
+      <c r="G92">
+        <v>62</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>484</v>
+      </c>
+      <c r="L92">
+        <v>67</v>
+      </c>
+      <c r="M92">
+        <v>711.55223880596998</v>
+      </c>
+      <c r="N92">
+        <v>17.464801227534799</v>
+      </c>
+      <c r="O92">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>484</v>
+      </c>
+      <c r="D93">
+        <v>99</v>
+      </c>
+      <c r="E93">
+        <v>342.50505049999998</v>
+      </c>
+      <c r="F93">
+        <v>4.794770218</v>
+      </c>
+      <c r="G93">
+        <v>60</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>484</v>
+      </c>
+      <c r="L93">
+        <v>74</v>
+      </c>
+      <c r="M93">
+        <v>724.62162162162099</v>
+      </c>
+      <c r="N93">
+        <v>16.8978486205073</v>
+      </c>
+      <c r="O93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>484</v>
+      </c>
+      <c r="D94">
+        <v>97</v>
+      </c>
+      <c r="E94">
+        <v>423.82474230000003</v>
+      </c>
+      <c r="F94">
+        <v>5.9024639680000002</v>
+      </c>
+      <c r="G94">
+        <v>58</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>484</v>
+      </c>
+      <c r="L94">
+        <v>63</v>
+      </c>
+      <c r="M94">
+        <v>748.30158730158701</v>
+      </c>
+      <c r="N94">
+        <v>18.080032637135801</v>
+      </c>
+      <c r="O94">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>484</v>
+      </c>
+      <c r="D95">
+        <v>97</v>
+      </c>
+      <c r="E95">
+        <v>378.91752580000002</v>
+      </c>
+      <c r="F95">
+        <v>5.2813580130000002</v>
+      </c>
+      <c r="G95">
+        <v>56</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>484</v>
+      </c>
+      <c r="L95">
+        <v>70</v>
+      </c>
+      <c r="M95">
+        <v>752.67142857142801</v>
+      </c>
+      <c r="N95">
+        <v>16.476112538549501</v>
+      </c>
+      <c r="O95">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>484</v>
+      </c>
+      <c r="D96">
+        <v>97</v>
+      </c>
+      <c r="E96">
+        <v>423.62886600000002</v>
+      </c>
+      <c r="F96">
+        <v>5.8359921449999996</v>
+      </c>
+      <c r="G96">
+        <v>54</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>484</v>
+      </c>
+      <c r="L96">
+        <v>60</v>
+      </c>
+      <c r="M96">
+        <v>770</v>
+      </c>
+      <c r="N96">
+        <v>17.688887141055101</v>
+      </c>
+      <c r="O96">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>484</v>
+      </c>
+      <c r="D97">
+        <v>98</v>
+      </c>
+      <c r="E97">
+        <v>440.42857140000001</v>
+      </c>
+      <c r="F97">
+        <v>6.087525963</v>
+      </c>
+      <c r="G97">
+        <v>52</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>484</v>
+      </c>
+      <c r="L97">
+        <v>54</v>
+      </c>
+      <c r="M97">
+        <v>816.51851851851802</v>
+      </c>
+      <c r="N97">
+        <v>16.933855096016199</v>
+      </c>
+      <c r="O97">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>484</v>
+      </c>
+      <c r="D98">
+        <v>99</v>
+      </c>
+      <c r="E98">
+        <v>467.88888889999998</v>
+      </c>
+      <c r="F98">
+        <v>6.4435029349999997</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>484</v>
+      </c>
+      <c r="L98">
+        <v>49</v>
+      </c>
+      <c r="M98">
+        <v>800.20408163265301</v>
+      </c>
+      <c r="N98">
+        <v>15.196851531765899</v>
+      </c>
+      <c r="O98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>484</v>
+      </c>
+      <c r="D99">
+        <v>95</v>
+      </c>
+      <c r="E99">
+        <v>475.93684209999998</v>
+      </c>
+      <c r="F99">
+        <v>8.5119435380000006</v>
+      </c>
+      <c r="G99">
+        <v>48</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>484</v>
+      </c>
+      <c r="L99">
+        <v>42</v>
+      </c>
+      <c r="M99">
+        <v>862.28571428571399</v>
+      </c>
+      <c r="N99">
+        <v>12.183164776081099</v>
+      </c>
+      <c r="O99">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>484</v>
+      </c>
+      <c r="D100">
+        <v>94</v>
+      </c>
+      <c r="E100">
+        <v>467</v>
+      </c>
+      <c r="F100">
+        <v>6.6615881410000002</v>
+      </c>
+      <c r="G100">
+        <v>46</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>484</v>
+      </c>
+      <c r="L100">
+        <v>33</v>
+      </c>
+      <c r="M100">
+        <v>853.84848484848396</v>
+      </c>
+      <c r="N100">
+        <v>12.0760924992236</v>
+      </c>
+      <c r="O100">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>484</v>
+      </c>
+      <c r="D101">
+        <v>95</v>
+      </c>
+      <c r="E101">
+        <v>495.610526315789</v>
+      </c>
+      <c r="F101">
+        <v>7.3544068809990799</v>
+      </c>
+      <c r="G101">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>484</v>
+      </c>
+      <c r="D102">
+        <v>94</v>
+      </c>
+      <c r="E102">
+        <v>509.01063829787199</v>
+      </c>
+      <c r="F102">
+        <v>7.6523849648284701</v>
+      </c>
+      <c r="G102">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>484</v>
+      </c>
+      <c r="D103">
+        <v>81</v>
+      </c>
+      <c r="E103">
+        <v>589.888888888888</v>
+      </c>
+      <c r="F103">
+        <v>8.0006806965181401</v>
+      </c>
+      <c r="G103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>484</v>
+      </c>
+      <c r="D104">
+        <v>89</v>
+      </c>
+      <c r="E104">
+        <v>508.26966292134802</v>
+      </c>
+      <c r="F104">
+        <v>6.8171389217624503</v>
+      </c>
+      <c r="G104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>484</v>
+      </c>
+      <c r="D105">
+        <v>83</v>
+      </c>
+      <c r="E105">
+        <v>592.80722891566199</v>
+      </c>
+      <c r="F105">
+        <v>8.7465606638376201</v>
+      </c>
+      <c r="G105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>484</v>
+      </c>
+      <c r="D106">
+        <v>63</v>
+      </c>
+      <c r="E106">
+        <v>648.92063492063403</v>
+      </c>
+      <c r="F106">
+        <v>10.1310165733512</v>
+      </c>
+      <c r="G106">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>484</v>
+      </c>
+      <c r="D107">
+        <v>59</v>
+      </c>
+      <c r="E107">
+        <v>661.81355932203303</v>
+      </c>
+      <c r="F107">
+        <v>10.6127820291193</v>
+      </c>
+      <c r="G107">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>484</v>
+      </c>
+      <c r="D108">
+        <v>54</v>
+      </c>
+      <c r="E108">
+        <v>695.48148148148096</v>
+      </c>
+      <c r="F108">
+        <v>10.875712998280299</v>
+      </c>
+      <c r="G108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>484</v>
+      </c>
+      <c r="D109">
+        <v>29</v>
+      </c>
+      <c r="E109">
+        <v>758.55172413793105</v>
+      </c>
+      <c r="F109">
+        <v>11.7145653884729</v>
+      </c>
+      <c r="G109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>484</v>
+      </c>
+      <c r="D110">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>799.61538461538396</v>
+      </c>
+      <c r="F110">
+        <v>11.241058543611</v>
+      </c>
+      <c r="G110">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D188A35-233B-4C39-BD9C-9FEA6B906B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F54E57-4318-44D9-8A7A-6AC538C5A973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7081,7 +7081,31 @@
         <v>299.35714285714198</v>
       </c>
       <c r="D137">
-        <v>8.6247618378196993</v>
+        <v>10.0157207420894</v>
+      </c>
+      <c r="G137">
+        <v>784</v>
+      </c>
+      <c r="H137">
+        <v>62</v>
+      </c>
+      <c r="I137">
+        <v>819.56451612903197</v>
+      </c>
+      <c r="J137">
+        <v>25.053756867114799</v>
+      </c>
+      <c r="K137">
+        <v>784</v>
+      </c>
+      <c r="L137">
+        <v>100</v>
+      </c>
+      <c r="M137">
+        <v>208.08</v>
+      </c>
+      <c r="N137">
+        <v>11.7896974961459</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7095,7 +7119,31 @@
         <v>404.70526315789402</v>
       </c>
       <c r="D138">
-        <v>12.086504524730501</v>
+        <v>16.213701957444599</v>
+      </c>
+      <c r="G138">
+        <v>676</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+      <c r="I138">
+        <v>895.4</v>
+      </c>
+      <c r="J138">
+        <v>28.968206944875401</v>
+      </c>
+      <c r="K138">
+        <v>676</v>
+      </c>
+      <c r="L138">
+        <v>100</v>
+      </c>
+      <c r="M138">
+        <v>229.7</v>
+      </c>
+      <c r="N138">
+        <v>14.5905787819437</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7109,7 +7157,31 @@
         <v>508.08</v>
       </c>
       <c r="D139">
-        <v>16.0847626816233</v>
+        <v>17.788856358056201</v>
+      </c>
+      <c r="G139">
+        <v>576</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1000</v>
+      </c>
+      <c r="J139" t="s">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <v>576</v>
+      </c>
+      <c r="L139">
+        <v>100</v>
+      </c>
+      <c r="M139">
+        <v>288.76</v>
+      </c>
+      <c r="N139">
+        <v>12.8805962221138</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -7123,49 +7195,31 @@
         <v>644.75</v>
       </c>
       <c r="D140">
-        <v>19.231336637865699</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141">
-        <v>400</v>
-      </c>
-      <c r="B141">
-        <v>10</v>
-      </c>
-      <c r="C141">
-        <v>791.4</v>
-      </c>
-      <c r="D141">
-        <v>22.0494166016578</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142">
-        <v>324</v>
-      </c>
-      <c r="B142">
+        <v>19.0254265011495</v>
+      </c>
+      <c r="G140">
+        <v>484</v>
+      </c>
+      <c r="H140">
         <v>0</v>
       </c>
-      <c r="C142">
+      <c r="I140">
         <v>1000</v>
       </c>
-      <c r="D142" t="s">
+      <c r="J140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143">
-        <v>256</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>1000</v>
-      </c>
-      <c r="D143" t="s">
-        <v>5</v>
+      <c r="K140">
+        <v>484</v>
+      </c>
+      <c r="L140">
+        <v>98</v>
+      </c>
+      <c r="M140">
+        <v>421.275510204081</v>
+      </c>
+      <c r="N140">
+        <v>18.7809839955322</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F54E57-4318-44D9-8A7A-6AC538C5A973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D6BE2-87B0-4BF7-A85C-BEB8E2904A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10285,8 +10285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137:D139"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D6BE2-87B0-4BF7-A85C-BEB8E2904A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7A6DB-3436-4E1B-AB4E-97C32090F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="1" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="29">
   <si>
     <t>target_dim</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>n=8,d=4</t>
+  </si>
+  <si>
+    <t>n=10,d=4</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U140"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7220,6 +7223,252 @@
       </c>
       <c r="N140">
         <v>18.7809839955322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>400</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>791.4</v>
+      </c>
+      <c r="D141">
+        <v>29.107852824218501</v>
+      </c>
+      <c r="G141">
+        <v>400</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1000</v>
+      </c>
+      <c r="K141">
+        <v>400</v>
+      </c>
+      <c r="L141">
+        <v>66</v>
+      </c>
+      <c r="M141">
+        <v>637</v>
+      </c>
+      <c r="N141">
+        <v>24.419867824819502</v>
+      </c>
+      <c r="O141">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>324</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>324</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1000</v>
+      </c>
+      <c r="K142">
+        <v>324</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>714.33333333333303</v>
+      </c>
+      <c r="N142">
+        <v>24.464245137448099</v>
+      </c>
+      <c r="O142">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>256</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>256</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1000</v>
+      </c>
+      <c r="K143">
+        <v>256</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1000</v>
+      </c>
+      <c r="N143" t="s">
+        <v>5</v>
+      </c>
+      <c r="O143">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>900</v>
+      </c>
+      <c r="B146">
+        <v>100</v>
+      </c>
+      <c r="C146">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>784</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>676</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>576</v>
+      </c>
+      <c r="B149">
+        <v>100</v>
+      </c>
+      <c r="C149">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>484</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>400</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>324</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>256</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>196</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>144</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -10283,10 +10532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16878,6 +17127,168 @@
         <v>1261568</v>
       </c>
     </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>1600</v>
+      </c>
+      <c r="B144">
+        <v>100</v>
+      </c>
+      <c r="C144">
+        <v>108.59</v>
+      </c>
+      <c r="D144">
+        <v>2.1603794550895601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>1444</v>
+      </c>
+      <c r="B145">
+        <v>100</v>
+      </c>
+      <c r="C145">
+        <v>119.19</v>
+      </c>
+      <c r="D145">
+        <v>2.32971930138766</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>1296</v>
+      </c>
+      <c r="B146">
+        <v>99</v>
+      </c>
+      <c r="C146">
+        <v>134.575757575757</v>
+      </c>
+      <c r="D146">
+        <v>2.5616999489226999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>1156</v>
+      </c>
+      <c r="B147">
+        <v>98</v>
+      </c>
+      <c r="C147">
+        <v>138.775510204081</v>
+      </c>
+      <c r="D147">
+        <v>2.55673011517798</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>1024</v>
+      </c>
+      <c r="B148">
+        <v>99</v>
+      </c>
+      <c r="C148">
+        <v>148.98989898989899</v>
+      </c>
+      <c r="D148">
+        <v>2.71194470171449</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>900</v>
+      </c>
+      <c r="B149">
+        <v>96</v>
+      </c>
+      <c r="C149">
+        <v>175.229166666666</v>
+      </c>
+      <c r="D149">
+        <v>3.1257190996936202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>784</v>
+      </c>
+      <c r="B150">
+        <v>97</v>
+      </c>
+      <c r="C150">
+        <v>193.72164948453599</v>
+      </c>
+      <c r="D150">
+        <v>3.37382889266327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>676</v>
+      </c>
+      <c r="B151">
+        <v>92</v>
+      </c>
+      <c r="C151">
+        <v>247.32608695652101</v>
+      </c>
+      <c r="D151">
+        <v>4.2091433557317304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>576</v>
+      </c>
+      <c r="B152">
+        <v>89</v>
+      </c>
+      <c r="C152">
+        <v>270.59550561797698</v>
+      </c>
+      <c r="D152">
+        <v>4.5037260370308001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>484</v>
+      </c>
+      <c r="B153">
+        <v>78</v>
+      </c>
+      <c r="C153">
+        <v>375.692307692307</v>
+      </c>
+      <c r="D153">
+        <v>6.1149771690416399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16886,10 +17297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20461,6 +20872,494 @@
         <v>26</v>
       </c>
     </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>576</v>
+      </c>
+      <c r="D112">
+        <v>96</v>
+      </c>
+      <c r="E112">
+        <v>381.510416666666</v>
+      </c>
+      <c r="F112">
+        <v>6.7972798893655</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>576</v>
+      </c>
+      <c r="D113">
+        <v>96</v>
+      </c>
+      <c r="E113">
+        <v>311.89583333333297</v>
+      </c>
+      <c r="F113">
+        <v>6.1446730652241897</v>
+      </c>
+      <c r="G113">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>576</v>
+      </c>
+      <c r="D114">
+        <v>97</v>
+      </c>
+      <c r="E114">
+        <v>330.31958762886597</v>
+      </c>
+      <c r="F114">
+        <v>5.6944305366193202</v>
+      </c>
+      <c r="G114">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>576</v>
+      </c>
+      <c r="D115">
+        <v>99</v>
+      </c>
+      <c r="E115">
+        <v>364.13131313131299</v>
+      </c>
+      <c r="F115">
+        <v>6.1750126605608804</v>
+      </c>
+      <c r="G115">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>576</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116">
+        <v>303.94</v>
+      </c>
+      <c r="F116">
+        <v>6.1456415202468602</v>
+      </c>
+      <c r="G116">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>576</v>
+      </c>
+      <c r="D117">
+        <v>99</v>
+      </c>
+      <c r="E117">
+        <v>367.191919191919</v>
+      </c>
+      <c r="F117">
+        <v>6.8286330138493003</v>
+      </c>
+      <c r="G117">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>576</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+      <c r="E118">
+        <v>346.14</v>
+      </c>
+      <c r="F118">
+        <v>8.6817478113994007</v>
+      </c>
+      <c r="G118">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>576</v>
+      </c>
+      <c r="D119">
+        <v>98</v>
+      </c>
+      <c r="E119">
+        <v>317.38775510203999</v>
+      </c>
+      <c r="F119">
+        <v>6.7580257420408998</v>
+      </c>
+      <c r="G119">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>576</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+      <c r="E120">
+        <v>346.7</v>
+      </c>
+      <c r="F120">
+        <v>6.5984751698561004</v>
+      </c>
+      <c r="G120">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>576</v>
+      </c>
+      <c r="D121">
+        <v>96</v>
+      </c>
+      <c r="E121">
+        <v>403.96875</v>
+      </c>
+      <c r="F121">
+        <v>7.4077117498187901</v>
+      </c>
+      <c r="G121">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>576</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <v>378.5</v>
+      </c>
+      <c r="F122">
+        <v>7.8835657652467397</v>
+      </c>
+      <c r="G122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>576</v>
+      </c>
+      <c r="D123">
+        <v>99</v>
+      </c>
+      <c r="E123">
+        <v>393.17171717171698</v>
+      </c>
+      <c r="F123">
+        <v>8.2980959603769904</v>
+      </c>
+      <c r="G123">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>576</v>
+      </c>
+      <c r="D124">
+        <v>98</v>
+      </c>
+      <c r="E124">
+        <v>390.80612244897901</v>
+      </c>
+      <c r="F124">
+        <v>8.1268341183206196</v>
+      </c>
+      <c r="G124">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>576</v>
+      </c>
+      <c r="D125">
+        <v>100</v>
+      </c>
+      <c r="E125">
+        <v>378.66</v>
+      </c>
+      <c r="F125">
+        <v>7.88954414056614</v>
+      </c>
+      <c r="G125">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>576</v>
+      </c>
+      <c r="D126">
+        <v>99</v>
+      </c>
+      <c r="E126">
+        <v>421.01010101010098</v>
+      </c>
+      <c r="F126">
+        <v>8.6896902436785606</v>
+      </c>
+      <c r="G126">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>576</v>
+      </c>
+      <c r="D127">
+        <v>96</v>
+      </c>
+      <c r="E127">
+        <v>426.83333333333297</v>
+      </c>
+      <c r="F127">
+        <v>8.9285721969402694</v>
+      </c>
+      <c r="G127">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>576</v>
+      </c>
+      <c r="D128">
+        <v>95</v>
+      </c>
+      <c r="E128">
+        <v>418.58947368421002</v>
+      </c>
+      <c r="F128">
+        <v>8.8972538678465707</v>
+      </c>
+      <c r="G128">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>576</v>
+      </c>
+      <c r="D129">
+        <v>99</v>
+      </c>
+      <c r="E129">
+        <v>409.68686868686802</v>
+      </c>
+      <c r="F129">
+        <v>7.6802283855286797</v>
+      </c>
+      <c r="G129">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>576</v>
+      </c>
+      <c r="D130">
+        <v>97</v>
+      </c>
+      <c r="E130">
+        <v>425.42268041237099</v>
+      </c>
+      <c r="F130">
+        <v>6.7213353773137303</v>
+      </c>
+      <c r="G130">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>576</v>
+      </c>
+      <c r="D131">
+        <v>97</v>
+      </c>
+      <c r="E131">
+        <v>465.52577319587601</v>
+      </c>
+      <c r="F131">
+        <v>7.2931029966926699</v>
+      </c>
+      <c r="G131">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>576</v>
+      </c>
+      <c r="D132">
+        <v>96</v>
+      </c>
+      <c r="E132">
+        <v>397.6875</v>
+      </c>
+      <c r="F132">
+        <v>7.5306530412247703</v>
+      </c>
+      <c r="G132">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7A6DB-3436-4E1B-AB4E-97C32090F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C84D05-77D6-4E9F-B964-BF829E798C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" firstSheet="1" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="30">
   <si>
     <t>target_dim</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>n=10,d=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U155"/>
+  <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:C155"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7350,7 +7353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>10</v>
       </c>
@@ -7361,114 +7364,172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>1764</v>
+      </c>
+      <c r="B152">
+        <v>97</v>
+      </c>
+      <c r="C152">
+        <v>241.08247420000001</v>
+      </c>
+      <c r="D152">
+        <v>10.14742854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>1600</v>
+      </c>
+      <c r="B153">
+        <v>93</v>
+      </c>
+      <c r="C153">
+        <v>358.43010752688099</v>
+      </c>
+      <c r="D153">
+        <v>16.217102421728001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>1444</v>
+      </c>
+      <c r="B154">
+        <v>86</v>
+      </c>
+      <c r="C154">
+        <v>456.83720930232499</v>
+      </c>
+      <c r="D154">
+        <v>20.146446314662001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>1296</v>
+      </c>
+      <c r="B155">
+        <v>88</v>
+      </c>
+      <c r="C155">
+        <v>476.73863636363598</v>
+      </c>
+      <c r="D155">
+        <v>14.634339420082499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>1156</v>
+      </c>
+      <c r="B156">
+        <v>93</v>
+      </c>
+      <c r="C156">
+        <v>368.23655913978399</v>
+      </c>
+      <c r="D156">
+        <v>9.7201145311957706</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>1024</v>
+      </c>
+      <c r="B157">
+        <v>93</v>
+      </c>
+      <c r="C157">
+        <v>284.58064516129002</v>
+      </c>
+      <c r="D157">
+        <v>7.2532272577405896</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
         <v>900</v>
       </c>
-      <c r="B146">
-        <v>100</v>
-      </c>
-      <c r="C146">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147">
+      <c r="B158">
+        <v>90</v>
+      </c>
+      <c r="C158">
+        <v>268.61111111111097</v>
+      </c>
+      <c r="D158">
+        <v>6.6223767220766998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
         <v>784</v>
       </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148">
+      <c r="B159">
+        <v>84</v>
+      </c>
+      <c r="C159">
+        <v>317.20238095238</v>
+      </c>
+      <c r="D159">
+        <v>7.58016417552495</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
         <v>676</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149">
+      <c r="B160">
+        <v>65</v>
+      </c>
+      <c r="C160">
+        <v>434.815384615384</v>
+      </c>
+      <c r="D160">
+        <v>10.0280303133221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
         <v>576</v>
       </c>
-      <c r="B149">
-        <v>100</v>
-      </c>
-      <c r="C149">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150">
+      <c r="B161">
+        <v>59</v>
+      </c>
+      <c r="C161">
+        <v>430.13559322033899</v>
+      </c>
+      <c r="D161">
+        <v>9.7093883392290508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
         <v>484</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151">
+      <c r="B162">
+        <v>41</v>
+      </c>
+      <c r="C162">
+        <v>537.43902439024396</v>
+      </c>
+      <c r="D162">
+        <v>11.743663789658999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
         <v>400</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152">
-        <v>324</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153">
-        <v>256</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154">
-        <v>196</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155">
-        <v>144</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>1000</v>
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>607.11111111111097</v>
+      </c>
+      <c r="D163">
+        <v>13.0272762258019</v>
       </c>
     </row>
   </sheetData>
@@ -10532,10 +10593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="N165" sqref="N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15896,8 +15957,8 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
-        <v>1000</v>
+      <c r="H114" t="s">
+        <v>29</v>
       </c>
       <c r="I114" t="s">
         <v>5</v>
@@ -17287,6 +17348,168 @@
       </c>
       <c r="D153">
         <v>6.1149771690416399</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>1600</v>
+      </c>
+      <c r="B156">
+        <v>100</v>
+      </c>
+      <c r="C156">
+        <v>142.03</v>
+      </c>
+      <c r="D156">
+        <v>27.967801817059499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>1444</v>
+      </c>
+      <c r="B157">
+        <v>100</v>
+      </c>
+      <c r="C157">
+        <v>148.24</v>
+      </c>
+      <c r="D157">
+        <v>29.008174506649301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>1296</v>
+      </c>
+      <c r="B158">
+        <v>100</v>
+      </c>
+      <c r="C158">
+        <v>163.19</v>
+      </c>
+      <c r="D158">
+        <v>24.905852249991099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>1156</v>
+      </c>
+      <c r="B159">
+        <v>100</v>
+      </c>
+      <c r="C159">
+        <v>189.72</v>
+      </c>
+      <c r="D159">
+        <v>26.606123198922699</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>1024</v>
+      </c>
+      <c r="B160">
+        <v>100</v>
+      </c>
+      <c r="C160">
+        <v>230.44</v>
+      </c>
+      <c r="D160">
+        <v>21.5909935888089</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>900</v>
+      </c>
+      <c r="B161">
+        <v>95</v>
+      </c>
+      <c r="C161">
+        <v>270.42105263157799</v>
+      </c>
+      <c r="D161">
+        <v>12.3513241617303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>784</v>
+      </c>
+      <c r="B162">
+        <v>93</v>
+      </c>
+      <c r="C162">
+        <v>356.02150537634401</v>
+      </c>
+      <c r="D162">
+        <v>13.971905485756899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
+        <v>676</v>
+      </c>
+      <c r="B163">
+        <v>77</v>
+      </c>
+      <c r="C163">
+        <v>457.8831169</v>
+      </c>
+      <c r="D163">
+        <v>14.27508847</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
+        <v>576</v>
+      </c>
+      <c r="B164">
+        <v>46</v>
+      </c>
+      <c r="C164">
+        <v>538.67391299999997</v>
+      </c>
+      <c r="D164">
+        <v>15.65212238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
+        <v>484</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>604.4</v>
+      </c>
+      <c r="D165">
+        <v>17.646899489999999</v>
       </c>
     </row>
   </sheetData>
@@ -17297,10 +17520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P142"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21360,6 +21583,236 @@
         <v>60</v>
       </c>
     </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>576</v>
+      </c>
+      <c r="D133">
+        <v>92</v>
+      </c>
+      <c r="E133">
+        <v>502.14130434782601</v>
+      </c>
+      <c r="F133">
+        <v>19.535266446354498</v>
+      </c>
+      <c r="G133">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>576</v>
+      </c>
+      <c r="D134">
+        <v>88</v>
+      </c>
+      <c r="E134">
+        <v>534.35227272727195</v>
+      </c>
+      <c r="F134">
+        <v>19.467182093363402</v>
+      </c>
+      <c r="G134">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>576</v>
+      </c>
+      <c r="D135">
+        <v>88</v>
+      </c>
+      <c r="E135">
+        <v>506.85227272727201</v>
+      </c>
+      <c r="F135">
+        <v>8.4418457197448706</v>
+      </c>
+      <c r="G135">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>576</v>
+      </c>
+      <c r="D136">
+        <v>78</v>
+      </c>
+      <c r="E136">
+        <v>587.67948717948696</v>
+      </c>
+      <c r="F136">
+        <v>15.404645671876899</v>
+      </c>
+      <c r="G136">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>576</v>
+      </c>
+      <c r="D137">
+        <v>81</v>
+      </c>
+      <c r="E137">
+        <v>515.71604938271605</v>
+      </c>
+      <c r="F137">
+        <v>13.4277134959896</v>
+      </c>
+      <c r="G137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>576</v>
+      </c>
+      <c r="D138">
+        <v>72</v>
+      </c>
+      <c r="E138">
+        <v>609.194444444444</v>
+      </c>
+      <c r="F138">
+        <v>14.041894719340901</v>
+      </c>
+      <c r="G138">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>576</v>
+      </c>
+      <c r="D139">
+        <v>76</v>
+      </c>
+      <c r="E139">
+        <v>588.71052631578902</v>
+      </c>
+      <c r="F139">
+        <v>15.9368369582256</v>
+      </c>
+      <c r="G139">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>576</v>
+      </c>
+      <c r="D140">
+        <v>58</v>
+      </c>
+      <c r="E140">
+        <v>707.46551724137896</v>
+      </c>
+      <c r="F140">
+        <v>10.8505597061895</v>
+      </c>
+      <c r="G140">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>576</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141">
+        <v>709.56756756756704</v>
+      </c>
+      <c r="F141">
+        <v>17.542395341738601</v>
+      </c>
+      <c r="G141">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>576</v>
+      </c>
+      <c r="D142">
+        <v>32</v>
+      </c>
+      <c r="E142">
+        <v>731.90625</v>
+      </c>
+      <c r="F142">
+        <v>19.725099399161898</v>
+      </c>
+      <c r="G142">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C84D05-77D6-4E9F-B964-BF829E798C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38321CC8-E8B3-4DED-A159-E02781E06527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:U163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7362,6 +7362,20 @@
       </c>
       <c r="C145" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>1936</v>
+      </c>
+      <c r="B151">
+        <v>97</v>
+      </c>
+      <c r="C151">
+        <v>329.23711340206103</v>
+      </c>
+      <c r="D151">
+        <v>15.6423572235423</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -17520,10 +17534,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
-  <dimension ref="A1:P142"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+      <selection activeCell="A71" sqref="A71:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19658,7 +19672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>2</v>
       </c>
@@ -19681,7 +19695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2</v>
       </c>
@@ -19704,7 +19718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>2</v>
       </c>
@@ -19727,7 +19741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>2</v>
       </c>
@@ -19750,7 +19764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>2</v>
       </c>
@@ -19773,610 +19787,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+        <v>324</v>
+      </c>
+      <c r="B71">
+        <v>90</v>
       </c>
       <c r="C71">
-        <v>400</v>
+        <v>506.655555555555</v>
       </c>
       <c r="D71">
-        <v>98</v>
+        <v>10.8764657149505</v>
       </c>
       <c r="E71">
-        <v>423.5</v>
-      </c>
-      <c r="F71">
-        <v>9.0964291085850206</v>
-      </c>
-      <c r="G71">
         <v>64</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71" t="s">
-        <v>4</v>
-      </c>
-      <c r="K71">
-        <v>400</v>
-      </c>
-      <c r="L71">
-        <v>35</v>
-      </c>
-      <c r="M71">
-        <v>780.94285714285695</v>
-      </c>
-      <c r="N71">
-        <v>20.859349279105601</v>
-      </c>
-      <c r="O71">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>324</v>
+      </c>
+      <c r="B72">
+        <v>94</v>
       </c>
       <c r="C72">
-        <v>400</v>
+        <v>482.71276595744598</v>
       </c>
       <c r="D72">
-        <v>97</v>
+        <v>10.983415392683201</v>
       </c>
       <c r="E72">
-        <v>420.56701030927798</v>
-      </c>
-      <c r="F72">
-        <v>8.8907207179737693</v>
-      </c>
-      <c r="G72">
         <v>62</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72">
-        <v>400</v>
-      </c>
-      <c r="L72">
-        <v>30</v>
-      </c>
-      <c r="M72">
-        <v>829.6</v>
-      </c>
-      <c r="N72">
-        <v>25.463095420971499</v>
-      </c>
-      <c r="O72">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>400</v>
-      </c>
-      <c r="D73">
-        <v>94</v>
-      </c>
-      <c r="E73">
-        <v>440.18085106382898</v>
-      </c>
-      <c r="F73">
-        <v>9.3584520068376307</v>
-      </c>
-      <c r="G73">
-        <v>60</v>
-      </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73" t="s">
-        <v>4</v>
-      </c>
-      <c r="K73">
-        <v>400</v>
-      </c>
-      <c r="L73">
-        <v>26</v>
-      </c>
-      <c r="M73">
-        <v>822.53846153846098</v>
-      </c>
-      <c r="N73">
-        <v>25.130482175029201</v>
-      </c>
-      <c r="O73">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>400</v>
-      </c>
-      <c r="D74">
-        <v>96</v>
-      </c>
-      <c r="E74">
-        <v>424.61458333333297</v>
-      </c>
-      <c r="F74">
-        <v>8.96815269702347</v>
-      </c>
-      <c r="G74">
-        <v>58</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74" t="s">
-        <v>4</v>
-      </c>
-      <c r="K74">
-        <v>400</v>
-      </c>
-      <c r="L74">
-        <v>15</v>
-      </c>
-      <c r="M74">
-        <v>846.2</v>
-      </c>
-      <c r="N74">
-        <v>24.267018843566301</v>
-      </c>
-      <c r="O74">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>400</v>
-      </c>
-      <c r="D75">
-        <v>95</v>
-      </c>
-      <c r="E75">
-        <v>531.67368421052595</v>
-      </c>
-      <c r="F75">
-        <v>11.0837625433151</v>
-      </c>
-      <c r="G75">
-        <v>56</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75" t="s">
-        <v>4</v>
-      </c>
-      <c r="K75">
-        <v>400</v>
-      </c>
-      <c r="L75">
-        <v>19</v>
-      </c>
-      <c r="M75">
-        <v>845</v>
-      </c>
-      <c r="N75">
-        <v>23.3047984425762</v>
-      </c>
-      <c r="O75">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>400</v>
-      </c>
-      <c r="D76">
-        <v>94</v>
-      </c>
-      <c r="E76">
-        <v>504.63829787233999</v>
-      </c>
-      <c r="F76">
-        <v>10.5229280091069</v>
-      </c>
-      <c r="G76">
-        <v>54</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76">
-        <v>400</v>
-      </c>
-      <c r="L76">
-        <v>20</v>
-      </c>
-      <c r="M76">
-        <v>848.5</v>
-      </c>
-      <c r="N76">
-        <v>17.069780003745102</v>
-      </c>
-      <c r="O76">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>400</v>
-      </c>
-      <c r="D77">
-        <v>96</v>
-      </c>
-      <c r="E77">
-        <v>479.48958333333297</v>
-      </c>
-      <c r="F77">
-        <v>9.5011443834518996</v>
-      </c>
-      <c r="G77">
-        <v>52</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77" t="s">
-        <v>4</v>
-      </c>
-      <c r="K77">
-        <v>400</v>
-      </c>
-      <c r="L77">
-        <v>17</v>
-      </c>
-      <c r="M77">
-        <v>857.88235294117601</v>
-      </c>
-      <c r="N77">
-        <v>25.310378702138198</v>
-      </c>
-      <c r="O77">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>400</v>
-      </c>
-      <c r="D78">
-        <v>94</v>
-      </c>
-      <c r="E78">
-        <v>525.17021276595699</v>
-      </c>
-      <c r="F78">
-        <v>10.2647507045655</v>
-      </c>
-      <c r="G78">
-        <v>50</v>
-      </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
-      <c r="J78" t="s">
-        <v>4</v>
-      </c>
-      <c r="K78">
-        <v>400</v>
-      </c>
-      <c r="L78">
-        <v>16</v>
-      </c>
-      <c r="M78">
-        <v>885.5</v>
-      </c>
-      <c r="N78">
-        <v>26.529630140517799</v>
-      </c>
-      <c r="O78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>400</v>
-      </c>
-      <c r="D79">
-        <v>96</v>
-      </c>
-      <c r="E79">
-        <v>555.08333333333303</v>
-      </c>
-      <c r="F79">
-        <v>11.0177504266418</v>
-      </c>
-      <c r="G79">
-        <v>48</v>
-      </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="J79" t="s">
-        <v>4</v>
-      </c>
-      <c r="K79">
-        <v>400</v>
-      </c>
-      <c r="L79">
-        <v>10</v>
-      </c>
-      <c r="M79">
-        <v>891.4</v>
-      </c>
-      <c r="N79">
-        <v>25.547703587263801</v>
-      </c>
-      <c r="O79">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80">
-        <v>400</v>
-      </c>
-      <c r="D80">
-        <v>97</v>
-      </c>
-      <c r="E80">
-        <v>554.80412371134003</v>
-      </c>
-      <c r="F80">
-        <v>10.9593935572763</v>
-      </c>
-      <c r="G80">
-        <v>46</v>
-      </c>
-      <c r="I80">
-        <v>3</v>
-      </c>
-      <c r="J80" t="s">
-        <v>4</v>
-      </c>
-      <c r="K80">
-        <v>400</v>
-      </c>
-      <c r="L80">
-        <v>6</v>
-      </c>
-      <c r="M80">
-        <v>889.5</v>
-      </c>
-      <c r="N80">
-        <v>32.637891969643498</v>
-      </c>
-      <c r="O80">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81">
-        <v>400</v>
-      </c>
-      <c r="D81">
-        <v>93</v>
-      </c>
-      <c r="E81">
-        <v>519.62365591397804</v>
-      </c>
-      <c r="F81">
-        <v>10.3195841289375</v>
-      </c>
-      <c r="G81">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82">
-        <v>400</v>
-      </c>
-      <c r="D82">
-        <v>84</v>
-      </c>
-      <c r="E82">
-        <v>582.96428571428498</v>
-      </c>
-      <c r="F82">
-        <v>11.3437948853354</v>
-      </c>
-      <c r="G82">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83">
-        <v>400</v>
-      </c>
-      <c r="D83">
-        <v>80</v>
-      </c>
-      <c r="E83">
-        <v>597.65</v>
-      </c>
-      <c r="F83">
-        <v>11.6150051051285</v>
-      </c>
-      <c r="G83">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>400</v>
-      </c>
-      <c r="D84">
-        <v>90</v>
-      </c>
-      <c r="E84">
-        <v>543.155555555555</v>
-      </c>
-      <c r="F84">
-        <v>10.5625107677446</v>
-      </c>
-      <c r="G84">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>400</v>
-      </c>
-      <c r="D85">
-        <v>75</v>
-      </c>
-      <c r="E85">
-        <v>588.25333333333299</v>
-      </c>
-      <c r="F85">
-        <v>11.377903195818201</v>
-      </c>
-      <c r="G85">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86">
-        <v>400</v>
-      </c>
-      <c r="D86">
-        <v>48</v>
-      </c>
-      <c r="E86">
-        <v>714.47916666666595</v>
-      </c>
-      <c r="F86">
-        <v>13.8393050375161</v>
-      </c>
-      <c r="G86">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>400</v>
-      </c>
-      <c r="D87">
-        <v>47</v>
-      </c>
-      <c r="E87">
-        <v>733.468085106383</v>
-      </c>
-      <c r="F87">
-        <v>14.1053441997538</v>
-      </c>
-      <c r="G87">
-        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20390,16 +19837,37 @@
         <v>400</v>
       </c>
       <c r="D88">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E88">
-        <v>718.2857143</v>
+        <v>423.5</v>
       </c>
       <c r="F88">
-        <v>13.851180340000001</v>
+        <v>9.0964291085850206</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>400</v>
+      </c>
+      <c r="L88">
+        <v>35</v>
+      </c>
+      <c r="M88">
+        <v>780.94285714285695</v>
+      </c>
+      <c r="N88">
+        <v>20.859349279105601</v>
+      </c>
+      <c r="O88">
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20413,16 +19881,81 @@
         <v>400</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E89">
-        <v>780.32142859999999</v>
+        <v>420.56701030927798</v>
       </c>
       <c r="F89">
-        <v>14.96390658</v>
+        <v>8.8907207179737693</v>
       </c>
       <c r="G89">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>400</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>829.6</v>
+      </c>
+      <c r="N89">
+        <v>25.463095420971499</v>
+      </c>
+      <c r="O89">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>400</v>
+      </c>
+      <c r="D90">
+        <v>94</v>
+      </c>
+      <c r="E90">
+        <v>440.18085106382898</v>
+      </c>
+      <c r="F90">
+        <v>9.3584520068376307</v>
+      </c>
+      <c r="G90">
+        <v>60</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>400</v>
+      </c>
+      <c r="L90">
+        <v>26</v>
+      </c>
+      <c r="M90">
+        <v>822.53846153846098</v>
+      </c>
+      <c r="N90">
+        <v>25.130482175029201</v>
+      </c>
+      <c r="O90">
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20433,19 +19966,19 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D91">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E91">
-        <v>372.32323229999997</v>
+        <v>424.61458333333297</v>
       </c>
       <c r="F91">
-        <v>5.2747960860000003</v>
+        <v>8.96815269702347</v>
       </c>
       <c r="G91">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -20454,19 +19987,19 @@
         <v>4</v>
       </c>
       <c r="K91">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L91">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="M91">
-        <v>704.26666666666597</v>
+        <v>846.2</v>
       </c>
       <c r="N91">
-        <v>15.8326558619985</v>
+        <v>24.267018843566301</v>
       </c>
       <c r="O91">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20477,19 +20010,19 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D92">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E92">
-        <v>370.27272729999999</v>
+        <v>531.67368421052595</v>
       </c>
       <c r="F92">
-        <v>5.2413353349999996</v>
+        <v>11.0837625433151</v>
       </c>
       <c r="G92">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I92">
         <v>3</v>
@@ -20498,19 +20031,19 @@
         <v>4</v>
       </c>
       <c r="K92">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L92">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>711.55223880596998</v>
+        <v>845</v>
       </c>
       <c r="N92">
-        <v>17.464801227534799</v>
+        <v>23.3047984425762</v>
       </c>
       <c r="O92">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20521,19 +20054,19 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D93">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E93">
-        <v>342.50505049999998</v>
+        <v>504.63829787233999</v>
       </c>
       <c r="F93">
-        <v>4.794770218</v>
+        <v>10.5229280091069</v>
       </c>
       <c r="G93">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -20542,19 +20075,19 @@
         <v>4</v>
       </c>
       <c r="K93">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L93">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="M93">
-        <v>724.62162162162099</v>
+        <v>848.5</v>
       </c>
       <c r="N93">
-        <v>16.8978486205073</v>
+        <v>17.069780003745102</v>
       </c>
       <c r="O93">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20565,19 +20098,19 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D94">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E94">
-        <v>423.82474230000003</v>
+        <v>479.48958333333297</v>
       </c>
       <c r="F94">
-        <v>5.9024639680000002</v>
+        <v>9.5011443834518996</v>
       </c>
       <c r="G94">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -20586,19 +20119,19 @@
         <v>4</v>
       </c>
       <c r="K94">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L94">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>748.30158730158701</v>
+        <v>857.88235294117601</v>
       </c>
       <c r="N94">
-        <v>18.080032637135801</v>
+        <v>25.310378702138198</v>
       </c>
       <c r="O94">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20609,19 +20142,19 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D95">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E95">
-        <v>378.91752580000002</v>
+        <v>525.17021276595699</v>
       </c>
       <c r="F95">
-        <v>5.2813580130000002</v>
+        <v>10.2647507045655</v>
       </c>
       <c r="G95">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -20630,19 +20163,19 @@
         <v>4</v>
       </c>
       <c r="K95">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L95">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M95">
-        <v>752.67142857142801</v>
+        <v>885.5</v>
       </c>
       <c r="N95">
-        <v>16.476112538549501</v>
+        <v>26.529630140517799</v>
       </c>
       <c r="O95">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20653,19 +20186,19 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D96">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E96">
-        <v>423.62886600000002</v>
+        <v>555.08333333333303</v>
       </c>
       <c r="F96">
-        <v>5.8359921449999996</v>
+        <v>11.0177504266418</v>
       </c>
       <c r="G96">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I96">
         <v>3</v>
@@ -20674,19 +20207,19 @@
         <v>4</v>
       </c>
       <c r="K96">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L96">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M96">
-        <v>770</v>
+        <v>891.4</v>
       </c>
       <c r="N96">
-        <v>17.688887141055101</v>
+        <v>25.547703587263801</v>
       </c>
       <c r="O96">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20697,19 +20230,19 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D97">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97">
-        <v>440.42857140000001</v>
+        <v>554.80412371134003</v>
       </c>
       <c r="F97">
-        <v>6.087525963</v>
+        <v>10.9593935572763</v>
       </c>
       <c r="G97">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I97">
         <v>3</v>
@@ -20718,19 +20251,19 @@
         <v>4</v>
       </c>
       <c r="K97">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="L97">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>816.51851851851802</v>
+        <v>889.5</v>
       </c>
       <c r="N97">
-        <v>16.933855096016199</v>
+        <v>32.637891969643498</v>
       </c>
       <c r="O97">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20741,40 +20274,19 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D98">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E98">
-        <v>467.88888889999998</v>
+        <v>519.62365591397804</v>
       </c>
       <c r="F98">
-        <v>6.4435029349999997</v>
+        <v>10.3195841289375</v>
       </c>
       <c r="G98">
-        <v>50</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98" t="s">
-        <v>4</v>
-      </c>
-      <c r="K98">
-        <v>484</v>
-      </c>
-      <c r="L98">
-        <v>49</v>
-      </c>
-      <c r="M98">
-        <v>800.20408163265301</v>
-      </c>
-      <c r="N98">
-        <v>15.196851531765899</v>
-      </c>
-      <c r="O98">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20785,40 +20297,19 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D99">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E99">
-        <v>475.93684209999998</v>
+        <v>582.96428571428498</v>
       </c>
       <c r="F99">
-        <v>8.5119435380000006</v>
+        <v>11.3437948853354</v>
       </c>
       <c r="G99">
-        <v>48</v>
-      </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>4</v>
-      </c>
-      <c r="K99">
-        <v>484</v>
-      </c>
-      <c r="L99">
         <v>42</v>
-      </c>
-      <c r="M99">
-        <v>862.28571428571399</v>
-      </c>
-      <c r="N99">
-        <v>12.183164776081099</v>
-      </c>
-      <c r="O99">
-        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20829,40 +20320,19 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D100">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E100">
-        <v>467</v>
+        <v>597.65</v>
       </c>
       <c r="F100">
-        <v>6.6615881410000002</v>
+        <v>11.6150051051285</v>
       </c>
       <c r="G100">
-        <v>46</v>
-      </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100">
-        <v>484</v>
-      </c>
-      <c r="L100">
-        <v>33</v>
-      </c>
-      <c r="M100">
-        <v>853.84848484848396</v>
-      </c>
-      <c r="N100">
-        <v>12.0760924992236</v>
-      </c>
-      <c r="O100">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20873,19 +20343,19 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D101">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E101">
-        <v>495.610526315789</v>
+        <v>543.155555555555</v>
       </c>
       <c r="F101">
-        <v>7.3544068809990799</v>
+        <v>10.5625107677446</v>
       </c>
       <c r="G101">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20896,19 +20366,19 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D102">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E102">
-        <v>509.01063829787199</v>
+        <v>588.25333333333299</v>
       </c>
       <c r="F102">
-        <v>7.6523849648284701</v>
+        <v>11.377903195818201</v>
       </c>
       <c r="G102">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20919,19 +20389,19 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D103">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E103">
-        <v>589.888888888888</v>
+        <v>714.47916666666595</v>
       </c>
       <c r="F103">
-        <v>8.0006806965181401</v>
+        <v>13.8393050375161</v>
       </c>
       <c r="G103">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20942,19 +20412,19 @@
         <v>4</v>
       </c>
       <c r="C104">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D104">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E104">
-        <v>508.26966292134802</v>
+        <v>733.468085106383</v>
       </c>
       <c r="F104">
-        <v>6.8171389217624503</v>
+        <v>14.1053441997538</v>
       </c>
       <c r="G104">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20965,19 +20435,19 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D105">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E105">
-        <v>592.80722891566199</v>
+        <v>718.2857143</v>
       </c>
       <c r="F105">
-        <v>8.7465606638376201</v>
+        <v>13.851180340000001</v>
       </c>
       <c r="G105">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -20988,42 +20458,19 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="D106">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>648.92063492063403</v>
+        <v>780.32142859999999</v>
       </c>
       <c r="F106">
-        <v>10.1310165733512</v>
+        <v>14.96390658</v>
       </c>
       <c r="G106">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107">
-        <v>484</v>
-      </c>
-      <c r="D107">
-        <v>59</v>
-      </c>
-      <c r="E107">
-        <v>661.81355932203303</v>
-      </c>
-      <c r="F107">
-        <v>10.6127820291193</v>
-      </c>
-      <c r="G107">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -21037,16 +20484,37 @@
         <v>484</v>
       </c>
       <c r="D108">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E108">
-        <v>695.48148148148096</v>
+        <v>372.32323229999997</v>
       </c>
       <c r="F108">
-        <v>10.875712998280299</v>
+        <v>5.2747960860000003</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108">
+        <v>484</v>
+      </c>
+      <c r="L108">
+        <v>75</v>
+      </c>
+      <c r="M108">
+        <v>704.26666666666597</v>
+      </c>
+      <c r="N108">
+        <v>15.8326558619985</v>
+      </c>
+      <c r="O108">
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -21060,16 +20528,37 @@
         <v>484</v>
       </c>
       <c r="D109">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E109">
-        <v>758.55172413793105</v>
+        <v>370.27272729999999</v>
       </c>
       <c r="F109">
-        <v>11.7145653884729</v>
+        <v>5.2413353349999996</v>
       </c>
       <c r="G109">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>484</v>
+      </c>
+      <c r="L109">
+        <v>67</v>
+      </c>
+      <c r="M109">
+        <v>711.55223880596998</v>
+      </c>
+      <c r="N109">
+        <v>17.464801227534799</v>
+      </c>
+      <c r="O109">
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -21083,21 +20572,81 @@
         <v>484</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E110">
-        <v>799.61538461538396</v>
+        <v>342.50505049999998</v>
       </c>
       <c r="F110">
-        <v>11.241058543611</v>
+        <v>4.794770218</v>
       </c>
       <c r="G110">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>484</v>
+      </c>
+      <c r="L110">
+        <v>74</v>
+      </c>
+      <c r="M110">
+        <v>724.62162162162099</v>
+      </c>
+      <c r="N110">
+        <v>16.8978486205073</v>
+      </c>
+      <c r="O110">
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" t="s">
-        <v>28</v>
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>484</v>
+      </c>
+      <c r="D111">
+        <v>97</v>
+      </c>
+      <c r="E111">
+        <v>423.82474230000003</v>
+      </c>
+      <c r="F111">
+        <v>5.9024639680000002</v>
+      </c>
+      <c r="G111">
+        <v>58</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111">
+        <v>484</v>
+      </c>
+      <c r="L111">
+        <v>63</v>
+      </c>
+      <c r="M111">
+        <v>748.30158730158701</v>
+      </c>
+      <c r="N111">
+        <v>18.080032637135801</v>
+      </c>
+      <c r="O111">
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -21108,22 +20657,43 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D112">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E112">
-        <v>381.510416666666</v>
+        <v>378.91752580000002</v>
       </c>
       <c r="F112">
-        <v>6.7972798893655</v>
+        <v>5.2813580130000002</v>
       </c>
       <c r="G112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>484</v>
+      </c>
+      <c r="L112">
+        <v>70</v>
+      </c>
+      <c r="M112">
+        <v>752.67142857142801</v>
+      </c>
+      <c r="N112">
+        <v>16.476112538549501</v>
+      </c>
+      <c r="O112">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>2</v>
       </c>
@@ -21131,45 +20701,87 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D113">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E113">
-        <v>311.89583333333297</v>
+        <v>423.62886600000002</v>
       </c>
       <c r="F113">
-        <v>6.1446730652241897</v>
+        <v>5.8359921449999996</v>
       </c>
       <c r="G113">
+        <v>54</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113">
+        <v>484</v>
+      </c>
+      <c r="L113">
+        <v>60</v>
+      </c>
+      <c r="M113">
+        <v>770</v>
+      </c>
+      <c r="N113">
+        <v>17.688887141055101</v>
+      </c>
+      <c r="O113">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>484</v>
+      </c>
+      <c r="D114">
         <v>98</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114">
-        <v>2</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114">
-        <v>576</v>
-      </c>
-      <c r="D114">
-        <v>97</v>
-      </c>
       <c r="E114">
-        <v>330.31958762886597</v>
+        <v>440.42857140000001</v>
       </c>
       <c r="F114">
-        <v>5.6944305366193202</v>
+        <v>6.087525963</v>
       </c>
       <c r="G114">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <v>484</v>
+      </c>
+      <c r="L114">
+        <v>54</v>
+      </c>
+      <c r="M114">
+        <v>816.51851851851802</v>
+      </c>
+      <c r="N114">
+        <v>16.933855096016199</v>
+      </c>
+      <c r="O114">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>2</v>
       </c>
@@ -21177,68 +20789,131 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D115">
         <v>99</v>
       </c>
       <c r="E115">
-        <v>364.13131313131299</v>
+        <v>467.88888889999998</v>
       </c>
       <c r="F115">
-        <v>6.1750126605608804</v>
+        <v>6.4435029349999997</v>
       </c>
       <c r="G115">
+        <v>50</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115" t="s">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>484</v>
+      </c>
+      <c r="L115">
+        <v>49</v>
+      </c>
+      <c r="M115">
+        <v>800.20408163265301</v>
+      </c>
+      <c r="N115">
+        <v>15.196851531765899</v>
+      </c>
+      <c r="O115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>484</v>
+      </c>
+      <c r="D116">
+        <v>95</v>
+      </c>
+      <c r="E116">
+        <v>475.93684209999998</v>
+      </c>
+      <c r="F116">
+        <v>8.5119435380000006</v>
+      </c>
+      <c r="G116">
+        <v>48</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>484</v>
+      </c>
+      <c r="L116">
+        <v>42</v>
+      </c>
+      <c r="M116">
+        <v>862.28571428571399</v>
+      </c>
+      <c r="N116">
+        <v>12.183164776081099</v>
+      </c>
+      <c r="O116">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>484</v>
+      </c>
+      <c r="D117">
         <v>94</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116">
-        <v>576</v>
-      </c>
-      <c r="D116">
-        <v>100</v>
-      </c>
-      <c r="E116">
-        <v>303.94</v>
-      </c>
-      <c r="F116">
-        <v>6.1456415202468602</v>
-      </c>
-      <c r="G116">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117">
-        <v>2</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117">
-        <v>576</v>
-      </c>
-      <c r="D117">
-        <v>99</v>
-      </c>
       <c r="E117">
-        <v>367.191919191919</v>
+        <v>467</v>
       </c>
       <c r="F117">
-        <v>6.8286330138493003</v>
+        <v>6.6615881410000002</v>
       </c>
       <c r="G117">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117">
+        <v>484</v>
+      </c>
+      <c r="L117">
+        <v>33</v>
+      </c>
+      <c r="M117">
+        <v>853.84848484848396</v>
+      </c>
+      <c r="N117">
+        <v>12.0760924992236</v>
+      </c>
+      <c r="O117">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>2</v>
       </c>
@@ -21246,22 +20921,22 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D118">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E118">
-        <v>346.14</v>
+        <v>495.610526315789</v>
       </c>
       <c r="F118">
-        <v>8.6817478113994007</v>
+        <v>7.3544068809990799</v>
       </c>
       <c r="G118">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>2</v>
       </c>
@@ -21269,22 +20944,22 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D119">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E119">
-        <v>317.38775510203999</v>
+        <v>509.01063829787199</v>
       </c>
       <c r="F119">
-        <v>6.7580257420408998</v>
+        <v>7.6523849648284701</v>
       </c>
       <c r="G119">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>2</v>
       </c>
@@ -21292,22 +20967,22 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D120">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E120">
-        <v>346.7</v>
+        <v>589.888888888888</v>
       </c>
       <c r="F120">
-        <v>6.5984751698561004</v>
+        <v>8.0006806965181401</v>
       </c>
       <c r="G120">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>2</v>
       </c>
@@ -21315,22 +20990,22 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D121">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E121">
-        <v>403.96875</v>
+        <v>508.26966292134802</v>
       </c>
       <c r="F121">
-        <v>7.4077117498187901</v>
+        <v>6.8171389217624503</v>
       </c>
       <c r="G121">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>2</v>
       </c>
@@ -21338,22 +21013,22 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D122">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E122">
-        <v>378.5</v>
+        <v>592.80722891566199</v>
       </c>
       <c r="F122">
-        <v>7.8835657652467397</v>
+        <v>8.7465606638376201</v>
       </c>
       <c r="G122">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>2</v>
       </c>
@@ -21361,22 +21036,22 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D123">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E123">
-        <v>393.17171717171698</v>
+        <v>648.92063492063403</v>
       </c>
       <c r="F123">
-        <v>8.2980959603769904</v>
+        <v>10.1310165733512</v>
       </c>
       <c r="G123">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>2</v>
       </c>
@@ -21384,22 +21059,22 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D124">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E124">
-        <v>390.80612244897901</v>
+        <v>661.81355932203303</v>
       </c>
       <c r="F124">
-        <v>8.1268341183206196</v>
+        <v>10.6127820291193</v>
       </c>
       <c r="G124">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>2</v>
       </c>
@@ -21407,22 +21082,22 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D125">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E125">
-        <v>378.66</v>
+        <v>695.48148148148096</v>
       </c>
       <c r="F125">
-        <v>7.88954414056614</v>
+        <v>10.875712998280299</v>
       </c>
       <c r="G125">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>2</v>
       </c>
@@ -21430,22 +21105,22 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D126">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>421.01010101010098</v>
+        <v>758.55172413793105</v>
       </c>
       <c r="F126">
-        <v>8.6896902436785606</v>
+        <v>11.7145653884729</v>
       </c>
       <c r="G126">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>2</v>
       </c>
@@ -21453,42 +21128,24 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D127">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E127">
-        <v>426.83333333333297</v>
+        <v>799.61538461538396</v>
       </c>
       <c r="F127">
-        <v>8.9285721969402694</v>
+        <v>11.241058543611</v>
       </c>
       <c r="G127">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128">
-        <v>576</v>
-      </c>
-      <c r="D128">
-        <v>95</v>
-      </c>
-      <c r="E128">
-        <v>418.58947368421002</v>
-      </c>
-      <c r="F128">
-        <v>8.8972538678465707</v>
-      </c>
-      <c r="G128">
-        <v>68</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21502,16 +21159,16 @@
         <v>576</v>
       </c>
       <c r="D129">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E129">
-        <v>409.68686868686802</v>
+        <v>381.510416666666</v>
       </c>
       <c r="F129">
-        <v>7.6802283855286797</v>
+        <v>6.7972798893655</v>
       </c>
       <c r="G129">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21525,16 +21182,16 @@
         <v>576</v>
       </c>
       <c r="D130">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E130">
-        <v>425.42268041237099</v>
+        <v>311.89583333333297</v>
       </c>
       <c r="F130">
-        <v>6.7213353773137303</v>
+        <v>6.1446730652241897</v>
       </c>
       <c r="G130">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21551,13 +21208,13 @@
         <v>97</v>
       </c>
       <c r="E131">
-        <v>465.52577319587601</v>
+        <v>330.31958762886597</v>
       </c>
       <c r="F131">
-        <v>7.2931029966926699</v>
+        <v>5.6944305366193202</v>
       </c>
       <c r="G131">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21571,16 +21228,16 @@
         <v>576</v>
       </c>
       <c r="D132">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E132">
-        <v>397.6875</v>
+        <v>364.13131313131299</v>
       </c>
       <c r="F132">
-        <v>7.5306530412247703</v>
+        <v>6.1750126605608804</v>
       </c>
       <c r="G132">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21594,16 +21251,16 @@
         <v>576</v>
       </c>
       <c r="D133">
+        <v>100</v>
+      </c>
+      <c r="E133">
+        <v>303.94</v>
+      </c>
+      <c r="F133">
+        <v>6.1456415202468602</v>
+      </c>
+      <c r="G133">
         <v>92</v>
-      </c>
-      <c r="E133">
-        <v>502.14130434782601</v>
-      </c>
-      <c r="F133">
-        <v>19.535266446354498</v>
-      </c>
-      <c r="G133">
-        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21617,16 +21274,16 @@
         <v>576</v>
       </c>
       <c r="D134">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E134">
-        <v>534.35227272727195</v>
+        <v>367.191919191919</v>
       </c>
       <c r="F134">
-        <v>19.467182093363402</v>
+        <v>6.8286330138493003</v>
       </c>
       <c r="G134">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21640,16 +21297,16 @@
         <v>576</v>
       </c>
       <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="E135">
+        <v>346.14</v>
+      </c>
+      <c r="F135">
+        <v>8.6817478113994007</v>
+      </c>
+      <c r="G135">
         <v>88</v>
-      </c>
-      <c r="E135">
-        <v>506.85227272727201</v>
-      </c>
-      <c r="F135">
-        <v>8.4418457197448706</v>
-      </c>
-      <c r="G135">
-        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21663,16 +21320,16 @@
         <v>576</v>
       </c>
       <c r="D136">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E136">
-        <v>587.67948717948696</v>
+        <v>317.38775510203999</v>
       </c>
       <c r="F136">
-        <v>15.404645671876899</v>
+        <v>6.7580257420408998</v>
       </c>
       <c r="G136">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21686,16 +21343,16 @@
         <v>576</v>
       </c>
       <c r="D137">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E137">
-        <v>515.71604938271605</v>
+        <v>346.7</v>
       </c>
       <c r="F137">
-        <v>13.4277134959896</v>
+        <v>6.5984751698561004</v>
       </c>
       <c r="G137">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21709,16 +21366,16 @@
         <v>576</v>
       </c>
       <c r="D138">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E138">
-        <v>609.194444444444</v>
+        <v>403.96875</v>
       </c>
       <c r="F138">
-        <v>14.041894719340901</v>
+        <v>7.4077117498187901</v>
       </c>
       <c r="G138">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21732,16 +21389,16 @@
         <v>576</v>
       </c>
       <c r="D139">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E139">
-        <v>588.71052631578902</v>
+        <v>378.5</v>
       </c>
       <c r="F139">
-        <v>15.9368369582256</v>
+        <v>7.8835657652467397</v>
       </c>
       <c r="G139">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21755,16 +21412,16 @@
         <v>576</v>
       </c>
       <c r="D140">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E140">
-        <v>707.46551724137896</v>
+        <v>393.17171717171698</v>
       </c>
       <c r="F140">
-        <v>10.8505597061895</v>
+        <v>8.2980959603769904</v>
       </c>
       <c r="G140">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21778,16 +21435,16 @@
         <v>576</v>
       </c>
       <c r="D141">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E141">
-        <v>709.56756756756704</v>
+        <v>390.80612244897901</v>
       </c>
       <c r="F141">
-        <v>17.542395341738601</v>
+        <v>8.1268341183206196</v>
       </c>
       <c r="G141">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21801,15 +21458,406 @@
         <v>576</v>
       </c>
       <c r="D142">
+        <v>100</v>
+      </c>
+      <c r="E142">
+        <v>378.66</v>
+      </c>
+      <c r="F142">
+        <v>7.88954414056614</v>
+      </c>
+      <c r="G142">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>576</v>
+      </c>
+      <c r="D143">
+        <v>99</v>
+      </c>
+      <c r="E143">
+        <v>421.01010101010098</v>
+      </c>
+      <c r="F143">
+        <v>8.6896902436785606</v>
+      </c>
+      <c r="G143">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>576</v>
+      </c>
+      <c r="D144">
+        <v>96</v>
+      </c>
+      <c r="E144">
+        <v>426.83333333333297</v>
+      </c>
+      <c r="F144">
+        <v>8.9285721969402694</v>
+      </c>
+      <c r="G144">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>576</v>
+      </c>
+      <c r="D145">
+        <v>95</v>
+      </c>
+      <c r="E145">
+        <v>418.58947368421002</v>
+      </c>
+      <c r="F145">
+        <v>8.8972538678465707</v>
+      </c>
+      <c r="G145">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>576</v>
+      </c>
+      <c r="D146">
+        <v>99</v>
+      </c>
+      <c r="E146">
+        <v>409.68686868686802</v>
+      </c>
+      <c r="F146">
+        <v>7.6802283855286797</v>
+      </c>
+      <c r="G146">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>576</v>
+      </c>
+      <c r="D147">
+        <v>97</v>
+      </c>
+      <c r="E147">
+        <v>425.42268041237099</v>
+      </c>
+      <c r="F147">
+        <v>6.7213353773137303</v>
+      </c>
+      <c r="G147">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>576</v>
+      </c>
+      <c r="D148">
+        <v>97</v>
+      </c>
+      <c r="E148">
+        <v>465.52577319587601</v>
+      </c>
+      <c r="F148">
+        <v>7.2931029966926699</v>
+      </c>
+      <c r="G148">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>576</v>
+      </c>
+      <c r="D149">
+        <v>96</v>
+      </c>
+      <c r="E149">
+        <v>397.6875</v>
+      </c>
+      <c r="F149">
+        <v>7.5306530412247703</v>
+      </c>
+      <c r="G149">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>576</v>
+      </c>
+      <c r="D150">
+        <v>92</v>
+      </c>
+      <c r="E150">
+        <v>502.14130434782601</v>
+      </c>
+      <c r="F150">
+        <v>19.535266446354498</v>
+      </c>
+      <c r="G150">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>576</v>
+      </c>
+      <c r="D151">
+        <v>88</v>
+      </c>
+      <c r="E151">
+        <v>534.35227272727195</v>
+      </c>
+      <c r="F151">
+        <v>19.467182093363402</v>
+      </c>
+      <c r="G151">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>576</v>
+      </c>
+      <c r="D152">
+        <v>88</v>
+      </c>
+      <c r="E152">
+        <v>506.85227272727201</v>
+      </c>
+      <c r="F152">
+        <v>8.4418457197448706</v>
+      </c>
+      <c r="G152">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>576</v>
+      </c>
+      <c r="D153">
+        <v>78</v>
+      </c>
+      <c r="E153">
+        <v>587.67948717948696</v>
+      </c>
+      <c r="F153">
+        <v>15.404645671876899</v>
+      </c>
+      <c r="G153">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>576</v>
+      </c>
+      <c r="D154">
+        <v>81</v>
+      </c>
+      <c r="E154">
+        <v>515.71604938271605</v>
+      </c>
+      <c r="F154">
+        <v>13.4277134959896</v>
+      </c>
+      <c r="G154">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>576</v>
+      </c>
+      <c r="D155">
+        <v>72</v>
+      </c>
+      <c r="E155">
+        <v>609.194444444444</v>
+      </c>
+      <c r="F155">
+        <v>14.041894719340901</v>
+      </c>
+      <c r="G155">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>576</v>
+      </c>
+      <c r="D156">
+        <v>76</v>
+      </c>
+      <c r="E156">
+        <v>588.71052631578902</v>
+      </c>
+      <c r="F156">
+        <v>15.9368369582256</v>
+      </c>
+      <c r="G156">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>576</v>
+      </c>
+      <c r="D157">
+        <v>58</v>
+      </c>
+      <c r="E157">
+        <v>707.46551724137896</v>
+      </c>
+      <c r="F157">
+        <v>10.8505597061895</v>
+      </c>
+      <c r="G157">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>576</v>
+      </c>
+      <c r="D158">
+        <v>37</v>
+      </c>
+      <c r="E158">
+        <v>709.56756756756704</v>
+      </c>
+      <c r="F158">
+        <v>17.542395341738601</v>
+      </c>
+      <c r="G158">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>576</v>
+      </c>
+      <c r="D159">
         <v>32</v>
       </c>
-      <c r="E142">
+      <c r="E159">
         <v>731.90625</v>
       </c>
-      <c r="F142">
+      <c r="F159">
         <v>19.725099399161898</v>
       </c>
-      <c r="G142">
+      <c r="G159">
         <v>40</v>
       </c>
     </row>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38321CC8-E8B3-4DED-A159-E02781E06527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473E611-200F-483D-B599-B49B191170AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView minimized="1" xWindow="6486" yWindow="2448" windowWidth="5760" windowHeight="3138" firstSheet="1" activeTab="3" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="30">
   <si>
     <t>target_dim</t>
   </si>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U163"/>
+  <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -667,7 +667,7 @@
         <v>6.3860321370784598</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">A4*($A$2^$B$2)</f>
+        <f>A4*($A$2^$B$2)</f>
         <v>250000</v>
       </c>
       <c r="F4">
@@ -702,7 +702,7 @@
         <v>484</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P11" si="1">2*($A$2^($B$2/2))*O4^0.5+O4*K4</f>
+        <f t="shared" ref="P4:P11" si="0">2*($A$2^($B$2/2))*O4^0.5+O4*K4</f>
         <v>194700</v>
       </c>
       <c r="Q4">
@@ -736,7 +736,7 @@
         <v>3.9082989687905498</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>A5*($A$2^$B$2)</f>
         <v>202500</v>
       </c>
       <c r="F5">
@@ -752,7 +752,7 @@
         <v>3.18674689442929</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J11" si="2">2*$A$13^($B$13/2)*(F5^0.5)</f>
+        <f t="shared" ref="J5:J11" si="1">2*$A$13^($B$13/2)*(F5^0.5)</f>
         <v>900</v>
       </c>
       <c r="K5">
@@ -771,7 +771,7 @@
         <v>484</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>157916</v>
       </c>
       <c r="Q5">
@@ -787,7 +787,7 @@
         <v>4.4703398948333302</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U11" si="3">2*$A$13^($B$13/2)*(Q5^0.5)</f>
+        <f t="shared" ref="U5:U11" si="2">2*$A$13^($B$13/2)*(Q5^0.5)</f>
         <v>900</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
         <v>3.8371648014365798</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E6:E11" si="3">A6*($A$2^$B$2)</f>
         <v>160000</v>
       </c>
       <c r="F6">
@@ -821,7 +821,7 @@
         <v>3.8491576091097301</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="K6">
@@ -840,7 +840,7 @@
         <v>484</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>125004</v>
       </c>
       <c r="Q6">
@@ -856,7 +856,7 @@
         <v>6.0105570084669298</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>3.0638758625775</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>122500</v>
       </c>
       <c r="F7">
@@ -890,7 +890,7 @@
         <v>3.6528063245117601</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="K7">
@@ -909,7 +909,7 @@
         <v>484</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95964</v>
       </c>
       <c r="Q7">
@@ -925,7 +925,7 @@
         <v>6.4788106249864397</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>5.6184348095622303</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
       <c r="F8">
@@ -959,44 +959,44 @@
         <v>5.7051940653473103</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="K8">
+        <v>144</v>
+      </c>
+      <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8" s="3">
+        <v>220.30612244897901</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3.5443058389296</v>
+      </c>
+      <c r="O8">
+        <v>484</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>70796</v>
+      </c>
+      <c r="Q8">
+        <v>144</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>1441</v>
+      </c>
+      <c r="T8">
+        <v>7.66538161900825</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="K8">
-        <v>144</v>
-      </c>
-      <c r="L8">
-        <v>98</v>
-      </c>
-      <c r="M8" s="3">
-        <v>220.30612244897901</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3.5443058389296</v>
-      </c>
-      <c r="O8">
-        <v>484</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>70796</v>
-      </c>
-      <c r="Q8">
-        <v>144</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
-      </c>
-      <c r="S8">
-        <v>1441</v>
-      </c>
-      <c r="T8">
-        <v>7.66538161900825</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -1012,7 +1012,7 @@
         <v>7.9518935654001899</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62500</v>
       </c>
       <c r="F9">
@@ -1028,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="K9">
@@ -1047,7 +1047,7 @@
         <v>484</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
       <c r="Q9">
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
         <v>8.8598023688213701</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
       <c r="F10">
@@ -1097,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="K10">
@@ -1116,7 +1116,7 @@
         <v>484</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32076</v>
       </c>
       <c r="Q10">
@@ -1132,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>10.6315332688391</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22500</v>
       </c>
       <c r="F11">
@@ -1166,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="K11">
@@ -1185,7 +1185,7 @@
         <v>484</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18524</v>
       </c>
       <c r="Q11">
@@ -1201,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
@@ -7364,186 +7364,320 @@
         <v>2</v>
       </c>
     </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>2500</v>
+      </c>
+      <c r="B146">
+        <v>95</v>
+      </c>
+      <c r="C146">
+        <v>292.28421052631501</v>
+      </c>
+      <c r="D146">
+        <v>15.7620027848372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>2304</v>
+      </c>
+      <c r="B147">
+        <v>97</v>
+      </c>
+      <c r="C147">
+        <v>257.29896907216403</v>
+      </c>
+      <c r="D147">
+        <v>12.566699850075301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>2116</v>
+      </c>
+      <c r="B148">
+        <v>99</v>
+      </c>
+      <c r="C148">
+        <v>281.414141414141</v>
+      </c>
+      <c r="D148">
+        <v>14.1590734155227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>1936</v>
+      </c>
+      <c r="B149">
+        <v>97</v>
+      </c>
+      <c r="C149">
+        <v>329.23711340206103</v>
+      </c>
+      <c r="D149">
+        <v>15.6423572235423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>1764</v>
+      </c>
+      <c r="B150">
+        <v>97</v>
+      </c>
+      <c r="C150">
+        <v>241.08247420000001</v>
+      </c>
+      <c r="D150">
+        <v>10.14742854</v>
+      </c>
+    </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
-        <v>1936</v>
+        <v>1600</v>
       </c>
       <c r="B151">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C151">
-        <v>329.23711340206103</v>
+        <v>358.43010752688099</v>
       </c>
       <c r="D151">
-        <v>15.6423572235423</v>
+        <v>16.217102421728001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
-        <v>1764</v>
+        <v>1444</v>
       </c>
       <c r="B152">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C152">
-        <v>241.08247420000001</v>
+        <v>456.83720930232499</v>
       </c>
       <c r="D152">
-        <v>10.14742854</v>
+        <v>20.146446314662001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
-        <v>1600</v>
+        <v>1296</v>
       </c>
       <c r="B153">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C153">
-        <v>358.43010752688099</v>
+        <v>476.73863636363598</v>
       </c>
       <c r="D153">
-        <v>16.217102421728001</v>
+        <v>14.634339420082499</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
-        <v>1444</v>
+        <v>1156</v>
       </c>
       <c r="B154">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C154">
-        <v>456.83720930232499</v>
+        <v>368.23655913978399</v>
       </c>
       <c r="D154">
-        <v>20.146446314662001</v>
+        <v>9.7201145311957706</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
-        <v>1296</v>
+        <v>1024</v>
       </c>
       <c r="B155">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C155">
-        <v>476.73863636363598</v>
+        <v>284.58064516129002</v>
       </c>
       <c r="D155">
-        <v>14.634339420082499</v>
+        <v>7.2532272577405896</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
-        <v>1156</v>
+        <v>900</v>
       </c>
       <c r="B156">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C156">
-        <v>368.23655913978399</v>
+        <v>268.61111111111097</v>
       </c>
       <c r="D156">
-        <v>9.7201145311957706</v>
+        <v>6.6223767220766998</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
-        <v>1024</v>
+        <v>784</v>
       </c>
       <c r="B157">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C157">
-        <v>284.58064516129002</v>
+        <v>317.20238095238</v>
       </c>
       <c r="D157">
-        <v>7.2532272577405896</v>
+        <v>7.58016417552495</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
-        <v>900</v>
+        <v>676</v>
       </c>
       <c r="B158">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C158">
-        <v>268.61111111111097</v>
+        <v>434.815384615384</v>
       </c>
       <c r="D158">
-        <v>6.6223767220766998</v>
+        <v>10.0280303133221</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>784</v>
+        <v>576</v>
       </c>
       <c r="B159">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C159">
-        <v>317.20238095238</v>
+        <v>430.13559322033899</v>
       </c>
       <c r="D159">
-        <v>7.58016417552495</v>
+        <v>9.7093883392290508</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>676</v>
+        <v>484</v>
       </c>
       <c r="B160">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C160">
-        <v>434.815384615384</v>
+        <v>537.43902439024396</v>
       </c>
       <c r="D160">
-        <v>10.0280303133221</v>
+        <v>11.743663789658999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>576</v>
+        <v>400</v>
       </c>
       <c r="B161">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>430.13559322033899</v>
+        <v>607.11111111111097</v>
       </c>
       <c r="D161">
-        <v>9.7093883392290508</v>
+        <v>13.0272762258019</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162">
-        <v>484</v>
-      </c>
-      <c r="B162">
-        <v>41</v>
-      </c>
-      <c r="C162">
-        <v>537.43902439024396</v>
-      </c>
-      <c r="D162">
-        <v>11.743663789658999</v>
+      <c r="A162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163">
-        <v>400</v>
-      </c>
-      <c r="B163">
-        <v>9</v>
-      </c>
-      <c r="C163">
-        <v>607.11111111111097</v>
-      </c>
-      <c r="D163">
-        <v>13.0272762258019</v>
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
+        <v>2500</v>
+      </c>
+      <c r="B164">
+        <v>100</v>
+      </c>
+      <c r="C164">
+        <v>130.12</v>
+      </c>
+      <c r="D164">
+        <v>7.1067821337468899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
+        <v>2304</v>
+      </c>
+      <c r="B165">
+        <v>100</v>
+      </c>
+      <c r="C165">
+        <v>138.72999999999999</v>
+      </c>
+      <c r="D165">
+        <v>8.4159216811321595</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
+        <v>2116</v>
+      </c>
+      <c r="B166">
+        <v>100</v>
+      </c>
+      <c r="C166">
+        <v>141.72999999999999</v>
+      </c>
+      <c r="D166">
+        <v>6.9198426836170199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>1936</v>
+      </c>
+      <c r="B167">
+        <v>100</v>
+      </c>
+      <c r="C167">
+        <v>147.21</v>
+      </c>
+      <c r="D167">
+        <v>7.6758795950189196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>1764</v>
+      </c>
+      <c r="B168">
+        <v>100</v>
+      </c>
+      <c r="C168">
+        <v>165.08</v>
+      </c>
+      <c r="D168">
+        <v>8.8137238184362605</v>
       </c>
     </row>
   </sheetData>
@@ -7559,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10609,8 +10743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="N165" sqref="N165"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17536,8 +17670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19794,36 +19928,163 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
         <v>324</v>
       </c>
-      <c r="B71">
+      <c r="D71">
         <v>90</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>506.655555555555</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>10.8764657149505</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
         <v>324</v>
       </c>
-      <c r="B72">
+      <c r="D72">
         <v>94</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>482.71276595744598</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>10.983415392683201</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>324</v>
+      </c>
+      <c r="D73">
+        <v>90</v>
+      </c>
+      <c r="E73">
+        <v>538.57777777777699</v>
+      </c>
+      <c r="F73">
+        <v>11.2994325747713</v>
+      </c>
+      <c r="G73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>324</v>
+      </c>
+      <c r="D74">
+        <v>85</v>
+      </c>
+      <c r="E74">
+        <v>492.576470588235</v>
+      </c>
+      <c r="F74">
+        <v>11.799033313266399</v>
+      </c>
+      <c r="G74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>324</v>
+      </c>
+      <c r="D75">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>596.20238095238096</v>
+      </c>
+      <c r="F75">
+        <v>14.516765243905899</v>
+      </c>
+      <c r="G75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>324</v>
+      </c>
+      <c r="D76">
+        <v>89</v>
+      </c>
+      <c r="E76">
+        <v>567.19101123595499</v>
+      </c>
+      <c r="F76">
+        <v>11.4534780034021</v>
+      </c>
+      <c r="G76">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>324</v>
+      </c>
+      <c r="D77">
+        <v>89</v>
+      </c>
+      <c r="E77">
+        <v>593.01123595505601</v>
+      </c>
+      <c r="F77">
+        <v>15.2321420946692</v>
+      </c>
+      <c r="G77">
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473E611-200F-483D-B599-B49B191170AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56443612-13DC-4845-B262-93BF92F50FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6486" yWindow="2448" windowWidth="5760" windowHeight="3138" firstSheet="1" activeTab="3" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="33">
   <si>
     <t>target_dim</t>
   </si>
@@ -102,9 +102,6 @@
     <t>n=6,d=4</t>
   </si>
   <si>
-    <t>(Modewise had 2000 iterations for &lt;400)</t>
-  </si>
-  <si>
     <t>n=7,d=4</t>
   </si>
   <si>
@@ -118,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TWO STEP WITH BIGGER INTERMEDIATE</t>
+  </si>
+  <si>
+    <t>TWO STEP WITH BIGGER INTERMEDIATE DIMENSION (RUNTIMES NOT COMPARABLE)</t>
+  </si>
+  <si>
+    <t>(Need to rerun part of these, 6,4,2. Accidentally gave modewise  2000 iterations for &lt;400)</t>
+  </si>
+  <si>
+    <t>MODEWISE BIGGER INTERMEDIATE DIMENSION</t>
   </si>
 </sst>
 </file>
@@ -538,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2985,7 +2994,7 @@
         <v>2436.4313954750974</v>
       </c>
       <c r="R47" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -6119,7 +6128,7 @@
         <v>603290</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>256</v>
       </c>
@@ -6173,7 +6182,7 @@
         <v>477558</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>196</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>366618</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -6237,8 +6246,11 @@
       <c r="C115" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -6249,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>784</v>
       </c>
@@ -6302,8 +6314,23 @@
         <f>2*($A$116^($B$116/2))*O117^0.5+O117*K117</f>
         <v>2465792</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q117">
+        <v>784</v>
+      </c>
+      <c r="R117">
+        <v>98</v>
+      </c>
+      <c r="S117">
+        <v>147.683673469387</v>
+      </c>
+      <c r="T117">
+        <v>4.1791762206133196</v>
+      </c>
+      <c r="U117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>676</v>
       </c>
@@ -6356,8 +6383,23 @@
         <f t="shared" ref="P118:P124" si="40">2*($A$116^($B$116/2))*O118^0.5+O118*K118</f>
         <v>2127104</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q118">
+        <v>784</v>
+      </c>
+      <c r="R118">
+        <v>100</v>
+      </c>
+      <c r="S118">
+        <v>164.05</v>
+      </c>
+      <c r="T118">
+        <v>4.22522709120065</v>
+      </c>
+      <c r="U118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>576</v>
       </c>
@@ -6410,8 +6452,23 @@
         <f t="shared" si="40"/>
         <v>1813504</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q119">
+        <v>784</v>
+      </c>
+      <c r="R119">
+        <v>97</v>
+      </c>
+      <c r="S119">
+        <v>176.381443298969</v>
+      </c>
+      <c r="T119">
+        <v>3.10998316604605</v>
+      </c>
+      <c r="U119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>484</v>
       </c>
@@ -6464,8 +6521,23 @@
         <f t="shared" si="40"/>
         <v>1524992</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q120">
+        <v>784</v>
+      </c>
+      <c r="R120">
+        <v>99</v>
+      </c>
+      <c r="S120">
+        <v>178.37373737373699</v>
+      </c>
+      <c r="T120">
+        <v>2.8245801322275002</v>
+      </c>
+      <c r="U120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>400</v>
       </c>
@@ -6518,8 +6590,23 @@
         <f t="shared" si="40"/>
         <v>1261568</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q121">
+        <v>784</v>
+      </c>
+      <c r="R121">
+        <v>94</v>
+      </c>
+      <c r="S121">
+        <v>221.97872340425499</v>
+      </c>
+      <c r="T121">
+        <v>3.22429017098422</v>
+      </c>
+      <c r="U121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>324</v>
       </c>
@@ -6572,8 +6659,23 @@
         <f t="shared" si="40"/>
         <v>1023232</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q122">
+        <v>784</v>
+      </c>
+      <c r="R122">
+        <v>87</v>
+      </c>
+      <c r="S122">
+        <v>186.34482758620601</v>
+      </c>
+      <c r="T122">
+        <v>2.5168245506911702</v>
+      </c>
+      <c r="U122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>256</v>
       </c>
@@ -6626,8 +6728,23 @@
         <f t="shared" si="40"/>
         <v>809984</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q123">
+        <v>784</v>
+      </c>
+      <c r="R123">
+        <v>88</v>
+      </c>
+      <c r="S123">
+        <v>230.57954545454501</v>
+      </c>
+      <c r="T123">
+        <v>2.7773580036168402</v>
+      </c>
+      <c r="U123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>196</v>
       </c>
@@ -6680,8 +6797,23 @@
         <f t="shared" si="40"/>
         <v>621824</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q124">
+        <v>784</v>
+      </c>
+      <c r="R124">
+        <v>76</v>
+      </c>
+      <c r="S124">
+        <v>297.355263157894</v>
+      </c>
+      <c r="T124">
+        <v>3.2994038350880102</v>
+      </c>
+      <c r="U124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -6692,7 +6824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -6703,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>784</v>
       </c>
@@ -6747,8 +6879,23 @@
       <c r="O127">
         <v>56</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q127">
+        <v>784</v>
+      </c>
+      <c r="R127">
+        <v>100</v>
+      </c>
+      <c r="S127">
+        <v>130.84</v>
+      </c>
+      <c r="T127">
+        <v>4.6951451135799198</v>
+      </c>
+      <c r="U127">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>676</v>
       </c>
@@ -6792,8 +6939,23 @@
       <c r="O128">
         <v>56</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q128">
+        <v>676</v>
+      </c>
+      <c r="R128">
+        <v>100</v>
+      </c>
+      <c r="S128">
+        <v>136.6</v>
+      </c>
+      <c r="T128">
+        <v>4.5641507424786596</v>
+      </c>
+      <c r="U128">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
@@ -6837,8 +6999,23 @@
       <c r="O129">
         <v>56</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q129">
+        <v>576</v>
+      </c>
+      <c r="R129">
+        <v>100</v>
+      </c>
+      <c r="S129">
+        <v>149.74</v>
+      </c>
+      <c r="T129">
+        <v>3.7639564113318902</v>
+      </c>
+      <c r="U129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
@@ -6882,8 +7059,23 @@
       <c r="O130">
         <v>56</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q130">
+        <v>484</v>
+      </c>
+      <c r="R130">
+        <v>100</v>
+      </c>
+      <c r="S130">
+        <v>170.6</v>
+      </c>
+      <c r="T130">
+        <v>4.0042326463572602</v>
+      </c>
+      <c r="U130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
@@ -6927,8 +7119,23 @@
       <c r="O131">
         <v>56</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q131">
+        <v>400</v>
+      </c>
+      <c r="R131">
+        <v>100</v>
+      </c>
+      <c r="S131">
+        <v>201.89</v>
+      </c>
+      <c r="T131">
+        <v>4.5102407481707596</v>
+      </c>
+      <c r="U131">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
@@ -6969,8 +7176,23 @@
       <c r="N132">
         <v>13.647528167333901</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q132">
+        <v>324</v>
+      </c>
+      <c r="R132">
+        <v>92</v>
+      </c>
+      <c r="S132">
+        <v>295.31521739130397</v>
+      </c>
+      <c r="T132">
+        <v>6.2193669983712203</v>
+      </c>
+      <c r="U132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
@@ -7011,8 +7233,23 @@
       <c r="N133">
         <v>15.1065342669341</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q133">
+        <v>256</v>
+      </c>
+      <c r="R133">
+        <v>71</v>
+      </c>
+      <c r="S133">
+        <v>386.73239436619701</v>
+      </c>
+      <c r="T133">
+        <v>7.7034213015101303</v>
+      </c>
+      <c r="U133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>196</v>
       </c>
@@ -7053,8 +7290,23 @@
       <c r="N134">
         <v>22.250754128238398</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q134">
+        <v>196</v>
+      </c>
+      <c r="R134">
+        <v>24</v>
+      </c>
+      <c r="S134">
+        <v>562.04166666666595</v>
+      </c>
+      <c r="T134">
+        <v>10.680247691615101</v>
+      </c>
+      <c r="U134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>19</v>
       </c>
@@ -7065,7 +7317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -7076,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>784</v>
       </c>
@@ -7113,8 +7365,23 @@
       <c r="N137">
         <v>11.7896974961459</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q137">
+        <v>784</v>
+      </c>
+      <c r="R137">
+        <v>100</v>
+      </c>
+      <c r="S137">
+        <v>177.55</v>
+      </c>
+      <c r="T137">
+        <v>6.3487260606326101</v>
+      </c>
+      <c r="U137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>676</v>
       </c>
@@ -7151,8 +7418,23 @@
       <c r="N138">
         <v>14.5905787819437</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q138">
+        <v>676</v>
+      </c>
+      <c r="R138">
+        <v>100</v>
+      </c>
+      <c r="S138">
+        <v>203.18</v>
+      </c>
+      <c r="T138">
+        <v>6.7558074282854799</v>
+      </c>
+      <c r="U138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>576</v>
       </c>
@@ -7189,8 +7471,23 @@
       <c r="N139">
         <v>12.8805962221138</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q139">
+        <v>576</v>
+      </c>
+      <c r="R139">
+        <v>100</v>
+      </c>
+      <c r="S139">
+        <v>257.38</v>
+      </c>
+      <c r="T139">
+        <v>6.5775069981068297</v>
+      </c>
+      <c r="U139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>484</v>
       </c>
@@ -7227,8 +7524,23 @@
       <c r="N140">
         <v>18.7809839955322</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q140">
+        <v>484</v>
+      </c>
+      <c r="R140">
+        <v>100</v>
+      </c>
+      <c r="S140">
+        <v>360.22</v>
+      </c>
+      <c r="T140">
+        <v>8.6900874096713903</v>
+      </c>
+      <c r="U140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>400</v>
       </c>
@@ -7265,8 +7577,23 @@
       <c r="O141">
         <v>56</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q141">
+        <v>400</v>
+      </c>
+      <c r="R141">
+        <v>70</v>
+      </c>
+      <c r="S141">
+        <v>593.42857142857099</v>
+      </c>
+      <c r="T141">
+        <v>13.519878769506301</v>
+      </c>
+      <c r="U141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>324</v>
       </c>
@@ -7303,8 +7630,23 @@
       <c r="O142">
         <v>56</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q142">
+        <v>324</v>
+      </c>
+      <c r="R142">
+        <v>8</v>
+      </c>
+      <c r="S142">
+        <v>742.625</v>
+      </c>
+      <c r="T142">
+        <v>16.148300606757399</v>
+      </c>
+      <c r="U142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>256</v>
       </c>
@@ -7341,8 +7683,23 @@
       <c r="O143">
         <v>56</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q143">
+        <v>256</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>1000</v>
+      </c>
+      <c r="T143" t="s">
+        <v>5</v>
+      </c>
+      <c r="U143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>19</v>
       </c>
@@ -7693,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9711,7 +10068,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10084,7 +10441,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -10741,10 +11098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13696,7 +14053,7 @@
         <v>232560</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>196</v>
       </c>
@@ -13749,7 +14106,7 @@
         <v>178560</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>144</v>
       </c>
@@ -13802,7 +14159,7 @@
         <v>131760</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
@@ -13813,7 +14170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -13823,8 +14180,11 @@
       <c r="C68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1600</v>
       </c>
@@ -13878,7 +14238,7 @@
         <v>2962614</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>1444</v>
       </c>
@@ -13932,7 +14292,7 @@
         <v>2674170</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1296</v>
       </c>
@@ -13986,7 +14346,7 @@
         <v>2400518</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1156</v>
       </c>
@@ -14040,7 +14400,7 @@
         <v>2141658</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1024</v>
       </c>
@@ -14094,7 +14454,7 @@
         <v>1897590</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>900</v>
       </c>
@@ -14148,7 +14508,7 @@
         <v>1668314</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>784</v>
       </c>
@@ -14202,7 +14562,7 @@
         <v>1453830</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>676</v>
       </c>
@@ -14256,7 +14616,7 @@
         <v>1254138</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>576</v>
       </c>
@@ -14310,7 +14670,7 @@
         <v>1069238</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>484</v>
       </c>
@@ -14364,7 +14724,7 @@
         <v>899130</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>400</v>
       </c>
@@ -14418,7 +14778,7 @@
         <v>743814</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>324</v>
       </c>
@@ -16028,7 +16388,7 @@
         <v>603290</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>256</v>
       </c>
@@ -16082,7 +16442,7 @@
         <v>477558</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>196</v>
       </c>
@@ -16106,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I114" t="s">
         <v>5</v>
@@ -16136,7 +16496,7 @@
         <v>366618</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
@@ -16147,7 +16507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -16157,8 +16517,11 @@
       <c r="C116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="R116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>784</v>
       </c>
@@ -16211,8 +16574,23 @@
         <f>2*($A$116^($B$116/2))*O117^0.5+O117*K117</f>
         <v>2465792</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q117">
+        <v>784</v>
+      </c>
+      <c r="R117">
+        <v>100</v>
+      </c>
+      <c r="S117">
+        <v>342.56</v>
+      </c>
+      <c r="T117">
+        <v>3.7044233999587499</v>
+      </c>
+      <c r="U117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>676</v>
       </c>
@@ -16265,8 +16643,23 @@
         <f t="shared" ref="P118:P124" si="36">2*($A$116^($B$116/2))*O118^0.5+O118*K118</f>
         <v>2127104</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q118">
+        <v>676</v>
+      </c>
+      <c r="R118">
+        <v>100</v>
+      </c>
+      <c r="S118">
+        <v>359.45</v>
+      </c>
+      <c r="T118">
+        <v>3.74423311384394</v>
+      </c>
+      <c r="U118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>576</v>
       </c>
@@ -16319,8 +16712,23 @@
         <f t="shared" si="36"/>
         <v>1813504</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q119">
+        <v>576</v>
+      </c>
+      <c r="R119">
+        <v>99</v>
+      </c>
+      <c r="S119">
+        <v>376.69696969696901</v>
+      </c>
+      <c r="T119">
+        <v>3.7565839333139799</v>
+      </c>
+      <c r="U119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>484</v>
       </c>
@@ -16373,8 +16781,23 @@
         <f t="shared" si="36"/>
         <v>1524992</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q120">
+        <v>484</v>
+      </c>
+      <c r="R120">
+        <v>99</v>
+      </c>
+      <c r="S120">
+        <v>368.86868686868598</v>
+      </c>
+      <c r="T120">
+        <v>3.7084900082060699</v>
+      </c>
+      <c r="U120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>400</v>
       </c>
@@ -16427,8 +16850,23 @@
         <f t="shared" si="36"/>
         <v>1261568</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q121">
+        <v>400</v>
+      </c>
+      <c r="R121">
+        <v>100</v>
+      </c>
+      <c r="S121">
+        <v>418.86</v>
+      </c>
+      <c r="T121">
+        <v>4.1407975052110801</v>
+      </c>
+      <c r="U121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>324</v>
       </c>
@@ -16481,8 +16919,23 @@
         <f t="shared" si="36"/>
         <v>1023232</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q122">
+        <v>324</v>
+      </c>
+      <c r="R122">
+        <v>95</v>
+      </c>
+      <c r="S122">
+        <v>399.42105263157799</v>
+      </c>
+      <c r="T122">
+        <v>3.8708865054931998</v>
+      </c>
+      <c r="U122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>256</v>
       </c>
@@ -16535,8 +16988,23 @@
         <f t="shared" si="36"/>
         <v>809984</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q123">
+        <v>256</v>
+      </c>
+      <c r="R123" s="2">
+        <v>87</v>
+      </c>
+      <c r="S123">
+        <v>471.49425287356303</v>
+      </c>
+      <c r="T123">
+        <v>4.6042717054229296</v>
+      </c>
+      <c r="U123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>196</v>
       </c>
@@ -16589,8 +17057,23 @@
         <f t="shared" si="36"/>
         <v>621824</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q124">
+        <v>196</v>
+      </c>
+      <c r="R124">
+        <v>75</v>
+      </c>
+      <c r="S124">
+        <v>453.57333333333298</v>
+      </c>
+      <c r="T124">
+        <v>4.40637350223958</v>
+      </c>
+      <c r="U124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -16601,7 +17084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -16612,7 +17095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>784</v>
       </c>
@@ -16665,8 +17148,24 @@
         <f>2*($A$126^($B$126/2))*O127^0.5+O127*K127</f>
         <v>2465792</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q127">
+        <v>784</v>
+      </c>
+      <c r="R127">
+        <v>100</v>
+      </c>
+      <c r="S127">
+        <v>320.7</v>
+      </c>
+      <c r="T127">
+        <v>4.7387981523759599</v>
+      </c>
+      <c r="U127">
+        <f>60^2</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>676</v>
       </c>
@@ -16719,8 +17218,24 @@
         <f t="shared" ref="P128:P134" si="40">2*($A$126^($B$126/2))*O128^0.5+O128*K128</f>
         <v>2127104</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q128">
+        <v>676</v>
+      </c>
+      <c r="R128">
+        <v>100</v>
+      </c>
+      <c r="S128">
+        <v>324.16000000000003</v>
+      </c>
+      <c r="T128">
+        <v>4.6838344716653202</v>
+      </c>
+      <c r="U128">
+        <f t="shared" ref="U128:U134" si="41">60^2</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>576</v>
       </c>
@@ -16773,8 +17288,24 @@
         <f t="shared" si="40"/>
         <v>1813504</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q129">
+        <v>576</v>
+      </c>
+      <c r="R129">
+        <v>100</v>
+      </c>
+      <c r="S129">
+        <v>319.66000000000003</v>
+      </c>
+      <c r="T129">
+        <v>4.6017571192048399</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="41"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>484</v>
       </c>
@@ -16827,8 +17358,24 @@
         <f t="shared" si="40"/>
         <v>1524992</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q130">
+        <v>484</v>
+      </c>
+      <c r="R130">
+        <v>99</v>
+      </c>
+      <c r="S130">
+        <v>342.50505050505001</v>
+      </c>
+      <c r="T130">
+        <v>4.8382834535694101</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="41"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>400</v>
       </c>
@@ -16881,8 +17428,24 @@
         <f t="shared" si="40"/>
         <v>1261568</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q131">
+        <v>400</v>
+      </c>
+      <c r="R131">
+        <v>94</v>
+      </c>
+      <c r="S131">
+        <v>440.18085106382898</v>
+      </c>
+      <c r="T131">
+        <v>6.19210658131286</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="41"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>324</v>
       </c>
@@ -16935,8 +17498,24 @@
         <f t="shared" si="40"/>
         <v>1023232</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q132">
+        <v>324</v>
+      </c>
+      <c r="R132">
+        <v>90</v>
+      </c>
+      <c r="S132">
+        <v>538.57777777777699</v>
+      </c>
+      <c r="T132">
+        <v>7.4968173972227499</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="41"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>256</v>
       </c>
@@ -16989,8 +17568,24 @@
         <f t="shared" si="40"/>
         <v>809984</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q133">
+        <v>256</v>
+      </c>
+      <c r="R133" s="2">
+        <v>66</v>
+      </c>
+      <c r="S133">
+        <v>611.07575757575705</v>
+      </c>
+      <c r="T133">
+        <v>8.5179949145143201</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="41"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>196</v>
       </c>
@@ -17043,8 +17638,24 @@
         <f t="shared" si="40"/>
         <v>621824</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q134">
+        <v>196</v>
+      </c>
+      <c r="R134">
+        <v>25</v>
+      </c>
+      <c r="S134">
+        <v>684.84</v>
+      </c>
+      <c r="T134">
+        <v>9.5363395340740595</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="41"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>19</v>
       </c>
@@ -17055,7 +17666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>8</v>
       </c>
@@ -17066,7 +17677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>784</v>
       </c>
@@ -17112,15 +17723,30 @@
         <v>12.133522729999999</v>
       </c>
       <c r="O137">
-        <f t="shared" ref="O137:O141" si="41">56^2</f>
+        <f t="shared" ref="O137:O141" si="42">56^2</f>
         <v>3136</v>
       </c>
       <c r="P137" s="6">
         <f>2*($A$136^($B$136/2))*O137^0.5+O137*K137</f>
         <v>2465792</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q137">
+        <v>784</v>
+      </c>
+      <c r="R137">
+        <v>100</v>
+      </c>
+      <c r="S137">
+        <v>443.87</v>
+      </c>
+      <c r="T137">
+        <v>6.7165392252802798</v>
+      </c>
+      <c r="U137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>676</v>
       </c>
@@ -17134,7 +17760,7 @@
         <v>6.2157976637594397</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" ref="E138:E141" si="42">A138*($A$136^$B$136)</f>
+        <f t="shared" ref="E138:E141" si="43">A138*($A$136^$B$136)</f>
         <v>2768896</v>
       </c>
       <c r="F138">
@@ -17150,7 +17776,7 @@
         <v>11.219506469555199</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" ref="J138:J141" si="43">2*$A$136^($B$136/2)*(F138^0.5)</f>
+        <f t="shared" ref="J138:J141" si="44">2*$A$136^($B$136/2)*(F138^0.5)</f>
         <v>3328</v>
       </c>
       <c r="K138">
@@ -17166,15 +17792,30 @@
         <v>12.83694214</v>
       </c>
       <c r="O138">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3136</v>
       </c>
       <c r="P138" s="6">
-        <f t="shared" ref="P138:P141" si="44">2*($A$136^($B$136/2))*O138^0.5+O138*K138</f>
+        <f t="shared" ref="P138:P141" si="45">2*($A$136^($B$136/2))*O138^0.5+O138*K138</f>
         <v>2127104</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q138">
+        <v>676</v>
+      </c>
+      <c r="R138">
+        <v>99</v>
+      </c>
+      <c r="S138">
+        <v>495.030303030303</v>
+      </c>
+      <c r="T138">
+        <v>8.5944611675322307</v>
+      </c>
+      <c r="U138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>576</v>
       </c>
@@ -17188,7 +17829,7 @@
         <v>8.3887663231874505</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2359296</v>
       </c>
       <c r="F139">
@@ -17204,7 +17845,7 @@
         <v>5</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3072</v>
       </c>
       <c r="K139">
@@ -17220,15 +17861,30 @@
         <v>14.87244132</v>
       </c>
       <c r="O139">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3136</v>
       </c>
       <c r="P139" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1813504</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q139">
+        <v>576</v>
+      </c>
+      <c r="R139">
+        <v>91</v>
+      </c>
+      <c r="S139">
+        <v>588.21978021977998</v>
+      </c>
+      <c r="T139">
+        <v>10.301671252964599</v>
+      </c>
+      <c r="U139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>484</v>
       </c>
@@ -17242,7 +17898,7 @@
         <v>10.012236025487001</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1982464</v>
       </c>
       <c r="F140">
@@ -17258,7 +17914,7 @@
         <v>5</v>
       </c>
       <c r="J140" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2816</v>
       </c>
       <c r="K140">
@@ -17274,15 +17930,30 @@
         <v>14.20292416</v>
       </c>
       <c r="O140">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3136</v>
       </c>
       <c r="P140" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1524992</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q140">
+        <v>484</v>
+      </c>
+      <c r="R140" s="2">
+        <v>74</v>
+      </c>
+      <c r="S140">
+        <v>724.62162162162099</v>
+      </c>
+      <c r="T140">
+        <v>12.688674615242901</v>
+      </c>
+      <c r="U140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>400</v>
       </c>
@@ -17296,7 +17967,7 @@
         <v>14.609311045827001</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1638400</v>
       </c>
       <c r="F141">
@@ -17312,7 +17983,7 @@
         <v>5</v>
       </c>
       <c r="J141" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2560</v>
       </c>
       <c r="K141">
@@ -17328,15 +17999,30 @@
         <v>12.185841549999999</v>
       </c>
       <c r="O141">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3136</v>
       </c>
       <c r="P141" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1261568</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q141">
+        <v>400</v>
+      </c>
+      <c r="R141">
+        <v>26</v>
+      </c>
+      <c r="S141">
+        <v>822.53846153846098</v>
+      </c>
+      <c r="T141">
+        <v>14.343991561148</v>
+      </c>
+      <c r="U141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>19</v>
       </c>
@@ -17347,7 +18033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>10</v>
       </c>
@@ -17358,7 +18044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>1600</v>
       </c>
@@ -17670,8 +18356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88:G95"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19550,7 +20236,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -19923,7 +20609,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -21406,7 +22092,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56443612-13DC-4845-B262-93BF92F50FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E776106-8C4F-47AE-9735-D7CF991D3A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="33">
   <si>
     <t>target_dim</t>
   </si>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8048,10 +8048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74:G85"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11089,6 +11089,331 @@
       </c>
       <c r="G92">
         <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>676</v>
+      </c>
+      <c r="L93">
+        <v>95</v>
+      </c>
+      <c r="M93">
+        <v>404.8</v>
+      </c>
+      <c r="N93">
+        <v>26.479816283618899</v>
+      </c>
+      <c r="O93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>676</v>
+      </c>
+      <c r="L94">
+        <v>98</v>
+      </c>
+      <c r="M94">
+        <v>405.92857142857099</v>
+      </c>
+      <c r="N94">
+        <v>25.523641435733499</v>
+      </c>
+      <c r="O94">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>676</v>
+      </c>
+      <c r="L95">
+        <v>92</v>
+      </c>
+      <c r="M95">
+        <v>361.445652173913</v>
+      </c>
+      <c r="N95">
+        <v>22.0341212329981</v>
+      </c>
+      <c r="O95">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>676</v>
+      </c>
+      <c r="L96">
+        <v>95</v>
+      </c>
+      <c r="M96">
+        <v>394.35789473684201</v>
+      </c>
+      <c r="N96">
+        <v>23.412068679791499</v>
+      </c>
+      <c r="O96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>676</v>
+      </c>
+      <c r="L97">
+        <v>98</v>
+      </c>
+      <c r="M97">
+        <v>415.56122448979499</v>
+      </c>
+      <c r="N97">
+        <v>24.039753612073799</v>
+      </c>
+      <c r="O97">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>676</v>
+      </c>
+      <c r="L98">
+        <v>98</v>
+      </c>
+      <c r="M98">
+        <v>395.26530612244898</v>
+      </c>
+      <c r="N98">
+        <v>22.358709892162999</v>
+      </c>
+      <c r="O98">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>676</v>
+      </c>
+      <c r="L99">
+        <v>96</v>
+      </c>
+      <c r="M99">
+        <v>388.3125</v>
+      </c>
+      <c r="N99">
+        <v>21.465100767828201</v>
+      </c>
+      <c r="O99">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>676</v>
+      </c>
+      <c r="L100">
+        <v>98</v>
+      </c>
+      <c r="M100">
+        <v>392.70408163265301</v>
+      </c>
+      <c r="N100">
+        <v>20.8278685239504</v>
+      </c>
+      <c r="O100">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>676</v>
+      </c>
+      <c r="L101">
+        <v>96</v>
+      </c>
+      <c r="M101">
+        <v>388.885416666666</v>
+      </c>
+      <c r="N101">
+        <v>20.228867327871999</v>
+      </c>
+      <c r="O101">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>676</v>
+      </c>
+      <c r="L102">
+        <v>98</v>
+      </c>
+      <c r="M102">
+        <v>391.92857142857099</v>
+      </c>
+      <c r="N102">
+        <v>19.954455363792199</v>
+      </c>
+      <c r="O102">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>676</v>
+      </c>
+      <c r="L103">
+        <v>96</v>
+      </c>
+      <c r="M103">
+        <v>396.33333333333297</v>
+      </c>
+      <c r="N103">
+        <v>19.828594184868599</v>
+      </c>
+      <c r="O103">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>676</v>
+      </c>
+      <c r="L104">
+        <v>100</v>
+      </c>
+      <c r="M104">
+        <v>419.61</v>
+      </c>
+      <c r="N104">
+        <v>20.3695180877856</v>
+      </c>
+      <c r="O104">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>676</v>
+      </c>
+      <c r="L105">
+        <v>100</v>
+      </c>
+      <c r="M105">
+        <v>416.83</v>
+      </c>
+      <c r="N105">
+        <v>19.364724305681801</v>
+      </c>
+      <c r="O105">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>676</v>
+      </c>
+      <c r="L106">
+        <v>98</v>
+      </c>
+      <c r="M106">
+        <v>415.40816326530597</v>
+      </c>
+      <c r="N106">
+        <v>19.020545933680701</v>
+      </c>
+      <c r="O106">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -11100,8 +11425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18357,7 +18682,7 @@
   <dimension ref="A1:P159"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+      <selection activeCell="I129" sqref="I129:O138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22095,7 +22420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>2</v>
       </c>
@@ -22117,8 +22442,29 @@
       <c r="G129">
         <v>100</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129" t="s">
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>676</v>
+      </c>
+      <c r="L129">
+        <v>95</v>
+      </c>
+      <c r="M129">
+        <v>404.8</v>
+      </c>
+      <c r="N129">
+        <v>26.479816283618899</v>
+      </c>
+      <c r="O129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>2</v>
       </c>
@@ -22140,8 +22486,29 @@
       <c r="G130">
         <v>98</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130" t="s">
+        <v>4</v>
+      </c>
+      <c r="K130">
+        <v>676</v>
+      </c>
+      <c r="L130">
+        <v>98</v>
+      </c>
+      <c r="M130">
+        <v>405.92857142857099</v>
+      </c>
+      <c r="N130">
+        <v>25.523641435733499</v>
+      </c>
+      <c r="O130">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>2</v>
       </c>
@@ -22163,8 +22530,29 @@
       <c r="G131">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131" t="s">
+        <v>4</v>
+      </c>
+      <c r="K131">
+        <v>676</v>
+      </c>
+      <c r="L131">
+        <v>92</v>
+      </c>
+      <c r="M131">
+        <v>361.445652173913</v>
+      </c>
+      <c r="N131">
+        <v>22.0341212329981</v>
+      </c>
+      <c r="O131">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>2</v>
       </c>
@@ -22186,8 +22574,29 @@
       <c r="G132">
         <v>94</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>4</v>
+      </c>
+      <c r="K132">
+        <v>676</v>
+      </c>
+      <c r="L132">
+        <v>95</v>
+      </c>
+      <c r="M132">
+        <v>394.35789473684201</v>
+      </c>
+      <c r="N132">
+        <v>23.412068679791499</v>
+      </c>
+      <c r="O132">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>2</v>
       </c>
@@ -22209,8 +22618,29 @@
       <c r="G133">
         <v>92</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133" t="s">
+        <v>4</v>
+      </c>
+      <c r="K133">
+        <v>676</v>
+      </c>
+      <c r="L133">
+        <v>98</v>
+      </c>
+      <c r="M133">
+        <v>415.56122448979499</v>
+      </c>
+      <c r="N133">
+        <v>24.039753612073799</v>
+      </c>
+      <c r="O133">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>2</v>
       </c>
@@ -22232,8 +22662,29 @@
       <c r="G134">
         <v>90</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" t="s">
+        <v>4</v>
+      </c>
+      <c r="K134">
+        <v>676</v>
+      </c>
+      <c r="L134">
+        <v>98</v>
+      </c>
+      <c r="M134">
+        <v>395.26530612244898</v>
+      </c>
+      <c r="N134">
+        <v>22.358709892162999</v>
+      </c>
+      <c r="O134">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>2</v>
       </c>
@@ -22255,8 +22706,29 @@
       <c r="G135">
         <v>88</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135" t="s">
+        <v>4</v>
+      </c>
+      <c r="K135">
+        <v>676</v>
+      </c>
+      <c r="L135">
+        <v>96</v>
+      </c>
+      <c r="M135">
+        <v>388.3125</v>
+      </c>
+      <c r="N135">
+        <v>21.465100767828201</v>
+      </c>
+      <c r="O135">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>2</v>
       </c>
@@ -22278,8 +22750,29 @@
       <c r="G136">
         <v>86</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136" t="s">
+        <v>4</v>
+      </c>
+      <c r="K136">
+        <v>676</v>
+      </c>
+      <c r="L136">
+        <v>98</v>
+      </c>
+      <c r="M136">
+        <v>392.70408163265301</v>
+      </c>
+      <c r="N136">
+        <v>20.8278685239504</v>
+      </c>
+      <c r="O136">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>2</v>
       </c>
@@ -22301,8 +22794,29 @@
       <c r="G137">
         <v>84</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>4</v>
+      </c>
+      <c r="K137">
+        <v>676</v>
+      </c>
+      <c r="L137">
+        <v>96</v>
+      </c>
+      <c r="M137">
+        <v>388.885416666666</v>
+      </c>
+      <c r="N137">
+        <v>20.228867327871999</v>
+      </c>
+      <c r="O137">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>2</v>
       </c>
@@ -22324,8 +22838,29 @@
       <c r="G138">
         <v>82</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138" t="s">
+        <v>4</v>
+      </c>
+      <c r="K138">
+        <v>676</v>
+      </c>
+      <c r="L138">
+        <v>98</v>
+      </c>
+      <c r="M138">
+        <v>391.92857142857099</v>
+      </c>
+      <c r="N138">
+        <v>19.954455363792199</v>
+      </c>
+      <c r="O138">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>2</v>
       </c>
@@ -22348,7 +22883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>2</v>
       </c>
@@ -22371,7 +22906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>2</v>
       </c>
@@ -22394,7 +22929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>2</v>
       </c>
@@ -22417,7 +22952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>2</v>
       </c>
@@ -22440,7 +22975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>2</v>
       </c>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E776106-8C4F-47AE-9735-D7CF991D3A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA7BD22-8343-4966-A930-F912E6990B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="35">
   <si>
     <t>target_dim</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>MODEWISE BIGGER INTERMEDIATE DIMENSION</t>
+  </si>
+  <si>
+    <t>(done on HPCC)</t>
+  </si>
+  <si>
+    <t>(done on hpcc)</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView topLeftCell="C143" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7710,7 +7716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>10</v>
       </c>
@@ -7721,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>2500</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>15.7620027848372</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>2304</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>12.566699850075301</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>2116</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>14.1590734155227</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>1936</v>
       </c>
@@ -7776,8 +7782,11 @@
       <c r="D149">
         <v>15.6423572235423</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="S149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>1764</v>
       </c>
@@ -7790,8 +7799,23 @@
       <c r="D150">
         <v>10.14742854</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q150">
+        <v>1764</v>
+      </c>
+      <c r="R150">
+        <v>100</v>
+      </c>
+      <c r="S150">
+        <v>231.23</v>
+      </c>
+      <c r="T150">
+        <v>17.799812491958701</v>
+      </c>
+      <c r="U150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>1600</v>
       </c>
@@ -7804,8 +7828,23 @@
       <c r="D151">
         <v>16.217102421728001</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q151">
+        <v>1600</v>
+      </c>
+      <c r="R151">
+        <v>100</v>
+      </c>
+      <c r="S151">
+        <v>180.43</v>
+      </c>
+      <c r="T151">
+        <v>12.8192447564424</v>
+      </c>
+      <c r="U151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>1444</v>
       </c>
@@ -7818,8 +7857,23 @@
       <c r="D152">
         <v>20.146446314662001</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q152">
+        <v>1444</v>
+      </c>
+      <c r="R152">
+        <v>100</v>
+      </c>
+      <c r="S152">
+        <v>260.87</v>
+      </c>
+      <c r="T152">
+        <v>17.1117929873813</v>
+      </c>
+      <c r="U152">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>1296</v>
       </c>
@@ -7832,8 +7886,23 @@
       <c r="D153">
         <v>14.634339420082499</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q153">
+        <v>1296</v>
+      </c>
+      <c r="R153">
+        <v>100</v>
+      </c>
+      <c r="S153">
+        <v>169.46</v>
+      </c>
+      <c r="T153">
+        <v>10.179820107907201</v>
+      </c>
+      <c r="U153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>1156</v>
       </c>
@@ -7846,8 +7915,23 @@
       <c r="D154">
         <v>9.7201145311957706</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q154">
+        <v>1156</v>
+      </c>
+      <c r="R154">
+        <v>100</v>
+      </c>
+      <c r="S154">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="T154">
+        <v>8.4657328579563096</v>
+      </c>
+      <c r="U154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>1024</v>
       </c>
@@ -7860,8 +7944,23 @@
       <c r="D155">
         <v>7.2532272577405896</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q155">
+        <v>1024</v>
+      </c>
+      <c r="R155">
+        <v>100</v>
+      </c>
+      <c r="S155">
+        <v>170.66</v>
+      </c>
+      <c r="T155">
+        <v>8.5238273511477693</v>
+      </c>
+      <c r="U155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>900</v>
       </c>
@@ -7874,8 +7973,23 @@
       <c r="D156">
         <v>6.6223767220766998</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q156">
+        <v>900</v>
+      </c>
+      <c r="R156">
+        <v>100</v>
+      </c>
+      <c r="S156">
+        <v>208.58</v>
+      </c>
+      <c r="T156">
+        <v>9.4261198371113206</v>
+      </c>
+      <c r="U156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>784</v>
       </c>
@@ -7889,7 +8003,7 @@
         <v>7.58016417552495</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>676</v>
       </c>
@@ -7903,7 +8017,7 @@
         <v>10.0280303133221</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>576</v>
       </c>
@@ -7917,7 +8031,7 @@
         <v>9.7093883392290508</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>484</v>
       </c>
@@ -8050,8 +8164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11423,10 +11537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
-  <dimension ref="A1:U165"/>
+  <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="L159" sqref="L159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18368,6 +18482,9 @@
       <c r="C143" s="1">
         <v>2</v>
       </c>
+      <c r="L143" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
@@ -18382,8 +18499,23 @@
       <c r="D144">
         <v>2.1603794550895601</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K144">
+        <v>1600</v>
+      </c>
+      <c r="L144">
+        <v>100</v>
+      </c>
+      <c r="M144">
+        <v>283.24</v>
+      </c>
+      <c r="N144">
+        <v>3.4520794210000001</v>
+      </c>
+      <c r="O144">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>1444</v>
       </c>
@@ -18396,8 +18528,23 @@
       <c r="D145">
         <v>2.32971930138766</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K145">
+        <v>1444</v>
+      </c>
+      <c r="L145">
+        <v>100</v>
+      </c>
+      <c r="M145">
+        <v>282.55</v>
+      </c>
+      <c r="N145">
+        <v>3.3598191540000002</v>
+      </c>
+      <c r="O145">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>1296</v>
       </c>
@@ -18410,8 +18557,23 @@
       <c r="D146">
         <v>2.5616999489226999</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K146">
+        <v>1296</v>
+      </c>
+      <c r="L146">
+        <v>100</v>
+      </c>
+      <c r="M146">
+        <v>362.49</v>
+      </c>
+      <c r="N146">
+        <v>4.2173249239999997</v>
+      </c>
+      <c r="O146">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1156</v>
       </c>
@@ -18424,8 +18586,23 @@
       <c r="D147">
         <v>2.55673011517798</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K147">
+        <v>1156</v>
+      </c>
+      <c r="L147">
+        <v>100</v>
+      </c>
+      <c r="M147">
+        <v>314.39</v>
+      </c>
+      <c r="N147">
+        <v>3.55907777</v>
+      </c>
+      <c r="O147">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1024</v>
       </c>
@@ -18438,8 +18615,23 @@
       <c r="D148">
         <v>2.71194470171449</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K148">
+        <v>1024</v>
+      </c>
+      <c r="L148">
+        <v>100</v>
+      </c>
+      <c r="M148">
+        <v>295.73</v>
+      </c>
+      <c r="N148">
+        <v>3.2697161029999999</v>
+      </c>
+      <c r="O148">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>900</v>
       </c>
@@ -18452,8 +18644,23 @@
       <c r="D149">
         <v>3.1257190996936202</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K149">
+        <v>900</v>
+      </c>
+      <c r="L149">
+        <v>100</v>
+      </c>
+      <c r="M149">
+        <v>321.83</v>
+      </c>
+      <c r="N149">
+        <v>3.4589097287552399</v>
+      </c>
+      <c r="O149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>784</v>
       </c>
@@ -18466,8 +18673,23 @@
       <c r="D150">
         <v>3.37382889266327</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K150">
+        <v>784</v>
+      </c>
+      <c r="L150">
+        <v>100</v>
+      </c>
+      <c r="M150">
+        <v>334.54</v>
+      </c>
+      <c r="N150">
+        <v>3.4915654509107101</v>
+      </c>
+      <c r="O150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>676</v>
       </c>
@@ -18480,8 +18702,23 @@
       <c r="D151">
         <v>4.2091433557317304</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K151">
+        <v>676</v>
+      </c>
+      <c r="L151">
+        <v>99</v>
+      </c>
+      <c r="M151">
+        <v>347.73737373737299</v>
+      </c>
+      <c r="N151">
+        <v>3.5195420156174202</v>
+      </c>
+      <c r="O151">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>576</v>
       </c>
@@ -18494,8 +18731,23 @@
       <c r="D152">
         <v>4.5037260370308001</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K152">
+        <v>576</v>
+      </c>
+      <c r="L152">
+        <v>100</v>
+      </c>
+      <c r="M152">
+        <v>378.5</v>
+      </c>
+      <c r="N152">
+        <v>3.7460218527773299</v>
+      </c>
+      <c r="O152">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>484</v>
       </c>
@@ -18508,8 +18760,23 @@
       <c r="D153">
         <v>6.1149771690416399</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K153">
+        <v>484</v>
+      </c>
+      <c r="L153">
+        <v>96</v>
+      </c>
+      <c r="M153">
+        <v>440.3125</v>
+      </c>
+      <c r="N153">
+        <v>4.2047550863111001</v>
+      </c>
+      <c r="O153">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>19</v>
       </c>
@@ -18519,8 +18786,23 @@
       <c r="C154" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K154">
+        <v>400</v>
+      </c>
+      <c r="L154" s="2">
+        <v>85</v>
+      </c>
+      <c r="M154">
+        <v>490.05882352941097</v>
+      </c>
+      <c r="N154">
+        <v>4.6481752654071897</v>
+      </c>
+      <c r="O154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>10</v>
       </c>
@@ -18530,8 +18812,23 @@
       <c r="C155" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K155">
+        <v>324</v>
+      </c>
+      <c r="L155">
+        <v>53</v>
+      </c>
+      <c r="M155">
+        <v>578.96226415094304</v>
+      </c>
+      <c r="N155">
+        <v>5.3555011416209899</v>
+      </c>
+      <c r="O155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>1600</v>
       </c>
@@ -18544,8 +18841,23 @@
       <c r="D156">
         <v>27.967801817059499</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K156">
+        <v>256</v>
+      </c>
+      <c r="L156">
+        <v>21</v>
+      </c>
+      <c r="M156">
+        <v>658.66666666666595</v>
+      </c>
+      <c r="N156">
+        <v>6.0364755416244602</v>
+      </c>
+      <c r="O156">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>1444</v>
       </c>
@@ -18559,7 +18871,7 @@
         <v>29.008174506649301</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>1296</v>
       </c>
@@ -18572,8 +18884,11 @@
       <c r="D158">
         <v>24.905852249991099</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="L158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1156</v>
       </c>
@@ -18586,8 +18901,23 @@
       <c r="D159">
         <v>26.606123198922699</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K159">
+        <v>1600</v>
+      </c>
+      <c r="L159">
+        <v>100</v>
+      </c>
+      <c r="M159">
+        <v>301.19</v>
+      </c>
+      <c r="N159">
+        <v>3.9686535649999999</v>
+      </c>
+      <c r="O159">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>1024</v>
       </c>
@@ -18600,8 +18930,23 @@
       <c r="D160">
         <v>21.5909935888089</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K160">
+        <v>1444</v>
+      </c>
+      <c r="L160">
+        <v>100</v>
+      </c>
+      <c r="M160">
+        <v>311.95999999999998</v>
+      </c>
+      <c r="N160">
+        <v>4.0229490229999998</v>
+      </c>
+      <c r="O160">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>900</v>
       </c>
@@ -18614,8 +18959,23 @@
       <c r="D161">
         <v>12.3513241617303</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K161">
+        <v>1296</v>
+      </c>
+      <c r="L161">
+        <v>100</v>
+      </c>
+      <c r="M161">
+        <v>331.76</v>
+      </c>
+      <c r="N161">
+        <v>4.1775966650000003</v>
+      </c>
+      <c r="O161">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>784</v>
       </c>
@@ -18628,8 +18988,23 @@
       <c r="D162">
         <v>13.971905485756899</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K162">
+        <v>1156</v>
+      </c>
+      <c r="L162">
+        <v>100</v>
+      </c>
+      <c r="M162">
+        <v>355.55</v>
+      </c>
+      <c r="N162">
+        <v>5.3623544618894803</v>
+      </c>
+      <c r="O162">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>676</v>
       </c>
@@ -18642,8 +19017,23 @@
       <c r="D163">
         <v>14.27508847</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K163">
+        <v>1024</v>
+      </c>
+      <c r="L163">
+        <v>100</v>
+      </c>
+      <c r="M163">
+        <v>396.13</v>
+      </c>
+      <c r="N163">
+        <v>5.2711037326825299</v>
+      </c>
+      <c r="O163">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>576</v>
       </c>
@@ -18656,8 +19046,23 @@
       <c r="D164">
         <v>15.65212238</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K164">
+        <v>900</v>
+      </c>
+      <c r="L164">
+        <v>99</v>
+      </c>
+      <c r="M164">
+        <v>418.24242424242402</v>
+      </c>
+      <c r="N164">
+        <v>4.8883787524989897</v>
+      </c>
+      <c r="O164">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>484</v>
       </c>
@@ -18669,6 +19074,72 @@
       </c>
       <c r="D165">
         <v>17.646899489999999</v>
+      </c>
+      <c r="K165">
+        <v>784</v>
+      </c>
+      <c r="L165">
+        <v>96</v>
+      </c>
+      <c r="M165">
+        <v>513.34375</v>
+      </c>
+      <c r="N165">
+        <v>5.8316731032464304</v>
+      </c>
+      <c r="O165">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K166">
+        <v>676</v>
+      </c>
+      <c r="L166" s="2">
+        <v>89</v>
+      </c>
+      <c r="M166">
+        <v>603.82022471910102</v>
+      </c>
+      <c r="N166">
+        <v>6.8090540450707202</v>
+      </c>
+      <c r="O166">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K167">
+        <v>576</v>
+      </c>
+      <c r="L167">
+        <v>54</v>
+      </c>
+      <c r="M167">
+        <v>710.42592592592598</v>
+      </c>
+      <c r="N167">
+        <v>7.8065043815424504</v>
+      </c>
+      <c r="O167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K168">
+        <v>484</v>
+      </c>
+      <c r="L168">
+        <v>19</v>
+      </c>
+      <c r="M168">
+        <v>740</v>
+      </c>
+      <c r="N168">
+        <v>7.9039969404264703</v>
+      </c>
+      <c r="O168">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA7BD22-8343-4966-A930-F912E6990B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBECC86-5D94-4386-80DC-801B71DB596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="2" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Methods Fourier" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="36">
   <si>
     <t>target_dim</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>(done on hpcc)</t>
+  </si>
+  <si>
+    <t>experiments  below 1600 done on hpcc</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
-  <dimension ref="A1:U168"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
-    <sheetView topLeftCell="C143" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8045,7 +8048,7 @@
         <v>11.743663789658999</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>400</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>13.0272762258019</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>10</v>
       </c>
@@ -8081,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>2500</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>7.1067821337468899</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>2304</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>8.4159216811321595</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>2116</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>6.9198426836170199</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>1936</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>7.6758795950189196</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>1764</v>
       </c>
@@ -8149,6 +8152,135 @@
       </c>
       <c r="D168">
         <v>8.8137238184362605</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>1600</v>
+      </c>
+      <c r="B169">
+        <v>100</v>
+      </c>
+      <c r="C169">
+        <v>187.41</v>
+      </c>
+      <c r="D169">
+        <v>4.9115708866668797</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>1444</v>
+      </c>
+      <c r="B170">
+        <v>100</v>
+      </c>
+      <c r="C170">
+        <v>200.98</v>
+      </c>
+      <c r="D170">
+        <v>5.0704588736896401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>1296</v>
+      </c>
+      <c r="B171">
+        <v>100</v>
+      </c>
+      <c r="C171">
+        <v>245.09</v>
+      </c>
+      <c r="D171">
+        <v>5.9534731704345898</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>1156</v>
+      </c>
+      <c r="B172">
+        <v>99</v>
+      </c>
+      <c r="C172">
+        <v>298.24242424242402</v>
+      </c>
+      <c r="D172">
+        <v>7.0047793450936897</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>1024</v>
+      </c>
+      <c r="B173">
+        <v>92</v>
+      </c>
+      <c r="C173">
+        <v>374.66304347826002</v>
+      </c>
+      <c r="D173">
+        <v>8.5100261326499602</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>900</v>
+      </c>
+      <c r="B174">
+        <v>79</v>
+      </c>
+      <c r="C174">
+        <v>487.430379746835</v>
+      </c>
+      <c r="D174">
+        <v>10.6215598936343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>784</v>
+      </c>
+      <c r="B175">
+        <v>59</v>
+      </c>
+      <c r="C175">
+        <v>571.42372881355902</v>
+      </c>
+      <c r="D175">
+        <v>11.990047257405401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>676</v>
+      </c>
+      <c r="B176">
+        <v>25</v>
+      </c>
+      <c r="C176">
+        <v>661</v>
+      </c>
+      <c r="D176">
+        <v>13.371194358151399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>576</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>782.66666666666595</v>
+      </c>
+      <c r="D177">
+        <v>15.3565568436946</v>
       </c>
     </row>
   </sheetData>
@@ -11539,8 +11671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="L159" sqref="L159"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18777,15 +18909,6 @@
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K154">
         <v>400</v>
       </c>
@@ -18803,15 +18926,6 @@
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="1">
-        <v>10</v>
-      </c>
-      <c r="B155" s="1">
-        <v>4</v>
-      </c>
-      <c r="C155" s="1">
-        <v>3</v>
-      </c>
       <c r="K155">
         <v>324</v>
       </c>
@@ -18829,18 +18943,6 @@
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156">
-        <v>1600</v>
-      </c>
-      <c r="B156">
-        <v>100</v>
-      </c>
-      <c r="C156">
-        <v>142.03</v>
-      </c>
-      <c r="D156">
-        <v>27.967801817059499</v>
-      </c>
       <c r="K156">
         <v>256</v>
       </c>
@@ -18858,31 +18960,25 @@
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157">
-        <v>1444</v>
-      </c>
-      <c r="B157">
-        <v>100</v>
-      </c>
-      <c r="C157">
-        <v>148.24</v>
-      </c>
-      <c r="D157">
-        <v>29.008174506649301</v>
+      <c r="A157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158">
-        <v>1296</v>
-      </c>
-      <c r="B158">
-        <v>100</v>
-      </c>
-      <c r="C158">
-        <v>163.19</v>
-      </c>
-      <c r="D158">
-        <v>24.905852249991099</v>
+      <c r="A158" s="1">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3</v>
       </c>
       <c r="L158" t="s">
         <v>34</v>
@@ -18890,16 +18986,16 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
-        <v>1156</v>
+        <v>1600</v>
       </c>
       <c r="B159">
         <v>100</v>
       </c>
       <c r="C159">
-        <v>189.72</v>
+        <v>142.03</v>
       </c>
       <c r="D159">
-        <v>26.606123198922699</v>
+        <v>27.967801817059499</v>
       </c>
       <c r="K159">
         <v>1600</v>
@@ -18919,16 +19015,16 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
-        <v>1024</v>
+        <v>1444</v>
       </c>
       <c r="B160">
         <v>100</v>
       </c>
       <c r="C160">
-        <v>230.44</v>
+        <v>148.24</v>
       </c>
       <c r="D160">
-        <v>21.5909935888089</v>
+        <v>29.008174506649301</v>
       </c>
       <c r="K160">
         <v>1444</v>
@@ -18948,16 +19044,16 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
-        <v>900</v>
+        <v>1296</v>
       </c>
       <c r="B161">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C161">
-        <v>270.42105263157799</v>
+        <v>163.19</v>
       </c>
       <c r="D161">
-        <v>12.3513241617303</v>
+        <v>24.905852249991099</v>
       </c>
       <c r="K161">
         <v>1296</v>
@@ -18977,16 +19073,16 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
-        <v>784</v>
+        <v>1156</v>
       </c>
       <c r="B162">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C162">
-        <v>356.02150537634401</v>
+        <v>189.72</v>
       </c>
       <c r="D162">
-        <v>13.971905485756899</v>
+        <v>26.606123198922699</v>
       </c>
       <c r="K162">
         <v>1156</v>
@@ -19006,16 +19102,16 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
-        <v>676</v>
+        <v>1024</v>
       </c>
       <c r="B163">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C163">
-        <v>457.8831169</v>
+        <v>230.44</v>
       </c>
       <c r="D163">
-        <v>14.27508847</v>
+        <v>21.5909935888089</v>
       </c>
       <c r="K163">
         <v>1024</v>
@@ -19035,16 +19131,16 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
-        <v>576</v>
+        <v>900</v>
       </c>
       <c r="B164">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C164">
-        <v>538.67391299999997</v>
+        <v>270.42105263157799</v>
       </c>
       <c r="D164">
-        <v>15.65212238</v>
+        <v>12.3513241617303</v>
       </c>
       <c r="K164">
         <v>900</v>
@@ -19064,16 +19160,16 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
-        <v>484</v>
+        <v>784</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C165">
-        <v>604.4</v>
+        <v>356.02150537634401</v>
       </c>
       <c r="D165">
-        <v>17.646899489999999</v>
+        <v>13.971905485756899</v>
       </c>
       <c r="K165">
         <v>784</v>
@@ -19092,6 +19188,18 @@
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
+        <v>676</v>
+      </c>
+      <c r="B166">
+        <v>77</v>
+      </c>
+      <c r="C166">
+        <v>457.8831169</v>
+      </c>
+      <c r="D166">
+        <v>14.27508847</v>
+      </c>
       <c r="K166">
         <v>676</v>
       </c>
@@ -19109,6 +19217,18 @@
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>576</v>
+      </c>
+      <c r="B167">
+        <v>46</v>
+      </c>
+      <c r="C167">
+        <v>538.67391299999997</v>
+      </c>
+      <c r="D167">
+        <v>15.65212238</v>
+      </c>
       <c r="K167">
         <v>576</v>
       </c>
@@ -19126,6 +19246,18 @@
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>484</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+      <c r="C168">
+        <v>604.4</v>
+      </c>
+      <c r="D168">
+        <v>17.646899489999999</v>
+      </c>
       <c r="K168">
         <v>484</v>
       </c>

--- a/RESULTS.xlsx
+++ b/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Git_Files\ModewiseTRIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBECC86-5D94-4386-80DC-801B71DB596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31D1D63-5030-42BD-85F0-C191021A5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{06292374-FCA8-4185-BC0B-DEE43A8C58FB}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8C4F61-8D20-4A25-B99E-AE4075BE194D}">
   <dimension ref="A1:U177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="F123" workbookViewId="0">
+      <selection activeCell="V127" sqref="V127:V134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8296,8 +8296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6178C93-059C-4ADD-938C-3C6041CF7B3F}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11671,8 +11671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081E507C-59B2-4EC4-AB82-04B6B2007F9C}">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView topLeftCell="F118" workbookViewId="0">
+      <selection activeCell="U133" sqref="U133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19284,8 +19284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B7B268-6DE3-4855-B549-938DBD4DC579}">
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129:O138"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
